--- a/10_SRS/SRS_OpenLibrary.xlsx
+++ b/10_SRS/SRS_OpenLibrary.xlsx
@@ -15,14 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="185">
   <si>
     <t>■Chi tiết</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>■Mô tả</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -49,49 +49,22 @@
       </rPr>
       <t>ời dùng có thể tự tạo sách tiếng Nhật</t>
     </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>&amp; chia xẻ với các ng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ời dùng khác.</t>
-    </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t xml:space="preserve">Listup sách đã tạo </t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>(hoặc Hiển thị ban đầu)</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Trang chủ</t>
   </si>
   <si>
     <t>Trang chủ</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -118,7 +91,7 @@
       </rPr>
       <t>ớng dẫn</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -145,28 +118,28 @@
       </rPr>
       <t xml:space="preserve"> viện tài liệu</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Bàn học</t>
   </si>
   <si>
     <t>Bàn học</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Giới thiệu</t>
   </si>
   <si>
     <t>Giới thiệu</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Liên hệ</t>
   </si>
   <si>
     <t>Liên hệ</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -193,7 +166,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -220,11 +193,11 @@
       </rPr>
       <t>ớc khi sửa＞</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>＜Sau khi sửa＞</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Hướng dẫn</t>
@@ -250,27 +223,27 @@
   </si>
   <si>
     <t>Tên chức năng</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Mô tả giao diện</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Thêm 「Thư viện mở」 vào Menu bar (refer bên trái)</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t xml:space="preserve">Khi nhấn vào link thì sẽ di chuyển đến màn hình </t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>chính của chức năng này.</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>※Tham khảo [Listup sách đã tạo]</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -296,27 +269,27 @@
       </rPr>
       <t xml:space="preserve"> ← Click here</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Tên sách</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>◆Từ vựng</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Hành động</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>N4-5 vocabulary</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -343,35 +316,35 @@
       </rPr>
       <t>ợng thanh</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>◆Kanji</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>N4_SakuraTT</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>N4_DongDu</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Tên sách</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Hành động</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>※Chỉ người tạo + đối tượng được share mới thấy được</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -398,19 +371,19 @@
       </rPr>
       <t xml:space="preserve"> viện tài liêu」</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>◆Sửa DB</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Nội dung xử lý</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>◆Xử lý trên Webpage</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -437,7 +410,7 @@
       </rPr>
       <t>ợng share.</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -464,7 +437,7 @@
       </rPr>
       <t>ời tạo sách.</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -493,7 +466,7 @@
       </rPr>
       <t>ời tạo share cho.</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -545,43 +518,43 @@
       </rPr>
       <t>ợng share mới thấy sách,</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>【Hiển thị ban đầu】</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t xml:space="preserve">   ・Hiển thị link 「Tạo sách mới」</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t xml:space="preserve">   ・Hiển thị list các sách đã tạo, có phân loại.</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>【link 「Tạo sách mới」】</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t xml:space="preserve">   ・Di chuyển sang màn hình tạo mới sách.</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Sửa</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Xóa</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Chia xẻ</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>【Hành động 「Sửa」】</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -608,51 +581,39 @@
       </rPr>
       <t>ng ứng.</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>【Hành động 「Xóa」】</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t xml:space="preserve">   ・Xóa sách trong Book TBL.</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t xml:space="preserve">   ・Reload lai màn hình hiện tại.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【Hành động 「Chia xẻ」】</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   ・Di chuyển sang màn hình Chia xẻ với bạn bè.</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Danh sách các tài liệu bạn đã tạo</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Tạo mới sách</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>1. Listup sách đã tạo.</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>2. Tạo mới sách.</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>3. Chỉnh sửa sách.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>4. Chia xẻ với bạn bè</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -679,11 +640,11 @@
       </rPr>
       <t xml:space="preserve"> viện mở」</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Tạo link di chuyển Menu</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -710,7 +671,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở」</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -737,7 +698,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở].</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -764,7 +725,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở」</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -791,126 +752,126 @@
       </rPr>
       <t xml:space="preserve"> viện mở].</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>◆Hiển thị trên PC</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>◆jHiển thị trên SmartPhone</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>◆Màn hình tạo sách mới</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>◆Màn hình tạo nội dung cho sách</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Mô tả sách</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Cấp độ</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Phân loại</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Tag</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Phân loại(*)</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Cấp độ(*)</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Tên sách(*)</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Từ vựng</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>N1</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t xml:space="preserve">Chỉ cần học kanji trong </t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>24h</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>◆Sách</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>◆Nội dung</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Bài 1</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Chỉ cần học Kanji trong 24h</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Danh sách</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Ý nghĩa</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>うっかり</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>がっかり</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>24h_Word</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>{'level': 'N1', 'tag' : {'contains':',24h_Word,'}}</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Thất vọng, làm thất vọng</t>
   </si>
   <si>
     <t>Cách đọc:</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Ý nghĩa:</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Audio:</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Sample</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -937,11 +898,11 @@
       </rPr>
       <t>ng vẫn</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>がっかりしている。:</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>よく練習したのに、選手に選択されなかた為、</t>
@@ -954,7 +915,7 @@
     <rPh sb="12" eb="14">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -981,39 +942,39 @@
       </rPr>
       <t>ợc chọn nên thất vọng.</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>【Hiển thị ban đầu】</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>All fields blank</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>[Tag] field sẽ tự động sinh ra, không cho phép input</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>24h_Word</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>{'level': 'N1', 'tag' : {'contains':',24h_Word,'}}</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>【button 「Tiếp tục」】</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>mà sẽ di chuyển sang màn hình tạo nội dung cho sách</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>【button 「Quay về」】</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1040,7 +1001,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở)</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1064,7 +1025,7 @@
       </rPr>
       <t>※Tham khảo 「Tạo sách mới」</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1091,15 +1052,15 @@
       </rPr>
       <t>ớc</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>・Vùng nội dung: All field blank</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>【button 「Thêm」】</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1126,7 +1087,7 @@
       </rPr>
       <t>ớc đó.</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1153,23 +1114,23 @@
       </rPr>
       <t>a đăng ký vao Book TBL ngay,</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Quay trở về màn hình listup sách đã tạo</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>【Link 「Tìm」】</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Tìm kiếm audio từ DB hiện có.</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>【Link 「Tạo」】</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1196,11 +1157,11 @@
       </rPr>
       <t>ời dùng tự</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>phát âm và record + upload.</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1227,11 +1188,11 @@
       </rPr>
       <t>ời dùng Upload.</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>【Link 「Lưu」】</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1258,7 +1219,7 @@
       </rPr>
       <t>u dữ liệu đã input tạm thời</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1285,23 +1246,23 @@
       </rPr>
       <t>u tạm thời</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>【Link 「Xóa」】</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>【Link 「Nhập lại」】</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Reset lại nội dung đã nhập</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>【button 「Đăng ký」】</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1317,15 +1278,15 @@
       </rPr>
       <t>ưa nội dung Sách và Từ đã input lên cơ sở dữ liệu.</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>【button 「Hủy bỏ」】</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Cancel việc đăng ký, quay trở về màn hình chính</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1352,7 +1313,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở.</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1381,11 +1342,11 @@
       </rPr>
       <t xml:space="preserve">ng tự, chỉ </t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>khác nhau ở phần hiển thị input ở [Ý nghĩa]</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Chỉnh sửa sách.</t>
@@ -1412,11 +1373,11 @@
       </rPr>
       <t>※Tham khảo 「Chỉnh sửa sách」</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>◆Màn hình chỉnh sửa sách</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1443,7 +1404,7 @@
       </rPr>
       <t>ợc hiển thị</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1470,42 +1431,39 @@
       </rPr>
       <t>u thay đổi không/cancel)</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Di chuyển sang màn hình chỉnh sửa nội dung sách</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>◆Màn hình chỉnh sửa nội dung cho sách</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Cho phép nhập từ ở dòng mới.</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>・Vùng nội dung: Hiển thị thông tin từ DB</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>【button 「Sửa」】</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Enable sửa ở line đang có focus.</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>【button 「Sửa DB」】</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Đăng ký lại Sách và Từ đã input lên cơ sở dữ liệu.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Chia xẻ với bạn bè</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1524,43 +1482,43 @@
       </rPr>
       <t>24h_Word</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Nino49a</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Tugigroup</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>YYY</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Nino49a</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Thanhnv</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>XXX</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>TuyenTuyen</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>All account</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Share account</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1587,35 +1545,11 @@
       </rPr>
       <t>ợc sách.</t>
     </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>※Tham khảo 「Chia xẻ với bạn bè」</t>
-    </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>・Tên sách hiển thị</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1642,36 +1576,183 @@
       </rPr>
       <t>ời dùng hiển thị</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>・Share account: Blank</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>【Thao tác】</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>All account: Chọn Account muốn share &amp; click [&gt;&gt;]</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Share Account: Chọn Account muốn cắt share &amp; click [&lt;&lt;]</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>【button 「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chia sẻ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」】</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>Share account's account sẽ đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc đăng ký vào 「PublicTo」</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>trong Book TBL.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>【button 「Hủy bỏ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」】</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Hủy bỏ share book và quay về màn hình chính.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>※Share account mà ≠ blank thì sách đang đ</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc share cho</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>cá</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c account có sẵn đó</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&amp; Chia sẻ với các người dùng khác.</t>
+  </si>
+  <si>
+    <t>4. Chia sẻ với bạn bè</t>
+  </si>
+  <si>
+    <t>【Hành động 「Chia sẻ」】</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ・Di chuyển sang màn hình Chia sẻ với bạn bè.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ※Tham khảo 「Chia sẻ với bạn bè」</t>
+  </si>
+  <si>
+    <t>Chia sẻ với bạn bè</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2064,12 +2145,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2097,25 +2178,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
@@ -2127,10 +2208,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
@@ -2142,34 +2223,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2181,20 +2262,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2241,13 +2313,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
@@ -2265,7 +2337,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
@@ -2277,67 +2349,79 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7021,6 +7105,220 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Flowchart: Magnetic Disk 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="48101250" y="14878050"/>
+          <a:ext cx="876300" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>User</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>109</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Flowchart: Magnetic Disk 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="49510950" y="14897100"/>
+          <a:ext cx="876300" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Book</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Straight Arrow Connector 85"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="48539400" y="14373225"/>
+          <a:ext cx="0" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Straight Arrow Connector 86"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="49930050" y="14382750"/>
+          <a:ext cx="0" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7309,7 +7607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN203"/>
+  <dimension ref="A1:AN208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -7325,7 +7623,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7335,42 +7633,42 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:40">
@@ -7380,7 +7678,7 @@
     </row>
     <row r="32" spans="1:40" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="B32" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -7388,7 +7686,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
@@ -7409,7 +7707,7 @@
       <c r="Y32" s="13"/>
       <c r="Z32" s="14"/>
       <c r="AA32" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB32" s="13"/>
       <c r="AC32" s="13"/>
@@ -7430,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -7438,7 +7736,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="5"/>
       <c r="H33" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -7459,7 +7757,7 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="5"/>
       <c r="AA33" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
@@ -7477,7 +7775,7 @@
     </row>
     <row r="34" spans="1:40">
       <c r="B34" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -7486,7 +7784,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="6"/>
       <c r="I34" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -7506,7 +7804,7 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
@@ -7549,7 +7847,7 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="5"/>
       <c r="AA35" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
@@ -7592,7 +7890,7 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB36" s="20"/>
       <c r="AC36" s="20"/>
@@ -7658,7 +7956,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="6"/>
       <c r="I38" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -7782,7 +8080,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="5"/>
       <c r="H41" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -7826,7 +8124,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="6"/>
       <c r="I42" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -7837,7 +8135,7 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
@@ -8318,7 +8616,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -8345,7 +8643,7 @@
       <c r="Y54" s="4"/>
       <c r="Z54" s="5"/>
       <c r="AA54" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
@@ -8363,7 +8661,7 @@
     </row>
     <row r="55" spans="1:40">
       <c r="B55" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -8390,7 +8688,7 @@
       <c r="Y55" s="4"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
@@ -8472,7 +8770,7 @@
       <c r="Y57" s="4"/>
       <c r="Z57" s="5"/>
       <c r="AA57" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
@@ -8515,7 +8813,7 @@
       <c r="Y58" s="4"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
@@ -8558,7 +8856,7 @@
       <c r="Y59" s="4"/>
       <c r="Z59" s="5"/>
       <c r="AA59" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
@@ -8601,7 +8899,7 @@
       <c r="Y60" s="4"/>
       <c r="Z60" s="5"/>
       <c r="AA60" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
@@ -8643,7 +8941,7 @@
       <c r="Y61" s="4"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
@@ -8932,7 +9230,7 @@
       <c r="Y68" s="4"/>
       <c r="Z68" s="5"/>
       <c r="AA68" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
@@ -8975,7 +9273,7 @@
       <c r="Y69" s="4"/>
       <c r="Z69" s="5"/>
       <c r="AA69" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
@@ -9018,7 +9316,7 @@
       <c r="Y70" s="4"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
@@ -9061,7 +9359,7 @@
       <c r="Y71" s="4"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
@@ -9145,7 +9443,7 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="5"/>
       <c r="AA73" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
@@ -9188,7 +9486,7 @@
       <c r="Y74" s="4"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
@@ -9231,7 +9529,7 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="5"/>
       <c r="AA75" s="19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AB75" s="20"/>
       <c r="AC75" s="20"/>
@@ -9315,7 +9613,7 @@
       <c r="Y77" s="4"/>
       <c r="Z77" s="5"/>
       <c r="AA77" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
@@ -9358,7 +9656,7 @@
       <c r="Y78" s="4"/>
       <c r="Z78" s="5"/>
       <c r="AA78" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
@@ -9401,7 +9699,7 @@
       <c r="Y79" s="4"/>
       <c r="Z79" s="5"/>
       <c r="AA79" s="19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AB79" s="20"/>
       <c r="AC79" s="20"/>
@@ -9485,7 +9783,7 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="5"/>
       <c r="AA81" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
@@ -9528,7 +9826,7 @@
       <c r="Y82" s="4"/>
       <c r="Z82" s="5"/>
       <c r="AA82" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
@@ -9571,7 +9869,7 @@
       <c r="Y83" s="4"/>
       <c r="Z83" s="5"/>
       <c r="AA83" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
@@ -9655,7 +9953,7 @@
       <c r="Y85" s="4"/>
       <c r="Z85" s="5"/>
       <c r="AA85" s="32" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
@@ -9698,7 +9996,7 @@
       <c r="Y86" s="4"/>
       <c r="Z86" s="5"/>
       <c r="AA86" s="6" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="AB86" s="4"/>
       <c r="AC86" s="4"/>
@@ -9741,7 +10039,7 @@
       <c r="Y87" s="4"/>
       <c r="Z87" s="5"/>
       <c r="AA87" s="19" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AB87" s="20"/>
       <c r="AC87" s="20"/>
@@ -9803,7 +10101,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C89" s="22"/>
       <c r="D89" s="22"/>
@@ -9811,7 +10109,7 @@
       <c r="F89" s="22"/>
       <c r="G89" s="29"/>
       <c r="H89" s="21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I89" s="22"/>
       <c r="J89" s="22"/>
@@ -9832,7 +10130,7 @@
       <c r="Y89" s="22"/>
       <c r="Z89" s="29"/>
       <c r="AA89" s="21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AB89" s="22"/>
       <c r="AC89" s="22"/>
@@ -9874,8 +10172,8 @@
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
       <c r="Z90" s="5"/>
-      <c r="AA90" s="83" t="s">
-        <v>111</v>
+      <c r="AA90" s="80" t="s">
+        <v>107</v>
       </c>
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
@@ -9919,7 +10217,7 @@
       <c r="Z91" s="5"/>
       <c r="AA91" s="6"/>
       <c r="AB91" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AC91" s="4"/>
       <c r="AD91" s="4"/>
@@ -9960,9 +10258,9 @@
       <c r="X92" s="4"/>
       <c r="Y92" s="4"/>
       <c r="Z92" s="5"/>
-      <c r="AA92" s="83"/>
-      <c r="AB92" s="84" t="s">
-        <v>113</v>
+      <c r="AA92" s="80"/>
+      <c r="AB92" s="81" t="s">
+        <v>109</v>
       </c>
       <c r="AC92" s="4"/>
       <c r="AD92" s="4"/>
@@ -10003,8 +10301,8 @@
       <c r="X93" s="4"/>
       <c r="Y93" s="4"/>
       <c r="Z93" s="5"/>
-      <c r="AA93" s="83" t="s">
-        <v>118</v>
+      <c r="AA93" s="80" t="s">
+        <v>114</v>
       </c>
       <c r="AB93" s="4"/>
       <c r="AC93" s="4"/>
@@ -10046,9 +10344,9 @@
       <c r="X94" s="4"/>
       <c r="Y94" s="4"/>
       <c r="Z94" s="5"/>
-      <c r="AA94" s="83"/>
+      <c r="AA94" s="80"/>
       <c r="AB94" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AC94" s="4"/>
       <c r="AD94" s="4"/>
@@ -10091,7 +10389,7 @@
       <c r="Z95" s="5"/>
       <c r="AA95" s="6"/>
       <c r="AB95" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AC95" s="4"/>
       <c r="AD95" s="4"/>
@@ -10132,8 +10430,8 @@
       <c r="X96" s="4"/>
       <c r="Y96" s="4"/>
       <c r="Z96" s="5"/>
-      <c r="AA96" s="83" t="s">
-        <v>116</v>
+      <c r="AA96" s="80" t="s">
+        <v>112</v>
       </c>
       <c r="AB96" s="4"/>
       <c r="AC96" s="4"/>
@@ -10175,9 +10473,9 @@
       <c r="X97" s="4"/>
       <c r="Y97" s="4"/>
       <c r="Z97" s="5"/>
-      <c r="AA97" s="83"/>
+      <c r="AA97" s="80"/>
       <c r="AB97" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AC97" s="4"/>
       <c r="AD97" s="4"/>
@@ -10218,9 +10516,9 @@
       <c r="X98" s="4"/>
       <c r="Y98" s="4"/>
       <c r="Z98" s="5"/>
-      <c r="AA98" s="83"/>
+      <c r="AA98" s="80"/>
       <c r="AB98" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AC98" s="4"/>
       <c r="AD98" s="4"/>
@@ -10261,7 +10559,7 @@
       <c r="X99" s="4"/>
       <c r="Y99" s="4"/>
       <c r="Z99" s="5"/>
-      <c r="AA99" s="83"/>
+      <c r="AA99" s="80"/>
       <c r="AB99" s="4"/>
       <c r="AC99" s="4"/>
       <c r="AD99" s="4"/>
@@ -10284,7 +10582,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="5"/>
       <c r="H100" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
@@ -10305,7 +10603,7 @@
       <c r="Y100" s="4"/>
       <c r="Z100" s="5"/>
       <c r="AA100" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AC100" s="4"/>
       <c r="AD100" s="4"/>
@@ -10346,8 +10644,8 @@
       <c r="X101" s="4"/>
       <c r="Y101" s="4"/>
       <c r="Z101" s="5"/>
-      <c r="AA101" s="83" t="s">
-        <v>111</v>
+      <c r="AA101" s="80" t="s">
+        <v>107</v>
       </c>
       <c r="AB101" s="4"/>
       <c r="AC101" s="4"/>
@@ -10391,7 +10689,7 @@
       <c r="Z102" s="5"/>
       <c r="AA102" s="6"/>
       <c r="AB102" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AC102" s="4"/>
       <c r="AD102" s="4"/>
@@ -10434,7 +10732,7 @@
       <c r="Z103" s="5"/>
       <c r="AA103" s="6"/>
       <c r="AB103" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AC103" s="4"/>
       <c r="AD103" s="4"/>
@@ -10475,8 +10773,8 @@
       <c r="X104" s="4"/>
       <c r="Y104" s="4"/>
       <c r="Z104" s="5"/>
-      <c r="AA104" s="83" t="s">
-        <v>118</v>
+      <c r="AA104" s="80" t="s">
+        <v>114</v>
       </c>
       <c r="AB104" s="4"/>
       <c r="AC104" s="4"/>
@@ -10520,7 +10818,7 @@
       <c r="Z105" s="5"/>
       <c r="AA105" s="6"/>
       <c r="AB105" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC105" s="4"/>
       <c r="AD105" s="4"/>
@@ -10561,8 +10859,8 @@
       <c r="X106" s="4"/>
       <c r="Y106" s="4"/>
       <c r="Z106" s="5"/>
-      <c r="AA106" s="83" t="s">
-        <v>127</v>
+      <c r="AA106" s="80" t="s">
+        <v>123</v>
       </c>
       <c r="AB106" s="4"/>
       <c r="AC106" s="4"/>
@@ -10606,7 +10904,7 @@
       <c r="Z107" s="5"/>
       <c r="AA107" s="6"/>
       <c r="AB107" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AC107" s="4"/>
       <c r="AD107" s="4"/>
@@ -10647,8 +10945,8 @@
       <c r="X108" s="4"/>
       <c r="Y108" s="4"/>
       <c r="Z108" s="5"/>
-      <c r="AA108" s="83" t="s">
-        <v>129</v>
+      <c r="AA108" s="80" t="s">
+        <v>125</v>
       </c>
       <c r="AB108" s="4"/>
       <c r="AC108" s="4"/>
@@ -10692,7 +10990,7 @@
       <c r="Z109" s="5"/>
       <c r="AA109" s="6"/>
       <c r="AB109" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AC109" s="4"/>
       <c r="AD109" s="4"/>
@@ -10735,7 +11033,7 @@
       <c r="Z110" s="5"/>
       <c r="AA110" s="6"/>
       <c r="AB110" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AC110" s="4"/>
       <c r="AD110" s="4"/>
@@ -10779,7 +11077,7 @@
       <c r="AA111" s="6"/>
       <c r="AB111" s="4"/>
       <c r="AC111" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AD111" s="4"/>
       <c r="AE111" s="4"/>
@@ -10982,8 +11280,8 @@
       <c r="X116" s="4"/>
       <c r="Y116" s="4"/>
       <c r="Z116" s="5"/>
-      <c r="AA116" s="83" t="s">
-        <v>133</v>
+      <c r="AA116" s="80" t="s">
+        <v>129</v>
       </c>
       <c r="AB116" s="4"/>
       <c r="AC116" s="4"/>
@@ -11027,7 +11325,7 @@
       <c r="Z117" s="5"/>
       <c r="AA117" s="6"/>
       <c r="AB117" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AC117" s="4"/>
       <c r="AD117" s="4"/>
@@ -11068,8 +11366,8 @@
       <c r="X118" s="4"/>
       <c r="Y118" s="4"/>
       <c r="Z118" s="5"/>
-      <c r="AA118" s="83" t="s">
-        <v>136</v>
+      <c r="AA118" s="80" t="s">
+        <v>132</v>
       </c>
       <c r="AB118" s="4"/>
       <c r="AC118" s="4"/>
@@ -11113,7 +11411,7 @@
       <c r="Z119" s="5"/>
       <c r="AA119" s="6"/>
       <c r="AB119" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AC119" s="4"/>
       <c r="AD119" s="4"/>
@@ -11154,8 +11452,8 @@
       <c r="X120" s="4"/>
       <c r="Y120" s="4"/>
       <c r="Z120" s="5"/>
-      <c r="AA120" s="83" t="s">
-        <v>137</v>
+      <c r="AA120" s="80" t="s">
+        <v>133</v>
       </c>
       <c r="AB120" s="4"/>
       <c r="AC120" s="4"/>
@@ -11199,7 +11497,7 @@
       <c r="Z121" s="5"/>
       <c r="AA121" s="6"/>
       <c r="AB121" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AC121" s="4"/>
       <c r="AD121" s="4"/>
@@ -11240,8 +11538,8 @@
       <c r="X122" s="4"/>
       <c r="Y122" s="4"/>
       <c r="Z122" s="5"/>
-      <c r="AA122" s="83" t="s">
-        <v>123</v>
+      <c r="AA122" s="80" t="s">
+        <v>119</v>
       </c>
       <c r="AB122" s="4"/>
       <c r="AC122" s="4"/>
@@ -11284,8 +11582,8 @@
       <c r="Y123" s="4"/>
       <c r="Z123" s="5"/>
       <c r="AA123" s="6"/>
-      <c r="AB123" s="84" t="s">
-        <v>153</v>
+      <c r="AB123" s="81" t="s">
+        <v>149</v>
       </c>
       <c r="AC123" s="4"/>
       <c r="AD123" s="4"/>
@@ -11326,8 +11624,8 @@
       <c r="X124" s="4"/>
       <c r="Y124" s="4"/>
       <c r="Z124" s="5"/>
-      <c r="AA124" s="83" t="s">
-        <v>139</v>
+      <c r="AA124" s="80" t="s">
+        <v>135</v>
       </c>
       <c r="AB124" s="4"/>
       <c r="AC124" s="4"/>
@@ -11371,7 +11669,7 @@
       <c r="Z125" s="5"/>
       <c r="AA125" s="6"/>
       <c r="AB125" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AC125" s="4"/>
       <c r="AD125" s="4"/>
@@ -11412,8 +11710,8 @@
       <c r="X126" s="4"/>
       <c r="Y126" s="4"/>
       <c r="Z126" s="5"/>
-      <c r="AA126" s="83" t="s">
-        <v>141</v>
+      <c r="AA126" s="80" t="s">
+        <v>137</v>
       </c>
       <c r="AB126" s="4"/>
       <c r="AC126" s="4"/>
@@ -11457,7 +11755,7 @@
       <c r="Z127" s="5"/>
       <c r="AA127" s="6"/>
       <c r="AB127" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AC127" s="4"/>
       <c r="AD127" s="4"/>
@@ -11500,7 +11798,7 @@
       <c r="Z128" s="5"/>
       <c r="AA128" s="6"/>
       <c r="AB128" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AC128" s="4"/>
       <c r="AD128" s="4"/>
@@ -11582,8 +11880,8 @@
       <c r="X130" s="4"/>
       <c r="Y130" s="4"/>
       <c r="Z130" s="5"/>
-      <c r="AA130" s="59" t="s">
-        <v>144</v>
+      <c r="AA130" s="56" t="s">
+        <v>140</v>
       </c>
       <c r="AB130" s="4"/>
       <c r="AC130" s="4"/>
@@ -11625,8 +11923,8 @@
       <c r="X131" s="4"/>
       <c r="Y131" s="4"/>
       <c r="Z131" s="5"/>
-      <c r="AA131" s="85" t="s">
-        <v>145</v>
+      <c r="AA131" s="82" t="s">
+        <v>141</v>
       </c>
       <c r="AB131" s="4"/>
       <c r="AC131" s="4"/>
@@ -11668,7 +11966,7 @@
       <c r="X132" s="4"/>
       <c r="Y132" s="4"/>
       <c r="Z132" s="5"/>
-      <c r="AA132" s="85"/>
+      <c r="AA132" s="82"/>
       <c r="AB132" s="4"/>
       <c r="AC132" s="4"/>
       <c r="AD132" s="4"/>
@@ -11709,7 +12007,7 @@
       <c r="X133" s="4"/>
       <c r="Y133" s="4"/>
       <c r="Z133" s="5"/>
-      <c r="AA133" s="85"/>
+      <c r="AA133" s="82"/>
       <c r="AB133" s="4"/>
       <c r="AC133" s="4"/>
       <c r="AD133" s="4"/>
@@ -11770,7 +12068,7 @@
         <v>3</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C135" s="22"/>
       <c r="D135" s="22"/>
@@ -11778,7 +12076,7 @@
       <c r="F135" s="22"/>
       <c r="G135" s="29"/>
       <c r="H135" s="21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I135" s="22"/>
       <c r="J135" s="22"/>
@@ -11799,7 +12097,7 @@
       <c r="Y135" s="22"/>
       <c r="Z135" s="29"/>
       <c r="AA135" s="21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AB135" s="22"/>
       <c r="AC135" s="22"/>
@@ -11841,8 +12139,8 @@
       <c r="X136" s="4"/>
       <c r="Y136" s="4"/>
       <c r="Z136" s="5"/>
-      <c r="AA136" s="83" t="s">
-        <v>111</v>
+      <c r="AA136" s="80" t="s">
+        <v>107</v>
       </c>
       <c r="AB136" s="4"/>
       <c r="AC136" s="4"/>
@@ -11886,7 +12184,7 @@
       <c r="Z137" s="5"/>
       <c r="AA137" s="6"/>
       <c r="AB137" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AC137" s="4"/>
       <c r="AD137" s="4"/>
@@ -11927,8 +12225,8 @@
       <c r="X138" s="4"/>
       <c r="Y138" s="4"/>
       <c r="Z138" s="5"/>
-      <c r="AA138" s="83" t="s">
-        <v>118</v>
+      <c r="AA138" s="80" t="s">
+        <v>114</v>
       </c>
       <c r="AB138" s="4"/>
       <c r="AC138" s="4"/>
@@ -11970,9 +12268,9 @@
       <c r="X139" s="4"/>
       <c r="Y139" s="4"/>
       <c r="Z139" s="5"/>
-      <c r="AA139" s="83"/>
+      <c r="AA139" s="80"/>
       <c r="AB139" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AC139" s="4"/>
       <c r="AD139" s="4"/>
@@ -12015,7 +12313,7 @@
       <c r="Z140" s="5"/>
       <c r="AA140" s="6"/>
       <c r="AB140" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AC140" s="4"/>
       <c r="AD140" s="4"/>
@@ -12058,7 +12356,7 @@
       <c r="Z141" s="5"/>
       <c r="AA141" s="6"/>
       <c r="AB141" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AC141" s="4"/>
       <c r="AD141" s="4"/>
@@ -12099,8 +12397,8 @@
       <c r="X142" s="4"/>
       <c r="Y142" s="4"/>
       <c r="Z142" s="5"/>
-      <c r="AA142" s="83" t="s">
-        <v>116</v>
+      <c r="AA142" s="80" t="s">
+        <v>112</v>
       </c>
       <c r="AB142" s="4"/>
       <c r="AC142" s="4"/>
@@ -12142,9 +12440,9 @@
       <c r="X143" s="4"/>
       <c r="Y143" s="4"/>
       <c r="Z143" s="5"/>
-      <c r="AA143" s="83"/>
+      <c r="AA143" s="80"/>
       <c r="AB143" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AC143" s="4"/>
       <c r="AD143" s="4"/>
@@ -12185,7 +12483,7 @@
       <c r="X144" s="4"/>
       <c r="Y144" s="4"/>
       <c r="Z144" s="5"/>
-      <c r="AA144" s="83"/>
+      <c r="AA144" s="80"/>
       <c r="AB144" s="4"/>
       <c r="AC144" s="4"/>
       <c r="AD144" s="4"/>
@@ -12372,7 +12670,7 @@
       <c r="F149" s="4"/>
       <c r="G149" s="5"/>
       <c r="H149" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
@@ -12393,7 +12691,7 @@
       <c r="Y149" s="4"/>
       <c r="Z149" s="5"/>
       <c r="AA149" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AB149" s="4"/>
       <c r="AC149" s="4"/>
@@ -12435,8 +12733,8 @@
       <c r="X150" s="4"/>
       <c r="Y150" s="4"/>
       <c r="Z150" s="5"/>
-      <c r="AA150" s="83" t="s">
-        <v>111</v>
+      <c r="AA150" s="80" t="s">
+        <v>107</v>
       </c>
       <c r="AB150" s="4"/>
       <c r="AC150" s="4"/>
@@ -12480,7 +12778,7 @@
       <c r="Z151" s="5"/>
       <c r="AA151" s="6"/>
       <c r="AB151" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AC151" s="4"/>
       <c r="AD151" s="4"/>
@@ -12523,7 +12821,7 @@
       <c r="Z152" s="5"/>
       <c r="AA152" s="6"/>
       <c r="AB152" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AC152" s="4"/>
       <c r="AD152" s="4"/>
@@ -12564,8 +12862,8 @@
       <c r="X153" s="4"/>
       <c r="Y153" s="4"/>
       <c r="Z153" s="5"/>
-      <c r="AA153" s="83" t="s">
-        <v>118</v>
+      <c r="AA153" s="80" t="s">
+        <v>114</v>
       </c>
       <c r="AB153" s="4"/>
       <c r="AC153" s="4"/>
@@ -12607,9 +12905,9 @@
       <c r="X154" s="4"/>
       <c r="Y154" s="4"/>
       <c r="Z154" s="5"/>
-      <c r="AA154" s="83"/>
+      <c r="AA154" s="80"/>
       <c r="AB154" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AC154" s="4"/>
       <c r="AD154" s="4"/>
@@ -12652,7 +12950,7 @@
       <c r="Z155" s="5"/>
       <c r="AA155" s="6"/>
       <c r="AB155" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AC155" s="4"/>
       <c r="AD155" s="4"/>
@@ -12693,8 +12991,8 @@
       <c r="X156" s="4"/>
       <c r="Y156" s="4"/>
       <c r="Z156" s="5"/>
-      <c r="AA156" s="83" t="s">
-        <v>127</v>
+      <c r="AA156" s="80" t="s">
+        <v>123</v>
       </c>
       <c r="AB156" s="4"/>
       <c r="AC156" s="4"/>
@@ -12738,7 +13036,7 @@
       <c r="Z157" s="5"/>
       <c r="AA157" s="6"/>
       <c r="AB157" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AC157" s="4"/>
       <c r="AD157" s="4"/>
@@ -12779,8 +13077,8 @@
       <c r="X158" s="4"/>
       <c r="Y158" s="4"/>
       <c r="Z158" s="5"/>
-      <c r="AA158" s="83" t="s">
-        <v>129</v>
+      <c r="AA158" s="80" t="s">
+        <v>125</v>
       </c>
       <c r="AB158" s="4"/>
       <c r="AC158" s="4"/>
@@ -12824,7 +13122,7 @@
       <c r="Z159" s="5"/>
       <c r="AA159" s="6"/>
       <c r="AB159" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AC159" s="4"/>
       <c r="AD159" s="4"/>
@@ -12867,7 +13165,7 @@
       <c r="Z160" s="5"/>
       <c r="AA160" s="6"/>
       <c r="AB160" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AC160" s="4"/>
       <c r="AD160" s="4"/>
@@ -12911,7 +13209,7 @@
       <c r="AA161" s="6"/>
       <c r="AB161" s="4"/>
       <c r="AC161" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AD161" s="4"/>
       <c r="AE161" s="4"/>
@@ -13115,8 +13413,8 @@
       <c r="X166" s="4"/>
       <c r="Y166" s="4"/>
       <c r="Z166" s="5"/>
-      <c r="AA166" s="83" t="s">
-        <v>136</v>
+      <c r="AA166" s="80" t="s">
+        <v>132</v>
       </c>
       <c r="AB166" s="4"/>
       <c r="AC166" s="4"/>
@@ -13160,7 +13458,7 @@
       <c r="Z167" s="5"/>
       <c r="AA167" s="6"/>
       <c r="AB167" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AC167" s="4"/>
       <c r="AD167" s="4"/>
@@ -13201,8 +13499,8 @@
       <c r="X168" s="4"/>
       <c r="Y168" s="4"/>
       <c r="Z168" s="5"/>
-      <c r="AA168" s="83" t="s">
-        <v>137</v>
+      <c r="AA168" s="80" t="s">
+        <v>133</v>
       </c>
       <c r="AB168" s="4"/>
       <c r="AC168" s="4"/>
@@ -13246,7 +13544,7 @@
       <c r="Z169" s="5"/>
       <c r="AA169" s="6"/>
       <c r="AB169" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AC169" s="4"/>
       <c r="AD169" s="4"/>
@@ -13287,8 +13585,8 @@
       <c r="X170" s="4"/>
       <c r="Y170" s="4"/>
       <c r="Z170" s="5"/>
-      <c r="AA170" s="83" t="s">
-        <v>123</v>
+      <c r="AA170" s="80" t="s">
+        <v>119</v>
       </c>
       <c r="AB170" s="4"/>
       <c r="AC170" s="4"/>
@@ -13331,8 +13629,8 @@
       <c r="Y171" s="4"/>
       <c r="Z171" s="5"/>
       <c r="AA171" s="6"/>
-      <c r="AB171" s="84" t="s">
-        <v>153</v>
+      <c r="AB171" s="81" t="s">
+        <v>149</v>
       </c>
       <c r="AC171" s="4"/>
       <c r="AD171" s="4"/>
@@ -13373,8 +13671,8 @@
       <c r="X172" s="4"/>
       <c r="Y172" s="4"/>
       <c r="Z172" s="5"/>
-      <c r="AA172" s="83" t="s">
-        <v>155</v>
+      <c r="AA172" s="80" t="s">
+        <v>151</v>
       </c>
       <c r="AB172" s="4"/>
       <c r="AC172" s="4"/>
@@ -13418,7 +13716,7 @@
       <c r="Z173" s="5"/>
       <c r="AA173" s="6"/>
       <c r="AB173" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AC173" s="4"/>
       <c r="AD173" s="4"/>
@@ -13459,8 +13757,8 @@
       <c r="X174" s="4"/>
       <c r="Y174" s="4"/>
       <c r="Z174" s="5"/>
-      <c r="AA174" s="83" t="s">
-        <v>157</v>
+      <c r="AA174" s="80" t="s">
+        <v>153</v>
       </c>
       <c r="AB174" s="4"/>
       <c r="AC174" s="4"/>
@@ -13503,8 +13801,8 @@
       <c r="Y175" s="4"/>
       <c r="Z175" s="5"/>
       <c r="AA175" s="6"/>
-      <c r="AB175" s="84" t="s">
-        <v>158</v>
+      <c r="AB175" s="81" t="s">
+        <v>154</v>
       </c>
       <c r="AC175" s="4"/>
       <c r="AD175" s="4"/>
@@ -13545,8 +13843,8 @@
       <c r="X176" s="4"/>
       <c r="Y176" s="4"/>
       <c r="Z176" s="5"/>
-      <c r="AA176" s="83" t="s">
-        <v>141</v>
+      <c r="AA176" s="80" t="s">
+        <v>137</v>
       </c>
       <c r="AB176" s="4"/>
       <c r="AC176" s="4"/>
@@ -13590,7 +13888,7 @@
       <c r="Z177" s="5"/>
       <c r="AA177" s="6"/>
       <c r="AB177" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AC177" s="4"/>
       <c r="AD177" s="4"/>
@@ -13633,7 +13931,7 @@
       <c r="Z178" s="5"/>
       <c r="AA178" s="6"/>
       <c r="AB178" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AC178" s="4"/>
       <c r="AD178" s="4"/>
@@ -13715,8 +14013,8 @@
       <c r="X180" s="4"/>
       <c r="Y180" s="4"/>
       <c r="Z180" s="5"/>
-      <c r="AA180" s="59" t="s">
-        <v>144</v>
+      <c r="AA180" s="56" t="s">
+        <v>140</v>
       </c>
       <c r="AB180" s="4"/>
       <c r="AC180" s="4"/>
@@ -13758,8 +14056,8 @@
       <c r="X181" s="4"/>
       <c r="Y181" s="4"/>
       <c r="Z181" s="5"/>
-      <c r="AA181" s="85" t="s">
-        <v>145</v>
+      <c r="AA181" s="82" t="s">
+        <v>141</v>
       </c>
       <c r="AB181" s="4"/>
       <c r="AC181" s="4"/>
@@ -13801,7 +14099,7 @@
       <c r="X182" s="4"/>
       <c r="Y182" s="4"/>
       <c r="Z182" s="5"/>
-      <c r="AA182" s="85"/>
+      <c r="AA182" s="82"/>
       <c r="AB182" s="4"/>
       <c r="AC182" s="4"/>
       <c r="AD182" s="4"/>
@@ -13821,7 +14119,7 @@
         <v>4</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="C183" s="22"/>
       <c r="D183" s="22"/>
@@ -13829,7 +14127,7 @@
       <c r="F183" s="22"/>
       <c r="G183" s="29"/>
       <c r="H183" s="21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I183" s="22"/>
       <c r="J183" s="22"/>
@@ -13850,7 +14148,7 @@
       <c r="Y183" s="22"/>
       <c r="Z183" s="29"/>
       <c r="AA183" s="21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AB183" s="22"/>
       <c r="AC183" s="22"/>
@@ -13892,8 +14190,8 @@
       <c r="X184" s="4"/>
       <c r="Y184" s="4"/>
       <c r="Z184" s="5"/>
-      <c r="AA184" s="83" t="s">
-        <v>111</v>
+      <c r="AA184" s="80" t="s">
+        <v>107</v>
       </c>
       <c r="AB184" s="4"/>
       <c r="AC184" s="4"/>
@@ -13935,9 +14233,9 @@
       <c r="X185" s="4"/>
       <c r="Y185" s="4"/>
       <c r="Z185" s="5"/>
-      <c r="AA185" s="89"/>
+      <c r="AA185" s="86"/>
       <c r="AB185" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AC185" s="4"/>
       <c r="AD185" s="4"/>
@@ -13978,9 +14276,9 @@
       <c r="X186" s="4"/>
       <c r="Y186" s="4"/>
       <c r="Z186" s="5"/>
-      <c r="AA186" s="85"/>
+      <c r="AA186" s="82"/>
       <c r="AB186" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AC186" s="4"/>
       <c r="AD186" s="4"/>
@@ -14021,9 +14319,9 @@
       <c r="X187" s="4"/>
       <c r="Y187" s="4"/>
       <c r="Z187" s="5"/>
-      <c r="AA187" s="85"/>
+      <c r="AA187" s="82"/>
       <c r="AB187" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AC187" s="4"/>
       <c r="AD187" s="4"/>
@@ -14064,7 +14362,9 @@
       <c r="X188" s="4"/>
       <c r="Y188" s="4"/>
       <c r="Z188" s="5"/>
-      <c r="AA188" s="85"/>
+      <c r="AA188" s="82" t="s">
+        <v>177</v>
+      </c>
       <c r="AB188" s="4"/>
       <c r="AC188" s="4"/>
       <c r="AD188" s="4"/>
@@ -14105,8 +14405,8 @@
       <c r="X189" s="4"/>
       <c r="Y189" s="4"/>
       <c r="Z189" s="5"/>
-      <c r="AA189" s="83" t="s">
-        <v>175</v>
+      <c r="AA189" s="90" t="s">
+        <v>178</v>
       </c>
       <c r="AB189" s="4"/>
       <c r="AC189" s="4"/>
@@ -14148,10 +14448,8 @@
       <c r="X190" s="4"/>
       <c r="Y190" s="4"/>
       <c r="Z190" s="5"/>
-      <c r="AA190" s="85"/>
-      <c r="AB190" s="4" t="s">
-        <v>176</v>
-      </c>
+      <c r="AA190" s="82"/>
+      <c r="AB190" s="4"/>
       <c r="AC190" s="4"/>
       <c r="AD190" s="4"/>
       <c r="AE190" s="4"/>
@@ -14191,10 +14489,10 @@
       <c r="X191" s="4"/>
       <c r="Y191" s="4"/>
       <c r="Z191" s="5"/>
-      <c r="AA191" s="85"/>
-      <c r="AB191" s="4" t="s">
-        <v>177</v>
-      </c>
+      <c r="AA191" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB191" s="4"/>
       <c r="AC191" s="4"/>
       <c r="AD191" s="4"/>
       <c r="AE191" s="4"/>
@@ -14234,8 +14532,10 @@
       <c r="X192" s="4"/>
       <c r="Y192" s="4"/>
       <c r="Z192" s="5"/>
-      <c r="AA192" s="85"/>
-      <c r="AB192" s="4"/>
+      <c r="AA192" s="82"/>
+      <c r="AB192" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="AC192" s="4"/>
       <c r="AD192" s="4"/>
       <c r="AE192" s="4"/>
@@ -14275,8 +14575,10 @@
       <c r="X193" s="4"/>
       <c r="Y193" s="4"/>
       <c r="Z193" s="5"/>
-      <c r="AA193" s="85"/>
-      <c r="AB193" s="4"/>
+      <c r="AA193" s="82"/>
+      <c r="AB193" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="AC193" s="4"/>
       <c r="AD193" s="4"/>
       <c r="AE193" s="4"/>
@@ -14316,7 +14618,7 @@
       <c r="X194" s="4"/>
       <c r="Y194" s="4"/>
       <c r="Z194" s="5"/>
-      <c r="AA194" s="85"/>
+      <c r="AA194" s="82"/>
       <c r="AB194" s="4"/>
       <c r="AC194" s="4"/>
       <c r="AD194" s="4"/>
@@ -14357,7 +14659,9 @@
       <c r="X195" s="4"/>
       <c r="Y195" s="4"/>
       <c r="Z195" s="5"/>
-      <c r="AA195" s="85"/>
+      <c r="AA195" s="90" t="s">
+        <v>172</v>
+      </c>
       <c r="AB195" s="4"/>
       <c r="AC195" s="4"/>
       <c r="AD195" s="4"/>
@@ -14398,8 +14702,10 @@
       <c r="X196" s="4"/>
       <c r="Y196" s="4"/>
       <c r="Z196" s="5"/>
-      <c r="AA196" s="85"/>
-      <c r="AB196" s="4"/>
+      <c r="AA196" s="82"/>
+      <c r="AB196" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="AC196" s="4"/>
       <c r="AD196" s="4"/>
       <c r="AE196" s="4"/>
@@ -14439,8 +14745,10 @@
       <c r="X197" s="4"/>
       <c r="Y197" s="4"/>
       <c r="Z197" s="5"/>
-      <c r="AA197" s="85"/>
-      <c r="AB197" s="4"/>
+      <c r="AA197" s="82"/>
+      <c r="AB197" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="AC197" s="4"/>
       <c r="AD197" s="4"/>
       <c r="AE197" s="4"/>
@@ -14480,7 +14788,7 @@
       <c r="X198" s="4"/>
       <c r="Y198" s="4"/>
       <c r="Z198" s="5"/>
-      <c r="AA198" s="85"/>
+      <c r="AA198" s="82"/>
       <c r="AB198" s="4"/>
       <c r="AC198" s="4"/>
       <c r="AD198" s="4"/>
@@ -14521,7 +14829,9 @@
       <c r="X199" s="4"/>
       <c r="Y199" s="4"/>
       <c r="Z199" s="5"/>
-      <c r="AA199" s="85"/>
+      <c r="AA199" s="90" t="s">
+        <v>175</v>
+      </c>
       <c r="AB199" s="4"/>
       <c r="AC199" s="4"/>
       <c r="AD199" s="4"/>
@@ -14562,8 +14872,10 @@
       <c r="X200" s="4"/>
       <c r="Y200" s="4"/>
       <c r="Z200" s="5"/>
-      <c r="AA200" s="85"/>
-      <c r="AB200" s="4"/>
+      <c r="AA200" s="82"/>
+      <c r="AB200" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="AC200" s="4"/>
       <c r="AD200" s="4"/>
       <c r="AE200" s="4"/>
@@ -14603,7 +14915,7 @@
       <c r="X201" s="4"/>
       <c r="Y201" s="4"/>
       <c r="Z201" s="5"/>
-      <c r="AA201" s="85"/>
+      <c r="AA201" s="82"/>
       <c r="AB201" s="4"/>
       <c r="AC201" s="4"/>
       <c r="AD201" s="4"/>
@@ -14644,7 +14956,7 @@
       <c r="X202" s="4"/>
       <c r="Y202" s="4"/>
       <c r="Z202" s="5"/>
-      <c r="AA202" s="85"/>
+      <c r="AA202" s="82"/>
       <c r="AB202" s="4"/>
       <c r="AC202" s="4"/>
       <c r="AD202" s="4"/>
@@ -14660,48 +14972,253 @@
       <c r="AN202" s="5"/>
     </row>
     <row r="203" spans="2:40">
-      <c r="B203" s="16"/>
-      <c r="C203" s="17"/>
-      <c r="D203" s="17"/>
-      <c r="E203" s="17"/>
-      <c r="F203" s="17"/>
-      <c r="G203" s="18"/>
-      <c r="H203" s="16"/>
-      <c r="I203" s="17"/>
-      <c r="J203" s="17"/>
-      <c r="K203" s="17"/>
-      <c r="L203" s="17"/>
-      <c r="M203" s="17"/>
-      <c r="N203" s="17"/>
-      <c r="O203" s="17"/>
-      <c r="P203" s="17"/>
-      <c r="Q203" s="17"/>
-      <c r="R203" s="17"/>
-      <c r="S203" s="17"/>
-      <c r="T203" s="17"/>
-      <c r="U203" s="17"/>
-      <c r="V203" s="17"/>
-      <c r="W203" s="17"/>
-      <c r="X203" s="17"/>
-      <c r="Y203" s="17"/>
-      <c r="Z203" s="18"/>
-      <c r="AA203" s="88"/>
-      <c r="AB203" s="17"/>
-      <c r="AC203" s="17"/>
-      <c r="AD203" s="17"/>
-      <c r="AE203" s="17"/>
-      <c r="AF203" s="17"/>
-      <c r="AG203" s="17"/>
-      <c r="AH203" s="17"/>
-      <c r="AI203" s="17"/>
-      <c r="AJ203" s="17"/>
-      <c r="AK203" s="17"/>
-      <c r="AL203" s="17"/>
-      <c r="AM203" s="17"/>
-      <c r="AN203" s="18"/>
+      <c r="B203" s="6"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="6"/>
+      <c r="I203" s="4"/>
+      <c r="J203" s="4"/>
+      <c r="K203" s="4"/>
+      <c r="L203" s="4"/>
+      <c r="M203" s="4"/>
+      <c r="N203" s="4"/>
+      <c r="O203" s="4"/>
+      <c r="P203" s="4"/>
+      <c r="Q203" s="4"/>
+      <c r="R203" s="4"/>
+      <c r="S203" s="4"/>
+      <c r="T203" s="4"/>
+      <c r="U203" s="4"/>
+      <c r="V203" s="4"/>
+      <c r="W203" s="4"/>
+      <c r="X203" s="4"/>
+      <c r="Y203" s="4"/>
+      <c r="Z203" s="5"/>
+      <c r="AA203" s="82"/>
+      <c r="AB203" s="4"/>
+      <c r="AC203" s="4"/>
+      <c r="AD203" s="4"/>
+      <c r="AE203" s="4"/>
+      <c r="AF203" s="4"/>
+      <c r="AG203" s="4"/>
+      <c r="AH203" s="4"/>
+      <c r="AI203" s="4"/>
+      <c r="AJ203" s="4"/>
+      <c r="AK203" s="4"/>
+      <c r="AL203" s="4"/>
+      <c r="AM203" s="4"/>
+      <c r="AN203" s="5"/>
+    </row>
+    <row r="204" spans="2:40">
+      <c r="B204" s="6"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="6"/>
+      <c r="I204" s="4"/>
+      <c r="J204" s="4"/>
+      <c r="K204" s="4"/>
+      <c r="L204" s="4"/>
+      <c r="M204" s="4"/>
+      <c r="N204" s="4"/>
+      <c r="O204" s="4"/>
+      <c r="P204" s="4"/>
+      <c r="Q204" s="4"/>
+      <c r="R204" s="4"/>
+      <c r="S204" s="4"/>
+      <c r="T204" s="4"/>
+      <c r="U204" s="4"/>
+      <c r="V204" s="4"/>
+      <c r="W204" s="4"/>
+      <c r="X204" s="4"/>
+      <c r="Y204" s="4"/>
+      <c r="Z204" s="5"/>
+      <c r="AA204" s="82"/>
+      <c r="AB204" s="4"/>
+      <c r="AC204" s="4"/>
+      <c r="AD204" s="4"/>
+      <c r="AE204" s="4"/>
+      <c r="AF204" s="4"/>
+      <c r="AG204" s="4"/>
+      <c r="AH204" s="4"/>
+      <c r="AI204" s="4"/>
+      <c r="AJ204" s="4"/>
+      <c r="AK204" s="4"/>
+      <c r="AL204" s="4"/>
+      <c r="AM204" s="4"/>
+      <c r="AN204" s="5"/>
+    </row>
+    <row r="205" spans="2:40">
+      <c r="B205" s="6"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="6"/>
+      <c r="I205" s="4"/>
+      <c r="J205" s="4"/>
+      <c r="K205" s="4"/>
+      <c r="L205" s="4"/>
+      <c r="M205" s="4"/>
+      <c r="N205" s="4"/>
+      <c r="O205" s="4"/>
+      <c r="P205" s="4"/>
+      <c r="Q205" s="4"/>
+      <c r="R205" s="4"/>
+      <c r="S205" s="4"/>
+      <c r="T205" s="4"/>
+      <c r="U205" s="4"/>
+      <c r="V205" s="4"/>
+      <c r="W205" s="4"/>
+      <c r="X205" s="4"/>
+      <c r="Y205" s="4"/>
+      <c r="Z205" s="5"/>
+      <c r="AA205" s="82"/>
+      <c r="AB205" s="4"/>
+      <c r="AC205" s="4"/>
+      <c r="AD205" s="4"/>
+      <c r="AE205" s="4"/>
+      <c r="AF205" s="4"/>
+      <c r="AG205" s="4"/>
+      <c r="AH205" s="4"/>
+      <c r="AI205" s="4"/>
+      <c r="AJ205" s="4"/>
+      <c r="AK205" s="4"/>
+      <c r="AL205" s="4"/>
+      <c r="AM205" s="4"/>
+      <c r="AN205" s="5"/>
+    </row>
+    <row r="206" spans="2:40">
+      <c r="B206" s="6"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="6"/>
+      <c r="I206" s="4"/>
+      <c r="J206" s="4"/>
+      <c r="K206" s="4"/>
+      <c r="L206" s="4"/>
+      <c r="M206" s="4"/>
+      <c r="N206" s="4"/>
+      <c r="O206" s="4"/>
+      <c r="P206" s="4"/>
+      <c r="Q206" s="4"/>
+      <c r="R206" s="4"/>
+      <c r="S206" s="4"/>
+      <c r="T206" s="4"/>
+      <c r="U206" s="4"/>
+      <c r="V206" s="4"/>
+      <c r="W206" s="4"/>
+      <c r="X206" s="4"/>
+      <c r="Y206" s="4"/>
+      <c r="Z206" s="5"/>
+      <c r="AA206" s="82"/>
+      <c r="AB206" s="4"/>
+      <c r="AC206" s="4"/>
+      <c r="AD206" s="4"/>
+      <c r="AE206" s="4"/>
+      <c r="AF206" s="4"/>
+      <c r="AG206" s="4"/>
+      <c r="AH206" s="4"/>
+      <c r="AI206" s="4"/>
+      <c r="AJ206" s="4"/>
+      <c r="AK206" s="4"/>
+      <c r="AL206" s="4"/>
+      <c r="AM206" s="4"/>
+      <c r="AN206" s="5"/>
+    </row>
+    <row r="207" spans="2:40">
+      <c r="B207" s="6"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="6"/>
+      <c r="I207" s="4"/>
+      <c r="J207" s="4"/>
+      <c r="K207" s="4"/>
+      <c r="L207" s="4"/>
+      <c r="M207" s="4"/>
+      <c r="N207" s="4"/>
+      <c r="O207" s="4"/>
+      <c r="P207" s="4"/>
+      <c r="Q207" s="4"/>
+      <c r="R207" s="4"/>
+      <c r="S207" s="4"/>
+      <c r="T207" s="4"/>
+      <c r="U207" s="4"/>
+      <c r="V207" s="4"/>
+      <c r="W207" s="4"/>
+      <c r="X207" s="4"/>
+      <c r="Y207" s="4"/>
+      <c r="Z207" s="5"/>
+      <c r="AA207" s="82"/>
+      <c r="AB207" s="4"/>
+      <c r="AC207" s="4"/>
+      <c r="AD207" s="4"/>
+      <c r="AE207" s="4"/>
+      <c r="AF207" s="4"/>
+      <c r="AG207" s="4"/>
+      <c r="AH207" s="4"/>
+      <c r="AI207" s="4"/>
+      <c r="AJ207" s="4"/>
+      <c r="AK207" s="4"/>
+      <c r="AL207" s="4"/>
+      <c r="AM207" s="4"/>
+      <c r="AN207" s="5"/>
+    </row>
+    <row r="208" spans="2:40">
+      <c r="B208" s="16"/>
+      <c r="C208" s="17"/>
+      <c r="D208" s="17"/>
+      <c r="E208" s="17"/>
+      <c r="F208" s="17"/>
+      <c r="G208" s="18"/>
+      <c r="H208" s="16"/>
+      <c r="I208" s="17"/>
+      <c r="J208" s="17"/>
+      <c r="K208" s="17"/>
+      <c r="L208" s="17"/>
+      <c r="M208" s="17"/>
+      <c r="N208" s="17"/>
+      <c r="O208" s="17"/>
+      <c r="P208" s="17"/>
+      <c r="Q208" s="17"/>
+      <c r="R208" s="17"/>
+      <c r="S208" s="17"/>
+      <c r="T208" s="17"/>
+      <c r="U208" s="17"/>
+      <c r="V208" s="17"/>
+      <c r="W208" s="17"/>
+      <c r="X208" s="17"/>
+      <c r="Y208" s="17"/>
+      <c r="Z208" s="18"/>
+      <c r="AA208" s="85"/>
+      <c r="AB208" s="17"/>
+      <c r="AC208" s="17"/>
+      <c r="AD208" s="17"/>
+      <c r="AE208" s="17"/>
+      <c r="AF208" s="17"/>
+      <c r="AG208" s="17"/>
+      <c r="AH208" s="17"/>
+      <c r="AI208" s="17"/>
+      <c r="AJ208" s="17"/>
+      <c r="AK208" s="17"/>
+      <c r="AL208" s="17"/>
+      <c r="AM208" s="17"/>
+      <c r="AN208" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <hyperlinks>
     <hyperlink ref="AA36:AH36" location="SRS!A34" display="※Tham khảo [Listup sách đã tạo]"/>
     <hyperlink ref="AA75:AG75" location="SRS!B89" display="   ※Tham khảo 「Tạo sách mới」"/>
@@ -14720,8 +15237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:DJ73"/>
   <sheetViews>
-    <sheetView topLeftCell="BV51" workbookViewId="0">
-      <selection activeCell="CQ57" sqref="CQ57:DJ73"/>
+    <sheetView topLeftCell="BU54" workbookViewId="0">
+      <selection activeCell="CQ57" sqref="CQ57:DJ80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5"/>
@@ -14778,102 +15295,102 @@
   <sheetData>
     <row r="2" spans="2:24" ht="18.75" customHeight="1">
       <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="18.75" customHeight="1">
       <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="K3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="18.75" customHeight="1">
       <c r="J5" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:24" ht="18.75" customHeight="1">
       <c r="J6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:24" ht="18.75" customHeight="1">
       <c r="J7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:24" ht="18.75" customHeight="1">
       <c r="J8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:24" ht="18.75" customHeight="1">
       <c r="J9" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:24" ht="18.75" customHeight="1">
       <c r="J10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:24" ht="18.75" customHeight="1">
       <c r="J11" s="10"/>
       <c r="K11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R11" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
@@ -14893,7 +15410,7 @@
     </row>
     <row r="13" spans="2:24">
       <c r="R13" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
@@ -14904,7 +15421,7 @@
     </row>
     <row r="14" spans="2:24">
       <c r="R14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -14916,13 +15433,13 @@
     <row r="15" spans="2:24">
       <c r="R15" s="6"/>
       <c r="S15" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T15" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U15" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V15" s="27"/>
       <c r="W15" s="28"/>
@@ -14934,16 +15451,16 @@
         <v>1</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U16" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="V16" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="V16" s="31" t="s">
+      <c r="W16" s="31" t="s">
         <v>56</v>
-      </c>
-      <c r="W16" s="31" t="s">
-        <v>57</v>
       </c>
       <c r="X16" s="5"/>
     </row>
@@ -14953,16 +15470,16 @@
         <v>2</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U17" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="V17" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="V17" s="31" t="s">
+      <c r="W17" s="31" t="s">
         <v>56</v>
-      </c>
-      <c r="W17" s="31" t="s">
-        <v>57</v>
       </c>
       <c r="X17" s="5"/>
     </row>
@@ -14977,7 +15494,7 @@
     </row>
     <row r="19" spans="18:67">
       <c r="R19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -14989,13 +15506,13 @@
     <row r="20" spans="18:67">
       <c r="R20" s="6"/>
       <c r="S20" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="T20" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="T20" s="24" t="s">
+      <c r="U20" s="26" t="s">
         <v>39</v>
-      </c>
-      <c r="U20" s="26" t="s">
-        <v>40</v>
       </c>
       <c r="V20" s="27"/>
       <c r="W20" s="28"/>
@@ -15007,16 +15524,16 @@
         <v>1</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U21" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="V21" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="V21" s="31" t="s">
+      <c r="W21" s="31" t="s">
         <v>56</v>
-      </c>
-      <c r="W21" s="31" t="s">
-        <v>57</v>
       </c>
       <c r="X21" s="5"/>
     </row>
@@ -15026,16 +15543,16 @@
         <v>2</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U22" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="V22" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="V22" s="31" t="s">
+      <c r="W22" s="31" t="s">
         <v>56</v>
-      </c>
-      <c r="W22" s="31" t="s">
-        <v>57</v>
       </c>
       <c r="X22" s="5"/>
     </row>
@@ -15069,118 +15586,118 @@
     <row r="25" spans="18:67" ht="18" customHeight="1">
       <c r="Z25" s="6"/>
       <c r="AA25" s="23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AC25" s="3"/>
       <c r="AD25" s="4"/>
-      <c r="AE25" s="39" t="s">
-        <v>81</v>
+      <c r="AE25" s="87" t="s">
+        <v>77</v>
       </c>
       <c r="AF25" s="34" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AG25" s="5"/>
       <c r="BH25" s="6"/>
       <c r="BI25" s="23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BJ25" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="BK25" s="3"/>
       <c r="BL25" s="4"/>
-      <c r="BM25" s="39" t="s">
-        <v>81</v>
+      <c r="BM25" s="87" t="s">
+        <v>77</v>
       </c>
       <c r="BN25" s="34" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="BO25" s="5"/>
     </row>
     <row r="26" spans="18:67" ht="18" customHeight="1">
       <c r="Z26" s="6"/>
       <c r="AA26" s="23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AB26" s="36" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AC26" s="36"/>
       <c r="AD26" s="4"/>
-      <c r="AE26" s="40"/>
+      <c r="AE26" s="88"/>
       <c r="AF26" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="BH26" s="6"/>
       <c r="BI26" s="23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="BJ26" s="36" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="BK26" s="36"/>
       <c r="BL26" s="4"/>
-      <c r="BM26" s="40"/>
+      <c r="BM26" s="88"/>
       <c r="BN26" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BO26" s="5"/>
     </row>
     <row r="27" spans="18:67" ht="18" customHeight="1">
       <c r="Z27" s="6"/>
       <c r="AA27" s="23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AC27" s="36"/>
       <c r="AD27" s="4"/>
-      <c r="AE27" s="40"/>
+      <c r="AE27" s="88"/>
       <c r="AF27" s="35"/>
       <c r="AG27" s="5"/>
       <c r="BH27" s="6"/>
       <c r="BI27" s="23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="BJ27" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="BK27" s="36"/>
       <c r="BL27" s="4"/>
-      <c r="BM27" s="40"/>
+      <c r="BM27" s="88"/>
       <c r="BN27" s="35"/>
       <c r="BO27" s="5"/>
     </row>
     <row r="28" spans="18:67" ht="18" customHeight="1">
       <c r="Z28" s="6"/>
       <c r="AA28" s="23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AB28" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC28" s="38"/>
       <c r="AD28" s="4"/>
-      <c r="AE28" s="41"/>
+      <c r="AE28" s="89"/>
       <c r="AF28" s="36"/>
       <c r="AG28" s="5"/>
-      <c r="BH28" s="56"/>
+      <c r="BH28" s="53"/>
       <c r="BI28" s="23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="BJ28" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="BK28" s="38"/>
       <c r="BL28" s="4"/>
-      <c r="BM28" s="41"/>
+      <c r="BM28" s="89"/>
       <c r="BN28" s="36"/>
-      <c r="BO28" s="56"/>
+      <c r="BO28" s="53"/>
     </row>
     <row r="29" spans="18:67">
       <c r="Z29" s="6"/>
@@ -15238,7 +15755,7 @@
     </row>
     <row r="33" spans="35:91">
       <c r="AI33" s="21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AJ33" s="22"/>
       <c r="AK33" s="22"/>
@@ -15263,7 +15780,7 @@
       <c r="BD33" s="22"/>
       <c r="BE33" s="29"/>
       <c r="BQ33" s="21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="BR33" s="22"/>
       <c r="BS33" s="22"/>
@@ -15339,233 +15856,233 @@
     <row r="35" spans="35:91" ht="19.5" customHeight="1">
       <c r="AI35" s="6"/>
       <c r="AJ35" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK35" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL35" s="44"/>
-      <c r="AM35" s="44"/>
-      <c r="AN35" s="44"/>
-      <c r="AO35" s="44"/>
-      <c r="AP35" s="44"/>
-      <c r="AQ35" s="44"/>
-      <c r="AR35" s="44"/>
-      <c r="AS35" s="44"/>
-      <c r="AT35" s="44"/>
+        <v>28</v>
+      </c>
+      <c r="AK35" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL35" s="41"/>
+      <c r="AM35" s="41"/>
+      <c r="AN35" s="41"/>
+      <c r="AO35" s="41"/>
+      <c r="AP35" s="41"/>
+      <c r="AQ35" s="41"/>
+      <c r="AR35" s="41"/>
+      <c r="AS35" s="41"/>
+      <c r="AT35" s="41"/>
       <c r="AU35" s="38"/>
       <c r="AV35" s="4"/>
-      <c r="AW35" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX35" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY35" s="47"/>
-      <c r="AZ35" s="47"/>
-      <c r="BA35" s="47"/>
-      <c r="BB35" s="47"/>
-      <c r="BC35" s="47"/>
-      <c r="BD35" s="48"/>
+      <c r="AW35" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX35" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY35" s="44"/>
+      <c r="AZ35" s="44"/>
+      <c r="BA35" s="44"/>
+      <c r="BB35" s="44"/>
+      <c r="BC35" s="44"/>
+      <c r="BD35" s="45"/>
       <c r="BE35" s="5"/>
       <c r="BQ35" s="6"/>
       <c r="BR35" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="BS35" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="BT35" s="44"/>
-      <c r="BU35" s="44"/>
-      <c r="BV35" s="44"/>
-      <c r="BW35" s="44"/>
-      <c r="BX35" s="44"/>
-      <c r="BY35" s="44"/>
-      <c r="BZ35" s="44"/>
-      <c r="CA35" s="44"/>
-      <c r="CB35" s="44"/>
+        <v>28</v>
+      </c>
+      <c r="BS35" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT35" s="41"/>
+      <c r="BU35" s="41"/>
+      <c r="BV35" s="41"/>
+      <c r="BW35" s="41"/>
+      <c r="BX35" s="41"/>
+      <c r="BY35" s="41"/>
+      <c r="BZ35" s="41"/>
+      <c r="CA35" s="41"/>
+      <c r="CB35" s="41"/>
       <c r="CC35" s="38"/>
       <c r="CD35" s="4"/>
-      <c r="CE35" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF35" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="CG35" s="47"/>
-      <c r="CH35" s="47"/>
-      <c r="CI35" s="47"/>
-      <c r="CJ35" s="47"/>
-      <c r="CK35" s="47"/>
-      <c r="CL35" s="48"/>
+      <c r="CE35" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="CF35" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG35" s="44"/>
+      <c r="CH35" s="44"/>
+      <c r="CI35" s="44"/>
+      <c r="CJ35" s="44"/>
+      <c r="CK35" s="44"/>
+      <c r="CL35" s="45"/>
       <c r="CM35" s="5"/>
     </row>
     <row r="36" spans="35:91" ht="19.5" customHeight="1">
       <c r="AI36" s="6"/>
       <c r="AJ36" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK36" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL36" s="44"/>
-      <c r="AM36" s="44"/>
-      <c r="AN36" s="44"/>
-      <c r="AO36" s="44"/>
-      <c r="AP36" s="44"/>
-      <c r="AQ36" s="44"/>
-      <c r="AR36" s="44"/>
-      <c r="AS36" s="44"/>
-      <c r="AT36" s="44"/>
+        <v>78</v>
+      </c>
+      <c r="AK36" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL36" s="41"/>
+      <c r="AM36" s="41"/>
+      <c r="AN36" s="41"/>
+      <c r="AO36" s="41"/>
+      <c r="AP36" s="41"/>
+      <c r="AQ36" s="41"/>
+      <c r="AR36" s="41"/>
+      <c r="AS36" s="41"/>
+      <c r="AT36" s="41"/>
       <c r="AU36" s="38"/>
       <c r="AV36" s="4"/>
-      <c r="AW36" s="40"/>
-      <c r="AX36" s="49"/>
-      <c r="AY36" s="50"/>
-      <c r="AZ36" s="50"/>
-      <c r="BA36" s="50"/>
-      <c r="BB36" s="50"/>
-      <c r="BC36" s="50"/>
-      <c r="BD36" s="45"/>
+      <c r="AW36" s="88"/>
+      <c r="AX36" s="46"/>
+      <c r="AY36" s="47"/>
+      <c r="AZ36" s="47"/>
+      <c r="BA36" s="47"/>
+      <c r="BB36" s="47"/>
+      <c r="BC36" s="47"/>
+      <c r="BD36" s="42"/>
       <c r="BE36" s="5"/>
       <c r="BQ36" s="6"/>
       <c r="BR36" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS36" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="BT36" s="44"/>
-      <c r="BU36" s="44"/>
-      <c r="BV36" s="44"/>
-      <c r="BW36" s="44"/>
-      <c r="BX36" s="44"/>
-      <c r="BY36" s="44"/>
-      <c r="BZ36" s="44"/>
-      <c r="CA36" s="44"/>
-      <c r="CB36" s="44"/>
+        <v>78</v>
+      </c>
+      <c r="BS36" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT36" s="41"/>
+      <c r="BU36" s="41"/>
+      <c r="BV36" s="41"/>
+      <c r="BW36" s="41"/>
+      <c r="BX36" s="41"/>
+      <c r="BY36" s="41"/>
+      <c r="BZ36" s="41"/>
+      <c r="CA36" s="41"/>
+      <c r="CB36" s="41"/>
       <c r="CC36" s="38"/>
       <c r="CD36" s="4"/>
-      <c r="CE36" s="40"/>
-      <c r="CF36" s="49"/>
-      <c r="CG36" s="50"/>
-      <c r="CH36" s="50"/>
-      <c r="CI36" s="50"/>
-      <c r="CJ36" s="50"/>
-      <c r="CK36" s="50"/>
-      <c r="CL36" s="45"/>
+      <c r="CE36" s="88"/>
+      <c r="CF36" s="46"/>
+      <c r="CG36" s="47"/>
+      <c r="CH36" s="47"/>
+      <c r="CI36" s="47"/>
+      <c r="CJ36" s="47"/>
+      <c r="CK36" s="47"/>
+      <c r="CL36" s="42"/>
       <c r="CM36" s="5"/>
     </row>
     <row r="37" spans="35:91" ht="19.5" customHeight="1">
       <c r="AI37" s="6"/>
       <c r="AJ37" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK37" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL37" s="44"/>
-      <c r="AM37" s="44"/>
-      <c r="AN37" s="44"/>
-      <c r="AO37" s="44"/>
-      <c r="AP37" s="44"/>
-      <c r="AQ37" s="44"/>
-      <c r="AR37" s="44"/>
-      <c r="AS37" s="44"/>
-      <c r="AT37" s="44"/>
+        <v>79</v>
+      </c>
+      <c r="AK37" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL37" s="41"/>
+      <c r="AM37" s="41"/>
+      <c r="AN37" s="41"/>
+      <c r="AO37" s="41"/>
+      <c r="AP37" s="41"/>
+      <c r="AQ37" s="41"/>
+      <c r="AR37" s="41"/>
+      <c r="AS37" s="41"/>
+      <c r="AT37" s="41"/>
       <c r="AU37" s="38"/>
       <c r="AV37" s="4"/>
-      <c r="AW37" s="40"/>
-      <c r="AX37" s="49"/>
-      <c r="AY37" s="50"/>
-      <c r="AZ37" s="50"/>
-      <c r="BA37" s="50"/>
-      <c r="BB37" s="50"/>
-      <c r="BC37" s="50"/>
-      <c r="BD37" s="45"/>
+      <c r="AW37" s="88"/>
+      <c r="AX37" s="46"/>
+      <c r="AY37" s="47"/>
+      <c r="AZ37" s="47"/>
+      <c r="BA37" s="47"/>
+      <c r="BB37" s="47"/>
+      <c r="BC37" s="47"/>
+      <c r="BD37" s="42"/>
       <c r="BE37" s="5"/>
       <c r="BQ37" s="6"/>
       <c r="BR37" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS37" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="BT37" s="44"/>
-      <c r="BU37" s="44"/>
-      <c r="BV37" s="44"/>
-      <c r="BW37" s="44"/>
-      <c r="BX37" s="44"/>
-      <c r="BY37" s="44"/>
-      <c r="BZ37" s="44"/>
-      <c r="CA37" s="44"/>
-      <c r="CB37" s="44"/>
+        <v>79</v>
+      </c>
+      <c r="BS37" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT37" s="41"/>
+      <c r="BU37" s="41"/>
+      <c r="BV37" s="41"/>
+      <c r="BW37" s="41"/>
+      <c r="BX37" s="41"/>
+      <c r="BY37" s="41"/>
+      <c r="BZ37" s="41"/>
+      <c r="CA37" s="41"/>
+      <c r="CB37" s="41"/>
       <c r="CC37" s="38"/>
       <c r="CD37" s="4"/>
-      <c r="CE37" s="40"/>
-      <c r="CF37" s="49"/>
-      <c r="CG37" s="50"/>
-      <c r="CH37" s="50"/>
-      <c r="CI37" s="50"/>
-      <c r="CJ37" s="50"/>
-      <c r="CK37" s="50"/>
-      <c r="CL37" s="45"/>
+      <c r="CE37" s="88"/>
+      <c r="CF37" s="46"/>
+      <c r="CG37" s="47"/>
+      <c r="CH37" s="47"/>
+      <c r="CI37" s="47"/>
+      <c r="CJ37" s="47"/>
+      <c r="CK37" s="47"/>
+      <c r="CL37" s="42"/>
       <c r="CM37" s="5"/>
     </row>
     <row r="38" spans="35:91" ht="19.5" customHeight="1">
       <c r="AI38" s="6"/>
       <c r="AJ38" s="23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AK38" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL38" s="44"/>
-      <c r="AM38" s="44"/>
-      <c r="AN38" s="44"/>
-      <c r="AO38" s="44"/>
-      <c r="AP38" s="44"/>
-      <c r="AQ38" s="44"/>
-      <c r="AR38" s="44"/>
-      <c r="AS38" s="44"/>
-      <c r="AT38" s="44"/>
+        <v>97</v>
+      </c>
+      <c r="AL38" s="41"/>
+      <c r="AM38" s="41"/>
+      <c r="AN38" s="41"/>
+      <c r="AO38" s="41"/>
+      <c r="AP38" s="41"/>
+      <c r="AQ38" s="41"/>
+      <c r="AR38" s="41"/>
+      <c r="AS38" s="41"/>
+      <c r="AT38" s="41"/>
       <c r="AU38" s="38"/>
       <c r="AV38" s="4"/>
-      <c r="AW38" s="41"/>
-      <c r="AX38" s="51"/>
-      <c r="AY38" s="52"/>
-      <c r="AZ38" s="52"/>
-      <c r="BA38" s="52"/>
-      <c r="BB38" s="52"/>
-      <c r="BC38" s="52"/>
-      <c r="BD38" s="53"/>
+      <c r="AW38" s="89"/>
+      <c r="AX38" s="48"/>
+      <c r="AY38" s="49"/>
+      <c r="AZ38" s="49"/>
+      <c r="BA38" s="49"/>
+      <c r="BB38" s="49"/>
+      <c r="BC38" s="49"/>
+      <c r="BD38" s="50"/>
       <c r="BE38" s="5"/>
       <c r="BQ38" s="6"/>
       <c r="BR38" s="23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="BS38" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="BT38" s="44"/>
-      <c r="BU38" s="44"/>
-      <c r="BV38" s="44"/>
-      <c r="BW38" s="44"/>
-      <c r="BX38" s="44"/>
-      <c r="BY38" s="44"/>
-      <c r="BZ38" s="44"/>
-      <c r="CA38" s="44"/>
-      <c r="CB38" s="44"/>
+        <v>97</v>
+      </c>
+      <c r="BT38" s="41"/>
+      <c r="BU38" s="41"/>
+      <c r="BV38" s="41"/>
+      <c r="BW38" s="41"/>
+      <c r="BX38" s="41"/>
+      <c r="BY38" s="41"/>
+      <c r="BZ38" s="41"/>
+      <c r="CA38" s="41"/>
+      <c r="CB38" s="41"/>
       <c r="CC38" s="38"/>
       <c r="CD38" s="4"/>
-      <c r="CE38" s="41"/>
-      <c r="CF38" s="51"/>
-      <c r="CG38" s="52"/>
-      <c r="CH38" s="52"/>
-      <c r="CI38" s="52"/>
-      <c r="CJ38" s="52"/>
-      <c r="CK38" s="52"/>
-      <c r="CL38" s="53"/>
+      <c r="CE38" s="89"/>
+      <c r="CF38" s="48"/>
+      <c r="CG38" s="49"/>
+      <c r="CH38" s="49"/>
+      <c r="CI38" s="49"/>
+      <c r="CJ38" s="49"/>
+      <c r="CK38" s="49"/>
+      <c r="CL38" s="50"/>
       <c r="CM38" s="5"/>
     </row>
     <row r="39" spans="35:91">
@@ -15714,7 +16231,7 @@
     </row>
     <row r="42" spans="35:91">
       <c r="AI42" s="21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AJ42" s="22"/>
       <c r="AK42" s="22"/>
@@ -15739,7 +16256,7 @@
       <c r="BD42" s="22"/>
       <c r="BE42" s="29"/>
       <c r="BQ42" s="21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="BR42" s="22"/>
       <c r="BS42" s="22"/>
@@ -15814,75 +16331,75 @@
     </row>
     <row r="44" spans="35:91">
       <c r="AI44" s="7"/>
-      <c r="AJ44" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK44" s="62"/>
-      <c r="AL44" s="62"/>
-      <c r="AM44" s="62"/>
-      <c r="AN44" s="62"/>
-      <c r="AO44" s="62"/>
-      <c r="AP44" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ44" s="63"/>
-      <c r="AR44" s="61"/>
-      <c r="AS44" s="62"/>
-      <c r="AT44" s="62"/>
-      <c r="AU44" s="62"/>
-      <c r="AV44" s="62"/>
-      <c r="AW44" s="62"/>
-      <c r="AX44" s="62"/>
-      <c r="AY44" s="62"/>
-      <c r="AZ44" s="62"/>
-      <c r="BA44" s="62"/>
-      <c r="BB44" s="62"/>
-      <c r="BC44" s="62"/>
-      <c r="BD44" s="62"/>
-      <c r="BE44" s="63"/>
+      <c r="AJ44" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK44" s="59"/>
+      <c r="AL44" s="59"/>
+      <c r="AM44" s="59"/>
+      <c r="AN44" s="59"/>
+      <c r="AO44" s="59"/>
+      <c r="AP44" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ44" s="60"/>
+      <c r="AR44" s="58"/>
+      <c r="AS44" s="59"/>
+      <c r="AT44" s="59"/>
+      <c r="AU44" s="59"/>
+      <c r="AV44" s="59"/>
+      <c r="AW44" s="59"/>
+      <c r="AX44" s="59"/>
+      <c r="AY44" s="59"/>
+      <c r="AZ44" s="59"/>
+      <c r="BA44" s="59"/>
+      <c r="BB44" s="59"/>
+      <c r="BC44" s="59"/>
+      <c r="BD44" s="59"/>
+      <c r="BE44" s="60"/>
       <c r="BQ44" s="7"/>
-      <c r="BR44" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="BS44" s="62"/>
-      <c r="BT44" s="62"/>
-      <c r="BU44" s="62"/>
-      <c r="BV44" s="62"/>
-      <c r="BW44" s="62"/>
-      <c r="BX44" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY44" s="63"/>
-      <c r="BZ44" s="61"/>
-      <c r="CA44" s="62"/>
-      <c r="CB44" s="62"/>
-      <c r="CC44" s="62"/>
-      <c r="CD44" s="62"/>
-      <c r="CE44" s="62"/>
-      <c r="CF44" s="62"/>
-      <c r="CG44" s="62"/>
-      <c r="CH44" s="62"/>
-      <c r="CI44" s="62"/>
-      <c r="CJ44" s="62"/>
-      <c r="CK44" s="62"/>
-      <c r="CL44" s="62"/>
-      <c r="CM44" s="63"/>
+      <c r="BR44" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS44" s="59"/>
+      <c r="BT44" s="59"/>
+      <c r="BU44" s="59"/>
+      <c r="BV44" s="59"/>
+      <c r="BW44" s="59"/>
+      <c r="BX44" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY44" s="60"/>
+      <c r="BZ44" s="58"/>
+      <c r="CA44" s="59"/>
+      <c r="CB44" s="59"/>
+      <c r="CC44" s="59"/>
+      <c r="CD44" s="59"/>
+      <c r="CE44" s="59"/>
+      <c r="CF44" s="59"/>
+      <c r="CG44" s="59"/>
+      <c r="CH44" s="59"/>
+      <c r="CI44" s="59"/>
+      <c r="CJ44" s="59"/>
+      <c r="CK44" s="59"/>
+      <c r="CL44" s="59"/>
+      <c r="CM44" s="60"/>
     </row>
     <row r="45" spans="35:91">
-      <c r="AI45" s="56"/>
+      <c r="AI45" s="53"/>
       <c r="AJ45" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK45" s="61" t="s">
         <v>94</v>
-      </c>
-      <c r="AK45" s="64" t="s">
-        <v>98</v>
       </c>
       <c r="AL45" s="22"/>
       <c r="AM45" s="22"/>
-      <c r="AN45" s="71"/>
-      <c r="AO45" s="65"/>
-      <c r="AP45" s="72"/>
-      <c r="AQ45" s="75"/>
-      <c r="AR45" s="76"/>
+      <c r="AN45" s="68"/>
+      <c r="AO45" s="62"/>
+      <c r="AP45" s="69"/>
+      <c r="AQ45" s="72"/>
+      <c r="AR45" s="73"/>
       <c r="AS45" s="4"/>
       <c r="AT45" s="4"/>
       <c r="AU45" s="4"/>
@@ -15896,20 +16413,20 @@
       <c r="BC45" s="4"/>
       <c r="BD45" s="4"/>
       <c r="BE45" s="5"/>
-      <c r="BQ45" s="56"/>
+      <c r="BQ45" s="53"/>
       <c r="BR45" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="BS45" s="61" t="s">
         <v>94</v>
-      </c>
-      <c r="BS45" s="64" t="s">
-        <v>98</v>
       </c>
       <c r="BT45" s="22"/>
       <c r="BU45" s="22"/>
-      <c r="BV45" s="71"/>
-      <c r="BW45" s="65"/>
-      <c r="BX45" s="72"/>
-      <c r="BY45" s="75"/>
-      <c r="BZ45" s="76"/>
+      <c r="BV45" s="68"/>
+      <c r="BW45" s="62"/>
+      <c r="BX45" s="69"/>
+      <c r="BY45" s="72"/>
+      <c r="BZ45" s="73"/>
       <c r="CA45" s="4"/>
       <c r="CB45" s="4"/>
       <c r="CC45" s="4"/>
@@ -15925,62 +16442,62 @@
       <c r="CM45" s="5"/>
     </row>
     <row r="46" spans="35:91" ht="18.75" customHeight="1">
-      <c r="AI46" s="56"/>
-      <c r="AJ46" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK46" s="66" t="s">
+      <c r="AI46" s="53"/>
+      <c r="AJ46" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK46" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL46" s="52"/>
+      <c r="AM46" s="52"/>
+      <c r="AN46" s="78"/>
+      <c r="AO46" s="66"/>
+      <c r="AP46" s="70"/>
+      <c r="AQ46" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="AL46" s="55"/>
-      <c r="AM46" s="55"/>
-      <c r="AN46" s="81"/>
-      <c r="AO46" s="69"/>
-      <c r="AP46" s="73"/>
-      <c r="AQ46" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR46" s="78"/>
+      <c r="AR46" s="75"/>
       <c r="AS46" s="4"/>
       <c r="AT46" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU46" s="43"/>
-      <c r="AV46" s="43"/>
-      <c r="AW46" s="43"/>
-      <c r="AX46" s="43"/>
-      <c r="AY46" s="43"/>
+        <v>95</v>
+      </c>
+      <c r="AU46" s="40"/>
+      <c r="AV46" s="40"/>
+      <c r="AW46" s="40"/>
+      <c r="AX46" s="40"/>
+      <c r="AY46" s="40"/>
       <c r="AZ46" s="3"/>
       <c r="BA46" s="4"/>
       <c r="BB46" s="4"/>
       <c r="BC46" s="4"/>
       <c r="BD46" s="4"/>
       <c r="BE46" s="5"/>
-      <c r="BQ46" s="56"/>
-      <c r="BR46" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="BS46" s="66" t="s">
+      <c r="BQ46" s="53"/>
+      <c r="BR46" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="BS46" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT46" s="52"/>
+      <c r="BU46" s="52"/>
+      <c r="BV46" s="78"/>
+      <c r="BW46" s="66"/>
+      <c r="BX46" s="70"/>
+      <c r="BY46" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="BT46" s="55"/>
-      <c r="BU46" s="55"/>
-      <c r="BV46" s="81"/>
-      <c r="BW46" s="69"/>
-      <c r="BX46" s="73"/>
-      <c r="BY46" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="BZ46" s="78"/>
+      <c r="BZ46" s="75"/>
       <c r="CA46" s="4"/>
       <c r="CB46" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="CC46" s="43"/>
-      <c r="CD46" s="43"/>
-      <c r="CE46" s="43"/>
-      <c r="CF46" s="43"/>
-      <c r="CG46" s="43"/>
+        <v>95</v>
+      </c>
+      <c r="CC46" s="40"/>
+      <c r="CD46" s="40"/>
+      <c r="CE46" s="40"/>
+      <c r="CF46" s="40"/>
+      <c r="CG46" s="40"/>
       <c r="CH46" s="3"/>
       <c r="CI46" s="4"/>
       <c r="CJ46" s="4"/>
@@ -15989,54 +16506,54 @@
       <c r="CM46" s="5"/>
     </row>
     <row r="47" spans="35:91" ht="18.75" customHeight="1">
-      <c r="AI47" s="56"/>
+      <c r="AI47" s="53"/>
       <c r="AJ47" s="6"/>
-      <c r="AK47" s="67"/>
+      <c r="AK47" s="64"/>
       <c r="AL47" s="4"/>
       <c r="AM47" s="4"/>
-      <c r="AN47" s="82"/>
-      <c r="AO47" s="57"/>
-      <c r="AP47" s="73"/>
-      <c r="AQ47" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR47" s="78"/>
+      <c r="AN47" s="79"/>
+      <c r="AO47" s="54"/>
+      <c r="AP47" s="70"/>
+      <c r="AQ47" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR47" s="75"/>
       <c r="AS47" s="4"/>
       <c r="AT47" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU47" s="43"/>
-      <c r="AV47" s="43"/>
-      <c r="AW47" s="43"/>
-      <c r="AX47" s="43"/>
-      <c r="AY47" s="43"/>
+        <v>98</v>
+      </c>
+      <c r="AU47" s="40"/>
+      <c r="AV47" s="40"/>
+      <c r="AW47" s="40"/>
+      <c r="AX47" s="40"/>
+      <c r="AY47" s="40"/>
       <c r="AZ47" s="3"/>
       <c r="BA47" s="4"/>
       <c r="BB47" s="4"/>
       <c r="BC47" s="4"/>
       <c r="BD47" s="4"/>
       <c r="BE47" s="5"/>
-      <c r="BQ47" s="56"/>
+      <c r="BQ47" s="53"/>
       <c r="BR47" s="6"/>
-      <c r="BS47" s="67"/>
+      <c r="BS47" s="64"/>
       <c r="BT47" s="4"/>
       <c r="BU47" s="4"/>
-      <c r="BV47" s="82"/>
-      <c r="BW47" s="57"/>
-      <c r="BX47" s="73"/>
-      <c r="BY47" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="BZ47" s="78"/>
+      <c r="BV47" s="79"/>
+      <c r="BW47" s="54"/>
+      <c r="BX47" s="70"/>
+      <c r="BY47" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="BZ47" s="75"/>
       <c r="CA47" s="4"/>
       <c r="CB47" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="CC47" s="43"/>
-      <c r="CD47" s="43"/>
-      <c r="CE47" s="43"/>
-      <c r="CF47" s="43"/>
-      <c r="CG47" s="43"/>
+        <v>98</v>
+      </c>
+      <c r="CC47" s="40"/>
+      <c r="CD47" s="40"/>
+      <c r="CE47" s="40"/>
+      <c r="CF47" s="40"/>
+      <c r="CG47" s="40"/>
       <c r="CH47" s="3"/>
       <c r="CI47" s="4"/>
       <c r="CJ47" s="4"/>
@@ -16045,73 +16562,73 @@
       <c r="CM47" s="5"/>
     </row>
     <row r="48" spans="35:91" ht="18.75" customHeight="1">
-      <c r="AI48" s="56"/>
+      <c r="AI48" s="53"/>
       <c r="AJ48" s="6"/>
-      <c r="AK48" s="67"/>
+      <c r="AK48" s="64"/>
       <c r="AL48" s="4"/>
       <c r="AM48" s="4"/>
-      <c r="AN48" s="82"/>
-      <c r="AO48" s="57"/>
-      <c r="AP48" s="73"/>
-      <c r="AQ48" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR48" s="78"/>
+      <c r="AN48" s="79"/>
+      <c r="AO48" s="54"/>
+      <c r="AP48" s="70"/>
+      <c r="AQ48" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR48" s="75"/>
       <c r="AS48" s="4"/>
       <c r="AT48" s="2"/>
-      <c r="AU48" s="43"/>
-      <c r="AV48" s="43"/>
-      <c r="AW48" s="43"/>
-      <c r="AX48" s="43"/>
-      <c r="AY48" s="43"/>
+      <c r="AU48" s="40"/>
+      <c r="AV48" s="40"/>
+      <c r="AW48" s="40"/>
+      <c r="AX48" s="40"/>
+      <c r="AY48" s="40"/>
       <c r="AZ48" s="3"/>
-      <c r="BA48" s="80"/>
-      <c r="BB48" s="80"/>
-      <c r="BC48" s="80"/>
+      <c r="BA48" s="77"/>
+      <c r="BB48" s="77"/>
+      <c r="BC48" s="77"/>
       <c r="BD48" s="4"/>
       <c r="BE48" s="5"/>
-      <c r="BQ48" s="56"/>
+      <c r="BQ48" s="53"/>
       <c r="BR48" s="6"/>
-      <c r="BS48" s="67"/>
+      <c r="BS48" s="64"/>
       <c r="BT48" s="4"/>
       <c r="BU48" s="4"/>
-      <c r="BV48" s="82"/>
-      <c r="BW48" s="57"/>
-      <c r="BX48" s="73"/>
-      <c r="BY48" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="BZ48" s="78"/>
+      <c r="BV48" s="79"/>
+      <c r="BW48" s="54"/>
+      <c r="BX48" s="70"/>
+      <c r="BY48" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="BZ48" s="75"/>
       <c r="CA48" s="4"/>
       <c r="CB48" s="2"/>
-      <c r="CC48" s="43"/>
-      <c r="CD48" s="43"/>
-      <c r="CE48" s="43"/>
-      <c r="CF48" s="43"/>
-      <c r="CG48" s="43"/>
+      <c r="CC48" s="40"/>
+      <c r="CD48" s="40"/>
+      <c r="CE48" s="40"/>
+      <c r="CF48" s="40"/>
+      <c r="CG48" s="40"/>
       <c r="CH48" s="3"/>
-      <c r="CI48" s="80"/>
-      <c r="CJ48" s="80"/>
-      <c r="CK48" s="80"/>
+      <c r="CI48" s="77"/>
+      <c r="CJ48" s="77"/>
+      <c r="CK48" s="77"/>
       <c r="CL48" s="4"/>
       <c r="CM48" s="5"/>
     </row>
     <row r="49" spans="35:114" ht="18.75" customHeight="1">
-      <c r="AI49" s="56"/>
+      <c r="AI49" s="53"/>
       <c r="AJ49" s="6"/>
-      <c r="AK49" s="67"/>
+      <c r="AK49" s="64"/>
       <c r="AL49" s="4"/>
       <c r="AM49" s="4"/>
-      <c r="AN49" s="82"/>
-      <c r="AO49" s="57"/>
-      <c r="AP49" s="73"/>
-      <c r="AQ49" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR49" s="78"/>
+      <c r="AN49" s="79"/>
+      <c r="AO49" s="54"/>
+      <c r="AP49" s="70"/>
+      <c r="AQ49" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR49" s="75"/>
       <c r="AS49" s="4"/>
       <c r="AT49" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AU49" s="22"/>
       <c r="AV49" s="22"/>
@@ -16124,21 +16641,21 @@
       <c r="BC49" s="7"/>
       <c r="BD49" s="4"/>
       <c r="BE49" s="5"/>
-      <c r="BQ49" s="56"/>
+      <c r="BQ49" s="53"/>
       <c r="BR49" s="6"/>
-      <c r="BS49" s="67"/>
+      <c r="BS49" s="64"/>
       <c r="BT49" s="4"/>
       <c r="BU49" s="4"/>
-      <c r="BV49" s="82"/>
-      <c r="BW49" s="57"/>
-      <c r="BX49" s="73"/>
-      <c r="BY49" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="BZ49" s="78"/>
+      <c r="BV49" s="79"/>
+      <c r="BW49" s="54"/>
+      <c r="BX49" s="70"/>
+      <c r="BY49" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ49" s="75"/>
       <c r="CA49" s="4"/>
       <c r="CB49" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="CC49" s="22"/>
       <c r="CD49" s="22"/>
@@ -16153,19 +16670,19 @@
       <c r="CM49" s="5"/>
     </row>
     <row r="50" spans="35:114" ht="18.75" customHeight="1">
-      <c r="AI50" s="56"/>
+      <c r="AI50" s="53"/>
       <c r="AJ50" s="6"/>
-      <c r="AK50" s="67"/>
+      <c r="AK50" s="64"/>
       <c r="AL50" s="4"/>
       <c r="AM50" s="4"/>
-      <c r="AN50" s="82"/>
-      <c r="AO50" s="57"/>
-      <c r="AP50" s="73"/>
-      <c r="AQ50" s="77"/>
+      <c r="AN50" s="79"/>
+      <c r="AO50" s="54"/>
+      <c r="AP50" s="70"/>
+      <c r="AQ50" s="74"/>
       <c r="AR50" s="4"/>
       <c r="AS50" s="4"/>
       <c r="AT50" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AU50" s="4"/>
       <c r="AV50" s="4"/>
@@ -16175,22 +16692,22 @@
       <c r="AZ50" s="4"/>
       <c r="BA50" s="4"/>
       <c r="BB50" s="4"/>
-      <c r="BC50" s="60"/>
+      <c r="BC50" s="57"/>
       <c r="BD50" s="4"/>
       <c r="BE50" s="5"/>
-      <c r="BQ50" s="56"/>
+      <c r="BQ50" s="53"/>
       <c r="BR50" s="6"/>
-      <c r="BS50" s="67"/>
+      <c r="BS50" s="64"/>
       <c r="BT50" s="4"/>
       <c r="BU50" s="4"/>
-      <c r="BV50" s="82"/>
-      <c r="BW50" s="57"/>
-      <c r="BX50" s="73"/>
-      <c r="BY50" s="77"/>
+      <c r="BV50" s="79"/>
+      <c r="BW50" s="54"/>
+      <c r="BX50" s="70"/>
+      <c r="BY50" s="74"/>
       <c r="BZ50" s="4"/>
       <c r="CA50" s="4"/>
       <c r="CB50" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="CC50" s="4"/>
       <c r="CD50" s="4"/>
@@ -16200,24 +16717,24 @@
       <c r="CH50" s="4"/>
       <c r="CI50" s="4"/>
       <c r="CJ50" s="4"/>
-      <c r="CK50" s="60"/>
+      <c r="CK50" s="57"/>
       <c r="CL50" s="4"/>
       <c r="CM50" s="5"/>
     </row>
     <row r="51" spans="35:114" ht="18.75" customHeight="1">
-      <c r="AI51" s="56"/>
+      <c r="AI51" s="53"/>
       <c r="AJ51" s="6"/>
-      <c r="AK51" s="67"/>
+      <c r="AK51" s="64"/>
       <c r="AL51" s="4"/>
       <c r="AM51" s="4"/>
-      <c r="AN51" s="82"/>
-      <c r="AO51" s="57"/>
-      <c r="AP51" s="73"/>
-      <c r="AQ51" s="77"/>
+      <c r="AN51" s="79"/>
+      <c r="AO51" s="54"/>
+      <c r="AP51" s="70"/>
+      <c r="AQ51" s="74"/>
       <c r="AR51" s="4"/>
       <c r="AS51" s="4"/>
       <c r="AT51" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AU51" s="4"/>
       <c r="AV51" s="4"/>
@@ -16230,19 +16747,19 @@
       <c r="BC51" s="36"/>
       <c r="BD51" s="4"/>
       <c r="BE51" s="5"/>
-      <c r="BQ51" s="56"/>
+      <c r="BQ51" s="53"/>
       <c r="BR51" s="6"/>
-      <c r="BS51" s="67"/>
+      <c r="BS51" s="64"/>
       <c r="BT51" s="4"/>
       <c r="BU51" s="4"/>
-      <c r="BV51" s="82"/>
-      <c r="BW51" s="57"/>
-      <c r="BX51" s="73"/>
-      <c r="BY51" s="77"/>
+      <c r="BV51" s="79"/>
+      <c r="BW51" s="54"/>
+      <c r="BX51" s="70"/>
+      <c r="BY51" s="74"/>
       <c r="BZ51" s="4"/>
       <c r="CA51" s="4"/>
       <c r="CB51" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="CC51" s="4"/>
       <c r="CD51" s="4"/>
@@ -16257,19 +16774,19 @@
       <c r="CM51" s="5"/>
     </row>
     <row r="52" spans="35:114" ht="18.75" customHeight="1">
-      <c r="AI52" s="56"/>
+      <c r="AI52" s="53"/>
       <c r="AJ52" s="6"/>
-      <c r="AK52" s="67"/>
+      <c r="AK52" s="64"/>
       <c r="AL52" s="4"/>
       <c r="AM52" s="4"/>
-      <c r="AN52" s="82"/>
-      <c r="AO52" s="57"/>
-      <c r="AP52" s="73"/>
-      <c r="AQ52" s="77"/>
+      <c r="AN52" s="79"/>
+      <c r="AO52" s="54"/>
+      <c r="AP52" s="70"/>
+      <c r="AQ52" s="74"/>
       <c r="AR52" s="4"/>
       <c r="AS52" s="4"/>
       <c r="AT52" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AU52" s="17"/>
       <c r="AV52" s="17"/>
@@ -16282,19 +16799,19 @@
       <c r="BC52" s="7"/>
       <c r="BD52" s="4"/>
       <c r="BE52" s="5"/>
-      <c r="BQ52" s="56"/>
+      <c r="BQ52" s="53"/>
       <c r="BR52" s="6"/>
-      <c r="BS52" s="67"/>
+      <c r="BS52" s="64"/>
       <c r="BT52" s="4"/>
       <c r="BU52" s="4"/>
-      <c r="BV52" s="82"/>
-      <c r="BW52" s="57"/>
-      <c r="BX52" s="73"/>
-      <c r="BY52" s="77"/>
+      <c r="BV52" s="79"/>
+      <c r="BW52" s="54"/>
+      <c r="BX52" s="70"/>
+      <c r="BY52" s="74"/>
       <c r="BZ52" s="4"/>
       <c r="CA52" s="4"/>
       <c r="CB52" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="CC52" s="17"/>
       <c r="CD52" s="17"/>
@@ -16309,15 +16826,15 @@
       <c r="CM52" s="5"/>
     </row>
     <row r="53" spans="35:114" ht="18.75" customHeight="1">
-      <c r="AI53" s="56"/>
+      <c r="AI53" s="53"/>
       <c r="AJ53" s="6"/>
-      <c r="AK53" s="67"/>
+      <c r="AK53" s="64"/>
       <c r="AL53" s="4"/>
       <c r="AM53" s="4"/>
-      <c r="AN53" s="82"/>
-      <c r="AO53" s="57"/>
-      <c r="AP53" s="73"/>
-      <c r="AQ53" s="77"/>
+      <c r="AN53" s="79"/>
+      <c r="AO53" s="54"/>
+      <c r="AP53" s="70"/>
+      <c r="AQ53" s="74"/>
       <c r="AR53" s="4"/>
       <c r="AS53" s="4"/>
       <c r="AT53" s="22"/>
@@ -16332,15 +16849,15 @@
       <c r="BC53" s="22"/>
       <c r="BD53" s="4"/>
       <c r="BE53" s="5"/>
-      <c r="BQ53" s="56"/>
+      <c r="BQ53" s="53"/>
       <c r="BR53" s="6"/>
-      <c r="BS53" s="67"/>
+      <c r="BS53" s="64"/>
       <c r="BT53" s="4"/>
       <c r="BU53" s="4"/>
-      <c r="BV53" s="82"/>
-      <c r="BW53" s="57"/>
-      <c r="BX53" s="73"/>
-      <c r="BY53" s="77"/>
+      <c r="BV53" s="79"/>
+      <c r="BW53" s="54"/>
+      <c r="BX53" s="70"/>
+      <c r="BY53" s="74"/>
       <c r="BZ53" s="4"/>
       <c r="CA53" s="4"/>
       <c r="CB53" s="22"/>
@@ -16359,13 +16876,13 @@
     <row r="54" spans="35:114">
       <c r="AI54" s="7"/>
       <c r="AJ54" s="16"/>
-      <c r="AK54" s="68"/>
+      <c r="AK54" s="65"/>
       <c r="AL54" s="17"/>
       <c r="AM54" s="17"/>
-      <c r="AN54" s="70"/>
-      <c r="AO54" s="58"/>
-      <c r="AP54" s="74"/>
-      <c r="AQ54" s="79"/>
+      <c r="AN54" s="67"/>
+      <c r="AO54" s="55"/>
+      <c r="AP54" s="71"/>
+      <c r="AQ54" s="76"/>
       <c r="AR54" s="17"/>
       <c r="AS54" s="17"/>
       <c r="AT54" s="17"/>
@@ -16382,13 +16899,13 @@
       <c r="BE54" s="18"/>
       <c r="BQ54" s="7"/>
       <c r="BR54" s="16"/>
-      <c r="BS54" s="68"/>
+      <c r="BS54" s="65"/>
       <c r="BT54" s="17"/>
       <c r="BU54" s="17"/>
-      <c r="BV54" s="70"/>
-      <c r="BW54" s="58"/>
-      <c r="BX54" s="74"/>
-      <c r="BY54" s="79"/>
+      <c r="BV54" s="67"/>
+      <c r="BW54" s="55"/>
+      <c r="BX54" s="71"/>
+      <c r="BY54" s="76"/>
       <c r="BZ54" s="17"/>
       <c r="CA54" s="17"/>
       <c r="CB54" s="17"/>
@@ -16412,8 +16929,8 @@
       <c r="AM55" s="22"/>
       <c r="AN55" s="22"/>
       <c r="AO55" s="22"/>
-      <c r="AP55" s="71"/>
-      <c r="AQ55" s="71"/>
+      <c r="AP55" s="68"/>
+      <c r="AQ55" s="68"/>
       <c r="AR55" s="22"/>
       <c r="AS55" s="22"/>
       <c r="AT55" s="22"/>
@@ -16435,8 +16952,8 @@
       <c r="BU55" s="22"/>
       <c r="BV55" s="22"/>
       <c r="BW55" s="22"/>
-      <c r="BX55" s="71"/>
-      <c r="BY55" s="71"/>
+      <c r="BX55" s="68"/>
+      <c r="BY55" s="68"/>
       <c r="BZ55" s="22"/>
       <c r="CA55" s="22"/>
       <c r="CB55" s="22"/>
@@ -16525,7 +17042,7 @@
     <row r="58" spans="35:114">
       <c r="CQ58" s="6"/>
       <c r="CR58" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="CS58" s="4"/>
       <c r="CT58" s="4"/>
@@ -16549,7 +17066,7 @@
     <row r="59" spans="35:114">
       <c r="CQ59" s="6"/>
       <c r="CR59" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="CS59" s="4"/>
       <c r="CT59" s="4"/>
@@ -16594,34 +17111,34 @@
     </row>
     <row r="61" spans="35:114">
       <c r="CQ61" s="6"/>
-      <c r="CR61" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="CS61" s="62"/>
-      <c r="CT61" s="62"/>
-      <c r="CU61" s="62"/>
-      <c r="CV61" s="62"/>
-      <c r="CW61" s="62"/>
-      <c r="CX61" s="62"/>
-      <c r="CY61" s="63"/>
+      <c r="CR61" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="CS61" s="59"/>
+      <c r="CT61" s="59"/>
+      <c r="CU61" s="59"/>
+      <c r="CV61" s="59"/>
+      <c r="CW61" s="59"/>
+      <c r="CX61" s="59"/>
+      <c r="CY61" s="60"/>
       <c r="CZ61" s="4"/>
       <c r="DA61" s="4"/>
-      <c r="DB61" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="DC61" s="62"/>
-      <c r="DD61" s="62"/>
-      <c r="DE61" s="62"/>
-      <c r="DF61" s="62"/>
-      <c r="DG61" s="62"/>
-      <c r="DH61" s="62"/>
-      <c r="DI61" s="63"/>
+      <c r="DB61" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="DC61" s="59"/>
+      <c r="DD61" s="59"/>
+      <c r="DE61" s="59"/>
+      <c r="DF61" s="59"/>
+      <c r="DG61" s="59"/>
+      <c r="DH61" s="59"/>
+      <c r="DI61" s="60"/>
       <c r="DJ61" s="5"/>
     </row>
     <row r="62" spans="35:114">
       <c r="CQ62" s="6"/>
-      <c r="CR62" s="86" t="s">
-        <v>164</v>
+      <c r="CR62" s="83" t="s">
+        <v>159</v>
       </c>
       <c r="CS62" s="22"/>
       <c r="CT62" s="22"/>
@@ -16632,8 +17149,8 @@
       <c r="CY62" s="29"/>
       <c r="CZ62" s="21"/>
       <c r="DA62" s="29"/>
-      <c r="DB62" s="86" t="s">
-        <v>161</v>
+      <c r="DB62" s="83" t="s">
+        <v>156</v>
       </c>
       <c r="DC62" s="22"/>
       <c r="DD62" s="22"/>
@@ -16646,8 +17163,8 @@
     </row>
     <row r="63" spans="35:114">
       <c r="CQ63" s="6"/>
-      <c r="CR63" s="87" t="s">
-        <v>165</v>
+      <c r="CR63" s="84" t="s">
+        <v>160</v>
       </c>
       <c r="CS63" s="4"/>
       <c r="CT63" s="4"/>
@@ -16658,8 +17175,8 @@
       <c r="CY63" s="5"/>
       <c r="CZ63" s="6"/>
       <c r="DA63" s="5"/>
-      <c r="DB63" s="87" t="s">
-        <v>162</v>
+      <c r="DB63" s="84" t="s">
+        <v>157</v>
       </c>
       <c r="DC63" s="4"/>
       <c r="DD63" s="4"/>
@@ -16672,8 +17189,8 @@
     </row>
     <row r="64" spans="35:114">
       <c r="CQ64" s="6"/>
-      <c r="CR64" s="87" t="s">
-        <v>162</v>
+      <c r="CR64" s="84" t="s">
+        <v>157</v>
       </c>
       <c r="CS64" s="4"/>
       <c r="CT64" s="4"/>
@@ -16696,8 +17213,8 @@
     </row>
     <row r="65" spans="95:114">
       <c r="CQ65" s="6"/>
-      <c r="CR65" s="87" t="s">
-        <v>167</v>
+      <c r="CR65" s="84" t="s">
+        <v>162</v>
       </c>
       <c r="CS65" s="4"/>
       <c r="CT65" s="4"/>
@@ -16720,8 +17237,8 @@
     </row>
     <row r="66" spans="95:114">
       <c r="CQ66" s="6"/>
-      <c r="CR66" s="87" t="s">
-        <v>166</v>
+      <c r="CR66" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="CS66" s="4"/>
       <c r="CT66" s="4"/>
@@ -16744,8 +17261,8 @@
     </row>
     <row r="67" spans="95:114">
       <c r="CQ67" s="6"/>
-      <c r="CR67" s="83" t="s">
-        <v>163</v>
+      <c r="CR67" s="80" t="s">
+        <v>158</v>
       </c>
       <c r="CS67" s="4"/>
       <c r="CT67" s="4"/>
@@ -16905,7 +17422,7 @@
     <mergeCell ref="BM25:BM28"/>
     <mergeCell ref="CE35:CE38"/>
   </mergeCells>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <hyperlinks>
     <hyperlink ref="DB62" r:id="rId1" display="Nino49a@gmail.com"/>
     <hyperlink ref="DB63" r:id="rId2" display="Tugigroup@gmail.com"/>

--- a/10_SRS/SRS_OpenLibrary.xlsx
+++ b/10_SRS/SRS_OpenLibrary.xlsx
@@ -18,11 +18,11 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="185">
   <si>
     <t>■Chi tiết</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>■Mô tả</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -49,22 +49,22 @@
       </rPr>
       <t>ời dùng có thể tự tạo sách tiếng Nhật</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t xml:space="preserve">Listup sách đã tạo </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>(hoặc Hiển thị ban đầu)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Trang chủ</t>
   </si>
   <si>
     <t>Trang chủ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -91,7 +91,7 @@
       </rPr>
       <t>ớng dẫn</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -118,28 +118,28 @@
       </rPr>
       <t xml:space="preserve"> viện tài liệu</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Bàn học</t>
   </si>
   <si>
     <t>Bàn học</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Giới thiệu</t>
   </si>
   <si>
     <t>Giới thiệu</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Liên hệ</t>
   </si>
   <si>
     <t>Liên hệ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -166,7 +166,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -193,11 +193,11 @@
       </rPr>
       <t>ớc khi sửa＞</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>＜Sau khi sửa＞</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Hướng dẫn</t>
@@ -223,27 +223,27 @@
   </si>
   <si>
     <t>Tên chức năng</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Mô tả giao diện</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Thêm 「Thư viện mở」 vào Menu bar (refer bên trái)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t xml:space="preserve">Khi nhấn vào link thì sẽ di chuyển đến màn hình </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>chính của chức năng này.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>※Tham khảo [Listup sách đã tạo]</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -269,27 +269,27 @@
       </rPr>
       <t xml:space="preserve"> ← Click here</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Tên sách</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>◆Từ vựng</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Hành động</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>N4-5 vocabulary</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -316,35 +316,35 @@
       </rPr>
       <t>ợng thanh</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>◆Kanji</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>N4_SakuraTT</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>N4_DongDu</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Tên sách</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Hành động</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>※Chỉ người tạo + đối tượng được share mới thấy được</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -371,19 +371,19 @@
       </rPr>
       <t xml:space="preserve"> viện tài liêu」</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>◆Sửa DB</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Nội dung xử lý</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>◆Xử lý trên Webpage</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -410,7 +410,7 @@
       </rPr>
       <t>ợng share.</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -437,7 +437,7 @@
       </rPr>
       <t>ời tạo sách.</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -466,7 +466,7 @@
       </rPr>
       <t>ời tạo share cho.</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -518,43 +518,43 @@
       </rPr>
       <t>ợng share mới thấy sách,</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>【Hiển thị ban đầu】</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t xml:space="preserve">   ・Hiển thị link 「Tạo sách mới」</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t xml:space="preserve">   ・Hiển thị list các sách đã tạo, có phân loại.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>【link 「Tạo sách mới」】</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t xml:space="preserve">   ・Di chuyển sang màn hình tạo mới sách.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Sửa</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Xóa</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Chia xẻ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>【Hành động 「Sửa」】</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -581,39 +581,39 @@
       </rPr>
       <t>ng ứng.</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>【Hành động 「Xóa」】</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t xml:space="preserve">   ・Xóa sách trong Book TBL.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t xml:space="preserve">   ・Reload lai màn hình hiện tại.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Danh sách các tài liệu bạn đã tạo</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Tạo mới sách</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>1. Listup sách đã tạo.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2. Tạo mới sách.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>3. Chỉnh sửa sách.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -640,11 +640,11 @@
       </rPr>
       <t xml:space="preserve"> viện mở」</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Tạo link di chuyển Menu</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -671,7 +671,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở」</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -698,7 +698,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở].</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -725,7 +725,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở」</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -752,126 +752,126 @@
       </rPr>
       <t xml:space="preserve"> viện mở].</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>◆Hiển thị trên PC</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>◆jHiển thị trên SmartPhone</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>◆Màn hình tạo sách mới</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>◆Màn hình tạo nội dung cho sách</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Mô tả sách</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Cấp độ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Phân loại</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Tag</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Phân loại(*)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Cấp độ(*)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Tên sách(*)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Từ vựng</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>N1</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t xml:space="preserve">Chỉ cần học kanji trong </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>24h</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>◆Sách</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>◆Nội dung</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Bài 1</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Chỉ cần học Kanji trong 24h</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Danh sách</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Ý nghĩa</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>うっかり</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>がっかり</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>24h_Word</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>{'level': 'N1', 'tag' : {'contains':',24h_Word,'}}</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Thất vọng, làm thất vọng</t>
   </si>
   <si>
     <t>Cách đọc:</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Ý nghĩa:</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Audio:</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Sample</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -898,11 +898,11 @@
       </rPr>
       <t>ng vẫn</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>がっかりしている。:</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>よく練習したのに、選手に選択されなかた為、</t>
@@ -915,7 +915,7 @@
     <rPh sb="12" eb="14">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -942,39 +942,39 @@
       </rPr>
       <t>ợc chọn nên thất vọng.</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>【Hiển thị ban đầu】</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>All fields blank</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>[Tag] field sẽ tự động sinh ra, không cho phép input</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>24h_Word</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>{'level': 'N1', 'tag' : {'contains':',24h_Word,'}}</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>【button 「Tiếp tục」】</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>mà sẽ di chuyển sang màn hình tạo nội dung cho sách</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>【button 「Quay về」】</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1001,7 +1001,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1025,7 +1025,7 @@
       </rPr>
       <t>※Tham khảo 「Tạo sách mới」</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1052,15 +1052,15 @@
       </rPr>
       <t>ớc</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>・Vùng nội dung: All field blank</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>【button 「Thêm」】</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1087,7 +1087,7 @@
       </rPr>
       <t>ớc đó.</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1114,23 +1114,23 @@
       </rPr>
       <t>a đăng ký vao Book TBL ngay,</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Quay trở về màn hình listup sách đã tạo</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>【Link 「Tìm」】</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Tìm kiếm audio từ DB hiện có.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>【Link 「Tạo」】</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1157,11 +1157,11 @@
       </rPr>
       <t>ời dùng tự</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>phát âm và record + upload.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1188,11 +1188,11 @@
       </rPr>
       <t>ời dùng Upload.</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>【Link 「Lưu」】</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1219,7 +1219,7 @@
       </rPr>
       <t>u dữ liệu đã input tạm thời</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1246,23 +1246,23 @@
       </rPr>
       <t>u tạm thời</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>【Link 「Xóa」】</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>【Link 「Nhập lại」】</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Reset lại nội dung đã nhập</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>【button 「Đăng ký」】</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1278,15 +1278,15 @@
       </rPr>
       <t>ưa nội dung Sách và Từ đã input lên cơ sở dữ liệu.</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>【button 「Hủy bỏ」】</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Cancel việc đăng ký, quay trở về màn hình chính</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1313,7 +1313,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở.</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1342,11 +1342,11 @@
       </rPr>
       <t xml:space="preserve">ng tự, chỉ </t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>khác nhau ở phần hiển thị input ở [Ý nghĩa]</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Chỉnh sửa sách.</t>
@@ -1373,11 +1373,11 @@
       </rPr>
       <t>※Tham khảo 「Chỉnh sửa sách」</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>◆Màn hình chỉnh sửa sách</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1404,7 +1404,7 @@
       </rPr>
       <t>ợc hiển thị</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1431,39 +1431,39 @@
       </rPr>
       <t>u thay đổi không/cancel)</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Di chuyển sang màn hình chỉnh sửa nội dung sách</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>◆Màn hình chỉnh sửa nội dung cho sách</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Cho phép nhập từ ở dòng mới.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>・Vùng nội dung: Hiển thị thông tin từ DB</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>【button 「Sửa」】</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Enable sửa ở line đang có focus.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>【button 「Sửa DB」】</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Đăng ký lại Sách và Từ đã input lên cơ sở dữ liệu.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1482,43 +1482,43 @@
       </rPr>
       <t>24h_Word</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Nino49a</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Tugigroup</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>YYY</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Nino49a</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Thanhnv</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>XXX</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>TuyenTuyen</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>All account</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Share account</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1545,11 +1545,11 @@
       </rPr>
       <t>ợc sách.</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>・Tên sách hiển thị</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1576,23 +1576,23 @@
       </rPr>
       <t>ời dùng hiển thị</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>・Share account: Blank</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>【Thao tác】</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>All account: Chọn Account muốn share &amp; click [&gt;&gt;]</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Share Account: Chọn Account muốn cắt share &amp; click [&lt;&lt;]</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1618,7 +1618,7 @@
       </rPr>
       <t>」】</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1645,11 +1645,11 @@
       </rPr>
       <t>ợc đăng ký vào 「PublicTo」</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>trong Book TBL.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1665,11 +1665,11 @@
       </rPr>
       <t>」】</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Hủy bỏ share book và quay về màn hình chính.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1698,7 +1698,7 @@
       </rPr>
       <t>ợc share cho</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -1714,7 +1714,7 @@
       </rPr>
       <t>c account có sẵn đó</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>&amp; Chia sẻ với các người dùng khác.</t>
@@ -1739,13 +1739,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2145,7 +2152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2178,25 +2185,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
@@ -2208,10 +2215,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
@@ -2223,34 +2230,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2262,7 +2269,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
@@ -2313,13 +2320,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
@@ -2337,7 +2344,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
@@ -2349,67 +2356,70 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2420,9 +2430,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2940,7 +2947,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-              <a:t>Chia xẻ với bạn bè </a:t>
+              <a:t>Chia sẻ với bạn bè </a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
@@ -14405,7 +14412,7 @@
       <c r="X189" s="4"/>
       <c r="Y189" s="4"/>
       <c r="Z189" s="5"/>
-      <c r="AA189" s="90" t="s">
+      <c r="AA189" s="87" t="s">
         <v>178</v>
       </c>
       <c r="AB189" s="4"/>
@@ -14659,7 +14666,7 @@
       <c r="X195" s="4"/>
       <c r="Y195" s="4"/>
       <c r="Z195" s="5"/>
-      <c r="AA195" s="90" t="s">
+      <c r="AA195" s="87" t="s">
         <v>172</v>
       </c>
       <c r="AB195" s="4"/>
@@ -14829,7 +14836,7 @@
       <c r="X199" s="4"/>
       <c r="Y199" s="4"/>
       <c r="Z199" s="5"/>
-      <c r="AA199" s="90" t="s">
+      <c r="AA199" s="87" t="s">
         <v>175</v>
       </c>
       <c r="AB199" s="4"/>
@@ -15218,7 +15225,7 @@
       <c r="AN208" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <hyperlinks>
     <hyperlink ref="AA36:AH36" location="SRS!A34" display="※Tham khảo [Listup sách đã tạo]"/>
     <hyperlink ref="AA75:AG75" location="SRS!B89" display="   ※Tham khảo 「Tạo sách mới」"/>
@@ -15593,7 +15600,7 @@
       </c>
       <c r="AC25" s="3"/>
       <c r="AD25" s="4"/>
-      <c r="AE25" s="87" t="s">
+      <c r="AE25" s="88" t="s">
         <v>77</v>
       </c>
       <c r="AF25" s="34" t="s">
@@ -15609,7 +15616,7 @@
       </c>
       <c r="BK25" s="3"/>
       <c r="BL25" s="4"/>
-      <c r="BM25" s="87" t="s">
+      <c r="BM25" s="88" t="s">
         <v>77</v>
       </c>
       <c r="BN25" s="34" t="s">
@@ -15627,7 +15634,7 @@
       </c>
       <c r="AC26" s="36"/>
       <c r="AD26" s="4"/>
-      <c r="AE26" s="88"/>
+      <c r="AE26" s="89"/>
       <c r="AF26" s="35" t="s">
         <v>87</v>
       </c>
@@ -15641,7 +15648,7 @@
       </c>
       <c r="BK26" s="36"/>
       <c r="BL26" s="4"/>
-      <c r="BM26" s="88"/>
+      <c r="BM26" s="89"/>
       <c r="BN26" s="35" t="s">
         <v>87</v>
       </c>
@@ -15657,7 +15664,7 @@
       </c>
       <c r="AC27" s="36"/>
       <c r="AD27" s="4"/>
-      <c r="AE27" s="88"/>
+      <c r="AE27" s="89"/>
       <c r="AF27" s="35"/>
       <c r="AG27" s="5"/>
       <c r="BH27" s="6"/>
@@ -15669,7 +15676,7 @@
       </c>
       <c r="BK27" s="36"/>
       <c r="BL27" s="4"/>
-      <c r="BM27" s="88"/>
+      <c r="BM27" s="89"/>
       <c r="BN27" s="35"/>
       <c r="BO27" s="5"/>
     </row>
@@ -15683,7 +15690,7 @@
       </c>
       <c r="AC28" s="38"/>
       <c r="AD28" s="4"/>
-      <c r="AE28" s="89"/>
+      <c r="AE28" s="90"/>
       <c r="AF28" s="36"/>
       <c r="AG28" s="5"/>
       <c r="BH28" s="53"/>
@@ -15695,7 +15702,7 @@
       </c>
       <c r="BK28" s="38"/>
       <c r="BL28" s="4"/>
-      <c r="BM28" s="89"/>
+      <c r="BM28" s="90"/>
       <c r="BN28" s="36"/>
       <c r="BO28" s="53"/>
     </row>
@@ -15872,7 +15879,7 @@
       <c r="AT35" s="41"/>
       <c r="AU35" s="38"/>
       <c r="AV35" s="4"/>
-      <c r="AW35" s="87" t="s">
+      <c r="AW35" s="88" t="s">
         <v>77</v>
       </c>
       <c r="AX35" s="43" t="s">
@@ -15903,7 +15910,7 @@
       <c r="CB35" s="41"/>
       <c r="CC35" s="38"/>
       <c r="CD35" s="4"/>
-      <c r="CE35" s="87" t="s">
+      <c r="CE35" s="88" t="s">
         <v>77</v>
       </c>
       <c r="CF35" s="43" t="s">
@@ -15936,7 +15943,7 @@
       <c r="AT36" s="41"/>
       <c r="AU36" s="38"/>
       <c r="AV36" s="4"/>
-      <c r="AW36" s="88"/>
+      <c r="AW36" s="89"/>
       <c r="AX36" s="46"/>
       <c r="AY36" s="47"/>
       <c r="AZ36" s="47"/>
@@ -15963,7 +15970,7 @@
       <c r="CB36" s="41"/>
       <c r="CC36" s="38"/>
       <c r="CD36" s="4"/>
-      <c r="CE36" s="88"/>
+      <c r="CE36" s="89"/>
       <c r="CF36" s="46"/>
       <c r="CG36" s="47"/>
       <c r="CH36" s="47"/>
@@ -15992,7 +15999,7 @@
       <c r="AT37" s="41"/>
       <c r="AU37" s="38"/>
       <c r="AV37" s="4"/>
-      <c r="AW37" s="88"/>
+      <c r="AW37" s="89"/>
       <c r="AX37" s="46"/>
       <c r="AY37" s="47"/>
       <c r="AZ37" s="47"/>
@@ -16019,7 +16026,7 @@
       <c r="CB37" s="41"/>
       <c r="CC37" s="38"/>
       <c r="CD37" s="4"/>
-      <c r="CE37" s="88"/>
+      <c r="CE37" s="89"/>
       <c r="CF37" s="46"/>
       <c r="CG37" s="47"/>
       <c r="CH37" s="47"/>
@@ -16048,7 +16055,7 @@
       <c r="AT38" s="41"/>
       <c r="AU38" s="38"/>
       <c r="AV38" s="4"/>
-      <c r="AW38" s="89"/>
+      <c r="AW38" s="90"/>
       <c r="AX38" s="48"/>
       <c r="AY38" s="49"/>
       <c r="AZ38" s="49"/>
@@ -16075,7 +16082,7 @@
       <c r="CB38" s="41"/>
       <c r="CC38" s="38"/>
       <c r="CD38" s="4"/>
-      <c r="CE38" s="89"/>
+      <c r="CE38" s="90"/>
       <c r="CF38" s="48"/>
       <c r="CG38" s="49"/>
       <c r="CH38" s="49"/>
@@ -17422,7 +17429,7 @@
     <mergeCell ref="BM25:BM28"/>
     <mergeCell ref="CE35:CE38"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <hyperlinks>
     <hyperlink ref="DB62" r:id="rId1" display="Nino49a@gmail.com"/>
     <hyperlink ref="DB63" r:id="rId2" display="Tugigroup@gmail.com"/>

--- a/10_SRS/SRS_OpenLibrary.xlsx
+++ b/10_SRS/SRS_OpenLibrary.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_WORKING\TUGI\Japtool_src\doc\10_SRS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="19020" windowHeight="8325"/>
   </bookViews>
@@ -16,14 +21,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="193">
   <si>
     <t>■Chi tiết</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>■Mô tả</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -50,18 +55,18 @@
       </rPr>
       <t>ời dùng có thể tự tạo sách tiếng Nhật</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>(hoặc Hiển thị ban đầu)</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Trang chủ</t>
   </si>
   <si>
     <t>Trang chủ</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -88,7 +93,7 @@
       </rPr>
       <t>ớng dẫn</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -115,28 +120,28 @@
       </rPr>
       <t xml:space="preserve"> viện tài liệu</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Bàn học</t>
   </si>
   <si>
     <t>Bàn học</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Giới thiệu</t>
   </si>
   <si>
     <t>Giới thiệu</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Liên hệ</t>
   </si>
   <si>
     <t>Liên hệ</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -163,11 +168,11 @@
       </rPr>
       <t xml:space="preserve"> viện mở</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>＜Sau khi sửa＞</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Hướng dẫn</t>
@@ -193,11 +198,11 @@
   </si>
   <si>
     <t>Tên chức năng</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Mô tả giao diện</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -223,27 +228,27 @@
       </rPr>
       <t xml:space="preserve"> ← Click here</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Tên sách</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>◆Từ vựng</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Hành động</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>N4-5 vocabulary</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -270,35 +275,35 @@
       </rPr>
       <t>ợng thanh</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>◆Kanji</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>N4_SakuraTT</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>N4_DongDu</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Tên sách</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Hành động</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>※Chỉ người tạo + đối tượng được share mới thấy được</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -325,19 +330,19 @@
       </rPr>
       <t xml:space="preserve"> viện tài liêu」</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>◆Sửa DB</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Nội dung xử lý</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>◆Xử lý trên Webpage</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -364,7 +369,7 @@
       </rPr>
       <t>ợng share.</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -391,43 +396,43 @@
       </rPr>
       <t>ời tạo sách.</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>【Hiển thị ban đầu】</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">   ・Hiển thị link 「Tạo sách mới」</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">   ・Hiển thị list các sách đã tạo, có phân loại.</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>【link 「Tạo sách mới」】</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">   ・Di chuyển sang màn hình tạo mới sách.</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Sửa</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Xóa</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Chia xẻ</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>【Hành động 「Sửa」】</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -454,31 +459,31 @@
       </rPr>
       <t>ng ứng.</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>【Hành động 「Xóa」】</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">   ・Reload lai màn hình hiện tại.</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Danh sách các tài liệu bạn đã tạo</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Tạo mới sách</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>2. Tạo mới sách.</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>3. Chỉnh sửa sách.</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -505,11 +510,11 @@
       </rPr>
       <t xml:space="preserve"> viện mở」</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Tạo link di chuyển Menu</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -536,7 +541,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở」</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -563,7 +568,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở].</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -590,7 +595,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở」</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -617,114 +622,114 @@
       </rPr>
       <t xml:space="preserve"> viện mở].</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>◆Màn hình tạo sách mới</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Mô tả sách</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Cấp độ</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Phân loại</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Tag</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Phân loại(*)</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Cấp độ(*)</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Tên sách(*)</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Từ vựng</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>N1</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">Chỉ cần học kanji trong </t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>24h</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>◆Sách</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>◆Nội dung</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Bài 1</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Chỉ cần học Kanji trong 24h</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Danh sách</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Ý nghĩa</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>うっかり</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>がっかり</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>24h_Word</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>{'level': 'N1', 'tag' : {'contains':',24h_Word,'}}</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Thất vọng, làm thất vọng</t>
   </si>
   <si>
     <t>Cách đọc:</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Ý nghĩa:</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Audio:</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Sample</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -751,11 +756,11 @@
       </rPr>
       <t>ng vẫn</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>がっかりしている。:</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>よく練習したのに、選手に選択されなかた為、</t>
@@ -768,7 +773,7 @@
     <rPh sb="12" eb="14">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -795,27 +800,27 @@
       </rPr>
       <t>ợc chọn nên thất vọng.</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>【Hiển thị ban đầu】</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>24h_Word</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>{'level': 'N1', 'tag' : {'contains':',24h_Word,'}}</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>【button 「Tiếp tục」】</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>【button 「Quay về」】</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -842,7 +847,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở)</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -869,27 +874,27 @@
       </rPr>
       <t>ớc</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>【button 「Thêm」】</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Quay trở về màn hình listup sách đã tạo</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>【Link 「Tìm」】</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Tìm kiếm audio từ DB hiện có.</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>【Link 「Tạo」】</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -916,11 +921,11 @@
       </rPr>
       <t>ời dùng tự</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>phát âm và record + upload.</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -947,7 +952,7 @@
       </rPr>
       <t>ời dùng Upload.</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -974,27 +979,27 @@
       </rPr>
       <t>u tạm thời</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>【Link 「Xóa」】</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>【Link 「Nhập lại」】</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Reset lại nội dung đã nhập</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>【button 「Hủy bỏ」】</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Cancel việc đăng ký, quay trở về màn hình chính</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1021,7 +1026,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở.</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1050,18 +1055,18 @@
       </rPr>
       <t xml:space="preserve">ng tự, chỉ </t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>khác nhau ở phần hiển thị input ở [Ý nghĩa]</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Chỉnh sửa sách.</t>
   </si>
   <si>
     <t>◆Màn hình chỉnh sửa sách</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1088,7 +1093,7 @@
       </rPr>
       <t>ợc hiển thị</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1115,39 +1120,39 @@
       </rPr>
       <t>u thay đổi không/cancel)</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Di chuyển sang màn hình chỉnh sửa nội dung sách</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>◆Màn hình chỉnh sửa nội dung cho sách</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Cho phép nhập từ ở dòng mới.</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・Vùng nội dung: Hiển thị thông tin từ DB</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>【button 「Sửa」】</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Enable sửa ở line đang có focus.</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>【button 「Sửa DB」】</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Đăng ký lại Sách và Từ đã input lên cơ sở dữ liệu.</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1166,43 +1171,43 @@
       </rPr>
       <t>24h_Word</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Nino49a</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Tugigroup</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>YYY</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Nino49a</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Thanhnv</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>XXX</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>TuyenTuyen</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>All account</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Share account</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1229,54 +1234,7 @@
       </rPr>
       <t>ợc sách.</t>
     </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>・Tên sách hiển thị</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <t>・All account: Toàn bộ account ng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ời dùng hiển thị</t>
-    </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>・Share account: Blank</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>【Thao tác】</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>All account: Chọn Account muốn share &amp; click [&gt;&gt;]</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Share Account: Chọn Account muốn cắt share &amp; click [&lt;&lt;]</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1302,7 +1260,7 @@
       </rPr>
       <t>」】</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1329,11 +1287,11 @@
       </rPr>
       <t>ợc đăng ký vào 「PublicTo」</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>trong Book TBL.</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1349,56 +1307,11 @@
       </rPr>
       <t>」】</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Hủy bỏ share book và quay về màn hình chính.</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <t>※Share account mà ≠ blank thì sách đang đ</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ợc share cho</t>
-    </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <t>cá</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c account có sẵn đó</t>
-    </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>&amp; Chia sẻ với các người dùng khác.</t>
@@ -1442,7 +1355,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở」 vào Menu bar (refer bên trái)</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1469,7 +1382,7 @@
       </rPr>
       <t>ớc khi sửa＞</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1496,7 +1409,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở.</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1523,7 +1436,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở]</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1550,7 +1463,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1577,15 +1490,15 @@
       </rPr>
       <t>ớc để tạo Private sách.</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>2. Nhập dữ liệu sách</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>3. Upload dữ liệu sách vào CSDL của Website.</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1616,11 +1529,11 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>【Link 「Quay lại」】</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1647,11 +1560,11 @@
       </rPr>
       <t xml:space="preserve"> viện mở」</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>【Link 「Ở đây」】</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1678,11 +1591,11 @@
       </rPr>
       <t>ớng dẫn nhập dữ liệu</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>【button 「...」】</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1709,58 +1622,46 @@
       </rPr>
       <t>ợc input</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>【button 「Upload」】</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Upload file lên server &amp; import vào DB</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>← Quay lai</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Sau khi upload xong thì sẽ thông báo message và remind</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>user đọc log để bổ xung audio thiếu.</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>①Blank： Private</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>②All： Public to all user</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>③XXX,YYY,ZZZ： Public to some user</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Chia sẻ</t>
   </si>
   <si>
     <t xml:space="preserve">   ※Dùng khi muốn chỉnh sửa từng từ.</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">   ・Xóa sách trong TH không cần hoặc muốn re-upload.</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">   ※Tham khảo 「Tạo sách mới」</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">   ※Tham khảo 「Chỉnh sửa sách」</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1787,24 +1688,327 @@
       </rPr>
       <t xml:space="preserve"> viện mở」</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>All personal/group account</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>○Chỉ dùng cho cá nhân</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>○Chia sẻ cho tất cả ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời dùng</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>●Chia sẻ chỉ định ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời dùng</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>Chỉ định ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời dùng hoặc nhóm ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời dùng</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gười tạo sách có thể chỉ định chia sẻ sách như sau:</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>・Chỉ dùng cho cá nhân</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>・Chia sẻ cho tất cả ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời dùng</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>・Chia sẻ chỉ định ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời dùng</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>①Blank： Chỉ dùng cho cá nhân</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>②All： Chia sẻ cho tất cả ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời dùng</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>③XXX,YYY,ZZZ： Chia sẻ chỉ định ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời dùng</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>・Blank： Chỉ dùng cho cá nhân</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>・All： Chia sẻ cho tất cả ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời dùng</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>・XXX,YYY,ZZZ： Chia sẻ chỉ định ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời dùng</t>
+    </r>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2222,12 +2426,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2255,25 +2459,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
@@ -2285,10 +2489,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
@@ -2300,34 +2504,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2339,7 +2543,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
@@ -2390,13 +2594,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
@@ -2414,7 +2618,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
@@ -2426,70 +2630,82 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2504,19 +2720,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2526,6 +2733,14 @@
       <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3444,6 +3659,466 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>22</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1032" name="Picture 8"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Interface!$B$2:$G$2" spid="_x0000_s1101"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2238375" y="5753100"/>
+              <a:ext cx="4400550" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1033" name="Picture 9"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Interface!$H$3:$N$3" spid="_x0000_s1102"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2219325" y="6438900"/>
+              <a:ext cx="5276850" cy="228600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1037" name="Picture 13"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Interface!$M$11:$X$23" spid="_x0000_s1103"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2124075" y="7219950"/>
+              <a:ext cx="5248275" cy="2305050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>111</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>123</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1042" name="Picture 18"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Interface!$BH$24:$BO$37" spid="_x0000_s1104"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2124075" y="19145250"/>
+              <a:ext cx="5514975" cy="2114550"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>125</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>153</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1046" name="Picture 22"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Interface!$BQ$33:$CM$70" spid="_x0000_s1105"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2114550" y="21516975"/>
+              <a:ext cx="5524500" cy="4829175"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>108</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1050" name="Picture 26"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Interface!$DP$88:$ED$108" spid="_x0000_s1106"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2476500" y="14001750"/>
+              <a:ext cx="4857750" cy="4619625"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>108136</xdr:colOff>
+          <xdr:row>159</xdr:row>
+          <xdr:rowOff>44824</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>199464</xdr:colOff>
+          <xdr:row>190</xdr:row>
+          <xdr:rowOff>54349</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="26" name="Ảnh 25"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Interface!$CQ$57:$DK$87" spid="_x0000_s1107"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2147607" y="26826883"/>
+              <a:ext cx="5335681" cy="5220260"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -4639,13 +5314,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4695,13 +5370,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4757,7 +5432,7 @@
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4807,7 +5482,7 @@
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5707,13 +6382,13 @@
     <xdr:from>
       <xdr:col>74</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5763,13 +6438,13 @@
     <xdr:from>
       <xdr:col>78</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>82</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5825,7 +6500,7 @@
     <xdr:to>
       <xdr:col>75</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5876,7 +6551,7 @@
     <xdr:to>
       <xdr:col>80</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6893,15 +7568,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>103</xdr:col>
+      <xdr:col>104</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>104</xdr:col>
+      <xdr:col>105</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6955,15 +7630,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>103</xdr:col>
+      <xdr:col>104</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>104</xdr:col>
+      <xdr:col>105</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7017,15 +7692,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
+      <xdr:col>96</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>97</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7093,15 +7768,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>98</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>100</xdr:col>
+      <xdr:col>101</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7177,15 +7852,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>103</xdr:col>
+      <xdr:col>104</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>106</xdr:col>
+      <xdr:col>107</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7233,15 +7908,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>108</xdr:col>
+      <xdr:col>109</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>112</xdr:col>
+      <xdr:col>113</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7289,15 +7964,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>104</xdr:col>
+      <xdr:col>105</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>104</xdr:col>
+      <xdr:col>105</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7340,15 +8015,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>119</xdr:col>
+      <xdr:col>120</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>121</xdr:col>
+      <xdr:col>122</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7416,15 +8091,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>130</xdr:col>
+      <xdr:col>131</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>131</xdr:col>
+      <xdr:col>132</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7492,15 +8167,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>121</xdr:col>
+      <xdr:col>122</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>121</xdr:col>
+      <xdr:col>122</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7543,15 +8218,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>134</xdr:col>
+      <xdr:col>135</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>137</xdr:col>
+      <xdr:col>138</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7599,15 +8274,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>138</xdr:col>
+      <xdr:col>139</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>141</xdr:col>
+      <xdr:col>142</xdr:col>
       <xdr:colOff>244543</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7655,15 +8330,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>143</xdr:col>
+      <xdr:col>144</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>146</xdr:col>
+      <xdr:col>147</xdr:col>
       <xdr:colOff>101668</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7711,15 +8386,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>120</xdr:col>
+      <xdr:col>121</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>123</xdr:col>
+      <xdr:col>124</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7767,15 +8442,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>125</xdr:col>
+      <xdr:col>126</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>125</xdr:col>
+      <xdr:col>126</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7818,15 +8493,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>124</xdr:col>
+      <xdr:col>125</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>127</xdr:col>
+      <xdr:col>128</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7874,15 +8549,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>130</xdr:col>
+      <xdr:col>131</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>130</xdr:col>
+      <xdr:col>131</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7925,15 +8600,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>128</xdr:col>
+      <xdr:col>129</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>131</xdr:col>
+      <xdr:col>132</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7981,15 +8656,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>110</xdr:col>
+      <xdr:col>111</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>110</xdr:col>
+      <xdr:col>111</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8032,15 +8707,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>97</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>100</xdr:col>
+      <xdr:col>101</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8088,15 +8763,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>98</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12128,7 +12803,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12160,9 +12835,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12194,6 +12870,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12369,77 +13046,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN184"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="3.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" s="11" customFormat="1" ht="16.5" customHeight="1">
+    <row r="32" spans="1:40" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="12" t="s">
         <v>19</v>
       </c>
@@ -12486,7 +13163,7 @@
       <c r="AM32" s="13"/>
       <c r="AN32" s="14"/>
     </row>
-    <row r="33" spans="1:40">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -12499,7 +13176,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="5"/>
       <c r="H33" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -12519,8 +13196,8 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="5"/>
-      <c r="AA33" s="91" t="s">
-        <v>160</v>
+      <c r="AA33" s="88" t="s">
+        <v>152</v>
       </c>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
@@ -12536,7 +13213,7 @@
       <c r="AM33" s="4"/>
       <c r="AN33" s="5"/>
     </row>
-    <row r="34" spans="1:40" ht="14.25">
+    <row r="34" spans="1:40" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B34" s="6" t="s">
         <v>59</v>
       </c>
@@ -12565,7 +13242,7 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="19" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AB34" s="20"/>
       <c r="AC34" s="20"/>
@@ -12581,7 +13258,7 @@
       <c r="AM34" s="4"/>
       <c r="AN34" s="5"/>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B35" s="6"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -12622,7 +13299,7 @@
       <c r="AM35" s="4"/>
       <c r="AN35" s="5"/>
     </row>
-    <row r="36" spans="1:40">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B36" s="6"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -12663,7 +13340,7 @@
       <c r="AM36" s="4"/>
       <c r="AN36" s="5"/>
     </row>
-    <row r="37" spans="1:40">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B37" s="6"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -12706,7 +13383,7 @@
       <c r="AM37" s="4"/>
       <c r="AN37" s="5"/>
     </row>
-    <row r="38" spans="1:40">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -12747,7 +13424,7 @@
       <c r="AM38" s="4"/>
       <c r="AN38" s="5"/>
     </row>
-    <row r="39" spans="1:40">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B39" s="6"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -12788,7 +13465,7 @@
       <c r="AM39" s="4"/>
       <c r="AN39" s="5"/>
     </row>
-    <row r="40" spans="1:40">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B40" s="6"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -12829,7 +13506,7 @@
       <c r="AM40" s="4"/>
       <c r="AN40" s="5"/>
     </row>
-    <row r="41" spans="1:40">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -12870,12 +13547,12 @@
       <c r="AM41" s="17"/>
       <c r="AN41" s="18"/>
     </row>
-    <row r="42" spans="1:40">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>1</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -12918,7 +13595,7 @@
       <c r="AM42" s="4"/>
       <c r="AN42" s="5"/>
     </row>
-    <row r="43" spans="1:40">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B43" s="6" t="s">
         <v>3</v>
       </c>
@@ -12963,7 +13640,7 @@
       <c r="AM43" s="4"/>
       <c r="AN43" s="5"/>
     </row>
-    <row r="44" spans="1:40">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B44" s="6"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -13002,7 +13679,7 @@
       <c r="AM44" s="4"/>
       <c r="AN44" s="5"/>
     </row>
-    <row r="45" spans="1:40">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B45" s="6"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -13045,7 +13722,7 @@
       <c r="AM45" s="4"/>
       <c r="AN45" s="5"/>
     </row>
-    <row r="46" spans="1:40">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B46" s="6"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -13088,7 +13765,7 @@
       <c r="AM46" s="4"/>
       <c r="AN46" s="5"/>
     </row>
-    <row r="47" spans="1:40">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B47" s="6"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -13131,7 +13808,7 @@
       <c r="AM47" s="4"/>
       <c r="AN47" s="5"/>
     </row>
-    <row r="48" spans="1:40">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B48" s="6"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -13159,7 +13836,7 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="6"/>
       <c r="AB48" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
@@ -13174,7 +13851,7 @@
       <c r="AM48" s="4"/>
       <c r="AN48" s="5"/>
     </row>
-    <row r="49" spans="2:40">
+    <row r="49" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B49" s="6"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -13202,7 +13879,7 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="6"/>
       <c r="AB49" s="4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
@@ -13217,7 +13894,7 @@
       <c r="AM49" s="4"/>
       <c r="AN49" s="5"/>
     </row>
-    <row r="50" spans="2:40">
+    <row r="50" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B50" s="6"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -13245,7 +13922,7 @@
       <c r="Z50" s="5"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
@@ -13260,7 +13937,7 @@
       <c r="AM50" s="4"/>
       <c r="AN50" s="5"/>
     </row>
-    <row r="51" spans="2:40">
+    <row r="51" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B51" s="6"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -13300,7 +13977,7 @@
       <c r="AM51" s="4"/>
       <c r="AN51" s="5"/>
     </row>
-    <row r="52" spans="2:40">
+    <row r="52" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B52" s="6"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -13341,7 +14018,7 @@
       <c r="AM52" s="4"/>
       <c r="AN52" s="5"/>
     </row>
-    <row r="53" spans="2:40">
+    <row r="53" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B53" s="6"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -13382,7 +14059,7 @@
       <c r="AM53" s="4"/>
       <c r="AN53" s="5"/>
     </row>
-    <row r="54" spans="2:40">
+    <row r="54" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B54" s="6"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -13423,7 +14100,7 @@
       <c r="AM54" s="4"/>
       <c r="AN54" s="5"/>
     </row>
-    <row r="55" spans="2:40">
+    <row r="55" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B55" s="6"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -13464,7 +14141,7 @@
       <c r="AM55" s="4"/>
       <c r="AN55" s="5"/>
     </row>
-    <row r="56" spans="2:40">
+    <row r="56" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B56" s="6"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -13505,7 +14182,7 @@
       <c r="AM56" s="4"/>
       <c r="AN56" s="5"/>
     </row>
-    <row r="57" spans="2:40">
+    <row r="57" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B57" s="6"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -13546,7 +14223,7 @@
       <c r="AM57" s="4"/>
       <c r="AN57" s="5"/>
     </row>
-    <row r="58" spans="2:40">
+    <row r="58" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B58" s="6"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -13587,7 +14264,7 @@
       <c r="AM58" s="4"/>
       <c r="AN58" s="5"/>
     </row>
-    <row r="59" spans="2:40">
+    <row r="59" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B59" s="6"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -13630,7 +14307,7 @@
       <c r="AM59" s="4"/>
       <c r="AN59" s="5"/>
     </row>
-    <row r="60" spans="2:40">
+    <row r="60" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B60" s="6"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -13673,7 +14350,7 @@
       <c r="AM60" s="4"/>
       <c r="AN60" s="5"/>
     </row>
-    <row r="61" spans="2:40">
+    <row r="61" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B61" s="6"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -13716,7 +14393,7 @@
       <c r="AM61" s="4"/>
       <c r="AN61" s="5"/>
     </row>
-    <row r="62" spans="2:40">
+    <row r="62" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -13759,7 +14436,7 @@
       <c r="AM62" s="4"/>
       <c r="AN62" s="5"/>
     </row>
-    <row r="63" spans="2:40">
+    <row r="63" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B63" s="6"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -13800,7 +14477,7 @@
       <c r="AM63" s="4"/>
       <c r="AN63" s="5"/>
     </row>
-    <row r="64" spans="2:40">
+    <row r="64" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B64" s="6"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -13843,7 +14520,7 @@
       <c r="AM64" s="4"/>
       <c r="AN64" s="5"/>
     </row>
-    <row r="65" spans="2:40">
+    <row r="65" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B65" s="6"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -13886,7 +14563,7 @@
       <c r="AM65" s="4"/>
       <c r="AN65" s="5"/>
     </row>
-    <row r="66" spans="2:40">
+    <row r="66" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B66" s="6"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -13913,7 +14590,7 @@
       <c r="Y66" s="4"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="19" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="AB66" s="20"/>
       <c r="AC66" s="20"/>
@@ -13929,7 +14606,7 @@
       <c r="AM66" s="4"/>
       <c r="AN66" s="5"/>
     </row>
-    <row r="67" spans="2:40">
+    <row r="67" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B67" s="6"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -13970,7 +14647,7 @@
       <c r="AM67" s="4"/>
       <c r="AN67" s="5"/>
     </row>
-    <row r="68" spans="2:40">
+    <row r="68" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B68" s="6"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -14013,7 +14690,7 @@
       <c r="AM68" s="4"/>
       <c r="AN68" s="5"/>
     </row>
-    <row r="69" spans="2:40">
+    <row r="69" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B69" s="6"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -14056,7 +14733,7 @@
       <c r="AM69" s="4"/>
       <c r="AN69" s="5"/>
     </row>
-    <row r="70" spans="2:40">
+    <row r="70" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B70" s="6"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -14083,7 +14760,7 @@
       <c r="Y70" s="4"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="6" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
@@ -14099,7 +14776,7 @@
       <c r="AM70" s="4"/>
       <c r="AN70" s="5"/>
     </row>
-    <row r="71" spans="2:40">
+    <row r="71" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B71" s="6"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -14126,7 +14803,7 @@
       <c r="Y71" s="4"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="19" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AB71" s="20"/>
       <c r="AC71" s="20"/>
@@ -14142,7 +14819,7 @@
       <c r="AM71" s="4"/>
       <c r="AN71" s="5"/>
     </row>
-    <row r="72" spans="2:40">
+    <row r="72" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B72" s="6"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -14183,7 +14860,7 @@
       <c r="AM72" s="4"/>
       <c r="AN72" s="5"/>
     </row>
-    <row r="73" spans="2:40">
+    <row r="73" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B73" s="6"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -14226,7 +14903,7 @@
       <c r="AM73" s="4"/>
       <c r="AN73" s="5"/>
     </row>
-    <row r="74" spans="2:40">
+    <row r="74" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B74" s="6"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -14253,7 +14930,7 @@
       <c r="Y74" s="4"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="6" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
@@ -14269,7 +14946,7 @@
       <c r="AM74" s="4"/>
       <c r="AN74" s="5"/>
     </row>
-    <row r="75" spans="2:40">
+    <row r="75" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B75" s="6"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -14312,7 +14989,7 @@
       <c r="AM75" s="4"/>
       <c r="AN75" s="5"/>
     </row>
-    <row r="76" spans="2:40">
+    <row r="76" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B76" s="6"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -14353,7 +15030,7 @@
       <c r="AM76" s="4"/>
       <c r="AN76" s="5"/>
     </row>
-    <row r="77" spans="2:40">
+    <row r="77" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B77" s="6"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -14380,7 +15057,7 @@
       <c r="Y77" s="4"/>
       <c r="Z77" s="5"/>
       <c r="AA77" s="32" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
@@ -14396,7 +15073,7 @@
       <c r="AM77" s="4"/>
       <c r="AN77" s="5"/>
     </row>
-    <row r="78" spans="2:40">
+    <row r="78" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B78" s="6"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -14423,7 +15100,7 @@
       <c r="Y78" s="4"/>
       <c r="Z78" s="5"/>
       <c r="AA78" s="6" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
@@ -14439,7 +15116,7 @@
       <c r="AM78" s="4"/>
       <c r="AN78" s="5"/>
     </row>
-    <row r="79" spans="2:40">
+    <row r="79" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B79" s="6"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -14466,7 +15143,7 @@
       <c r="Y79" s="4"/>
       <c r="Z79" s="5"/>
       <c r="AA79" s="19" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="AB79" s="20"/>
       <c r="AC79" s="20"/>
@@ -14482,7 +15159,7 @@
       <c r="AM79" s="4"/>
       <c r="AN79" s="5"/>
     </row>
-    <row r="80" spans="2:40">
+    <row r="80" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B80" s="6"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -14523,7 +15200,7 @@
       <c r="AM80" s="4"/>
       <c r="AN80" s="5"/>
     </row>
-    <row r="81" spans="1:40">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>2</v>
       </c>
@@ -14569,7 +15246,7 @@
       <c r="AM81" s="22"/>
       <c r="AN81" s="29"/>
     </row>
-    <row r="82" spans="1:40">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B82" s="6"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -14596,7 +15273,7 @@
       <c r="Y82" s="4"/>
       <c r="Z82" s="5"/>
       <c r="AA82" s="32" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
@@ -14612,7 +15289,7 @@
       <c r="AM82" s="4"/>
       <c r="AN82" s="5"/>
     </row>
-    <row r="83" spans="1:40">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B83" s="6"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -14640,7 +15317,7 @@
       <c r="Z83" s="5"/>
       <c r="AA83" s="6"/>
       <c r="AB83" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="AC83" s="4"/>
       <c r="AD83" s="4"/>
@@ -14655,7 +15332,7 @@
       <c r="AM83" s="4"/>
       <c r="AN83" s="5"/>
     </row>
-    <row r="84" spans="1:40">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B84" s="6"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -14696,7 +15373,7 @@
       <c r="AM84" s="4"/>
       <c r="AN84" s="5"/>
     </row>
-    <row r="85" spans="1:40">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B85" s="6"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -14723,7 +15400,7 @@
       <c r="Y85" s="4"/>
       <c r="Z85" s="5"/>
       <c r="AA85" s="32" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
@@ -14739,7 +15416,7 @@
       <c r="AM85" s="4"/>
       <c r="AN85" s="5"/>
     </row>
-    <row r="86" spans="1:40">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B86" s="6"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -14767,7 +15444,7 @@
       <c r="Z86" s="5"/>
       <c r="AA86" s="80"/>
       <c r="AB86" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="AC86" s="4"/>
       <c r="AD86" s="4"/>
@@ -14782,7 +15459,7 @@
       <c r="AM86" s="4"/>
       <c r="AN86" s="5"/>
     </row>
-    <row r="87" spans="1:40">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B87" s="6"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -14823,7 +15500,7 @@
       <c r="AM87" s="4"/>
       <c r="AN87" s="5"/>
     </row>
-    <row r="88" spans="1:40">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B88" s="6"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -14850,7 +15527,7 @@
       <c r="Y88" s="4"/>
       <c r="Z88" s="5"/>
       <c r="AA88" s="32" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="AB88" s="4"/>
       <c r="AC88" s="4"/>
@@ -14866,7 +15543,7 @@
       <c r="AM88" s="4"/>
       <c r="AN88" s="5"/>
     </row>
-    <row r="89" spans="1:40">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B89" s="6"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -14894,7 +15571,7 @@
       <c r="Z89" s="5"/>
       <c r="AA89" s="80"/>
       <c r="AB89" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AC89" s="4"/>
       <c r="AD89" s="4"/>
@@ -14909,7 +15586,7 @@
       <c r="AM89" s="4"/>
       <c r="AN89" s="5"/>
     </row>
-    <row r="90" spans="1:40">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B90" s="6"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -14950,7 +15627,7 @@
       <c r="AM90" s="4"/>
       <c r="AN90" s="5"/>
     </row>
-    <row r="91" spans="1:40">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B91" s="6"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -14977,7 +15654,7 @@
       <c r="Y91" s="4"/>
       <c r="Z91" s="5"/>
       <c r="AA91" s="32" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AB91" s="4"/>
       <c r="AC91" s="4"/>
@@ -14993,7 +15670,7 @@
       <c r="AM91" s="4"/>
       <c r="AN91" s="5"/>
     </row>
-    <row r="92" spans="1:40">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B92" s="6"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -15021,7 +15698,7 @@
       <c r="Z92" s="5"/>
       <c r="AA92" s="6"/>
       <c r="AB92" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AC92" s="4"/>
       <c r="AD92" s="4"/>
@@ -15036,7 +15713,7 @@
       <c r="AM92" s="4"/>
       <c r="AN92" s="5"/>
     </row>
-    <row r="93" spans="1:40">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B93" s="6"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -15064,7 +15741,7 @@
       <c r="Z93" s="5"/>
       <c r="AA93" s="80"/>
       <c r="AB93" s="4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AC93" s="4"/>
       <c r="AD93" s="4"/>
@@ -15079,7 +15756,7 @@
       <c r="AM93" s="4"/>
       <c r="AN93" s="5"/>
     </row>
-    <row r="94" spans="1:40">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B94" s="6"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -15107,7 +15784,7 @@
       <c r="Z94" s="5"/>
       <c r="AA94" s="6"/>
       <c r="AB94" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="AC94" s="4"/>
       <c r="AD94" s="4"/>
@@ -15122,7 +15799,7 @@
       <c r="AM94" s="4"/>
       <c r="AN94" s="5"/>
     </row>
-    <row r="95" spans="1:40">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B95" s="6"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -15163,7 +15840,7 @@
       <c r="AM95" s="4"/>
       <c r="AN95" s="5"/>
     </row>
-    <row r="96" spans="1:40">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B96" s="6"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -15204,7 +15881,7 @@
       <c r="AM96" s="4"/>
       <c r="AN96" s="5"/>
     </row>
-    <row r="97" spans="1:40">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B97" s="6"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -15245,7 +15922,7 @@
       <c r="AM97" s="4"/>
       <c r="AN97" s="5"/>
     </row>
-    <row r="98" spans="1:40">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B98" s="6"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -15286,7 +15963,7 @@
       <c r="AM98" s="4"/>
       <c r="AN98" s="5"/>
     </row>
-    <row r="99" spans="1:40">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B99" s="6"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -15327,7 +16004,7 @@
       <c r="AM99" s="4"/>
       <c r="AN99" s="5"/>
     </row>
-    <row r="100" spans="1:40">
+    <row r="100" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B100" s="6"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -15368,7 +16045,7 @@
       <c r="AM100" s="4"/>
       <c r="AN100" s="5"/>
     </row>
-    <row r="101" spans="1:40">
+    <row r="101" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B101" s="6"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -15409,7 +16086,7 @@
       <c r="AM101" s="4"/>
       <c r="AN101" s="5"/>
     </row>
-    <row r="102" spans="1:40">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B102" s="6"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -15450,7 +16127,7 @@
       <c r="AM102" s="4"/>
       <c r="AN102" s="5"/>
     </row>
-    <row r="103" spans="1:40">
+    <row r="103" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B103" s="6"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -15491,7 +16168,7 @@
       <c r="AM103" s="4"/>
       <c r="AN103" s="5"/>
     </row>
-    <row r="104" spans="1:40">
+    <row r="104" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B104" s="6"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -15531,7 +16208,7 @@
       <c r="AM104" s="4"/>
       <c r="AN104" s="5"/>
     </row>
-    <row r="105" spans="1:40">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B105" s="6"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -15572,7 +16249,7 @@
       <c r="AM105" s="4"/>
       <c r="AN105" s="5"/>
     </row>
-    <row r="106" spans="1:40">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B106" s="6"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -15613,7 +16290,7 @@
       <c r="AM106" s="4"/>
       <c r="AN106" s="5"/>
     </row>
-    <row r="107" spans="1:40">
+    <row r="107" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B107" s="6"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -15654,7 +16331,7 @@
       <c r="AM107" s="4"/>
       <c r="AN107" s="5"/>
     </row>
-    <row r="108" spans="1:40">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B108" s="6"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -15695,7 +16372,7 @@
       <c r="AM108" s="4"/>
       <c r="AN108" s="5"/>
     </row>
-    <row r="109" spans="1:40">
+    <row r="109" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B109" s="6"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -15736,7 +16413,7 @@
       <c r="AM109" s="4"/>
       <c r="AN109" s="5"/>
     </row>
-    <row r="110" spans="1:40">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B110" s="6"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -15777,7 +16454,7 @@
       <c r="AM110" s="4"/>
       <c r="AN110" s="5"/>
     </row>
-    <row r="111" spans="1:40">
+    <row r="111" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>3</v>
       </c>
@@ -15827,7 +16504,7 @@
       <c r="AM111" s="22"/>
       <c r="AN111" s="29"/>
     </row>
-    <row r="112" spans="1:40">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B112" s="6"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -15870,7 +16547,7 @@
       <c r="AM112" s="4"/>
       <c r="AN112" s="5"/>
     </row>
-    <row r="113" spans="2:40">
+    <row r="113" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B113" s="6"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -15913,7 +16590,7 @@
       <c r="AM113" s="4"/>
       <c r="AN113" s="5"/>
     </row>
-    <row r="114" spans="2:40">
+    <row r="114" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B114" s="6"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -15954,7 +16631,7 @@
       <c r="AM114" s="4"/>
       <c r="AN114" s="5"/>
     </row>
-    <row r="115" spans="2:40">
+    <row r="115" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B115" s="6"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -15997,7 +16674,7 @@
       <c r="AM115" s="4"/>
       <c r="AN115" s="5"/>
     </row>
-    <row r="116" spans="2:40">
+    <row r="116" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B116" s="6"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -16025,7 +16702,7 @@
       <c r="Z116" s="5"/>
       <c r="AA116" s="80"/>
       <c r="AB116" s="4" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AC116" s="4"/>
       <c r="AD116" s="4"/>
@@ -16040,7 +16717,7 @@
       <c r="AM116" s="4"/>
       <c r="AN116" s="5"/>
     </row>
-    <row r="117" spans="2:40">
+    <row r="117" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B117" s="6"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -16083,7 +16760,7 @@
       <c r="AM117" s="4"/>
       <c r="AN117" s="5"/>
     </row>
-    <row r="118" spans="2:40">
+    <row r="118" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B118" s="6"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -16124,7 +16801,7 @@
       <c r="AM118" s="4"/>
       <c r="AN118" s="5"/>
     </row>
-    <row r="119" spans="2:40">
+    <row r="119" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B119" s="6"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -16167,7 +16844,7 @@
       <c r="AM119" s="4"/>
       <c r="AN119" s="5"/>
     </row>
-    <row r="120" spans="2:40">
+    <row r="120" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B120" s="6"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -16210,7 +16887,7 @@
       <c r="AM120" s="4"/>
       <c r="AN120" s="5"/>
     </row>
-    <row r="121" spans="2:40">
+    <row r="121" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B121" s="6"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -16251,7 +16928,7 @@
       <c r="AM121" s="4"/>
       <c r="AN121" s="5"/>
     </row>
-    <row r="122" spans="2:40">
+    <row r="122" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B122" s="6"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -16292,7 +16969,7 @@
       <c r="AM122" s="4"/>
       <c r="AN122" s="5"/>
     </row>
-    <row r="123" spans="2:40">
+    <row r="123" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B123" s="6"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -16333,7 +17010,7 @@
       <c r="AM123" s="4"/>
       <c r="AN123" s="5"/>
     </row>
-    <row r="124" spans="2:40">
+    <row r="124" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B124" s="6"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -16374,7 +17051,7 @@
       <c r="AM124" s="4"/>
       <c r="AN124" s="5"/>
     </row>
-    <row r="125" spans="2:40">
+    <row r="125" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B125" s="6"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -16419,7 +17096,7 @@
       <c r="AM125" s="4"/>
       <c r="AN125" s="5"/>
     </row>
-    <row r="126" spans="2:40">
+    <row r="126" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B126" s="6"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -16462,7 +17139,7 @@
       <c r="AM126" s="4"/>
       <c r="AN126" s="5"/>
     </row>
-    <row r="127" spans="2:40">
+    <row r="127" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B127" s="6"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -16505,7 +17182,7 @@
       <c r="AM127" s="4"/>
       <c r="AN127" s="5"/>
     </row>
-    <row r="128" spans="2:40">
+    <row r="128" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B128" s="6"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -16548,7 +17225,7 @@
       <c r="AM128" s="4"/>
       <c r="AN128" s="5"/>
     </row>
-    <row r="129" spans="2:40">
+    <row r="129" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B129" s="6"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -16591,7 +17268,7 @@
       <c r="AM129" s="4"/>
       <c r="AN129" s="5"/>
     </row>
-    <row r="130" spans="2:40">
+    <row r="130" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B130" s="6"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -16634,7 +17311,7 @@
       <c r="AM130" s="4"/>
       <c r="AN130" s="5"/>
     </row>
-    <row r="131" spans="2:40">
+    <row r="131" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B131" s="6"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -16677,7 +17354,7 @@
       <c r="AM131" s="4"/>
       <c r="AN131" s="5"/>
     </row>
-    <row r="132" spans="2:40">
+    <row r="132" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B132" s="6"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -16720,7 +17397,7 @@
       <c r="AM132" s="4"/>
       <c r="AN132" s="5"/>
     </row>
-    <row r="133" spans="2:40">
+    <row r="133" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B133" s="6"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -16763,7 +17440,7 @@
       <c r="AM133" s="4"/>
       <c r="AN133" s="5"/>
     </row>
-    <row r="134" spans="2:40">
+    <row r="134" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B134" s="6"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -16806,7 +17483,7 @@
       <c r="AM134" s="4"/>
       <c r="AN134" s="5"/>
     </row>
-    <row r="135" spans="2:40">
+    <row r="135" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B135" s="6"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -16849,7 +17526,7 @@
       <c r="AM135" s="4"/>
       <c r="AN135" s="5"/>
     </row>
-    <row r="136" spans="2:40">
+    <row r="136" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B136" s="6"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -16892,7 +17569,7 @@
       <c r="AM136" s="4"/>
       <c r="AN136" s="5"/>
     </row>
-    <row r="137" spans="2:40">
+    <row r="137" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B137" s="6"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -16935,7 +17612,7 @@
       <c r="AM137" s="4"/>
       <c r="AN137" s="5"/>
     </row>
-    <row r="138" spans="2:40">
+    <row r="138" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B138" s="6"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -16976,7 +17653,7 @@
       <c r="AM138" s="4"/>
       <c r="AN138" s="5"/>
     </row>
-    <row r="139" spans="2:40">
+    <row r="139" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B139" s="6"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -17017,7 +17694,7 @@
       <c r="AM139" s="4"/>
       <c r="AN139" s="5"/>
     </row>
-    <row r="140" spans="2:40">
+    <row r="140" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B140" s="6"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -17058,7 +17735,7 @@
       <c r="AM140" s="4"/>
       <c r="AN140" s="5"/>
     </row>
-    <row r="141" spans="2:40">
+    <row r="141" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B141" s="6"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -17099,7 +17776,7 @@
       <c r="AM141" s="4"/>
       <c r="AN141" s="5"/>
     </row>
-    <row r="142" spans="2:40">
+    <row r="142" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B142" s="6"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -17142,7 +17819,7 @@
       <c r="AM142" s="4"/>
       <c r="AN142" s="5"/>
     </row>
-    <row r="143" spans="2:40">
+    <row r="143" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B143" s="6"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -17185,7 +17862,7 @@
       <c r="AM143" s="4"/>
       <c r="AN143" s="5"/>
     </row>
-    <row r="144" spans="2:40">
+    <row r="144" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B144" s="6"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -17228,7 +17905,7 @@
       <c r="AM144" s="4"/>
       <c r="AN144" s="5"/>
     </row>
-    <row r="145" spans="1:40">
+    <row r="145" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B145" s="6"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -17271,7 +17948,7 @@
       <c r="AM145" s="4"/>
       <c r="AN145" s="5"/>
     </row>
-    <row r="146" spans="1:40">
+    <row r="146" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B146" s="6"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -17314,7 +17991,7 @@
       <c r="AM146" s="4"/>
       <c r="AN146" s="5"/>
     </row>
-    <row r="147" spans="1:40">
+    <row r="147" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B147" s="6"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -17357,7 +18034,7 @@
       <c r="AM147" s="4"/>
       <c r="AN147" s="5"/>
     </row>
-    <row r="148" spans="1:40">
+    <row r="148" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B148" s="6"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -17400,7 +18077,7 @@
       <c r="AM148" s="4"/>
       <c r="AN148" s="5"/>
     </row>
-    <row r="149" spans="1:40">
+    <row r="149" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B149" s="6"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -17443,7 +18120,7 @@
       <c r="AM149" s="4"/>
       <c r="AN149" s="5"/>
     </row>
-    <row r="150" spans="1:40">
+    <row r="150" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B150" s="6"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -17486,7 +18163,7 @@
       <c r="AM150" s="4"/>
       <c r="AN150" s="5"/>
     </row>
-    <row r="151" spans="1:40">
+    <row r="151" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B151" s="6"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -17529,7 +18206,7 @@
       <c r="AM151" s="4"/>
       <c r="AN151" s="5"/>
     </row>
-    <row r="152" spans="1:40">
+    <row r="152" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B152" s="6"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -17572,7 +18249,7 @@
       <c r="AM152" s="4"/>
       <c r="AN152" s="5"/>
     </row>
-    <row r="153" spans="1:40">
+    <row r="153" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B153" s="6"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -17615,7 +18292,7 @@
       <c r="AM153" s="4"/>
       <c r="AN153" s="5"/>
     </row>
-    <row r="154" spans="1:40">
+    <row r="154" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B154" s="6"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -17658,7 +18335,7 @@
       <c r="AM154" s="4"/>
       <c r="AN154" s="5"/>
     </row>
-    <row r="155" spans="1:40">
+    <row r="155" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B155" s="6"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -17699,7 +18376,7 @@
       <c r="AM155" s="4"/>
       <c r="AN155" s="5"/>
     </row>
-    <row r="156" spans="1:40">
+    <row r="156" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B156" s="6"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -17742,7 +18419,7 @@
       <c r="AM156" s="4"/>
       <c r="AN156" s="5"/>
     </row>
-    <row r="157" spans="1:40">
+    <row r="157" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B157" s="6"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -17785,7 +18462,7 @@
       <c r="AM157" s="4"/>
       <c r="AN157" s="5"/>
     </row>
-    <row r="158" spans="1:40">
+    <row r="158" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B158" s="6"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -17826,12 +18503,12 @@
       <c r="AM158" s="4"/>
       <c r="AN158" s="5"/>
     </row>
-    <row r="159" spans="1:40">
+    <row r="159" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>4</v>
       </c>
       <c r="B159" s="21" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C159" s="22"/>
       <c r="D159" s="22"/>
@@ -17876,7 +18553,7 @@
       <c r="AM159" s="22"/>
       <c r="AN159" s="29"/>
     </row>
-    <row r="160" spans="1:40">
+    <row r="160" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B160" s="6"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -17902,8 +18579,8 @@
       <c r="X160" s="4"/>
       <c r="Y160" s="4"/>
       <c r="Z160" s="5"/>
-      <c r="AA160" s="80" t="s">
-        <v>94</v>
+      <c r="AA160" s="95" t="s">
+        <v>183</v>
       </c>
       <c r="AB160" s="4"/>
       <c r="AC160" s="4"/>
@@ -17919,7 +18596,7 @@
       <c r="AM160" s="4"/>
       <c r="AN160" s="5"/>
     </row>
-    <row r="161" spans="2:40">
+    <row r="161" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B161" s="6"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -17947,7 +18624,7 @@
       <c r="Z161" s="5"/>
       <c r="AA161" s="86"/>
       <c r="AB161" s="4" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="AC161" s="4"/>
       <c r="AD161" s="4"/>
@@ -17962,7 +18639,7 @@
       <c r="AM161" s="4"/>
       <c r="AN161" s="5"/>
     </row>
-    <row r="162" spans="2:40">
+    <row r="162" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B162" s="6"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
@@ -17990,7 +18667,7 @@
       <c r="Z162" s="5"/>
       <c r="AA162" s="82"/>
       <c r="AB162" s="4" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="AC162" s="4"/>
       <c r="AD162" s="4"/>
@@ -18005,7 +18682,7 @@
       <c r="AM162" s="4"/>
       <c r="AN162" s="5"/>
     </row>
-    <row r="163" spans="2:40">
+    <row r="163" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B163" s="6"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -18033,7 +18710,7 @@
       <c r="Z163" s="5"/>
       <c r="AA163" s="82"/>
       <c r="AB163" s="4" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="AC163" s="4"/>
       <c r="AD163" s="4"/>
@@ -18048,7 +18725,7 @@
       <c r="AM163" s="4"/>
       <c r="AN163" s="5"/>
     </row>
-    <row r="164" spans="2:40">
+    <row r="164" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B164" s="6"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
@@ -18074,9 +18751,7 @@
       <c r="X164" s="4"/>
       <c r="Y164" s="4"/>
       <c r="Z164" s="5"/>
-      <c r="AA164" s="82" t="s">
-        <v>152</v>
-      </c>
+      <c r="AA164" s="82"/>
       <c r="AB164" s="4"/>
       <c r="AC164" s="4"/>
       <c r="AD164" s="4"/>
@@ -18091,7 +18766,7 @@
       <c r="AM164" s="4"/>
       <c r="AN164" s="5"/>
     </row>
-    <row r="165" spans="2:40">
+    <row r="165" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B165" s="6"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -18118,7 +18793,7 @@
       <c r="Y165" s="4"/>
       <c r="Z165" s="5"/>
       <c r="AA165" s="87" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="AB165" s="4"/>
       <c r="AC165" s="4"/>
@@ -18134,7 +18809,7 @@
       <c r="AM165" s="4"/>
       <c r="AN165" s="5"/>
     </row>
-    <row r="166" spans="2:40">
+    <row r="166" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B166" s="6"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -18161,7 +18836,9 @@
       <c r="Y166" s="4"/>
       <c r="Z166" s="5"/>
       <c r="AA166" s="82"/>
-      <c r="AB166" s="4"/>
+      <c r="AB166" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="AC166" s="4"/>
       <c r="AD166" s="4"/>
       <c r="AE166" s="4"/>
@@ -18175,7 +18852,7 @@
       <c r="AM166" s="4"/>
       <c r="AN166" s="5"/>
     </row>
-    <row r="167" spans="2:40">
+    <row r="167" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B167" s="6"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -18201,10 +18878,10 @@
       <c r="X167" s="4"/>
       <c r="Y167" s="4"/>
       <c r="Z167" s="5"/>
-      <c r="AA167" s="80" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB167" s="4"/>
+      <c r="AA167" s="82"/>
+      <c r="AB167" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="AC167" s="4"/>
       <c r="AD167" s="4"/>
       <c r="AE167" s="4"/>
@@ -18218,7 +18895,7 @@
       <c r="AM167" s="4"/>
       <c r="AN167" s="5"/>
     </row>
-    <row r="168" spans="2:40">
+    <row r="168" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B168" s="6"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -18246,7 +18923,7 @@
       <c r="Z168" s="5"/>
       <c r="AA168" s="82"/>
       <c r="AB168" s="4" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="AC168" s="4"/>
       <c r="AD168" s="4"/>
@@ -18261,7 +18938,7 @@
       <c r="AM168" s="4"/>
       <c r="AN168" s="5"/>
     </row>
-    <row r="169" spans="2:40">
+    <row r="169" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B169" s="6"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -18287,9 +18964,9 @@
       <c r="X169" s="4"/>
       <c r="Y169" s="4"/>
       <c r="Z169" s="5"/>
-      <c r="AA169" s="82"/>
+      <c r="AA169" s="87"/>
       <c r="AB169" s="4" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="AC169" s="4"/>
       <c r="AD169" s="4"/>
@@ -18304,7 +18981,7 @@
       <c r="AM169" s="4"/>
       <c r="AN169" s="5"/>
     </row>
-    <row r="170" spans="2:40">
+    <row r="170" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B170" s="6"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
@@ -18331,7 +19008,9 @@
       <c r="Y170" s="4"/>
       <c r="Z170" s="5"/>
       <c r="AA170" s="82"/>
-      <c r="AB170" s="4"/>
+      <c r="AB170" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="AC170" s="4"/>
       <c r="AD170" s="4"/>
       <c r="AE170" s="4"/>
@@ -18345,7 +19024,7 @@
       <c r="AM170" s="4"/>
       <c r="AN170" s="5"/>
     </row>
-    <row r="171" spans="2:40">
+    <row r="171" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B171" s="6"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -18371,9 +19050,7 @@
       <c r="X171" s="4"/>
       <c r="Y171" s="4"/>
       <c r="Z171" s="5"/>
-      <c r="AA171" s="87" t="s">
-        <v>147</v>
-      </c>
+      <c r="AA171" s="87"/>
       <c r="AB171" s="4"/>
       <c r="AC171" s="4"/>
       <c r="AD171" s="4"/>
@@ -18388,7 +19065,7 @@
       <c r="AM171" s="4"/>
       <c r="AN171" s="5"/>
     </row>
-    <row r="172" spans="2:40">
+    <row r="172" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B172" s="6"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
@@ -18414,10 +19091,10 @@
       <c r="X172" s="4"/>
       <c r="Y172" s="4"/>
       <c r="Z172" s="5"/>
-      <c r="AA172" s="82"/>
-      <c r="AB172" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="AA172" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB172" s="4"/>
       <c r="AC172" s="4"/>
       <c r="AD172" s="4"/>
       <c r="AE172" s="4"/>
@@ -18431,7 +19108,7 @@
       <c r="AM172" s="4"/>
       <c r="AN172" s="5"/>
     </row>
-    <row r="173" spans="2:40">
+    <row r="173" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B173" s="6"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -18459,7 +19136,7 @@
       <c r="Z173" s="5"/>
       <c r="AA173" s="82"/>
       <c r="AB173" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AC173" s="4"/>
       <c r="AD173" s="4"/>
@@ -18474,7 +19151,7 @@
       <c r="AM173" s="4"/>
       <c r="AN173" s="5"/>
     </row>
-    <row r="174" spans="2:40">
+    <row r="174" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B174" s="6"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
@@ -18515,7 +19192,7 @@
       <c r="AM174" s="4"/>
       <c r="AN174" s="5"/>
     </row>
-    <row r="175" spans="2:40">
+    <row r="175" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B175" s="6"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -18541,9 +19218,7 @@
       <c r="X175" s="4"/>
       <c r="Y175" s="4"/>
       <c r="Z175" s="5"/>
-      <c r="AA175" s="87" t="s">
-        <v>150</v>
-      </c>
+      <c r="AA175" s="87"/>
       <c r="AB175" s="4"/>
       <c r="AC175" s="4"/>
       <c r="AD175" s="4"/>
@@ -18558,7 +19233,7 @@
       <c r="AM175" s="4"/>
       <c r="AN175" s="5"/>
     </row>
-    <row r="176" spans="2:40">
+    <row r="176" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B176" s="6"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
@@ -18585,9 +19260,7 @@
       <c r="Y176" s="4"/>
       <c r="Z176" s="5"/>
       <c r="AA176" s="82"/>
-      <c r="AB176" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="AB176" s="4"/>
       <c r="AC176" s="4"/>
       <c r="AD176" s="4"/>
       <c r="AE176" s="4"/>
@@ -18601,7 +19274,7 @@
       <c r="AM176" s="4"/>
       <c r="AN176" s="5"/>
     </row>
-    <row r="177" spans="2:40">
+    <row r="177" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B177" s="6"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
@@ -18642,7 +19315,7 @@
       <c r="AM177" s="4"/>
       <c r="AN177" s="5"/>
     </row>
-    <row r="178" spans="2:40">
+    <row r="178" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B178" s="6"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
@@ -18683,7 +19356,7 @@
       <c r="AM178" s="4"/>
       <c r="AN178" s="5"/>
     </row>
-    <row r="179" spans="2:40">
+    <row r="179" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B179" s="6"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
@@ -18724,7 +19397,7 @@
       <c r="AM179" s="4"/>
       <c r="AN179" s="5"/>
     </row>
-    <row r="180" spans="2:40">
+    <row r="180" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B180" s="6"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
@@ -18765,7 +19438,7 @@
       <c r="AM180" s="4"/>
       <c r="AN180" s="5"/>
     </row>
-    <row r="181" spans="2:40">
+    <row r="181" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B181" s="6"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
@@ -18806,7 +19479,7 @@
       <c r="AM181" s="4"/>
       <c r="AN181" s="5"/>
     </row>
-    <row r="182" spans="2:40">
+    <row r="182" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B182" s="6"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
@@ -18847,7 +19520,7 @@
       <c r="AM182" s="4"/>
       <c r="AN182" s="5"/>
     </row>
-    <row r="183" spans="2:40">
+    <row r="183" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B183" s="6"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -18888,49 +19561,377 @@
       <c r="AM183" s="4"/>
       <c r="AN183" s="5"/>
     </row>
-    <row r="184" spans="2:40">
-      <c r="B184" s="16"/>
-      <c r="C184" s="17"/>
-      <c r="D184" s="17"/>
-      <c r="E184" s="17"/>
-      <c r="F184" s="17"/>
-      <c r="G184" s="18"/>
-      <c r="H184" s="16"/>
-      <c r="I184" s="17"/>
-      <c r="J184" s="17"/>
-      <c r="K184" s="17"/>
-      <c r="L184" s="17"/>
-      <c r="M184" s="17"/>
-      <c r="N184" s="17"/>
-      <c r="O184" s="17"/>
-      <c r="P184" s="17"/>
-      <c r="Q184" s="17"/>
-      <c r="R184" s="17"/>
-      <c r="S184" s="17"/>
-      <c r="T184" s="17"/>
-      <c r="U184" s="17"/>
-      <c r="V184" s="17"/>
-      <c r="W184" s="17"/>
-      <c r="X184" s="17"/>
-      <c r="Y184" s="17"/>
-      <c r="Z184" s="18"/>
-      <c r="AA184" s="85"/>
-      <c r="AB184" s="17"/>
-      <c r="AC184" s="17"/>
-      <c r="AD184" s="17"/>
-      <c r="AE184" s="17"/>
-      <c r="AF184" s="17"/>
-      <c r="AG184" s="17"/>
-      <c r="AH184" s="17"/>
-      <c r="AI184" s="17"/>
-      <c r="AJ184" s="17"/>
-      <c r="AK184" s="17"/>
-      <c r="AL184" s="17"/>
-      <c r="AM184" s="17"/>
-      <c r="AN184" s="18"/>
+    <row r="184" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B184" s="6"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="4"/>
+      <c r="J184" s="4"/>
+      <c r="K184" s="4"/>
+      <c r="L184" s="4"/>
+      <c r="M184" s="4"/>
+      <c r="N184" s="4"/>
+      <c r="O184" s="4"/>
+      <c r="P184" s="4"/>
+      <c r="Q184" s="4"/>
+      <c r="R184" s="4"/>
+      <c r="S184" s="4"/>
+      <c r="T184" s="4"/>
+      <c r="U184" s="4"/>
+      <c r="V184" s="4"/>
+      <c r="W184" s="4"/>
+      <c r="X184" s="4"/>
+      <c r="Y184" s="4"/>
+      <c r="Z184" s="5"/>
+      <c r="AA184" s="82"/>
+      <c r="AB184" s="4"/>
+      <c r="AC184" s="4"/>
+      <c r="AD184" s="4"/>
+      <c r="AE184" s="4"/>
+      <c r="AF184" s="4"/>
+      <c r="AG184" s="4"/>
+      <c r="AH184" s="4"/>
+      <c r="AI184" s="4"/>
+      <c r="AJ184" s="4"/>
+      <c r="AK184" s="4"/>
+      <c r="AL184" s="4"/>
+      <c r="AM184" s="4"/>
+      <c r="AN184" s="5"/>
+    </row>
+    <row r="185" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B185" s="6"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="6"/>
+      <c r="I185" s="4"/>
+      <c r="J185" s="4"/>
+      <c r="K185" s="4"/>
+      <c r="L185" s="4"/>
+      <c r="M185" s="4"/>
+      <c r="N185" s="4"/>
+      <c r="O185" s="4"/>
+      <c r="P185" s="4"/>
+      <c r="Q185" s="4"/>
+      <c r="R185" s="4"/>
+      <c r="S185" s="4"/>
+      <c r="T185" s="4"/>
+      <c r="U185" s="4"/>
+      <c r="V185" s="4"/>
+      <c r="W185" s="4"/>
+      <c r="X185" s="4"/>
+      <c r="Y185" s="4"/>
+      <c r="Z185" s="5"/>
+      <c r="AA185" s="82"/>
+      <c r="AB185" s="4"/>
+      <c r="AC185" s="4"/>
+      <c r="AD185" s="4"/>
+      <c r="AE185" s="4"/>
+      <c r="AF185" s="4"/>
+      <c r="AG185" s="4"/>
+      <c r="AH185" s="4"/>
+      <c r="AI185" s="4"/>
+      <c r="AJ185" s="4"/>
+      <c r="AK185" s="4"/>
+      <c r="AL185" s="4"/>
+      <c r="AM185" s="4"/>
+      <c r="AN185" s="5"/>
+    </row>
+    <row r="186" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B186" s="6"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
+      <c r="K186" s="4"/>
+      <c r="L186" s="4"/>
+      <c r="M186" s="4"/>
+      <c r="N186" s="4"/>
+      <c r="O186" s="4"/>
+      <c r="P186" s="4"/>
+      <c r="Q186" s="4"/>
+      <c r="R186" s="4"/>
+      <c r="S186" s="4"/>
+      <c r="T186" s="4"/>
+      <c r="U186" s="4"/>
+      <c r="V186" s="4"/>
+      <c r="W186" s="4"/>
+      <c r="X186" s="4"/>
+      <c r="Y186" s="4"/>
+      <c r="Z186" s="5"/>
+      <c r="AA186" s="82"/>
+      <c r="AB186" s="4"/>
+      <c r="AC186" s="4"/>
+      <c r="AD186" s="4"/>
+      <c r="AE186" s="4"/>
+      <c r="AF186" s="4"/>
+      <c r="AG186" s="4"/>
+      <c r="AH186" s="4"/>
+      <c r="AI186" s="4"/>
+      <c r="AJ186" s="4"/>
+      <c r="AK186" s="4"/>
+      <c r="AL186" s="4"/>
+      <c r="AM186" s="4"/>
+      <c r="AN186" s="5"/>
+    </row>
+    <row r="187" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B187" s="6"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="6"/>
+      <c r="I187" s="4"/>
+      <c r="J187" s="4"/>
+      <c r="K187" s="4"/>
+      <c r="L187" s="4"/>
+      <c r="M187" s="4"/>
+      <c r="N187" s="4"/>
+      <c r="O187" s="4"/>
+      <c r="P187" s="4"/>
+      <c r="Q187" s="4"/>
+      <c r="R187" s="4"/>
+      <c r="S187" s="4"/>
+      <c r="T187" s="4"/>
+      <c r="U187" s="4"/>
+      <c r="V187" s="4"/>
+      <c r="W187" s="4"/>
+      <c r="X187" s="4"/>
+      <c r="Y187" s="4"/>
+      <c r="Z187" s="5"/>
+      <c r="AA187" s="82"/>
+      <c r="AB187" s="4"/>
+      <c r="AC187" s="4"/>
+      <c r="AD187" s="4"/>
+      <c r="AE187" s="4"/>
+      <c r="AF187" s="4"/>
+      <c r="AG187" s="4"/>
+      <c r="AH187" s="4"/>
+      <c r="AI187" s="4"/>
+      <c r="AJ187" s="4"/>
+      <c r="AK187" s="4"/>
+      <c r="AL187" s="4"/>
+      <c r="AM187" s="4"/>
+      <c r="AN187" s="5"/>
+    </row>
+    <row r="188" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B188" s="6"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="4"/>
+      <c r="J188" s="4"/>
+      <c r="K188" s="4"/>
+      <c r="L188" s="4"/>
+      <c r="M188" s="4"/>
+      <c r="N188" s="4"/>
+      <c r="O188" s="4"/>
+      <c r="P188" s="4"/>
+      <c r="Q188" s="4"/>
+      <c r="R188" s="4"/>
+      <c r="S188" s="4"/>
+      <c r="T188" s="4"/>
+      <c r="U188" s="4"/>
+      <c r="V188" s="4"/>
+      <c r="W188" s="4"/>
+      <c r="X188" s="4"/>
+      <c r="Y188" s="4"/>
+      <c r="Z188" s="5"/>
+      <c r="AA188" s="82"/>
+      <c r="AB188" s="4"/>
+      <c r="AC188" s="4"/>
+      <c r="AD188" s="4"/>
+      <c r="AE188" s="4"/>
+      <c r="AF188" s="4"/>
+      <c r="AG188" s="4"/>
+      <c r="AH188" s="4"/>
+      <c r="AI188" s="4"/>
+      <c r="AJ188" s="4"/>
+      <c r="AK188" s="4"/>
+      <c r="AL188" s="4"/>
+      <c r="AM188" s="4"/>
+      <c r="AN188" s="5"/>
+    </row>
+    <row r="189" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B189" s="6"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="6"/>
+      <c r="I189" s="4"/>
+      <c r="J189" s="4"/>
+      <c r="K189" s="4"/>
+      <c r="L189" s="4"/>
+      <c r="M189" s="4"/>
+      <c r="N189" s="4"/>
+      <c r="O189" s="4"/>
+      <c r="P189" s="4"/>
+      <c r="Q189" s="4"/>
+      <c r="R189" s="4"/>
+      <c r="S189" s="4"/>
+      <c r="T189" s="4"/>
+      <c r="U189" s="4"/>
+      <c r="V189" s="4"/>
+      <c r="W189" s="4"/>
+      <c r="X189" s="4"/>
+      <c r="Y189" s="4"/>
+      <c r="Z189" s="5"/>
+      <c r="AA189" s="82"/>
+      <c r="AB189" s="4"/>
+      <c r="AC189" s="4"/>
+      <c r="AD189" s="4"/>
+      <c r="AE189" s="4"/>
+      <c r="AF189" s="4"/>
+      <c r="AG189" s="4"/>
+      <c r="AH189" s="4"/>
+      <c r="AI189" s="4"/>
+      <c r="AJ189" s="4"/>
+      <c r="AK189" s="4"/>
+      <c r="AL189" s="4"/>
+      <c r="AM189" s="4"/>
+      <c r="AN189" s="5"/>
+    </row>
+    <row r="190" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B190" s="6"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="4"/>
+      <c r="J190" s="4"/>
+      <c r="K190" s="4"/>
+      <c r="L190" s="4"/>
+      <c r="M190" s="4"/>
+      <c r="N190" s="4"/>
+      <c r="O190" s="4"/>
+      <c r="P190" s="4"/>
+      <c r="Q190" s="4"/>
+      <c r="R190" s="4"/>
+      <c r="S190" s="4"/>
+      <c r="T190" s="4"/>
+      <c r="U190" s="4"/>
+      <c r="V190" s="4"/>
+      <c r="W190" s="4"/>
+      <c r="X190" s="4"/>
+      <c r="Y190" s="4"/>
+      <c r="Z190" s="5"/>
+      <c r="AA190" s="82"/>
+      <c r="AB190" s="4"/>
+      <c r="AC190" s="4"/>
+      <c r="AD190" s="4"/>
+      <c r="AE190" s="4"/>
+      <c r="AF190" s="4"/>
+      <c r="AG190" s="4"/>
+      <c r="AH190" s="4"/>
+      <c r="AI190" s="4"/>
+      <c r="AJ190" s="4"/>
+      <c r="AK190" s="4"/>
+      <c r="AL190" s="4"/>
+      <c r="AM190" s="4"/>
+      <c r="AN190" s="5"/>
+    </row>
+    <row r="191" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B191" s="6"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="6"/>
+      <c r="I191" s="4"/>
+      <c r="J191" s="4"/>
+      <c r="K191" s="4"/>
+      <c r="L191" s="4"/>
+      <c r="M191" s="4"/>
+      <c r="N191" s="4"/>
+      <c r="O191" s="4"/>
+      <c r="P191" s="4"/>
+      <c r="Q191" s="4"/>
+      <c r="R191" s="4"/>
+      <c r="S191" s="4"/>
+      <c r="T191" s="4"/>
+      <c r="U191" s="4"/>
+      <c r="V191" s="4"/>
+      <c r="W191" s="4"/>
+      <c r="X191" s="4"/>
+      <c r="Y191" s="4"/>
+      <c r="Z191" s="5"/>
+      <c r="AA191" s="82"/>
+      <c r="AB191" s="4"/>
+      <c r="AC191" s="4"/>
+      <c r="AD191" s="4"/>
+      <c r="AE191" s="4"/>
+      <c r="AF191" s="4"/>
+      <c r="AG191" s="4"/>
+      <c r="AH191" s="4"/>
+      <c r="AI191" s="4"/>
+      <c r="AJ191" s="4"/>
+      <c r="AK191" s="4"/>
+      <c r="AL191" s="4"/>
+      <c r="AM191" s="4"/>
+      <c r="AN191" s="5"/>
+    </row>
+    <row r="192" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B192" s="16"/>
+      <c r="C192" s="17"/>
+      <c r="D192" s="17"/>
+      <c r="E192" s="17"/>
+      <c r="F192" s="17"/>
+      <c r="G192" s="18"/>
+      <c r="H192" s="16"/>
+      <c r="I192" s="17"/>
+      <c r="J192" s="17"/>
+      <c r="K192" s="17"/>
+      <c r="L192" s="17"/>
+      <c r="M192" s="17"/>
+      <c r="N192" s="17"/>
+      <c r="O192" s="17"/>
+      <c r="P192" s="17"/>
+      <c r="Q192" s="17"/>
+      <c r="R192" s="17"/>
+      <c r="S192" s="17"/>
+      <c r="T192" s="17"/>
+      <c r="U192" s="17"/>
+      <c r="V192" s="17"/>
+      <c r="W192" s="17"/>
+      <c r="X192" s="17"/>
+      <c r="Y192" s="17"/>
+      <c r="Z192" s="18"/>
+      <c r="AA192" s="85"/>
+      <c r="AB192" s="17"/>
+      <c r="AC192" s="17"/>
+      <c r="AD192" s="17"/>
+      <c r="AE192" s="17"/>
+      <c r="AF192" s="17"/>
+      <c r="AG192" s="17"/>
+      <c r="AH192" s="17"/>
+      <c r="AI192" s="17"/>
+      <c r="AJ192" s="17"/>
+      <c r="AK192" s="17"/>
+      <c r="AL192" s="17"/>
+      <c r="AM192" s="17"/>
+      <c r="AN192" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <hyperlinks>
     <hyperlink ref="AA66:AG66" location="SRS!B81" display="   ※Tham khảo 「Tạo sách mới」"/>
     <hyperlink ref="AA71:AH71" location="SRS!B133" display="   ※Tham khảo 「Chỉnh sửa sách」"/>
@@ -18946,14 +19947,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:EC95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:ED102"/>
   <sheetViews>
-    <sheetView topLeftCell="CK56" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView topLeftCell="CK68" workbookViewId="0">
+      <selection activeCell="CQ57" sqref="CQ57:DK87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
@@ -19005,7 +20006,7 @@
     <col min="91" max="16384" width="3.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="18.75" customHeight="1">
+    <row r="2" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
@@ -19025,7 +20026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="18.75" customHeight="1">
+    <row r="3" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H3" s="8" t="s">
         <v>5</v>
       </c>
@@ -19048,7 +20049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="18.75" customHeight="1">
+    <row r="5" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J5" s="8" t="s">
         <v>4</v>
       </c>
@@ -19056,7 +20057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="18.75" customHeight="1">
+    <row r="6" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J6" s="8" t="s">
         <v>16</v>
       </c>
@@ -19064,7 +20065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:24" ht="18.75" customHeight="1">
+    <row r="7" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J7" s="8" t="s">
         <v>17</v>
       </c>
@@ -19072,7 +20073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="18.75" customHeight="1">
+    <row r="8" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J8" s="8" t="s">
         <v>8</v>
       </c>
@@ -19080,7 +20081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="18.75" customHeight="1">
+    <row r="9" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J9" s="8" t="s">
         <v>10</v>
       </c>
@@ -19088,7 +20089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="18.75" customHeight="1">
+    <row r="10" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J10" s="8" t="s">
         <v>12</v>
       </c>
@@ -19096,7 +20097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="18.75" customHeight="1">
+    <row r="11" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J11" s="10"/>
       <c r="K11" s="8" t="s">
         <v>12</v>
@@ -19111,7 +20112,7 @@
       <c r="W11" s="22"/>
       <c r="X11" s="29"/>
     </row>
-    <row r="12" spans="2:24">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
       <c r="R12" s="6"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -19120,7 +20121,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="2:24">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
       <c r="R13" s="6" t="s">
         <v>53</v>
       </c>
@@ -19131,7 +20132,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="2:24">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
       <c r="R14" s="6" t="s">
         <v>23</v>
       </c>
@@ -19142,7 +20143,7 @@
       <c r="W14" s="4"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="2:24">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
       <c r="R15" s="6"/>
       <c r="S15" s="25" t="s">
         <v>26</v>
@@ -19157,7 +20158,7 @@
       <c r="W15" s="28"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="2:24">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
       <c r="R16" s="6"/>
       <c r="S16" s="8">
         <v>1</v>
@@ -19172,11 +20173,11 @@
         <v>47</v>
       </c>
       <c r="W16" s="31" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="18:67">
+    <row r="17" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R17" s="6"/>
       <c r="S17" s="8">
         <v>2</v>
@@ -19191,11 +20192,11 @@
         <v>47</v>
       </c>
       <c r="W17" s="31" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="18:67">
+    <row r="18" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R18" s="6"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -19204,7 +20205,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="5"/>
     </row>
-    <row r="19" spans="18:67">
+    <row r="19" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R19" s="6" t="s">
         <v>28</v>
       </c>
@@ -19215,7 +20216,7 @@
       <c r="W19" s="4"/>
       <c r="X19" s="5"/>
     </row>
-    <row r="20" spans="18:67">
+    <row r="20" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R20" s="6"/>
       <c r="S20" s="24" t="s">
         <v>31</v>
@@ -19230,7 +20231,7 @@
       <c r="W20" s="28"/>
       <c r="X20" s="5"/>
     </row>
-    <row r="21" spans="18:67">
+    <row r="21" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R21" s="6"/>
       <c r="S21" s="8">
         <v>1</v>
@@ -19245,11 +20246,11 @@
         <v>47</v>
       </c>
       <c r="W21" s="31" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="X21" s="5"/>
     </row>
-    <row r="22" spans="18:67">
+    <row r="22" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R22" s="6"/>
       <c r="S22" s="8">
         <v>2</v>
@@ -19264,11 +20265,11 @@
         <v>47</v>
       </c>
       <c r="W22" s="31" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="X22" s="5"/>
     </row>
-    <row r="23" spans="18:67">
+    <row r="23" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R23" s="16"/>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
@@ -19277,7 +20278,7 @@
       <c r="W23" s="17"/>
       <c r="X23" s="18"/>
     </row>
-    <row r="24" spans="18:67">
+    <row r="24" spans="18:67" x14ac:dyDescent="0.15">
       <c r="Z24" s="21"/>
       <c r="AA24" s="22"/>
       <c r="AB24" s="22"/>
@@ -19295,7 +20296,7 @@
       <c r="BN24" s="22"/>
       <c r="BO24" s="29"/>
     </row>
-    <row r="25" spans="18:67" ht="18" customHeight="1">
+    <row r="25" spans="18:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z25" s="6"/>
       <c r="AA25" s="23" t="s">
         <v>70</v>
@@ -19305,7 +20306,7 @@
       </c>
       <c r="AC25" s="3"/>
       <c r="AD25" s="4"/>
-      <c r="AE25" s="88" t="s">
+      <c r="AE25" s="92" t="s">
         <v>64</v>
       </c>
       <c r="AF25" s="34" t="s">
@@ -19321,7 +20322,7 @@
       </c>
       <c r="BK25" s="3"/>
       <c r="BL25" s="4"/>
-      <c r="BM25" s="88" t="s">
+      <c r="BM25" s="92" t="s">
         <v>64</v>
       </c>
       <c r="BN25" s="34" t="s">
@@ -19329,7 +20330,7 @@
       </c>
       <c r="BO25" s="5"/>
     </row>
-    <row r="26" spans="18:67" ht="18" customHeight="1">
+    <row r="26" spans="18:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z26" s="6"/>
       <c r="AA26" s="23" t="s">
         <v>69</v>
@@ -19339,7 +20340,7 @@
       </c>
       <c r="AC26" s="36"/>
       <c r="AD26" s="4"/>
-      <c r="AE26" s="89"/>
+      <c r="AE26" s="93"/>
       <c r="AF26" s="35" t="s">
         <v>74</v>
       </c>
@@ -19353,13 +20354,13 @@
       </c>
       <c r="BK26" s="36"/>
       <c r="BL26" s="4"/>
-      <c r="BM26" s="89"/>
+      <c r="BM26" s="93"/>
       <c r="BN26" s="35" t="s">
         <v>74</v>
       </c>
       <c r="BO26" s="5"/>
     </row>
-    <row r="27" spans="18:67" ht="18" customHeight="1">
+    <row r="27" spans="18:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z27" s="6"/>
       <c r="AA27" s="23" t="s">
         <v>68</v>
@@ -19369,7 +20370,7 @@
       </c>
       <c r="AC27" s="36"/>
       <c r="AD27" s="4"/>
-      <c r="AE27" s="89"/>
+      <c r="AE27" s="93"/>
       <c r="AF27" s="35"/>
       <c r="AG27" s="5"/>
       <c r="BH27" s="6"/>
@@ -19381,11 +20382,11 @@
       </c>
       <c r="BK27" s="36"/>
       <c r="BL27" s="4"/>
-      <c r="BM27" s="89"/>
+      <c r="BM27" s="93"/>
       <c r="BN27" s="35"/>
       <c r="BO27" s="5"/>
     </row>
-    <row r="28" spans="18:67" ht="18" customHeight="1">
+    <row r="28" spans="18:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z28" s="6"/>
       <c r="AA28" s="23" t="s">
         <v>67</v>
@@ -19395,7 +20396,7 @@
       </c>
       <c r="AC28" s="38"/>
       <c r="AD28" s="4"/>
-      <c r="AE28" s="90"/>
+      <c r="AE28" s="94"/>
       <c r="AF28" s="36"/>
       <c r="AG28" s="5"/>
       <c r="BH28" s="53"/>
@@ -19407,11 +20408,11 @@
       </c>
       <c r="BK28" s="38"/>
       <c r="BL28" s="4"/>
-      <c r="BM28" s="90"/>
+      <c r="BM28" s="94"/>
       <c r="BN28" s="36"/>
       <c r="BO28" s="53"/>
     </row>
-    <row r="29" spans="18:67">
+    <row r="29" spans="18:67" x14ac:dyDescent="0.15">
       <c r="Z29" s="6"/>
       <c r="AA29" s="22"/>
       <c r="AB29" s="22"/>
@@ -19429,7 +20430,7 @@
       <c r="BN29" s="22"/>
       <c r="BO29" s="5"/>
     </row>
-    <row r="30" spans="18:67" ht="18" customHeight="1">
+    <row r="30" spans="18:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z30" s="6"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
@@ -19447,7 +20448,7 @@
       <c r="BN30" s="4"/>
       <c r="BO30" s="5"/>
     </row>
-    <row r="31" spans="18:67">
+    <row r="31" spans="18:67" x14ac:dyDescent="0.15">
       <c r="Z31" s="16"/>
       <c r="AA31" s="17"/>
       <c r="AB31" s="17"/>
@@ -19465,7 +20466,7 @@
       <c r="BN31" s="17"/>
       <c r="BO31" s="18"/>
     </row>
-    <row r="33" spans="35:91">
+    <row r="33" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI33" s="21" t="s">
         <v>75</v>
       </c>
@@ -19517,7 +20518,7 @@
       <c r="CL33" s="22"/>
       <c r="CM33" s="29"/>
     </row>
-    <row r="34" spans="35:91" ht="19.5" customHeight="1">
+    <row r="34" spans="35:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI34" s="6"/>
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
@@ -19565,7 +20566,7 @@
       <c r="CL34" s="4"/>
       <c r="CM34" s="5"/>
     </row>
-    <row r="35" spans="35:91" ht="19.5" customHeight="1">
+    <row r="35" spans="35:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI35" s="6"/>
       <c r="AJ35" s="23" t="s">
         <v>22</v>
@@ -19584,7 +20585,7 @@
       <c r="AT35" s="41"/>
       <c r="AU35" s="38"/>
       <c r="AV35" s="4"/>
-      <c r="AW35" s="88" t="s">
+      <c r="AW35" s="92" t="s">
         <v>64</v>
       </c>
       <c r="AX35" s="43" t="s">
@@ -19615,7 +20616,7 @@
       <c r="CB35" s="41"/>
       <c r="CC35" s="38"/>
       <c r="CD35" s="4"/>
-      <c r="CE35" s="88" t="s">
+      <c r="CE35" s="92" t="s">
         <v>64</v>
       </c>
       <c r="CF35" s="43" t="s">
@@ -19629,7 +20630,7 @@
       <c r="CL35" s="45"/>
       <c r="CM35" s="5"/>
     </row>
-    <row r="36" spans="35:91" ht="19.5" customHeight="1">
+    <row r="36" spans="35:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI36" s="6"/>
       <c r="AJ36" s="23" t="s">
         <v>65</v>
@@ -19648,7 +20649,7 @@
       <c r="AT36" s="41"/>
       <c r="AU36" s="38"/>
       <c r="AV36" s="4"/>
-      <c r="AW36" s="89"/>
+      <c r="AW36" s="93"/>
       <c r="AX36" s="46"/>
       <c r="AY36" s="47"/>
       <c r="AZ36" s="47"/>
@@ -19675,7 +20676,7 @@
       <c r="CB36" s="41"/>
       <c r="CC36" s="38"/>
       <c r="CD36" s="4"/>
-      <c r="CE36" s="89"/>
+      <c r="CE36" s="93"/>
       <c r="CF36" s="46"/>
       <c r="CG36" s="47"/>
       <c r="CH36" s="47"/>
@@ -19685,7 +20686,7 @@
       <c r="CL36" s="42"/>
       <c r="CM36" s="5"/>
     </row>
-    <row r="37" spans="35:91" ht="19.5" customHeight="1">
+    <row r="37" spans="35:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI37" s="6"/>
       <c r="AJ37" s="23" t="s">
         <v>66</v>
@@ -19704,7 +20705,7 @@
       <c r="AT37" s="41"/>
       <c r="AU37" s="38"/>
       <c r="AV37" s="4"/>
-      <c r="AW37" s="89"/>
+      <c r="AW37" s="93"/>
       <c r="AX37" s="46"/>
       <c r="AY37" s="47"/>
       <c r="AZ37" s="47"/>
@@ -19731,7 +20732,7 @@
       <c r="CB37" s="41"/>
       <c r="CC37" s="38"/>
       <c r="CD37" s="4"/>
-      <c r="CE37" s="89"/>
+      <c r="CE37" s="93"/>
       <c r="CF37" s="46"/>
       <c r="CG37" s="47"/>
       <c r="CH37" s="47"/>
@@ -19741,7 +20742,7 @@
       <c r="CL37" s="42"/>
       <c r="CM37" s="5"/>
     </row>
-    <row r="38" spans="35:91" ht="19.5" customHeight="1">
+    <row r="38" spans="35:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI38" s="6"/>
       <c r="AJ38" s="23" t="s">
         <v>67</v>
@@ -19760,7 +20761,7 @@
       <c r="AT38" s="41"/>
       <c r="AU38" s="38"/>
       <c r="AV38" s="4"/>
-      <c r="AW38" s="90"/>
+      <c r="AW38" s="94"/>
       <c r="AX38" s="48"/>
       <c r="AY38" s="49"/>
       <c r="AZ38" s="49"/>
@@ -19787,7 +20788,7 @@
       <c r="CB38" s="41"/>
       <c r="CC38" s="38"/>
       <c r="CD38" s="4"/>
-      <c r="CE38" s="90"/>
+      <c r="CE38" s="94"/>
       <c r="CF38" s="48"/>
       <c r="CG38" s="49"/>
       <c r="CH38" s="49"/>
@@ -19797,7 +20798,7 @@
       <c r="CL38" s="50"/>
       <c r="CM38" s="5"/>
     </row>
-    <row r="39" spans="35:91">
+    <row r="39" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI39" s="6"/>
       <c r="AJ39" s="4"/>
       <c r="AK39" s="4"/>
@@ -19845,7 +20846,7 @@
       <c r="CL39" s="4"/>
       <c r="CM39" s="5"/>
     </row>
-    <row r="40" spans="35:91">
+    <row r="40" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI40" s="6"/>
       <c r="AJ40" s="4"/>
       <c r="AK40" s="4"/>
@@ -19893,7 +20894,7 @@
       <c r="CL40" s="4"/>
       <c r="CM40" s="5"/>
     </row>
-    <row r="41" spans="35:91">
+    <row r="41" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI41" s="16"/>
       <c r="AJ41" s="17"/>
       <c r="AK41" s="17"/>
@@ -19941,7 +20942,7 @@
       <c r="CL41" s="17"/>
       <c r="CM41" s="18"/>
     </row>
-    <row r="42" spans="35:91">
+    <row r="42" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI42" s="21" t="s">
         <v>76</v>
       </c>
@@ -19993,7 +20994,7 @@
       <c r="CL42" s="22"/>
       <c r="CM42" s="29"/>
     </row>
-    <row r="43" spans="35:91">
+    <row r="43" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI43" s="6"/>
       <c r="AJ43" s="4"/>
       <c r="AK43" s="4"/>
@@ -20041,7 +21042,7 @@
       <c r="CL43" s="4"/>
       <c r="CM43" s="5"/>
     </row>
-    <row r="44" spans="35:91">
+    <row r="44" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI44" s="7"/>
       <c r="AJ44" s="58" t="s">
         <v>79</v>
@@ -20097,7 +21098,7 @@
       <c r="CL44" s="59"/>
       <c r="CM44" s="60"/>
     </row>
-    <row r="45" spans="35:91">
+    <row r="45" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI45" s="53"/>
       <c r="AJ45" s="21" t="s">
         <v>77</v>
@@ -20153,7 +21154,7 @@
       <c r="CL45" s="4"/>
       <c r="CM45" s="5"/>
     </row>
-    <row r="46" spans="35:91" ht="18.75" customHeight="1">
+    <row r="46" spans="35:91" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI46" s="53"/>
       <c r="AJ46" s="51" t="s">
         <v>77</v>
@@ -20217,7 +21218,7 @@
       <c r="CL46" s="4"/>
       <c r="CM46" s="5"/>
     </row>
-    <row r="47" spans="35:91" ht="18.75" customHeight="1">
+    <row r="47" spans="35:91" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI47" s="53"/>
       <c r="AJ47" s="6"/>
       <c r="AK47" s="64"/>
@@ -20273,7 +21274,7 @@
       <c r="CL47" s="4"/>
       <c r="CM47" s="5"/>
     </row>
-    <row r="48" spans="35:91" ht="18.75" customHeight="1">
+    <row r="48" spans="35:91" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI48" s="53"/>
       <c r="AJ48" s="6"/>
       <c r="AK48" s="64"/>
@@ -20325,7 +21326,7 @@
       <c r="CL48" s="4"/>
       <c r="CM48" s="5"/>
     </row>
-    <row r="49" spans="35:114" ht="18.75" customHeight="1">
+    <row r="49" spans="35:115" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI49" s="53"/>
       <c r="AJ49" s="6"/>
       <c r="AK49" s="64"/>
@@ -20381,7 +21382,7 @@
       <c r="CL49" s="4"/>
       <c r="CM49" s="5"/>
     </row>
-    <row r="50" spans="35:114" ht="18.75" customHeight="1">
+    <row r="50" spans="35:115" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI50" s="53"/>
       <c r="AJ50" s="6"/>
       <c r="AK50" s="64"/>
@@ -20433,7 +21434,7 @@
       <c r="CL50" s="4"/>
       <c r="CM50" s="5"/>
     </row>
-    <row r="51" spans="35:114" ht="18.75" customHeight="1">
+    <row r="51" spans="35:115" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI51" s="53"/>
       <c r="AJ51" s="6"/>
       <c r="AK51" s="64"/>
@@ -20485,7 +21486,7 @@
       <c r="CL51" s="4"/>
       <c r="CM51" s="5"/>
     </row>
-    <row r="52" spans="35:114" ht="18.75" customHeight="1">
+    <row r="52" spans="35:115" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI52" s="53"/>
       <c r="AJ52" s="6"/>
       <c r="AK52" s="64"/>
@@ -20537,7 +21538,7 @@
       <c r="CL52" s="4"/>
       <c r="CM52" s="5"/>
     </row>
-    <row r="53" spans="35:114" ht="18.75" customHeight="1">
+    <row r="53" spans="35:115" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI53" s="53"/>
       <c r="AJ53" s="6"/>
       <c r="AK53" s="64"/>
@@ -20585,7 +21586,7 @@
       <c r="CL53" s="4"/>
       <c r="CM53" s="5"/>
     </row>
-    <row r="54" spans="35:114">
+    <row r="54" spans="35:115" x14ac:dyDescent="0.15">
       <c r="AI54" s="7"/>
       <c r="AJ54" s="16"/>
       <c r="AK54" s="65"/>
@@ -20633,7 +21634,7 @@
       <c r="CL54" s="17"/>
       <c r="CM54" s="18"/>
     </row>
-    <row r="55" spans="35:114">
+    <row r="55" spans="35:115" x14ac:dyDescent="0.15">
       <c r="AI55" s="21"/>
       <c r="AJ55" s="22"/>
       <c r="AK55" s="22"/>
@@ -20681,7 +21682,7 @@
       <c r="CL55" s="22"/>
       <c r="CM55" s="29"/>
     </row>
-    <row r="56" spans="35:114" ht="16.5" customHeight="1">
+    <row r="56" spans="35:115" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI56" s="16"/>
       <c r="AJ56" s="17"/>
       <c r="AK56" s="17"/>
@@ -20729,7 +21730,7 @@
       <c r="CL56" s="17"/>
       <c r="CM56" s="18"/>
     </row>
-    <row r="57" spans="35:114">
+    <row r="57" spans="35:115" x14ac:dyDescent="0.15">
       <c r="CQ57" s="21"/>
       <c r="CR57" s="22"/>
       <c r="CS57" s="22"/>
@@ -20749,14 +21750,14 @@
       <c r="DG57" s="22"/>
       <c r="DH57" s="22"/>
       <c r="DI57" s="22"/>
-      <c r="DJ57" s="29"/>
-    </row>
-    <row r="58" spans="35:114">
+      <c r="DJ57" s="22"/>
+      <c r="DK57" s="29"/>
+    </row>
+    <row r="58" spans="35:115" x14ac:dyDescent="0.15">
       <c r="CQ58" s="6"/>
       <c r="CR58" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="CS58" s="4"/>
       <c r="CT58" s="4"/>
       <c r="CU58" s="4"/>
       <c r="CV58" s="4"/>
@@ -20773,14 +21774,12 @@
       <c r="DG58" s="4"/>
       <c r="DH58" s="4"/>
       <c r="DI58" s="4"/>
-      <c r="DJ58" s="5"/>
-    </row>
-    <row r="59" spans="35:114">
+      <c r="DJ58" s="4"/>
+      <c r="DK58" s="5"/>
+    </row>
+    <row r="59" spans="35:115" x14ac:dyDescent="0.15">
       <c r="CQ59" s="6"/>
-      <c r="CR59" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="CS59" s="4"/>
+      <c r="CR59" s="4"/>
       <c r="CT59" s="4"/>
       <c r="CU59" s="4"/>
       <c r="CV59" s="4"/>
@@ -20797,12 +21796,14 @@
       <c r="DG59" s="4"/>
       <c r="DH59" s="4"/>
       <c r="DI59" s="4"/>
-      <c r="DJ59" s="5"/>
-    </row>
-    <row r="60" spans="35:114">
+      <c r="DJ59" s="4"/>
+      <c r="DK59" s="5"/>
+    </row>
+    <row r="60" spans="35:115" x14ac:dyDescent="0.15">
       <c r="CQ60" s="6"/>
-      <c r="CR60" s="4"/>
-      <c r="CS60" s="4"/>
+      <c r="CR60" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="CT60" s="4"/>
       <c r="CU60" s="4"/>
       <c r="CV60" s="4"/>
@@ -20819,262 +21820,269 @@
       <c r="DG60" s="4"/>
       <c r="DH60" s="4"/>
       <c r="DI60" s="4"/>
-      <c r="DJ60" s="5"/>
-    </row>
-    <row r="61" spans="35:114">
+      <c r="DJ60" s="4"/>
+      <c r="DK60" s="5"/>
+    </row>
+    <row r="61" spans="35:115" x14ac:dyDescent="0.15">
       <c r="CQ61" s="6"/>
-      <c r="CR61" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="CS61" s="59"/>
-      <c r="CT61" s="59"/>
-      <c r="CU61" s="59"/>
-      <c r="CV61" s="59"/>
-      <c r="CW61" s="59"/>
-      <c r="CX61" s="59"/>
-      <c r="CY61" s="60"/>
+      <c r="CR61" s="4"/>
+      <c r="CT61" s="4"/>
+      <c r="CU61" s="4"/>
+      <c r="CV61" s="4"/>
+      <c r="CW61" s="4"/>
+      <c r="CX61" s="4"/>
+      <c r="CY61" s="4"/>
       <c r="CZ61" s="4"/>
       <c r="DA61" s="4"/>
-      <c r="DB61" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="DC61" s="59"/>
-      <c r="DD61" s="59"/>
-      <c r="DE61" s="59"/>
-      <c r="DF61" s="59"/>
-      <c r="DG61" s="59"/>
-      <c r="DH61" s="59"/>
-      <c r="DI61" s="60"/>
-      <c r="DJ61" s="5"/>
-    </row>
-    <row r="62" spans="35:114">
+      <c r="DB61" s="4"/>
+      <c r="DC61" s="4"/>
+      <c r="DD61" s="4"/>
+      <c r="DE61" s="4"/>
+      <c r="DF61" s="4"/>
+      <c r="DG61" s="4"/>
+      <c r="DH61" s="4"/>
+      <c r="DI61" s="4"/>
+      <c r="DJ61" s="4"/>
+      <c r="DK61" s="5"/>
+    </row>
+    <row r="62" spans="35:115" x14ac:dyDescent="0.15">
       <c r="CQ62" s="6"/>
-      <c r="CR62" s="83" t="s">
-        <v>134</v>
-      </c>
-      <c r="CS62" s="22"/>
-      <c r="CT62" s="22"/>
-      <c r="CU62" s="22"/>
-      <c r="CV62" s="22"/>
-      <c r="CW62" s="22"/>
-      <c r="CX62" s="22"/>
-      <c r="CY62" s="29"/>
-      <c r="CZ62" s="21"/>
-      <c r="DA62" s="29"/>
-      <c r="DB62" s="83" t="s">
-        <v>131</v>
-      </c>
-      <c r="DC62" s="22"/>
-      <c r="DD62" s="22"/>
-      <c r="DE62" s="22"/>
-      <c r="DF62" s="22"/>
-      <c r="DG62" s="22"/>
-      <c r="DH62" s="22"/>
-      <c r="DI62" s="29"/>
-      <c r="DJ62" s="5"/>
-    </row>
-    <row r="63" spans="35:114">
+      <c r="CR62" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="CT62" s="4"/>
+      <c r="CU62" s="4"/>
+      <c r="CV62" s="4"/>
+      <c r="CW62" s="4"/>
+      <c r="CX62" s="4"/>
+      <c r="CY62" s="4"/>
+      <c r="CZ62" s="4"/>
+      <c r="DA62" s="4"/>
+      <c r="DB62" s="4"/>
+      <c r="DC62" s="4"/>
+      <c r="DD62" s="4"/>
+      <c r="DE62" s="4"/>
+      <c r="DF62" s="4"/>
+      <c r="DG62" s="4"/>
+      <c r="DH62" s="4"/>
+      <c r="DI62" s="4"/>
+      <c r="DJ62" s="4"/>
+      <c r="DK62" s="5"/>
+    </row>
+    <row r="63" spans="35:115" x14ac:dyDescent="0.15">
       <c r="CQ63" s="6"/>
-      <c r="CR63" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="CS63" s="4"/>
+      <c r="CR63" s="4"/>
       <c r="CT63" s="4"/>
       <c r="CU63" s="4"/>
       <c r="CV63" s="4"/>
       <c r="CW63" s="4"/>
       <c r="CX63" s="4"/>
-      <c r="CY63" s="5"/>
-      <c r="CZ63" s="6"/>
-      <c r="DA63" s="5"/>
-      <c r="DB63" s="84" t="s">
-        <v>132</v>
-      </c>
+      <c r="CY63" s="4"/>
+      <c r="CZ63" s="4"/>
+      <c r="DA63" s="4"/>
+      <c r="DB63" s="4"/>
       <c r="DC63" s="4"/>
       <c r="DD63" s="4"/>
       <c r="DE63" s="4"/>
       <c r="DF63" s="4"/>
       <c r="DG63" s="4"/>
       <c r="DH63" s="4"/>
-      <c r="DI63" s="5"/>
-      <c r="DJ63" s="5"/>
-    </row>
-    <row r="64" spans="35:114">
+      <c r="DI63" s="4"/>
+      <c r="DJ63" s="4"/>
+      <c r="DK63" s="5"/>
+    </row>
+    <row r="64" spans="35:115" x14ac:dyDescent="0.15">
       <c r="CQ64" s="6"/>
-      <c r="CR64" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="CS64" s="4"/>
+      <c r="CR64" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="CT64" s="4"/>
       <c r="CU64" s="4"/>
       <c r="CV64" s="4"/>
       <c r="CW64" s="4"/>
       <c r="CX64" s="4"/>
-      <c r="CY64" s="5"/>
-      <c r="CZ64" s="6"/>
-      <c r="DA64" s="5"/>
-      <c r="DB64" s="6"/>
+      <c r="CY64" s="4"/>
+      <c r="CZ64" s="4"/>
+      <c r="DA64" s="4"/>
+      <c r="DB64" s="4"/>
       <c r="DC64" s="4"/>
       <c r="DD64" s="4"/>
       <c r="DE64" s="4"/>
       <c r="DF64" s="4"/>
       <c r="DG64" s="4"/>
       <c r="DH64" s="4"/>
-      <c r="DI64" s="5"/>
-      <c r="DJ64" s="5"/>
-    </row>
-    <row r="65" spans="95:114">
+      <c r="DI64" s="4"/>
+      <c r="DJ64" s="4"/>
+      <c r="DK64" s="5"/>
+    </row>
+    <row r="65" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ65" s="6"/>
-      <c r="CR65" s="84" t="s">
-        <v>137</v>
-      </c>
+      <c r="CR65" s="4"/>
       <c r="CS65" s="4"/>
       <c r="CT65" s="4"/>
       <c r="CU65" s="4"/>
       <c r="CV65" s="4"/>
       <c r="CW65" s="4"/>
       <c r="CX65" s="4"/>
-      <c r="CY65" s="5"/>
-      <c r="CZ65" s="6"/>
-      <c r="DA65" s="5"/>
-      <c r="DB65" s="6"/>
+      <c r="CY65" s="4"/>
+      <c r="CZ65" s="4"/>
+      <c r="DA65" s="4"/>
+      <c r="DB65" s="4"/>
       <c r="DC65" s="4"/>
       <c r="DD65" s="4"/>
       <c r="DE65" s="4"/>
       <c r="DF65" s="4"/>
       <c r="DG65" s="4"/>
       <c r="DH65" s="4"/>
-      <c r="DI65" s="5"/>
-      <c r="DJ65" s="5"/>
-    </row>
-    <row r="66" spans="95:114">
+      <c r="DI65" s="4"/>
+      <c r="DJ65" s="4"/>
+      <c r="DK65" s="5"/>
+    </row>
+    <row r="66" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ66" s="6"/>
-      <c r="CR66" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="CS66" s="4"/>
+      <c r="CR66" s="4"/>
+      <c r="CS66" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="CT66" s="4"/>
       <c r="CU66" s="4"/>
       <c r="CV66" s="4"/>
       <c r="CW66" s="4"/>
       <c r="CX66" s="4"/>
-      <c r="CY66" s="5"/>
-      <c r="CZ66" s="6"/>
-      <c r="DA66" s="5"/>
-      <c r="DB66" s="6"/>
+      <c r="CY66" s="4"/>
+      <c r="CZ66" s="4"/>
+      <c r="DA66" s="4"/>
+      <c r="DB66" s="4"/>
       <c r="DC66" s="4"/>
       <c r="DD66" s="4"/>
       <c r="DE66" s="4"/>
       <c r="DF66" s="4"/>
       <c r="DG66" s="4"/>
       <c r="DH66" s="4"/>
-      <c r="DI66" s="5"/>
-      <c r="DJ66" s="5"/>
-    </row>
-    <row r="67" spans="95:114">
+      <c r="DI66" s="4"/>
+      <c r="DJ66" s="4"/>
+      <c r="DK66" s="5"/>
+    </row>
+    <row r="67" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ67" s="6"/>
-      <c r="CR67" s="80" t="s">
-        <v>133</v>
-      </c>
+      <c r="CR67" s="4"/>
       <c r="CS67" s="4"/>
       <c r="CT67" s="4"/>
       <c r="CU67" s="4"/>
       <c r="CV67" s="4"/>
       <c r="CW67" s="4"/>
       <c r="CX67" s="4"/>
-      <c r="CY67" s="5"/>
-      <c r="CZ67" s="6"/>
-      <c r="DA67" s="5"/>
-      <c r="DB67" s="6"/>
+      <c r="CY67" s="4"/>
+      <c r="CZ67" s="4"/>
+      <c r="DA67" s="4"/>
+      <c r="DB67" s="4"/>
       <c r="DC67" s="4"/>
       <c r="DD67" s="4"/>
       <c r="DE67" s="4"/>
       <c r="DF67" s="4"/>
       <c r="DG67" s="4"/>
       <c r="DH67" s="4"/>
-      <c r="DI67" s="5"/>
-      <c r="DJ67" s="5"/>
-    </row>
-    <row r="68" spans="95:114">
+      <c r="DI67" s="4"/>
+      <c r="DJ67" s="4"/>
+      <c r="DK67" s="5"/>
+    </row>
+    <row r="68" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ68" s="6"/>
-      <c r="CR68" s="6"/>
-      <c r="CS68" s="4"/>
-      <c r="CT68" s="4"/>
-      <c r="CU68" s="4"/>
-      <c r="CV68" s="4"/>
-      <c r="CW68" s="4"/>
-      <c r="CX68" s="4"/>
-      <c r="CY68" s="5"/>
-      <c r="CZ68" s="6"/>
-      <c r="DA68" s="5"/>
-      <c r="DB68" s="6"/>
-      <c r="DC68" s="4"/>
-      <c r="DD68" s="4"/>
-      <c r="DE68" s="4"/>
-      <c r="DF68" s="4"/>
-      <c r="DG68" s="4"/>
-      <c r="DH68" s="4"/>
-      <c r="DI68" s="5"/>
-      <c r="DJ68" s="5"/>
-    </row>
-    <row r="69" spans="95:114">
+      <c r="CR68" s="5"/>
+      <c r="CS68" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="CT68" s="59"/>
+      <c r="CU68" s="59"/>
+      <c r="CV68" s="59"/>
+      <c r="CW68" s="59"/>
+      <c r="CX68" s="59"/>
+      <c r="CY68" s="59"/>
+      <c r="CZ68" s="60"/>
+      <c r="DA68" s="4"/>
+      <c r="DB68" s="4"/>
+      <c r="DC68" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="DD68" s="59"/>
+      <c r="DE68" s="59"/>
+      <c r="DF68" s="59"/>
+      <c r="DG68" s="59"/>
+      <c r="DH68" s="59"/>
+      <c r="DI68" s="59"/>
+      <c r="DJ68" s="60"/>
+      <c r="DK68" s="5"/>
+    </row>
+    <row r="69" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ69" s="6"/>
-      <c r="CR69" s="6"/>
-      <c r="CS69" s="4"/>
-      <c r="CT69" s="4"/>
-      <c r="CU69" s="4"/>
-      <c r="CV69" s="4"/>
-      <c r="CW69" s="4"/>
-      <c r="CX69" s="4"/>
-      <c r="CY69" s="5"/>
-      <c r="CZ69" s="6"/>
-      <c r="DA69" s="5"/>
-      <c r="DB69" s="6"/>
-      <c r="DC69" s="4"/>
-      <c r="DD69" s="4"/>
-      <c r="DE69" s="4"/>
-      <c r="DF69" s="4"/>
-      <c r="DG69" s="4"/>
-      <c r="DH69" s="4"/>
-      <c r="DI69" s="5"/>
-      <c r="DJ69" s="5"/>
-    </row>
-    <row r="70" spans="95:114">
+      <c r="CR69" s="5"/>
+      <c r="CS69" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="CT69" s="22"/>
+      <c r="CU69" s="22"/>
+      <c r="CV69" s="22"/>
+      <c r="CW69" s="22"/>
+      <c r="CX69" s="22"/>
+      <c r="CY69" s="22"/>
+      <c r="CZ69" s="29"/>
+      <c r="DA69" s="21"/>
+      <c r="DB69" s="29"/>
+      <c r="DC69" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="DD69" s="22"/>
+      <c r="DE69" s="22"/>
+      <c r="DF69" s="22"/>
+      <c r="DG69" s="22"/>
+      <c r="DH69" s="22"/>
+      <c r="DI69" s="22"/>
+      <c r="DJ69" s="29"/>
+      <c r="DK69" s="5"/>
+    </row>
+    <row r="70" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ70" s="6"/>
-      <c r="CR70" s="16"/>
-      <c r="CS70" s="17"/>
-      <c r="CT70" s="17"/>
-      <c r="CU70" s="17"/>
-      <c r="CV70" s="17"/>
-      <c r="CW70" s="17"/>
-      <c r="CX70" s="17"/>
-      <c r="CY70" s="18"/>
-      <c r="CZ70" s="16"/>
-      <c r="DA70" s="18"/>
-      <c r="DB70" s="16"/>
-      <c r="DC70" s="17"/>
-      <c r="DD70" s="17"/>
-      <c r="DE70" s="17"/>
-      <c r="DF70" s="17"/>
-      <c r="DG70" s="17"/>
-      <c r="DH70" s="17"/>
-      <c r="DI70" s="18"/>
+      <c r="CR70" s="5"/>
+      <c r="CS70" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="CT70" s="4"/>
+      <c r="CU70" s="4"/>
+      <c r="CV70" s="4"/>
+      <c r="CW70" s="4"/>
+      <c r="CX70" s="4"/>
+      <c r="CY70" s="4"/>
+      <c r="CZ70" s="5"/>
+      <c r="DA70" s="6"/>
+      <c r="DB70" s="5"/>
+      <c r="DC70" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="DD70" s="4"/>
+      <c r="DE70" s="4"/>
+      <c r="DF70" s="4"/>
+      <c r="DG70" s="4"/>
+      <c r="DH70" s="4"/>
+      <c r="DI70" s="4"/>
       <c r="DJ70" s="5"/>
-    </row>
-    <row r="71" spans="95:114">
+      <c r="DK70" s="5"/>
+    </row>
+    <row r="71" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ71" s="6"/>
-      <c r="CR71" s="4"/>
-      <c r="CS71" s="4"/>
+      <c r="CR71" s="5"/>
+      <c r="CS71" s="84" t="s">
+        <v>132</v>
+      </c>
       <c r="CT71" s="4"/>
       <c r="CU71" s="4"/>
       <c r="CV71" s="4"/>
       <c r="CW71" s="4"/>
       <c r="CX71" s="4"/>
       <c r="CY71" s="4"/>
-      <c r="CZ71" s="4"/>
-      <c r="DA71" s="4"/>
-      <c r="DB71" s="4"/>
-      <c r="DC71" s="4"/>
+      <c r="CZ71" s="5"/>
+      <c r="DA71" s="6"/>
+      <c r="DB71" s="5"/>
+      <c r="DC71" s="6"/>
       <c r="DD71" s="4"/>
       <c r="DE71" s="4"/>
       <c r="DF71" s="4"/>
@@ -21082,21 +22090,24 @@
       <c r="DH71" s="4"/>
       <c r="DI71" s="4"/>
       <c r="DJ71" s="5"/>
-    </row>
-    <row r="72" spans="95:114">
+      <c r="DK71" s="5"/>
+    </row>
+    <row r="72" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ72" s="6"/>
-      <c r="CR72" s="4"/>
-      <c r="CS72" s="4"/>
+      <c r="CR72" s="5"/>
+      <c r="CS72" s="84" t="s">
+        <v>137</v>
+      </c>
       <c r="CT72" s="4"/>
       <c r="CU72" s="4"/>
       <c r="CV72" s="4"/>
       <c r="CW72" s="4"/>
       <c r="CX72" s="4"/>
       <c r="CY72" s="4"/>
-      <c r="CZ72" s="4"/>
-      <c r="DA72" s="4"/>
-      <c r="DB72" s="4"/>
-      <c r="DC72" s="4"/>
+      <c r="CZ72" s="5"/>
+      <c r="DA72" s="6"/>
+      <c r="DB72" s="5"/>
+      <c r="DC72" s="6"/>
       <c r="DD72" s="4"/>
       <c r="DE72" s="4"/>
       <c r="DF72" s="4"/>
@@ -21104,178 +22115,217 @@
       <c r="DH72" s="4"/>
       <c r="DI72" s="4"/>
       <c r="DJ72" s="5"/>
-    </row>
-    <row r="73" spans="95:114">
-      <c r="CQ73" s="16"/>
-      <c r="CR73" s="17"/>
-      <c r="CS73" s="17"/>
-      <c r="CT73" s="17"/>
-      <c r="CU73" s="17"/>
-      <c r="CV73" s="17"/>
-      <c r="CW73" s="17"/>
-      <c r="CX73" s="17"/>
-      <c r="CY73" s="17"/>
-      <c r="CZ73" s="17"/>
-      <c r="DA73" s="17"/>
-      <c r="DB73" s="17"/>
-      <c r="DC73" s="17"/>
-      <c r="DD73" s="17"/>
-      <c r="DE73" s="17"/>
-      <c r="DF73" s="17"/>
-      <c r="DG73" s="17"/>
-      <c r="DH73" s="17"/>
-      <c r="DI73" s="17"/>
-      <c r="DJ73" s="18"/>
-    </row>
-    <row r="81" spans="119:133">
-      <c r="DO81" s="93"/>
-      <c r="DP81" s="94" t="s">
-        <v>177</v>
-      </c>
-      <c r="DQ81" s="22"/>
-      <c r="DR81" s="22"/>
-      <c r="DS81" s="22"/>
-      <c r="DT81" s="22"/>
-      <c r="DU81" s="22"/>
-      <c r="DV81" s="22"/>
-      <c r="DW81" s="22"/>
-      <c r="DX81" s="22"/>
-      <c r="DY81" s="22"/>
-      <c r="DZ81" s="22"/>
-      <c r="EA81" s="22"/>
-      <c r="EB81" s="22"/>
-      <c r="EC81" s="29"/>
-    </row>
-    <row r="82" spans="119:133">
-      <c r="DO82" s="6"/>
-      <c r="DP82" s="4"/>
-      <c r="DQ82" s="4"/>
-      <c r="DR82" s="4"/>
-      <c r="DS82" s="4"/>
-      <c r="DT82" s="4"/>
-      <c r="DU82" s="4"/>
-      <c r="DV82" s="4"/>
-      <c r="DW82" s="4"/>
-      <c r="DX82" s="4"/>
-      <c r="DY82" s="4"/>
-      <c r="DZ82" s="4"/>
-      <c r="EA82" s="4"/>
-      <c r="EB82" s="4"/>
-      <c r="EC82" s="5"/>
-    </row>
-    <row r="83" spans="119:133">
-      <c r="DO83" s="6"/>
-      <c r="DP83" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ83" s="4"/>
-      <c r="DR83" s="4"/>
-      <c r="DS83" s="4"/>
-      <c r="DT83" s="4"/>
-      <c r="DU83" s="4"/>
-      <c r="DV83" s="4"/>
-      <c r="DW83" s="4"/>
-      <c r="DX83" s="4"/>
-      <c r="DY83" s="4"/>
-      <c r="DZ83" s="4"/>
-      <c r="EA83" s="4"/>
-      <c r="EB83" s="4"/>
-      <c r="EC83" s="5"/>
-    </row>
-    <row r="84" spans="119:133">
-      <c r="DO84" s="6"/>
-      <c r="DP84" s="4"/>
-      <c r="DQ84" s="4"/>
-      <c r="DR84" s="4"/>
-      <c r="DS84" s="4"/>
-      <c r="DT84" s="4"/>
-      <c r="DU84" s="4"/>
-      <c r="DV84" s="4"/>
-      <c r="DW84" s="4"/>
-      <c r="DX84" s="4"/>
-      <c r="DY84" s="4"/>
-      <c r="DZ84" s="4"/>
-      <c r="EA84" s="4"/>
-      <c r="EB84" s="4"/>
-      <c r="EC84" s="5"/>
-    </row>
-    <row r="85" spans="119:133">
-      <c r="DO85" s="6"/>
-      <c r="DP85" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="DQ85" s="4"/>
-      <c r="DR85" s="4"/>
-      <c r="DS85" s="4"/>
-      <c r="DT85" s="4"/>
-      <c r="DU85" s="4"/>
-      <c r="DV85" s="4"/>
-      <c r="DW85" s="4"/>
-      <c r="DX85" s="4"/>
-      <c r="DY85" s="4"/>
-      <c r="DZ85" s="4"/>
-      <c r="EA85" s="4"/>
-      <c r="EB85" s="4"/>
-      <c r="EC85" s="5"/>
-    </row>
-    <row r="86" spans="119:133">
-      <c r="DO86" s="6"/>
-      <c r="DP86" s="4"/>
-      <c r="DQ86" s="4"/>
-      <c r="DR86" s="4"/>
-      <c r="DS86" s="4"/>
-      <c r="DT86" s="4"/>
-      <c r="DU86" s="4"/>
-      <c r="DV86" s="4"/>
-      <c r="DW86" s="4"/>
-      <c r="DX86" s="4"/>
-      <c r="DY86" s="4"/>
-      <c r="DZ86" s="4"/>
-      <c r="EA86" s="4"/>
-      <c r="EB86" s="4"/>
-      <c r="EC86" s="5"/>
-    </row>
-    <row r="87" spans="119:133">
-      <c r="DO87" s="6"/>
-      <c r="DP87" s="92" t="s">
-        <v>166</v>
-      </c>
-      <c r="DQ87" s="4"/>
-      <c r="DR87" s="4"/>
-      <c r="DS87" s="4"/>
-      <c r="DT87" s="4"/>
-      <c r="DU87" s="4"/>
-      <c r="DV87" s="4"/>
-      <c r="DW87" s="4"/>
-      <c r="DX87" s="4"/>
-      <c r="DY87" s="4"/>
-      <c r="DZ87" s="4"/>
-      <c r="EA87" s="4"/>
-      <c r="EB87" s="4"/>
-      <c r="EC87" s="5"/>
-    </row>
-    <row r="88" spans="119:133">
-      <c r="DO88" s="6"/>
-      <c r="DP88" s="4"/>
-      <c r="DQ88" s="4"/>
-      <c r="DR88" s="4"/>
-      <c r="DS88" s="4"/>
-      <c r="DT88" s="4"/>
-      <c r="DU88" s="4"/>
-      <c r="DV88" s="4"/>
-      <c r="DW88" s="4"/>
-      <c r="DX88" s="4"/>
-      <c r="DY88" s="4"/>
-      <c r="DZ88" s="4"/>
-      <c r="EA88" s="4"/>
-      <c r="EB88" s="4"/>
-      <c r="EC88" s="5"/>
-    </row>
-    <row r="89" spans="119:133">
-      <c r="DO89" s="6"/>
-      <c r="DP89" s="92" t="s">
-        <v>167</v>
-      </c>
+      <c r="DK72" s="5"/>
+    </row>
+    <row r="73" spans="95:115" x14ac:dyDescent="0.15">
+      <c r="CQ73" s="6"/>
+      <c r="CR73" s="5"/>
+      <c r="CS73" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="CT73" s="4"/>
+      <c r="CU73" s="4"/>
+      <c r="CV73" s="4"/>
+      <c r="CW73" s="4"/>
+      <c r="CX73" s="4"/>
+      <c r="CY73" s="4"/>
+      <c r="CZ73" s="5"/>
+      <c r="DA73" s="6"/>
+      <c r="DB73" s="5"/>
+      <c r="DC73" s="6"/>
+      <c r="DD73" s="4"/>
+      <c r="DE73" s="4"/>
+      <c r="DF73" s="4"/>
+      <c r="DG73" s="4"/>
+      <c r="DH73" s="4"/>
+      <c r="DI73" s="4"/>
+      <c r="DJ73" s="5"/>
+      <c r="DK73" s="5"/>
+    </row>
+    <row r="74" spans="95:115" x14ac:dyDescent="0.15">
+      <c r="CQ74" s="6"/>
+      <c r="CR74" s="5"/>
+      <c r="CS74" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="CT74" s="4"/>
+      <c r="CU74" s="4"/>
+      <c r="CV74" s="4"/>
+      <c r="CW74" s="4"/>
+      <c r="CX74" s="4"/>
+      <c r="CY74" s="4"/>
+      <c r="CZ74" s="5"/>
+      <c r="DA74" s="6"/>
+      <c r="DB74" s="5"/>
+      <c r="DC74" s="6"/>
+      <c r="DD74" s="4"/>
+      <c r="DE74" s="4"/>
+      <c r="DF74" s="4"/>
+      <c r="DG74" s="4"/>
+      <c r="DH74" s="4"/>
+      <c r="DI74" s="4"/>
+      <c r="DJ74" s="5"/>
+      <c r="DK74" s="5"/>
+    </row>
+    <row r="75" spans="95:115" x14ac:dyDescent="0.15">
+      <c r="CQ75" s="6"/>
+      <c r="CR75" s="5"/>
+      <c r="CS75" s="6"/>
+      <c r="CT75" s="4"/>
+      <c r="CU75" s="4"/>
+      <c r="CV75" s="4"/>
+      <c r="CW75" s="4"/>
+      <c r="CX75" s="4"/>
+      <c r="CY75" s="4"/>
+      <c r="CZ75" s="5"/>
+      <c r="DA75" s="6"/>
+      <c r="DB75" s="5"/>
+      <c r="DC75" s="6"/>
+      <c r="DD75" s="4"/>
+      <c r="DE75" s="4"/>
+      <c r="DF75" s="4"/>
+      <c r="DG75" s="4"/>
+      <c r="DH75" s="4"/>
+      <c r="DI75" s="4"/>
+      <c r="DJ75" s="5"/>
+      <c r="DK75" s="5"/>
+    </row>
+    <row r="76" spans="95:115" x14ac:dyDescent="0.15">
+      <c r="CQ76" s="6"/>
+      <c r="CR76" s="5"/>
+      <c r="CS76" s="6"/>
+      <c r="CT76" s="4"/>
+      <c r="CU76" s="4"/>
+      <c r="CV76" s="4"/>
+      <c r="CW76" s="4"/>
+      <c r="CX76" s="4"/>
+      <c r="CY76" s="4"/>
+      <c r="CZ76" s="5"/>
+      <c r="DA76" s="6"/>
+      <c r="DB76" s="5"/>
+      <c r="DC76" s="6"/>
+      <c r="DD76" s="4"/>
+      <c r="DE76" s="4"/>
+      <c r="DF76" s="4"/>
+      <c r="DG76" s="4"/>
+      <c r="DH76" s="4"/>
+      <c r="DI76" s="4"/>
+      <c r="DJ76" s="5"/>
+      <c r="DK76" s="5"/>
+    </row>
+    <row r="77" spans="95:115" x14ac:dyDescent="0.15">
+      <c r="CQ77" s="6"/>
+      <c r="CR77" s="5"/>
+      <c r="CS77" s="16"/>
+      <c r="CT77" s="17"/>
+      <c r="CU77" s="17"/>
+      <c r="CV77" s="17"/>
+      <c r="CW77" s="17"/>
+      <c r="CX77" s="17"/>
+      <c r="CY77" s="17"/>
+      <c r="CZ77" s="18"/>
+      <c r="DA77" s="16"/>
+      <c r="DB77" s="18"/>
+      <c r="DC77" s="16"/>
+      <c r="DD77" s="17"/>
+      <c r="DE77" s="17"/>
+      <c r="DF77" s="17"/>
+      <c r="DG77" s="17"/>
+      <c r="DH77" s="17"/>
+      <c r="DI77" s="17"/>
+      <c r="DJ77" s="18"/>
+      <c r="DK77" s="5"/>
+    </row>
+    <row r="78" spans="95:115" x14ac:dyDescent="0.15">
+      <c r="CQ78" s="6"/>
+      <c r="CR78" s="4"/>
+      <c r="CS78" s="4"/>
+      <c r="CT78" s="4"/>
+      <c r="CU78" s="4"/>
+      <c r="CV78" s="4"/>
+      <c r="CW78" s="4"/>
+      <c r="CX78" s="4"/>
+      <c r="CY78" s="4"/>
+      <c r="CZ78" s="4"/>
+      <c r="DA78" s="4"/>
+      <c r="DB78" s="4"/>
+      <c r="DC78" s="4"/>
+      <c r="DD78" s="4"/>
+      <c r="DE78" s="4"/>
+      <c r="DF78" s="4"/>
+      <c r="DG78" s="4"/>
+      <c r="DH78" s="4"/>
+      <c r="DI78" s="4"/>
+      <c r="DJ78" s="4"/>
+      <c r="DK78" s="5"/>
+    </row>
+    <row r="79" spans="95:115" x14ac:dyDescent="0.15">
+      <c r="CQ79" s="6"/>
+      <c r="CR79" s="4"/>
+      <c r="CS79" s="4"/>
+      <c r="CT79" s="4"/>
+      <c r="CU79" s="4"/>
+      <c r="CV79" s="4"/>
+      <c r="CW79" s="4"/>
+      <c r="CX79" s="4"/>
+      <c r="CY79" s="4"/>
+      <c r="CZ79" s="4"/>
+      <c r="DA79" s="4"/>
+      <c r="DB79" s="4"/>
+      <c r="DC79" s="4"/>
+      <c r="DD79" s="4"/>
+      <c r="DE79" s="4"/>
+      <c r="DF79" s="4"/>
+      <c r="DG79" s="4"/>
+      <c r="DH79" s="4"/>
+      <c r="DI79" s="4"/>
+      <c r="DJ79" s="4"/>
+      <c r="DK79" s="5"/>
+    </row>
+    <row r="80" spans="95:115" x14ac:dyDescent="0.15">
+      <c r="CQ80" s="16"/>
+      <c r="CR80" s="17"/>
+      <c r="CS80" s="17"/>
+      <c r="CT80" s="17"/>
+      <c r="CU80" s="17"/>
+      <c r="CV80" s="17"/>
+      <c r="CW80" s="17"/>
+      <c r="CX80" s="17"/>
+      <c r="CY80" s="17"/>
+      <c r="CZ80" s="17"/>
+      <c r="DA80" s="17"/>
+      <c r="DB80" s="17"/>
+      <c r="DC80" s="17"/>
+      <c r="DD80" s="17"/>
+      <c r="DE80" s="17"/>
+      <c r="DF80" s="17"/>
+      <c r="DG80" s="17"/>
+      <c r="DH80" s="17"/>
+      <c r="DI80" s="17"/>
+      <c r="DJ80" s="17"/>
+      <c r="DK80" s="18"/>
+    </row>
+    <row r="88" spans="120:134" x14ac:dyDescent="0.15">
+      <c r="DP88" s="90"/>
+      <c r="DQ88" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="DR88" s="22"/>
+      <c r="DS88" s="22"/>
+      <c r="DT88" s="22"/>
+      <c r="DU88" s="22"/>
+      <c r="DV88" s="22"/>
+      <c r="DW88" s="22"/>
+      <c r="DX88" s="22"/>
+      <c r="DY88" s="22"/>
+      <c r="DZ88" s="22"/>
+      <c r="EA88" s="22"/>
+      <c r="EB88" s="22"/>
+      <c r="EC88" s="22"/>
+      <c r="ED88" s="29"/>
+    </row>
+    <row r="89" spans="120:134" x14ac:dyDescent="0.15">
+      <c r="DP89" s="6"/>
       <c r="DQ89" s="4"/>
       <c r="DR89" s="4"/>
       <c r="DS89" s="4"/>
@@ -21288,12 +22338,14 @@
       <c r="DZ89" s="4"/>
       <c r="EA89" s="4"/>
       <c r="EB89" s="4"/>
-      <c r="EC89" s="5"/>
-    </row>
-    <row r="90" spans="119:133">
-      <c r="DO90" s="6"/>
-      <c r="DP90" s="4"/>
-      <c r="DQ90" s="4"/>
+      <c r="EC89" s="4"/>
+      <c r="ED89" s="5"/>
+    </row>
+    <row r="90" spans="120:134" x14ac:dyDescent="0.15">
+      <c r="DP90" s="6"/>
+      <c r="DQ90" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="DR90" s="4"/>
       <c r="DS90" s="4"/>
       <c r="DT90" s="4"/>
@@ -21305,29 +22357,31 @@
       <c r="DZ90" s="4"/>
       <c r="EA90" s="4"/>
       <c r="EB90" s="4"/>
-      <c r="EC90" s="5"/>
-    </row>
-    <row r="91" spans="119:133" ht="18.75" customHeight="1">
-      <c r="DO91" s="6"/>
-      <c r="DP91" s="2"/>
-      <c r="DQ91" s="40"/>
-      <c r="DR91" s="40"/>
-      <c r="DS91" s="40"/>
-      <c r="DT91" s="40"/>
-      <c r="DU91" s="40"/>
-      <c r="DV91" s="40"/>
-      <c r="DW91" s="40"/>
-      <c r="DX91" s="40"/>
-      <c r="DY91" s="40"/>
-      <c r="DZ91" s="3"/>
+      <c r="EC90" s="4"/>
+      <c r="ED90" s="5"/>
+    </row>
+    <row r="91" spans="120:134" x14ac:dyDescent="0.15">
+      <c r="DP91" s="6"/>
+      <c r="DQ91" s="4"/>
+      <c r="DR91" s="4"/>
+      <c r="DS91" s="4"/>
+      <c r="DT91" s="4"/>
+      <c r="DU91" s="4"/>
+      <c r="DV91" s="4"/>
+      <c r="DW91" s="4"/>
+      <c r="DX91" s="4"/>
+      <c r="DY91" s="4"/>
+      <c r="DZ91" s="4"/>
       <c r="EA91" s="4"/>
       <c r="EB91" s="4"/>
-      <c r="EC91" s="5"/>
-    </row>
-    <row r="92" spans="119:133">
-      <c r="DO92" s="6"/>
-      <c r="DP92" s="4"/>
-      <c r="DQ92" s="4"/>
+      <c r="EC91" s="4"/>
+      <c r="ED91" s="5"/>
+    </row>
+    <row r="92" spans="120:134" x14ac:dyDescent="0.15">
+      <c r="DP92" s="6"/>
+      <c r="DQ92" s="89" t="s">
+        <v>160</v>
+      </c>
       <c r="DR92" s="4"/>
       <c r="DS92" s="4"/>
       <c r="DT92" s="4"/>
@@ -21339,11 +22393,11 @@
       <c r="DZ92" s="4"/>
       <c r="EA92" s="4"/>
       <c r="EB92" s="4"/>
-      <c r="EC92" s="5"/>
-    </row>
-    <row r="93" spans="119:133">
-      <c r="DO93" s="6"/>
-      <c r="DP93" s="4"/>
+      <c r="EC92" s="4"/>
+      <c r="ED92" s="5"/>
+    </row>
+    <row r="93" spans="120:134" x14ac:dyDescent="0.15">
+      <c r="DP93" s="6"/>
       <c r="DQ93" s="4"/>
       <c r="DR93" s="4"/>
       <c r="DS93" s="4"/>
@@ -21356,27 +22410,151 @@
       <c r="DZ93" s="4"/>
       <c r="EA93" s="4"/>
       <c r="EB93" s="4"/>
-      <c r="EC93" s="5"/>
-    </row>
-    <row r="94" spans="119:133">
-      <c r="DO94" s="16"/>
-      <c r="DP94" s="17"/>
-      <c r="DQ94" s="17"/>
-      <c r="DR94" s="17"/>
-      <c r="DS94" s="17"/>
-      <c r="DT94" s="17"/>
-      <c r="DU94" s="17"/>
-      <c r="DV94" s="17"/>
-      <c r="DW94" s="17"/>
-      <c r="DX94" s="17"/>
-      <c r="DY94" s="17"/>
-      <c r="DZ94" s="17"/>
-      <c r="EA94" s="17"/>
-      <c r="EB94" s="17"/>
-      <c r="EC94" s="18"/>
-    </row>
-    <row r="95" spans="119:133">
-      <c r="DP95" s="92"/>
+      <c r="EC93" s="4"/>
+      <c r="ED93" s="5"/>
+    </row>
+    <row r="94" spans="120:134" x14ac:dyDescent="0.15">
+      <c r="DP94" s="6"/>
+      <c r="DQ94" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="DR94" s="4"/>
+      <c r="DS94" s="4"/>
+      <c r="DT94" s="4"/>
+      <c r="DU94" s="4"/>
+      <c r="DV94" s="4"/>
+      <c r="DW94" s="4"/>
+      <c r="DX94" s="4"/>
+      <c r="DY94" s="4"/>
+      <c r="DZ94" s="4"/>
+      <c r="EA94" s="4"/>
+      <c r="EB94" s="4"/>
+      <c r="EC94" s="4"/>
+      <c r="ED94" s="5"/>
+    </row>
+    <row r="95" spans="120:134" x14ac:dyDescent="0.15">
+      <c r="DP95" s="6"/>
+      <c r="DQ95" s="4"/>
+      <c r="DR95" s="4"/>
+      <c r="DS95" s="4"/>
+      <c r="DT95" s="4"/>
+      <c r="DU95" s="4"/>
+      <c r="DV95" s="4"/>
+      <c r="DW95" s="4"/>
+      <c r="DX95" s="4"/>
+      <c r="DY95" s="4"/>
+      <c r="DZ95" s="4"/>
+      <c r="EA95" s="4"/>
+      <c r="EB95" s="4"/>
+      <c r="EC95" s="4"/>
+      <c r="ED95" s="5"/>
+    </row>
+    <row r="96" spans="120:134" x14ac:dyDescent="0.15">
+      <c r="DP96" s="6"/>
+      <c r="DQ96" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="DR96" s="4"/>
+      <c r="DS96" s="4"/>
+      <c r="DT96" s="4"/>
+      <c r="DU96" s="4"/>
+      <c r="DV96" s="4"/>
+      <c r="DW96" s="4"/>
+      <c r="DX96" s="4"/>
+      <c r="DY96" s="4"/>
+      <c r="DZ96" s="4"/>
+      <c r="EA96" s="4"/>
+      <c r="EB96" s="4"/>
+      <c r="EC96" s="4"/>
+      <c r="ED96" s="5"/>
+    </row>
+    <row r="97" spans="120:134" x14ac:dyDescent="0.15">
+      <c r="DP97" s="6"/>
+      <c r="DQ97" s="4"/>
+      <c r="DR97" s="4"/>
+      <c r="DS97" s="4"/>
+      <c r="DT97" s="4"/>
+      <c r="DU97" s="4"/>
+      <c r="DV97" s="4"/>
+      <c r="DW97" s="4"/>
+      <c r="DX97" s="4"/>
+      <c r="DY97" s="4"/>
+      <c r="DZ97" s="4"/>
+      <c r="EA97" s="4"/>
+      <c r="EB97" s="4"/>
+      <c r="EC97" s="4"/>
+      <c r="ED97" s="5"/>
+    </row>
+    <row r="98" spans="120:134" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="DP98" s="6"/>
+      <c r="DQ98" s="2"/>
+      <c r="DR98" s="40"/>
+      <c r="DS98" s="40"/>
+      <c r="DT98" s="40"/>
+      <c r="DU98" s="40"/>
+      <c r="DV98" s="40"/>
+      <c r="DW98" s="40"/>
+      <c r="DX98" s="40"/>
+      <c r="DY98" s="40"/>
+      <c r="DZ98" s="40"/>
+      <c r="EA98" s="3"/>
+      <c r="EB98" s="4"/>
+      <c r="EC98" s="4"/>
+      <c r="ED98" s="5"/>
+    </row>
+    <row r="99" spans="120:134" x14ac:dyDescent="0.15">
+      <c r="DP99" s="6"/>
+      <c r="DQ99" s="4"/>
+      <c r="DR99" s="4"/>
+      <c r="DS99" s="4"/>
+      <c r="DT99" s="4"/>
+      <c r="DU99" s="4"/>
+      <c r="DV99" s="4"/>
+      <c r="DW99" s="4"/>
+      <c r="DX99" s="4"/>
+      <c r="DY99" s="4"/>
+      <c r="DZ99" s="4"/>
+      <c r="EA99" s="4"/>
+      <c r="EB99" s="4"/>
+      <c r="EC99" s="4"/>
+      <c r="ED99" s="5"/>
+    </row>
+    <row r="100" spans="120:134" x14ac:dyDescent="0.15">
+      <c r="DP100" s="6"/>
+      <c r="DQ100" s="4"/>
+      <c r="DR100" s="4"/>
+      <c r="DS100" s="4"/>
+      <c r="DT100" s="4"/>
+      <c r="DU100" s="4"/>
+      <c r="DV100" s="4"/>
+      <c r="DW100" s="4"/>
+      <c r="DX100" s="4"/>
+      <c r="DY100" s="4"/>
+      <c r="DZ100" s="4"/>
+      <c r="EA100" s="4"/>
+      <c r="EB100" s="4"/>
+      <c r="EC100" s="4"/>
+      <c r="ED100" s="5"/>
+    </row>
+    <row r="101" spans="120:134" x14ac:dyDescent="0.15">
+      <c r="DP101" s="16"/>
+      <c r="DQ101" s="17"/>
+      <c r="DR101" s="17"/>
+      <c r="DS101" s="17"/>
+      <c r="DT101" s="17"/>
+      <c r="DU101" s="17"/>
+      <c r="DV101" s="17"/>
+      <c r="DW101" s="17"/>
+      <c r="DX101" s="17"/>
+      <c r="DY101" s="17"/>
+      <c r="DZ101" s="17"/>
+      <c r="EA101" s="17"/>
+      <c r="EB101" s="17"/>
+      <c r="EC101" s="17"/>
+      <c r="ED101" s="18"/>
+    </row>
+    <row r="102" spans="120:134" x14ac:dyDescent="0.15">
+      <c r="DQ102" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -21385,15 +22563,15 @@
     <mergeCell ref="BM25:BM28"/>
     <mergeCell ref="CE35:CE38"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <hyperlinks>
-    <hyperlink ref="DB62" r:id="rId1" display="Nino49a@gmail.com"/>
-    <hyperlink ref="DB63" r:id="rId2" display="Tugigroup@gmail.com"/>
-    <hyperlink ref="CR62" r:id="rId3" display="Nino49a@gmail.com"/>
-    <hyperlink ref="CR63" r:id="rId4" display="Thanhnv@gmail.com"/>
-    <hyperlink ref="CR66" r:id="rId5" display="TuyenTuyen@gmail.com"/>
-    <hyperlink ref="CR64" r:id="rId6" display="Tugigroup@gmail.com"/>
-    <hyperlink ref="CR65" r:id="rId7" display="TuyenTuyen@gmail.com"/>
+    <hyperlink ref="DC69" r:id="rId1" display="Nino49a@gmail.com"/>
+    <hyperlink ref="DC70" r:id="rId2" display="Tugigroup@gmail.com"/>
+    <hyperlink ref="CS69" r:id="rId3" display="Nino49a@gmail.com"/>
+    <hyperlink ref="CS70" r:id="rId4" display="Thanhnv@gmail.com"/>
+    <hyperlink ref="CS73" r:id="rId5" display="TuyenTuyen@gmail.com"/>
+    <hyperlink ref="CS71" r:id="rId6" display="Tugigroup@gmail.com"/>
+    <hyperlink ref="CS72" r:id="rId7" display="TuyenTuyen@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId8"/>
@@ -21401,14 +22579,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:DJ73"/>
   <sheetViews>
     <sheetView topLeftCell="AB33" workbookViewId="0">
       <selection activeCell="AF39" sqref="AF39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" style="1"/>
     <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
@@ -21460,7 +22638,7 @@
     <col min="91" max="16384" width="3.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="18.75" customHeight="1">
+    <row r="2" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
@@ -21480,7 +22658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="18.75" customHeight="1">
+    <row r="3" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H3" s="8" t="s">
         <v>5</v>
       </c>
@@ -21503,7 +22681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="18.75" customHeight="1">
+    <row r="5" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J5" s="8" t="s">
         <v>4</v>
       </c>
@@ -21511,7 +22689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="18.75" customHeight="1">
+    <row r="6" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J6" s="8" t="s">
         <v>16</v>
       </c>
@@ -21519,7 +22697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:24" ht="18.75" customHeight="1">
+    <row r="7" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J7" s="8" t="s">
         <v>17</v>
       </c>
@@ -21527,7 +22705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="18.75" customHeight="1">
+    <row r="8" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J8" s="8" t="s">
         <v>8</v>
       </c>
@@ -21535,7 +22713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="18.75" customHeight="1">
+    <row r="9" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J9" s="8" t="s">
         <v>10</v>
       </c>
@@ -21543,7 +22721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="18.75" customHeight="1">
+    <row r="10" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J10" s="8" t="s">
         <v>12</v>
       </c>
@@ -21551,7 +22729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="18.75" customHeight="1">
+    <row r="11" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J11" s="10"/>
       <c r="K11" s="8" t="s">
         <v>12</v>
@@ -21566,7 +22744,7 @@
       <c r="W11" s="22"/>
       <c r="X11" s="29"/>
     </row>
-    <row r="12" spans="2:24">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
       <c r="R12" s="6"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -21575,7 +22753,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="2:24">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
       <c r="R13" s="6" t="s">
         <v>53</v>
       </c>
@@ -21586,7 +22764,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="2:24">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
       <c r="R14" s="6" t="s">
         <v>23</v>
       </c>
@@ -21597,7 +22775,7 @@
       <c r="W14" s="4"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="2:24">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
       <c r="R15" s="6"/>
       <c r="S15" s="25" t="s">
         <v>26</v>
@@ -21612,7 +22790,7 @@
       <c r="W15" s="28"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="2:24">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
       <c r="R16" s="6"/>
       <c r="S16" s="8">
         <v>1</v>
@@ -21631,7 +22809,7 @@
       </c>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="18:67">
+    <row r="17" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R17" s="6"/>
       <c r="S17" s="8">
         <v>2</v>
@@ -21650,7 +22828,7 @@
       </c>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="18:67">
+    <row r="18" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R18" s="6"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -21659,7 +22837,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="5"/>
     </row>
-    <row r="19" spans="18:67">
+    <row r="19" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R19" s="6" t="s">
         <v>28</v>
       </c>
@@ -21670,7 +22848,7 @@
       <c r="W19" s="4"/>
       <c r="X19" s="5"/>
     </row>
-    <row r="20" spans="18:67">
+    <row r="20" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R20" s="6"/>
       <c r="S20" s="24" t="s">
         <v>31</v>
@@ -21685,7 +22863,7 @@
       <c r="W20" s="28"/>
       <c r="X20" s="5"/>
     </row>
-    <row r="21" spans="18:67">
+    <row r="21" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R21" s="6"/>
       <c r="S21" s="8">
         <v>1</v>
@@ -21704,7 +22882,7 @@
       </c>
       <c r="X21" s="5"/>
     </row>
-    <row r="22" spans="18:67">
+    <row r="22" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R22" s="6"/>
       <c r="S22" s="8">
         <v>2</v>
@@ -21723,7 +22901,7 @@
       </c>
       <c r="X22" s="5"/>
     </row>
-    <row r="23" spans="18:67">
+    <row r="23" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R23" s="16"/>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
@@ -21732,7 +22910,7 @@
       <c r="W23" s="17"/>
       <c r="X23" s="18"/>
     </row>
-    <row r="24" spans="18:67">
+    <row r="24" spans="18:67" x14ac:dyDescent="0.15">
       <c r="Z24" s="21"/>
       <c r="AA24" s="22"/>
       <c r="AB24" s="22"/>
@@ -21750,7 +22928,7 @@
       <c r="BN24" s="22"/>
       <c r="BO24" s="29"/>
     </row>
-    <row r="25" spans="18:67" ht="18" customHeight="1">
+    <row r="25" spans="18:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z25" s="6"/>
       <c r="AA25" s="23" t="s">
         <v>70</v>
@@ -21760,7 +22938,7 @@
       </c>
       <c r="AC25" s="3"/>
       <c r="AD25" s="4"/>
-      <c r="AE25" s="88" t="s">
+      <c r="AE25" s="92" t="s">
         <v>64</v>
       </c>
       <c r="AF25" s="34" t="s">
@@ -21776,7 +22954,7 @@
       </c>
       <c r="BK25" s="3"/>
       <c r="BL25" s="4"/>
-      <c r="BM25" s="88" t="s">
+      <c r="BM25" s="92" t="s">
         <v>64</v>
       </c>
       <c r="BN25" s="34" t="s">
@@ -21784,7 +22962,7 @@
       </c>
       <c r="BO25" s="5"/>
     </row>
-    <row r="26" spans="18:67" ht="18" customHeight="1">
+    <row r="26" spans="18:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z26" s="6"/>
       <c r="AA26" s="23" t="s">
         <v>69</v>
@@ -21794,7 +22972,7 @@
       </c>
       <c r="AC26" s="36"/>
       <c r="AD26" s="4"/>
-      <c r="AE26" s="89"/>
+      <c r="AE26" s="93"/>
       <c r="AF26" s="35" t="s">
         <v>74</v>
       </c>
@@ -21808,13 +22986,13 @@
       </c>
       <c r="BK26" s="36"/>
       <c r="BL26" s="4"/>
-      <c r="BM26" s="89"/>
+      <c r="BM26" s="93"/>
       <c r="BN26" s="35" t="s">
         <v>74</v>
       </c>
       <c r="BO26" s="5"/>
     </row>
-    <row r="27" spans="18:67" ht="18" customHeight="1">
+    <row r="27" spans="18:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z27" s="6"/>
       <c r="AA27" s="23" t="s">
         <v>68</v>
@@ -21824,7 +23002,7 @@
       </c>
       <c r="AC27" s="36"/>
       <c r="AD27" s="4"/>
-      <c r="AE27" s="89"/>
+      <c r="AE27" s="93"/>
       <c r="AF27" s="35"/>
       <c r="AG27" s="5"/>
       <c r="BH27" s="6"/>
@@ -21836,11 +23014,11 @@
       </c>
       <c r="BK27" s="36"/>
       <c r="BL27" s="4"/>
-      <c r="BM27" s="89"/>
+      <c r="BM27" s="93"/>
       <c r="BN27" s="35"/>
       <c r="BO27" s="5"/>
     </row>
-    <row r="28" spans="18:67" ht="18" customHeight="1">
+    <row r="28" spans="18:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z28" s="6"/>
       <c r="AA28" s="23" t="s">
         <v>67</v>
@@ -21850,7 +23028,7 @@
       </c>
       <c r="AC28" s="38"/>
       <c r="AD28" s="4"/>
-      <c r="AE28" s="90"/>
+      <c r="AE28" s="94"/>
       <c r="AF28" s="36"/>
       <c r="AG28" s="5"/>
       <c r="BH28" s="53"/>
@@ -21862,11 +23040,11 @@
       </c>
       <c r="BK28" s="38"/>
       <c r="BL28" s="4"/>
-      <c r="BM28" s="90"/>
+      <c r="BM28" s="94"/>
       <c r="BN28" s="36"/>
       <c r="BO28" s="53"/>
     </row>
-    <row r="29" spans="18:67">
+    <row r="29" spans="18:67" x14ac:dyDescent="0.15">
       <c r="Z29" s="6"/>
       <c r="AA29" s="22"/>
       <c r="AB29" s="22"/>
@@ -21884,7 +23062,7 @@
       <c r="BN29" s="22"/>
       <c r="BO29" s="5"/>
     </row>
-    <row r="30" spans="18:67" ht="18" customHeight="1">
+    <row r="30" spans="18:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z30" s="6"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
@@ -21902,7 +23080,7 @@
       <c r="BN30" s="4"/>
       <c r="BO30" s="5"/>
     </row>
-    <row r="31" spans="18:67">
+    <row r="31" spans="18:67" x14ac:dyDescent="0.15">
       <c r="Z31" s="16"/>
       <c r="AA31" s="17"/>
       <c r="AB31" s="17"/>
@@ -21920,7 +23098,7 @@
       <c r="BN31" s="17"/>
       <c r="BO31" s="18"/>
     </row>
-    <row r="33" spans="35:91">
+    <row r="33" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI33" s="21" t="s">
         <v>75</v>
       </c>
@@ -21972,7 +23150,7 @@
       <c r="CL33" s="22"/>
       <c r="CM33" s="29"/>
     </row>
-    <row r="34" spans="35:91" ht="19.5" customHeight="1">
+    <row r="34" spans="35:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI34" s="6"/>
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
@@ -22020,7 +23198,7 @@
       <c r="CL34" s="4"/>
       <c r="CM34" s="5"/>
     </row>
-    <row r="35" spans="35:91" ht="19.5" customHeight="1">
+    <row r="35" spans="35:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI35" s="6"/>
       <c r="AJ35" s="23" t="s">
         <v>22</v>
@@ -22039,7 +23217,7 @@
       <c r="AT35" s="41"/>
       <c r="AU35" s="38"/>
       <c r="AV35" s="4"/>
-      <c r="AW35" s="88" t="s">
+      <c r="AW35" s="92" t="s">
         <v>64</v>
       </c>
       <c r="AX35" s="43" t="s">
@@ -22070,7 +23248,7 @@
       <c r="CB35" s="41"/>
       <c r="CC35" s="38"/>
       <c r="CD35" s="4"/>
-      <c r="CE35" s="88" t="s">
+      <c r="CE35" s="92" t="s">
         <v>64</v>
       </c>
       <c r="CF35" s="43" t="s">
@@ -22084,7 +23262,7 @@
       <c r="CL35" s="45"/>
       <c r="CM35" s="5"/>
     </row>
-    <row r="36" spans="35:91" ht="19.5" customHeight="1">
+    <row r="36" spans="35:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI36" s="6"/>
       <c r="AJ36" s="23" t="s">
         <v>65</v>
@@ -22103,7 +23281,7 @@
       <c r="AT36" s="41"/>
       <c r="AU36" s="38"/>
       <c r="AV36" s="4"/>
-      <c r="AW36" s="89"/>
+      <c r="AW36" s="93"/>
       <c r="AX36" s="46"/>
       <c r="AY36" s="47"/>
       <c r="AZ36" s="47"/>
@@ -22130,7 +23308,7 @@
       <c r="CB36" s="41"/>
       <c r="CC36" s="38"/>
       <c r="CD36" s="4"/>
-      <c r="CE36" s="89"/>
+      <c r="CE36" s="93"/>
       <c r="CF36" s="46"/>
       <c r="CG36" s="47"/>
       <c r="CH36" s="47"/>
@@ -22140,7 +23318,7 @@
       <c r="CL36" s="42"/>
       <c r="CM36" s="5"/>
     </row>
-    <row r="37" spans="35:91" ht="19.5" customHeight="1">
+    <row r="37" spans="35:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI37" s="6"/>
       <c r="AJ37" s="23" t="s">
         <v>66</v>
@@ -22159,7 +23337,7 @@
       <c r="AT37" s="41"/>
       <c r="AU37" s="38"/>
       <c r="AV37" s="4"/>
-      <c r="AW37" s="89"/>
+      <c r="AW37" s="93"/>
       <c r="AX37" s="46"/>
       <c r="AY37" s="47"/>
       <c r="AZ37" s="47"/>
@@ -22186,7 +23364,7 @@
       <c r="CB37" s="41"/>
       <c r="CC37" s="38"/>
       <c r="CD37" s="4"/>
-      <c r="CE37" s="89"/>
+      <c r="CE37" s="93"/>
       <c r="CF37" s="46"/>
       <c r="CG37" s="47"/>
       <c r="CH37" s="47"/>
@@ -22196,7 +23374,7 @@
       <c r="CL37" s="42"/>
       <c r="CM37" s="5"/>
     </row>
-    <row r="38" spans="35:91" ht="19.5" customHeight="1">
+    <row r="38" spans="35:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI38" s="6"/>
       <c r="AJ38" s="23" t="s">
         <v>67</v>
@@ -22215,7 +23393,7 @@
       <c r="AT38" s="41"/>
       <c r="AU38" s="38"/>
       <c r="AV38" s="4"/>
-      <c r="AW38" s="90"/>
+      <c r="AW38" s="94"/>
       <c r="AX38" s="48"/>
       <c r="AY38" s="49"/>
       <c r="AZ38" s="49"/>
@@ -22242,7 +23420,7 @@
       <c r="CB38" s="41"/>
       <c r="CC38" s="38"/>
       <c r="CD38" s="4"/>
-      <c r="CE38" s="90"/>
+      <c r="CE38" s="94"/>
       <c r="CF38" s="48"/>
       <c r="CG38" s="49"/>
       <c r="CH38" s="49"/>
@@ -22252,7 +23430,7 @@
       <c r="CL38" s="50"/>
       <c r="CM38" s="5"/>
     </row>
-    <row r="39" spans="35:91">
+    <row r="39" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI39" s="6"/>
       <c r="AJ39" s="4"/>
       <c r="AK39" s="4"/>
@@ -22300,7 +23478,7 @@
       <c r="CL39" s="4"/>
       <c r="CM39" s="5"/>
     </row>
-    <row r="40" spans="35:91">
+    <row r="40" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI40" s="6"/>
       <c r="AJ40" s="4"/>
       <c r="AK40" s="4"/>
@@ -22348,7 +23526,7 @@
       <c r="CL40" s="4"/>
       <c r="CM40" s="5"/>
     </row>
-    <row r="41" spans="35:91">
+    <row r="41" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI41" s="16"/>
       <c r="AJ41" s="17"/>
       <c r="AK41" s="17"/>
@@ -22396,7 +23574,7 @@
       <c r="CL41" s="17"/>
       <c r="CM41" s="18"/>
     </row>
-    <row r="42" spans="35:91">
+    <row r="42" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI42" s="21" t="s">
         <v>76</v>
       </c>
@@ -22448,7 +23626,7 @@
       <c r="CL42" s="22"/>
       <c r="CM42" s="29"/>
     </row>
-    <row r="43" spans="35:91">
+    <row r="43" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI43" s="6"/>
       <c r="AJ43" s="4"/>
       <c r="AK43" s="4"/>
@@ -22496,7 +23674,7 @@
       <c r="CL43" s="4"/>
       <c r="CM43" s="5"/>
     </row>
-    <row r="44" spans="35:91">
+    <row r="44" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI44" s="7"/>
       <c r="AJ44" s="58" t="s">
         <v>79</v>
@@ -22552,7 +23730,7 @@
       <c r="CL44" s="59"/>
       <c r="CM44" s="60"/>
     </row>
-    <row r="45" spans="35:91">
+    <row r="45" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI45" s="53"/>
       <c r="AJ45" s="21" t="s">
         <v>77</v>
@@ -22608,7 +23786,7 @@
       <c r="CL45" s="4"/>
       <c r="CM45" s="5"/>
     </row>
-    <row r="46" spans="35:91" ht="18.75" customHeight="1">
+    <row r="46" spans="35:91" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI46" s="53"/>
       <c r="AJ46" s="51" t="s">
         <v>77</v>
@@ -22672,7 +23850,7 @@
       <c r="CL46" s="4"/>
       <c r="CM46" s="5"/>
     </row>
-    <row r="47" spans="35:91" ht="18.75" customHeight="1">
+    <row r="47" spans="35:91" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI47" s="53"/>
       <c r="AJ47" s="6"/>
       <c r="AK47" s="64"/>
@@ -22728,7 +23906,7 @@
       <c r="CL47" s="4"/>
       <c r="CM47" s="5"/>
     </row>
-    <row r="48" spans="35:91" ht="18.75" customHeight="1">
+    <row r="48" spans="35:91" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI48" s="53"/>
       <c r="AJ48" s="6"/>
       <c r="AK48" s="64"/>
@@ -22780,7 +23958,7 @@
       <c r="CL48" s="4"/>
       <c r="CM48" s="5"/>
     </row>
-    <row r="49" spans="35:114" ht="18.75" customHeight="1">
+    <row r="49" spans="35:114" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI49" s="53"/>
       <c r="AJ49" s="6"/>
       <c r="AK49" s="64"/>
@@ -22836,7 +24014,7 @@
       <c r="CL49" s="4"/>
       <c r="CM49" s="5"/>
     </row>
-    <row r="50" spans="35:114" ht="18.75" customHeight="1">
+    <row r="50" spans="35:114" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI50" s="53"/>
       <c r="AJ50" s="6"/>
       <c r="AK50" s="64"/>
@@ -22888,7 +24066,7 @@
       <c r="CL50" s="4"/>
       <c r="CM50" s="5"/>
     </row>
-    <row r="51" spans="35:114" ht="18.75" customHeight="1">
+    <row r="51" spans="35:114" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI51" s="53"/>
       <c r="AJ51" s="6"/>
       <c r="AK51" s="64"/>
@@ -22940,7 +24118,7 @@
       <c r="CL51" s="4"/>
       <c r="CM51" s="5"/>
     </row>
-    <row r="52" spans="35:114" ht="18.75" customHeight="1">
+    <row r="52" spans="35:114" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI52" s="53"/>
       <c r="AJ52" s="6"/>
       <c r="AK52" s="64"/>
@@ -22992,7 +24170,7 @@
       <c r="CL52" s="4"/>
       <c r="CM52" s="5"/>
     </row>
-    <row r="53" spans="35:114" ht="18.75" customHeight="1">
+    <row r="53" spans="35:114" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI53" s="53"/>
       <c r="AJ53" s="6"/>
       <c r="AK53" s="64"/>
@@ -23040,7 +24218,7 @@
       <c r="CL53" s="4"/>
       <c r="CM53" s="5"/>
     </row>
-    <row r="54" spans="35:114">
+    <row r="54" spans="35:114" x14ac:dyDescent="0.15">
       <c r="AI54" s="7"/>
       <c r="AJ54" s="16"/>
       <c r="AK54" s="65"/>
@@ -23088,7 +24266,7 @@
       <c r="CL54" s="17"/>
       <c r="CM54" s="18"/>
     </row>
-    <row r="55" spans="35:114">
+    <row r="55" spans="35:114" x14ac:dyDescent="0.15">
       <c r="AI55" s="21"/>
       <c r="AJ55" s="22"/>
       <c r="AK55" s="22"/>
@@ -23136,7 +24314,7 @@
       <c r="CL55" s="22"/>
       <c r="CM55" s="29"/>
     </row>
-    <row r="56" spans="35:114" ht="16.5" customHeight="1">
+    <row r="56" spans="35:114" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI56" s="16"/>
       <c r="AJ56" s="17"/>
       <c r="AK56" s="17"/>
@@ -23184,7 +24362,7 @@
       <c r="CL56" s="17"/>
       <c r="CM56" s="18"/>
     </row>
-    <row r="57" spans="35:114">
+    <row r="57" spans="35:114" x14ac:dyDescent="0.15">
       <c r="CQ57" s="21"/>
       <c r="CR57" s="22"/>
       <c r="CS57" s="22"/>
@@ -23206,7 +24384,7 @@
       <c r="DI57" s="22"/>
       <c r="DJ57" s="29"/>
     </row>
-    <row r="58" spans="35:114">
+    <row r="58" spans="35:114" x14ac:dyDescent="0.15">
       <c r="CQ58" s="6"/>
       <c r="CR58" s="4" t="s">
         <v>130</v>
@@ -23230,7 +24408,7 @@
       <c r="DI58" s="4"/>
       <c r="DJ58" s="5"/>
     </row>
-    <row r="59" spans="35:114">
+    <row r="59" spans="35:114" x14ac:dyDescent="0.15">
       <c r="CQ59" s="6"/>
       <c r="CR59" s="4" t="s">
         <v>140</v>
@@ -23254,7 +24432,7 @@
       <c r="DI59" s="4"/>
       <c r="DJ59" s="5"/>
     </row>
-    <row r="60" spans="35:114">
+    <row r="60" spans="35:114" x14ac:dyDescent="0.15">
       <c r="CQ60" s="6"/>
       <c r="CR60" s="4"/>
       <c r="CS60" s="4"/>
@@ -23276,7 +24454,7 @@
       <c r="DI60" s="4"/>
       <c r="DJ60" s="5"/>
     </row>
-    <row r="61" spans="35:114">
+    <row r="61" spans="35:114" x14ac:dyDescent="0.15">
       <c r="CQ61" s="6"/>
       <c r="CR61" s="58" t="s">
         <v>138</v>
@@ -23302,7 +24480,7 @@
       <c r="DI61" s="60"/>
       <c r="DJ61" s="5"/>
     </row>
-    <row r="62" spans="35:114">
+    <row r="62" spans="35:114" x14ac:dyDescent="0.15">
       <c r="CQ62" s="6"/>
       <c r="CR62" s="83" t="s">
         <v>134</v>
@@ -23328,7 +24506,7 @@
       <c r="DI62" s="29"/>
       <c r="DJ62" s="5"/>
     </row>
-    <row r="63" spans="35:114">
+    <row r="63" spans="35:114" x14ac:dyDescent="0.15">
       <c r="CQ63" s="6"/>
       <c r="CR63" s="84" t="s">
         <v>135</v>
@@ -23354,7 +24532,7 @@
       <c r="DI63" s="5"/>
       <c r="DJ63" s="5"/>
     </row>
-    <row r="64" spans="35:114">
+    <row r="64" spans="35:114" x14ac:dyDescent="0.15">
       <c r="CQ64" s="6"/>
       <c r="CR64" s="84" t="s">
         <v>132</v>
@@ -23378,7 +24556,7 @@
       <c r="DI64" s="5"/>
       <c r="DJ64" s="5"/>
     </row>
-    <row r="65" spans="95:114">
+    <row r="65" spans="95:114" x14ac:dyDescent="0.15">
       <c r="CQ65" s="6"/>
       <c r="CR65" s="84" t="s">
         <v>137</v>
@@ -23402,7 +24580,7 @@
       <c r="DI65" s="5"/>
       <c r="DJ65" s="5"/>
     </row>
-    <row r="66" spans="95:114">
+    <row r="66" spans="95:114" x14ac:dyDescent="0.15">
       <c r="CQ66" s="6"/>
       <c r="CR66" s="84" t="s">
         <v>136</v>
@@ -23426,7 +24604,7 @@
       <c r="DI66" s="5"/>
       <c r="DJ66" s="5"/>
     </row>
-    <row r="67" spans="95:114">
+    <row r="67" spans="95:114" x14ac:dyDescent="0.15">
       <c r="CQ67" s="6"/>
       <c r="CR67" s="80" t="s">
         <v>133</v>
@@ -23450,7 +24628,7 @@
       <c r="DI67" s="5"/>
       <c r="DJ67" s="5"/>
     </row>
-    <row r="68" spans="95:114">
+    <row r="68" spans="95:114" x14ac:dyDescent="0.15">
       <c r="CQ68" s="6"/>
       <c r="CR68" s="6"/>
       <c r="CS68" s="4"/>
@@ -23472,7 +24650,7 @@
       <c r="DI68" s="5"/>
       <c r="DJ68" s="5"/>
     </row>
-    <row r="69" spans="95:114">
+    <row r="69" spans="95:114" x14ac:dyDescent="0.15">
       <c r="CQ69" s="6"/>
       <c r="CR69" s="6"/>
       <c r="CS69" s="4"/>
@@ -23494,7 +24672,7 @@
       <c r="DI69" s="5"/>
       <c r="DJ69" s="5"/>
     </row>
-    <row r="70" spans="95:114">
+    <row r="70" spans="95:114" x14ac:dyDescent="0.15">
       <c r="CQ70" s="6"/>
       <c r="CR70" s="16"/>
       <c r="CS70" s="17"/>
@@ -23516,7 +24694,7 @@
       <c r="DI70" s="18"/>
       <c r="DJ70" s="5"/>
     </row>
-    <row r="71" spans="95:114">
+    <row r="71" spans="95:114" x14ac:dyDescent="0.15">
       <c r="CQ71" s="6"/>
       <c r="CR71" s="4"/>
       <c r="CS71" s="4"/>
@@ -23538,7 +24716,7 @@
       <c r="DI71" s="4"/>
       <c r="DJ71" s="5"/>
     </row>
-    <row r="72" spans="95:114">
+    <row r="72" spans="95:114" x14ac:dyDescent="0.15">
       <c r="CQ72" s="6"/>
       <c r="CR72" s="4"/>
       <c r="CS72" s="4"/>
@@ -23560,7 +24738,7 @@
       <c r="DI72" s="4"/>
       <c r="DJ72" s="5"/>
     </row>
-    <row r="73" spans="95:114">
+    <row r="73" spans="95:114" x14ac:dyDescent="0.15">
       <c r="CQ73" s="16"/>
       <c r="CR73" s="17"/>
       <c r="CS73" s="17"/>
@@ -23589,7 +24767,7 @@
     <mergeCell ref="AW35:AW38"/>
     <mergeCell ref="CE35:CE38"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <hyperlinks>
     <hyperlink ref="DB62" r:id="rId1" display="Nino49a@gmail.com"/>
     <hyperlink ref="DB63" r:id="rId2" display="Tugigroup@gmail.com"/>

--- a/10_SRS/SRS_OpenLibrary.xlsx
+++ b/10_SRS/SRS_OpenLibrary.xlsx
@@ -1,29 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_WORKING\TUGI\Japtool_src\doc\10_SRS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="19020" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="SRS" sheetId="1" r:id="rId1"/>
     <sheet name="Interface" sheetId="4" r:id="rId2"/>
-    <sheet name="Interface (2)" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="linhtinh" sheetId="6" r:id="rId3"/>
+    <sheet name="Interface (2)" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="200">
   <si>
     <t>■Chi tiết</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>■Mô tả</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -50,18 +56,18 @@
       </rPr>
       <t>ời dùng có thể tự tạo sách tiếng Nhật</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>(hoặc Hiển thị ban đầu)</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Trang chủ</t>
   </si>
   <si>
     <t>Trang chủ</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -88,7 +94,7 @@
       </rPr>
       <t>ớng dẫn</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -115,28 +121,28 @@
       </rPr>
       <t xml:space="preserve"> viện tài liệu</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Bàn học</t>
   </si>
   <si>
     <t>Bàn học</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Giới thiệu</t>
   </si>
   <si>
     <t>Giới thiệu</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Liên hệ</t>
   </si>
   <si>
     <t>Liên hệ</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -163,11 +169,11 @@
       </rPr>
       <t xml:space="preserve"> viện mở</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>＜Sau khi sửa＞</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Hướng dẫn</t>
@@ -193,11 +199,11 @@
   </si>
   <si>
     <t>Tên chức năng</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Mô tả giao diện</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -223,27 +229,27 @@
       </rPr>
       <t xml:space="preserve"> ← Click here</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Tên sách</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>◆Từ vựng</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Hành động</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>N4-5 vocabulary</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -270,43 +276,43 @@
       </rPr>
       <t>ợng thanh</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>◆Kanji</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>N4_SakuraTT</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>N4_DongDu</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Tên sách</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Hành động</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>◆Sửa DB</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Nội dung xử lý</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>◆Xử lý trên Webpage</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -333,7 +339,7 @@
       </rPr>
       <t>ợng share.</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -360,43 +366,43 @@
       </rPr>
       <t>ời tạo sách.</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>【Hiển thị ban đầu】</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">   ・Hiển thị link 「Tạo sách mới」</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">   ・Hiển thị list các sách đã tạo, có phân loại.</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>【link 「Tạo sách mới」】</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">   ・Di chuyển sang màn hình tạo mới sách.</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Sửa</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Xóa</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Chia xẻ</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>【Hành động 「Sửa」】</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -423,31 +429,31 @@
       </rPr>
       <t>ng ứng.</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>【Hành động 「Xóa」】</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">   ・Reload lai màn hình hiện tại.</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Danh sách các tài liệu bạn đã tạo</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Tạo mới sách</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>2. Tạo mới sách.</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>3. Chỉnh sửa sách.</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -474,11 +480,11 @@
       </rPr>
       <t xml:space="preserve"> viện mở」</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Tạo link di chuyển Menu</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -505,7 +511,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở」</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -532,7 +538,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở].</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -559,7 +565,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở」</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -586,114 +592,114 @@
       </rPr>
       <t xml:space="preserve"> viện mở].</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>◆Màn hình tạo sách mới</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Mô tả sách</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Cấp độ</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Phân loại</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Tag</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Phân loại(*)</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Cấp độ(*)</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Tên sách(*)</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Từ vựng</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>N1</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">Chỉ cần học kanji trong </t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>24h</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>◆Sách</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>◆Nội dung</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Bài 1</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Chỉ cần học Kanji trong 24h</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Danh sách</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Ý nghĩa</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>うっかり</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>がっかり</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>24h_Word</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>{'level': 'N1', 'tag' : {'contains':',24h_Word,'}}</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Thất vọng, làm thất vọng</t>
   </si>
   <si>
     <t>Cách đọc:</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Ý nghĩa:</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Audio:</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Sample</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -720,11 +726,11 @@
       </rPr>
       <t>ng vẫn</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>がっかりしている。:</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>よく練習したのに、選手に選択されなかた為、</t>
@@ -737,7 +743,7 @@
     <rPh sb="12" eb="14">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -764,27 +770,27 @@
       </rPr>
       <t>ợc chọn nên thất vọng.</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>【Hiển thị ban đầu】</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>24h_Word</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>{'level': 'N1', 'tag' : {'contains':',24h_Word,'}}</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>【button 「Tiếp tục」】</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>【button 「Quay về」】</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -811,7 +817,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở)</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -838,27 +844,27 @@
       </rPr>
       <t>ớc</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>【button 「Thêm」】</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Quay trở về màn hình listup sách đã tạo</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>【Link 「Tìm」】</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Tìm kiếm audio từ DB hiện có.</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>【Link 「Tạo」】</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -885,11 +891,11 @@
       </rPr>
       <t>ời dùng tự</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>phát âm và record + upload.</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -916,7 +922,7 @@
       </rPr>
       <t>ời dùng Upload.</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -943,27 +949,27 @@
       </rPr>
       <t>u tạm thời</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>【Link 「Xóa」】</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>【Link 「Nhập lại」】</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Reset lại nội dung đã nhập</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>【button 「Hủy bỏ」】</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Cancel việc đăng ký, quay trở về màn hình chính</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -990,7 +996,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở.</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1019,18 +1025,18 @@
       </rPr>
       <t xml:space="preserve">ng tự, chỉ </t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>khác nhau ở phần hiển thị input ở [Ý nghĩa]</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Chỉnh sửa sách.</t>
   </si>
   <si>
     <t>◆Màn hình chỉnh sửa sách</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1057,7 +1063,7 @@
       </rPr>
       <t>ợc hiển thị</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1084,39 +1090,39 @@
       </rPr>
       <t>u thay đổi không/cancel)</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Di chuyển sang màn hình chỉnh sửa nội dung sách</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>◆Màn hình chỉnh sửa nội dung cho sách</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Cho phép nhập từ ở dòng mới.</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>・Vùng nội dung: Hiển thị thông tin từ DB</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>【button 「Sửa」】</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Enable sửa ở line đang có focus.</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>【button 「Sửa DB」】</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Đăng ký lại Sách và Từ đã input lên cơ sở dữ liệu.</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1135,43 +1141,43 @@
       </rPr>
       <t>24h_Word</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Nino49a</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Tugigroup</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>YYY</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Nino49a</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Thanhnv</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>XXX</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>TuyenTuyen</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>All account</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Share account</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1198,7 +1204,7 @@
       </rPr>
       <t>ợc sách.</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1224,7 +1230,7 @@
       </rPr>
       <t>」】</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1251,11 +1257,11 @@
       </rPr>
       <t>ợc đăng ký vào 「PublicTo」</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>trong Book TBL.</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1271,11 +1277,11 @@
       </rPr>
       <t>」】</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Hủy bỏ share book và quay về màn hình chính.</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>&amp; Chia sẻ với các người dùng khác.</t>
@@ -1319,7 +1325,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở」 vào Menu bar (refer bên trái)</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1346,7 +1352,7 @@
       </rPr>
       <t>ớc khi sửa＞</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1373,7 +1379,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở.</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1400,7 +1406,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở]</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1427,7 +1433,7 @@
       </rPr>
       <t xml:space="preserve"> viện mở</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1454,15 +1460,15 @@
       </rPr>
       <t>ớc để tạo Private sách.</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>2. Nhập dữ liệu sách</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>3. Upload dữ liệu sách vào CSDL của Website.</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1493,11 +1499,11 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>【Link 「Quay lại」】</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1524,11 +1530,11 @@
       </rPr>
       <t xml:space="preserve"> viện mở」</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>【Link 「Ở đây」】</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1555,11 +1561,11 @@
       </rPr>
       <t>ớng dẫn nhập dữ liệu</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>【button 「...」】</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1586,34 +1592,34 @@
       </rPr>
       <t>ợc input</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>【button 「Upload」】</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Upload file lên server &amp; import vào DB</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>← Quay lai</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Sau khi upload xong thì sẽ thông báo message và remind</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>user đọc log để bổ xung audio thiếu.</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Chia sẻ</t>
   </si>
   <si>
     <t xml:space="preserve">   ・Xóa sách trong TH không cần hoặc muốn re-upload.</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1640,11 +1646,11 @@
       </rPr>
       <t xml:space="preserve"> viện mở」</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>All personal/group account</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1671,7 +1677,7 @@
       </rPr>
       <t>ời dùng</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1719,7 +1725,7 @@
       </rPr>
       <t>ời dùng</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1735,11 +1741,11 @@
       </rPr>
       <t>gười tạo sách có thể chỉ định chia sẻ sách như sau:</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>・Chỉ dùng cho cá nhân</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1766,7 +1772,7 @@
       </rPr>
       <t>ời dùng</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1793,11 +1799,11 @@
       </rPr>
       <t>ời dùng</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>①Blank： Chỉ dùng cho cá nhân</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1824,38 +1830,11 @@
       </rPr>
       <t>ời dùng</t>
     </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>③XXX,YYY,ZZZ： Chia sẻ chỉ định ng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ời dùng</t>
-    </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>・Blank： Chỉ dùng cho cá nhân</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1882,34 +1861,7 @@
       </rPr>
       <t>ời dùng</t>
     </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>・XXX,YYY,ZZZ： Chia sẻ chỉ định ng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ời dùng</t>
-    </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1925,19 +1877,19 @@
       </rPr>
       <t>iển thị danh sách các tài liệu mà login user đã tạo.</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">   ※Tham khảo 「Tạo sách mới」</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">   ※Tham khảo 「Chỉnh sửa sách」</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>○Chỉ dùng cho cá nhân</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1964,20 +1916,190 @@
       </rPr>
       <t>ời dùng</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>③GroupA,GroupB： Chia sẻ chỉ định GROUP ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời dùng</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>■Chú ý</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   Sau khi điền cách đọc, khi chuyển Focus thì audio sẽ tự động</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   Audio: Không edit đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc bằng tay</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc Search và trả về path audio vào Audio textbox.</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   Không tìm thấy thì hiển thị KHÔNG TÌM THẤY AUDIO.</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>◎10 từ  bài</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>○15 từ  bài</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>○20 từ  bài</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>・GroupA, GroupB： Chia sẻ chỉ định GROUP ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời dùng</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>Sách sẽ đ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc tự động Public sau 30days!</t>
+    </r>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2175,6 +2297,57 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2425,12 +2598,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2458,22 +2631,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
@@ -2485,10 +2658,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
@@ -2500,34 +2673,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2539,7 +2712,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
@@ -2590,13 +2763,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
@@ -2614,7 +2787,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
@@ -2626,85 +2799,97 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2716,22 +2901,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3364,50 +3564,41 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>36420</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>166408</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvPr id="24" name="TextBox 23"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7904629" y="27143449"/>
-          <a:ext cx="3166783" cy="634253"/>
+          <a:off x="7676029" y="14959852"/>
+          <a:ext cx="3922059" cy="1086972"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -3418,139 +3609,617 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> Làm cách nào thì thảo luận</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Khi</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>design thì sẽ quyết định layout của template.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Nhưng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> cần phải chú ý:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    - Template chỉ input danh sách từ.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    - Template cho phép chỉ định chia bao nhiêu từ 1 bài.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>       (10,15,20)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>22</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1101" name="Picture 8"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Interface!$B$2:$G$2" spid="_x0000_s1262"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2238375" y="5753100"/>
+              <a:ext cx="4400550" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1102" name="Picture 9"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Interface!$H$3:$N$3" spid="_x0000_s1263"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2219325" y="6438900"/>
+              <a:ext cx="5276850" cy="228600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1103" name="Picture 13"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Interface!$M$11:$X$23" spid="_x0000_s1264"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2124075" y="7219950"/>
+              <a:ext cx="5248275" cy="2305050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>105</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>117</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1104" name="Picture 18"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Interface!$BH$24:$BO$37" spid="_x0000_s1265"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2124075" y="18116550"/>
+              <a:ext cx="5514975" cy="2114550"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>119</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>147</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1105" name="Picture 22"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Interface!$BQ$33:$CM$74" spid="_x0000_s1266"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2114550" y="20488275"/>
+              <a:ext cx="5524500" cy="4829175"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>102</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1106" name="Picture 26"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Interface!$DP$92:$ED$112" spid="_x0000_s1267"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2476500" y="12973050"/>
+              <a:ext cx="4857750" cy="4619625"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>159</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>190</xdr:row>
+          <xdr:rowOff>57151</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1107" name="Ảnh 25"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Interface!$CQ$59:$DK$91" spid="_x0000_s1268"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2171700" y="26327100"/>
+              <a:ext cx="5410200" cy="5324475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>235323</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="TextBox 23"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="29" name="Khuung Chú Thích Chữ Nhật Góc Tròn 28"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7676029" y="14959852"/>
-          <a:ext cx="3922059" cy="1826560"/>
+          <a:off x="8247530" y="29874882"/>
+          <a:ext cx="2173941" cy="605118"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -18241"/>
+            <a:gd name="adj2" fmla="val -120833"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="FFC000"/>
         </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> 1. Vocabulary: Audio thì sẽ lấy kiểu gì?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>      ※Những từ không có trong DB thì sẽ không có audio.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>           </a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Giao dien nho Tuyền</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>→ </a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> sửa lại</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>trả về cho người dùng biết là danh sách từ không audio.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>                và remind user vào chỉnh sửa  để tạo/upload audio.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> 2. Kanji: Image thì sẽ lấy kiểu gì</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>      ※Trong template chỉ định sẵn path vật lý của kanji's image, </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>           chỉ định search VLOOKUP.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>★</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Khi</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>design thì sẽ quyết định layout của template.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3565,13 +4234,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3618,13 +4287,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4049,13 +4718,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4102,13 +4771,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4155,13 +4824,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4239,13 +4908,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4323,13 +4992,13 @@
     <xdr:from>
       <xdr:col>54</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4376,13 +5045,13 @@
     <xdr:from>
       <xdr:col>54</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4429,13 +5098,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4568,13 +5237,13 @@
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>228599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4751,13 +5420,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4807,13 +5476,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4863,13 +5532,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4913,13 +5582,13 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5125,13 +5794,13 @@
     <xdr:from>
       <xdr:col>68</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5178,13 +5847,13 @@
     <xdr:from>
       <xdr:col>68</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5231,13 +5900,13 @@
     <xdr:from>
       <xdr:col>70</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5307,13 +5976,13 @@
     <xdr:from>
       <xdr:col>73</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
       <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5391,13 +6060,13 @@
     <xdr:from>
       <xdr:col>88</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>88</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5444,13 +6113,13 @@
     <xdr:from>
       <xdr:col>88</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>88</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5497,13 +6166,13 @@
     <xdr:from>
       <xdr:col>78</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>85</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5636,13 +6305,13 @@
     <xdr:from>
       <xdr:col>86</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>228599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>89</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5818,15 +6487,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5835,7 +6504,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25184100" y="12868275"/>
+          <a:off x="40624125" y="12077700"/>
           <a:ext cx="876300" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -5874,15 +6543,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>78</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>82</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5891,7 +6560,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26336624" y="12868275"/>
+          <a:off x="41852849" y="12077700"/>
           <a:ext cx="923925" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -5925,108 +6594,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="Straight Arrow Connector 61"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25622250" y="12382500"/>
-          <a:ext cx="0" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="Straight Arrow Connector 62"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="26803350" y="12372975"/>
-          <a:ext cx="0" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -6203,13 +6770,13 @@
     <xdr:from>
       <xdr:col>68</xdr:col>
       <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6279,13 +6846,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6353,68 +6920,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="TextBox 71"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38852475" y="8905875"/>
-          <a:ext cx="628650" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>70</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>74</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6461,13 +6975,13 @@
     <xdr:from>
       <xdr:col>76</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>78</xdr:col>
       <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7007,13 +7521,13 @@
     <xdr:from>
       <xdr:col>104</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>105</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7069,13 +7583,13 @@
     <xdr:from>
       <xdr:col>104</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>105</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7131,13 +7645,13 @@
     <xdr:from>
       <xdr:col>96</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>98</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7207,13 +7721,13 @@
     <xdr:from>
       <xdr:col>99</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>101</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7291,13 +7805,13 @@
     <xdr:from>
       <xdr:col>104</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>107</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7347,13 +7861,13 @@
     <xdr:from>
       <xdr:col>109</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>113</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7403,13 +7917,13 @@
     <xdr:from>
       <xdr:col>105</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>105</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7454,13 +7968,13 @@
     <xdr:from>
       <xdr:col>120</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>122</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7530,13 +8044,13 @@
     <xdr:from>
       <xdr:col>131</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>132</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7606,13 +8120,13 @@
     <xdr:from>
       <xdr:col>122</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>122</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7657,13 +8171,13 @@
     <xdr:from>
       <xdr:col>135</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>138</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7713,13 +8227,13 @@
     <xdr:from>
       <xdr:col>139</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>142</xdr:col>
       <xdr:colOff>244543</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7769,13 +8283,13 @@
     <xdr:from>
       <xdr:col>144</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>147</xdr:col>
       <xdr:colOff>101668</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7825,13 +8339,13 @@
     <xdr:from>
       <xdr:col>121</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>124</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7881,13 +8395,13 @@
     <xdr:from>
       <xdr:col>126</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>126</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7932,13 +8446,13 @@
     <xdr:from>
       <xdr:col>125</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>128</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7988,13 +8502,13 @@
     <xdr:from>
       <xdr:col>131</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>131</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8039,13 +8553,13 @@
     <xdr:from>
       <xdr:col>129</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>132</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8095,13 +8609,13 @@
     <xdr:from>
       <xdr:col>111</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>111</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8146,13 +8660,13 @@
     <xdr:from>
       <xdr:col>98</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>101</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8202,13 +8716,13 @@
     <xdr:from>
       <xdr:col>99</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>99</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8249,10 +8763,155 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Straight Arrow Connector 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42329100" y="11401425"/>
+          <a:ext cx="0" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Straight Arrow Connector 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41033700" y="11401425"/>
+          <a:ext cx="0" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>531876</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>37195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Ảnh 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12190476" cy="7238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12240,7 +12899,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12272,9 +12931,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12306,6 +12966,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12481,77 +13142,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN186"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="3.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" s="11" customFormat="1" ht="16.5" customHeight="1">
+    <row r="32" spans="1:40" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="12" t="s">
         <v>19</v>
       </c>
@@ -12598,7 +13259,7 @@
       <c r="AM32" s="13"/>
       <c r="AN32" s="14"/>
     </row>
-    <row r="33" spans="1:40">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -12648,7 +13309,7 @@
       <c r="AM33" s="4"/>
       <c r="AN33" s="5"/>
     </row>
-    <row r="34" spans="1:40" ht="14.25">
+    <row r="34" spans="1:40" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B34" s="6" t="s">
         <v>57</v>
       </c>
@@ -12693,7 +13354,7 @@
       <c r="AM34" s="4"/>
       <c r="AN34" s="5"/>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B35" s="6"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -12734,7 +13395,7 @@
       <c r="AM35" s="4"/>
       <c r="AN35" s="5"/>
     </row>
-    <row r="36" spans="1:40">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B36" s="6"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -12775,7 +13436,7 @@
       <c r="AM36" s="4"/>
       <c r="AN36" s="5"/>
     </row>
-    <row r="37" spans="1:40">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B37" s="6"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -12818,7 +13479,7 @@
       <c r="AM37" s="4"/>
       <c r="AN37" s="5"/>
     </row>
-    <row r="38" spans="1:40">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -12859,7 +13520,7 @@
       <c r="AM38" s="4"/>
       <c r="AN38" s="5"/>
     </row>
-    <row r="39" spans="1:40">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B39" s="6"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -12900,7 +13561,7 @@
       <c r="AM39" s="4"/>
       <c r="AN39" s="5"/>
     </row>
-    <row r="40" spans="1:40">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B40" s="6"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -12941,7 +13602,7 @@
       <c r="AM40" s="4"/>
       <c r="AN40" s="5"/>
     </row>
-    <row r="41" spans="1:40">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -12982,7 +13643,7 @@
       <c r="AM41" s="16"/>
       <c r="AN41" s="17"/>
     </row>
-    <row r="42" spans="1:40">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -13013,8 +13674,8 @@
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="5"/>
-      <c r="AA42" s="95" t="s">
-        <v>186</v>
+      <c r="AA42" s="92" t="s">
+        <v>184</v>
       </c>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
@@ -13030,7 +13691,7 @@
       <c r="AM42" s="4"/>
       <c r="AN42" s="5"/>
     </row>
-    <row r="43" spans="1:40">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B43" s="6" t="s">
         <v>3</v>
       </c>
@@ -13073,7 +13734,7 @@
       <c r="AM43" s="4"/>
       <c r="AN43" s="5"/>
     </row>
-    <row r="44" spans="1:40">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B44" s="6"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -13116,7 +13777,7 @@
       <c r="AM44" s="4"/>
       <c r="AN44" s="5"/>
     </row>
-    <row r="45" spans="1:40">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B45" s="6"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -13159,7 +13820,7 @@
       <c r="AM45" s="4"/>
       <c r="AN45" s="5"/>
     </row>
-    <row r="46" spans="1:40">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B46" s="6"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -13202,7 +13863,7 @@
       <c r="AM46" s="4"/>
       <c r="AN46" s="5"/>
     </row>
-    <row r="47" spans="1:40">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B47" s="6"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -13245,7 +13906,7 @@
       <c r="AM47" s="4"/>
       <c r="AN47" s="5"/>
     </row>
-    <row r="48" spans="1:40">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B48" s="6"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -13288,7 +13949,7 @@
       <c r="AM48" s="4"/>
       <c r="AN48" s="5"/>
     </row>
-    <row r="49" spans="2:40">
+    <row r="49" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B49" s="6"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -13316,7 +13977,7 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="6"/>
       <c r="AB49" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
@@ -13331,7 +13992,7 @@
       <c r="AM49" s="4"/>
       <c r="AN49" s="5"/>
     </row>
-    <row r="50" spans="2:40">
+    <row r="50" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B50" s="6"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -13372,7 +14033,7 @@
       <c r="AM50" s="4"/>
       <c r="AN50" s="5"/>
     </row>
-    <row r="51" spans="2:40">
+    <row r="51" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B51" s="6"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -13412,7 +14073,7 @@
       <c r="AM51" s="4"/>
       <c r="AN51" s="5"/>
     </row>
-    <row r="52" spans="2:40">
+    <row r="52" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B52" s="6"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -13453,7 +14114,7 @@
       <c r="AM52" s="4"/>
       <c r="AN52" s="5"/>
     </row>
-    <row r="53" spans="2:40">
+    <row r="53" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B53" s="6"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -13494,7 +14155,7 @@
       <c r="AM53" s="4"/>
       <c r="AN53" s="5"/>
     </row>
-    <row r="54" spans="2:40">
+    <row r="54" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B54" s="6"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -13537,7 +14198,7 @@
       <c r="AM54" s="4"/>
       <c r="AN54" s="5"/>
     </row>
-    <row r="55" spans="2:40">
+    <row r="55" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B55" s="6"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -13580,7 +14241,7 @@
       <c r="AM55" s="4"/>
       <c r="AN55" s="5"/>
     </row>
-    <row r="56" spans="2:40">
+    <row r="56" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B56" s="6"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -13623,7 +14284,7 @@
       <c r="AM56" s="4"/>
       <c r="AN56" s="5"/>
     </row>
-    <row r="57" spans="2:40">
+    <row r="57" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B57" s="6"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -13666,7 +14327,7 @@
       <c r="AM57" s="4"/>
       <c r="AN57" s="5"/>
     </row>
-    <row r="58" spans="2:40">
+    <row r="58" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B58" s="6"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -13707,7 +14368,7 @@
       <c r="AM58" s="4"/>
       <c r="AN58" s="5"/>
     </row>
-    <row r="59" spans="2:40">
+    <row r="59" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B59" s="6"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -13750,7 +14411,7 @@
       <c r="AM59" s="4"/>
       <c r="AN59" s="5"/>
     </row>
-    <row r="60" spans="2:40">
+    <row r="60" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B60" s="6"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -13793,7 +14454,7 @@
       <c r="AM60" s="4"/>
       <c r="AN60" s="5"/>
     </row>
-    <row r="61" spans="2:40">
+    <row r="61" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B61" s="6"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -13820,7 +14481,7 @@
       <c r="Y61" s="4"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AB61" s="19"/>
       <c r="AC61" s="19"/>
@@ -13836,7 +14497,7 @@
       <c r="AM61" s="4"/>
       <c r="AN61" s="5"/>
     </row>
-    <row r="62" spans="2:40">
+    <row r="62" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -13877,7 +14538,7 @@
       <c r="AM62" s="4"/>
       <c r="AN62" s="5"/>
     </row>
-    <row r="63" spans="2:40">
+    <row r="63" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B63" s="6"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -13920,7 +14581,7 @@
       <c r="AM63" s="4"/>
       <c r="AN63" s="5"/>
     </row>
-    <row r="64" spans="2:40">
+    <row r="64" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B64" s="6"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -13963,7 +14624,7 @@
       <c r="AM64" s="4"/>
       <c r="AN64" s="5"/>
     </row>
-    <row r="65" spans="1:40">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B65" s="6"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -13990,7 +14651,7 @@
       <c r="Y65" s="4"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB65" s="19"/>
       <c r="AC65" s="19"/>
@@ -14006,7 +14667,7 @@
       <c r="AM65" s="4"/>
       <c r="AN65" s="5"/>
     </row>
-    <row r="66" spans="1:40">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B66" s="6"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -14047,7 +14708,7 @@
       <c r="AM66" s="4"/>
       <c r="AN66" s="5"/>
     </row>
-    <row r="67" spans="1:40">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B67" s="6"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -14090,7 +14751,7 @@
       <c r="AM67" s="4"/>
       <c r="AN67" s="5"/>
     </row>
-    <row r="68" spans="1:40">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B68" s="6"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -14133,7 +14794,7 @@
       <c r="AM68" s="4"/>
       <c r="AN68" s="5"/>
     </row>
-    <row r="69" spans="1:40">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B69" s="6"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -14176,7 +14837,7 @@
       <c r="AM69" s="4"/>
       <c r="AN69" s="5"/>
     </row>
-    <row r="70" spans="1:40">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B70" s="6"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -14217,7 +14878,7 @@
       <c r="AM70" s="4"/>
       <c r="AN70" s="5"/>
     </row>
-    <row r="71" spans="1:40">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B71" s="6"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -14260,7 +14921,7 @@
       <c r="AM71" s="4"/>
       <c r="AN71" s="5"/>
     </row>
-    <row r="72" spans="1:40">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B72" s="6"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -14303,7 +14964,7 @@
       <c r="AM72" s="4"/>
       <c r="AN72" s="5"/>
     </row>
-    <row r="73" spans="1:40">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B73" s="6"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -14346,7 +15007,7 @@
       <c r="AM73" s="4"/>
       <c r="AN73" s="5"/>
     </row>
-    <row r="74" spans="1:40">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B74" s="6"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -14387,7 +15048,7 @@
       <c r="AM74" s="4"/>
       <c r="AN74" s="5"/>
     </row>
-    <row r="75" spans="1:40">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -14433,7 +15094,7 @@
       <c r="AM75" s="21"/>
       <c r="AN75" s="28"/>
     </row>
-    <row r="76" spans="1:40">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B76" s="6"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -14476,7 +15137,7 @@
       <c r="AM76" s="4"/>
       <c r="AN76" s="5"/>
     </row>
-    <row r="77" spans="1:40">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B77" s="6"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -14519,7 +15180,7 @@
       <c r="AM77" s="4"/>
       <c r="AN77" s="5"/>
     </row>
-    <row r="78" spans="1:40">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B78" s="6"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -14560,7 +15221,7 @@
       <c r="AM78" s="4"/>
       <c r="AN78" s="5"/>
     </row>
-    <row r="79" spans="1:40">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B79" s="6"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -14603,7 +15264,7 @@
       <c r="AM79" s="4"/>
       <c r="AN79" s="5"/>
     </row>
-    <row r="80" spans="1:40">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B80" s="6"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -14646,7 +15307,7 @@
       <c r="AM80" s="4"/>
       <c r="AN80" s="5"/>
     </row>
-    <row r="81" spans="2:40">
+    <row r="81" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B81" s="6"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -14687,7 +15348,7 @@
       <c r="AM81" s="4"/>
       <c r="AN81" s="5"/>
     </row>
-    <row r="82" spans="2:40">
+    <row r="82" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B82" s="6"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -14730,7 +15391,7 @@
       <c r="AM82" s="4"/>
       <c r="AN82" s="5"/>
     </row>
-    <row r="83" spans="2:40">
+    <row r="83" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B83" s="6"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -14773,7 +15434,7 @@
       <c r="AM83" s="4"/>
       <c r="AN83" s="5"/>
     </row>
-    <row r="84" spans="2:40">
+    <row r="84" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B84" s="6"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -14814,7 +15475,7 @@
       <c r="AM84" s="4"/>
       <c r="AN84" s="5"/>
     </row>
-    <row r="85" spans="2:40">
+    <row r="85" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B85" s="6"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -14857,7 +15518,7 @@
       <c r="AM85" s="4"/>
       <c r="AN85" s="5"/>
     </row>
-    <row r="86" spans="2:40">
+    <row r="86" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B86" s="6"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -14900,7 +15561,7 @@
       <c r="AM86" s="4"/>
       <c r="AN86" s="5"/>
     </row>
-    <row r="87" spans="2:40">
+    <row r="87" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B87" s="6"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -14943,7 +15604,7 @@
       <c r="AM87" s="4"/>
       <c r="AN87" s="5"/>
     </row>
-    <row r="88" spans="2:40">
+    <row r="88" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B88" s="6"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -14986,7 +15647,7 @@
       <c r="AM88" s="4"/>
       <c r="AN88" s="5"/>
     </row>
-    <row r="89" spans="2:40">
+    <row r="89" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B89" s="6"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -15027,7 +15688,7 @@
       <c r="AM89" s="4"/>
       <c r="AN89" s="5"/>
     </row>
-    <row r="90" spans="2:40">
+    <row r="90" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B90" s="6"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -15068,7 +15729,7 @@
       <c r="AM90" s="4"/>
       <c r="AN90" s="5"/>
     </row>
-    <row r="91" spans="2:40">
+    <row r="91" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B91" s="6"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -15109,7 +15770,7 @@
       <c r="AM91" s="4"/>
       <c r="AN91" s="5"/>
     </row>
-    <row r="92" spans="2:40">
+    <row r="92" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B92" s="6"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -15150,7 +15811,7 @@
       <c r="AM92" s="4"/>
       <c r="AN92" s="5"/>
     </row>
-    <row r="93" spans="2:40">
+    <row r="93" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B93" s="6"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -15191,7 +15852,7 @@
       <c r="AM93" s="4"/>
       <c r="AN93" s="5"/>
     </row>
-    <row r="94" spans="2:40">
+    <row r="94" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B94" s="6"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -15232,7 +15893,7 @@
       <c r="AM94" s="4"/>
       <c r="AN94" s="5"/>
     </row>
-    <row r="95" spans="2:40">
+    <row r="95" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B95" s="6"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -15273,7 +15934,7 @@
       <c r="AM95" s="4"/>
       <c r="AN95" s="5"/>
     </row>
-    <row r="96" spans="2:40">
+    <row r="96" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B96" s="6"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -15314,7 +15975,7 @@
       <c r="AM96" s="4"/>
       <c r="AN96" s="5"/>
     </row>
-    <row r="97" spans="1:40">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B97" s="6"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -15355,7 +16016,7 @@
       <c r="AM97" s="4"/>
       <c r="AN97" s="5"/>
     </row>
-    <row r="98" spans="1:40">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B98" s="6"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -15395,7 +16056,7 @@
       <c r="AM98" s="4"/>
       <c r="AN98" s="5"/>
     </row>
-    <row r="99" spans="1:40">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B99" s="6"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -15436,7 +16097,7 @@
       <c r="AM99" s="4"/>
       <c r="AN99" s="5"/>
     </row>
-    <row r="100" spans="1:40">
+    <row r="100" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B100" s="6"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -15477,7 +16138,7 @@
       <c r="AM100" s="4"/>
       <c r="AN100" s="5"/>
     </row>
-    <row r="101" spans="1:40">
+    <row r="101" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B101" s="6"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -15518,7 +16179,7 @@
       <c r="AM101" s="4"/>
       <c r="AN101" s="5"/>
     </row>
-    <row r="102" spans="1:40">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B102" s="6"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -15559,7 +16220,7 @@
       <c r="AM102" s="4"/>
       <c r="AN102" s="5"/>
     </row>
-    <row r="103" spans="1:40">
+    <row r="103" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B103" s="6"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -15600,7 +16261,7 @@
       <c r="AM103" s="4"/>
       <c r="AN103" s="5"/>
     </row>
-    <row r="104" spans="1:40">
+    <row r="104" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B104" s="6"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -15641,7 +16302,7 @@
       <c r="AM104" s="4"/>
       <c r="AN104" s="5"/>
     </row>
-    <row r="105" spans="1:40">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>3</v>
       </c>
@@ -15691,7 +16352,7 @@
       <c r="AM105" s="21"/>
       <c r="AN105" s="28"/>
     </row>
-    <row r="106" spans="1:40">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B106" s="6"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -15734,7 +16395,7 @@
       <c r="AM106" s="4"/>
       <c r="AN106" s="5"/>
     </row>
-    <row r="107" spans="1:40">
+    <row r="107" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B107" s="6"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -15777,7 +16438,7 @@
       <c r="AM107" s="4"/>
       <c r="AN107" s="5"/>
     </row>
-    <row r="108" spans="1:40">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B108" s="6"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -15818,7 +16479,7 @@
       <c r="AM108" s="4"/>
       <c r="AN108" s="5"/>
     </row>
-    <row r="109" spans="1:40">
+    <row r="109" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B109" s="6"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -15861,7 +16522,7 @@
       <c r="AM109" s="4"/>
       <c r="AN109" s="5"/>
     </row>
-    <row r="110" spans="1:40">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B110" s="6"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -15904,7 +16565,7 @@
       <c r="AM110" s="4"/>
       <c r="AN110" s="5"/>
     </row>
-    <row r="111" spans="1:40">
+    <row r="111" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B111" s="6"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -15947,7 +16608,7 @@
       <c r="AM111" s="4"/>
       <c r="AN111" s="5"/>
     </row>
-    <row r="112" spans="1:40">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B112" s="6"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -15988,7 +16649,7 @@
       <c r="AM112" s="4"/>
       <c r="AN112" s="5"/>
     </row>
-    <row r="113" spans="2:40">
+    <row r="113" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B113" s="6"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -16031,7 +16692,7 @@
       <c r="AM113" s="4"/>
       <c r="AN113" s="5"/>
     </row>
-    <row r="114" spans="2:40">
+    <row r="114" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B114" s="6"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -16074,7 +16735,7 @@
       <c r="AM114" s="4"/>
       <c r="AN114" s="5"/>
     </row>
-    <row r="115" spans="2:40">
+    <row r="115" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B115" s="6"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -16115,7 +16776,7 @@
       <c r="AM115" s="4"/>
       <c r="AN115" s="5"/>
     </row>
-    <row r="116" spans="2:40">
+    <row r="116" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B116" s="6"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -16156,7 +16817,7 @@
       <c r="AM116" s="4"/>
       <c r="AN116" s="5"/>
     </row>
-    <row r="117" spans="2:40">
+    <row r="117" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B117" s="6"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -16197,7 +16858,7 @@
       <c r="AM117" s="4"/>
       <c r="AN117" s="5"/>
     </row>
-    <row r="118" spans="2:40">
+    <row r="118" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B118" s="6"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -16238,7 +16899,7 @@
       <c r="AM118" s="4"/>
       <c r="AN118" s="5"/>
     </row>
-    <row r="119" spans="2:40">
+    <row r="119" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B119" s="6"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -16283,7 +16944,7 @@
       <c r="AM119" s="4"/>
       <c r="AN119" s="5"/>
     </row>
-    <row r="120" spans="2:40">
+    <row r="120" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B120" s="6"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -16326,7 +16987,7 @@
       <c r="AM120" s="4"/>
       <c r="AN120" s="5"/>
     </row>
-    <row r="121" spans="2:40">
+    <row r="121" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B121" s="6"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -16369,7 +17030,7 @@
       <c r="AM121" s="4"/>
       <c r="AN121" s="5"/>
     </row>
-    <row r="122" spans="2:40">
+    <row r="122" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B122" s="6"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -16412,7 +17073,7 @@
       <c r="AM122" s="4"/>
       <c r="AN122" s="5"/>
     </row>
-    <row r="123" spans="2:40">
+    <row r="123" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B123" s="6"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -16455,7 +17116,7 @@
       <c r="AM123" s="4"/>
       <c r="AN123" s="5"/>
     </row>
-    <row r="124" spans="2:40">
+    <row r="124" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B124" s="6"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -16498,7 +17159,7 @@
       <c r="AM124" s="4"/>
       <c r="AN124" s="5"/>
     </row>
-    <row r="125" spans="2:40">
+    <row r="125" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B125" s="6"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -16541,7 +17202,7 @@
       <c r="AM125" s="4"/>
       <c r="AN125" s="5"/>
     </row>
-    <row r="126" spans="2:40">
+    <row r="126" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B126" s="6"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -16584,7 +17245,7 @@
       <c r="AM126" s="4"/>
       <c r="AN126" s="5"/>
     </row>
-    <row r="127" spans="2:40">
+    <row r="127" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B127" s="6"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -16627,7 +17288,7 @@
       <c r="AM127" s="4"/>
       <c r="AN127" s="5"/>
     </row>
-    <row r="128" spans="2:40">
+    <row r="128" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B128" s="6"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -16670,7 +17331,7 @@
       <c r="AM128" s="4"/>
       <c r="AN128" s="5"/>
     </row>
-    <row r="129" spans="2:40">
+    <row r="129" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B129" s="6"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -16713,7 +17374,7 @@
       <c r="AM129" s="4"/>
       <c r="AN129" s="5"/>
     </row>
-    <row r="130" spans="2:40">
+    <row r="130" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B130" s="6"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -16756,7 +17417,7 @@
       <c r="AM130" s="4"/>
       <c r="AN130" s="5"/>
     </row>
-    <row r="131" spans="2:40">
+    <row r="131" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B131" s="6"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -16799,7 +17460,7 @@
       <c r="AM131" s="4"/>
       <c r="AN131" s="5"/>
     </row>
-    <row r="132" spans="2:40">
+    <row r="132" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B132" s="6"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -16840,7 +17501,7 @@
       <c r="AM132" s="4"/>
       <c r="AN132" s="5"/>
     </row>
-    <row r="133" spans="2:40">
+    <row r="133" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B133" s="6"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -16881,7 +17542,7 @@
       <c r="AM133" s="4"/>
       <c r="AN133" s="5"/>
     </row>
-    <row r="134" spans="2:40">
+    <row r="134" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B134" s="6"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -16922,7 +17583,7 @@
       <c r="AM134" s="4"/>
       <c r="AN134" s="5"/>
     </row>
-    <row r="135" spans="2:40">
+    <row r="135" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B135" s="6"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -16963,7 +17624,7 @@
       <c r="AM135" s="4"/>
       <c r="AN135" s="5"/>
     </row>
-    <row r="136" spans="2:40">
+    <row r="136" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B136" s="6"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -17006,7 +17667,7 @@
       <c r="AM136" s="4"/>
       <c r="AN136" s="5"/>
     </row>
-    <row r="137" spans="2:40">
+    <row r="137" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B137" s="6"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -17049,7 +17710,7 @@
       <c r="AM137" s="4"/>
       <c r="AN137" s="5"/>
     </row>
-    <row r="138" spans="2:40">
+    <row r="138" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B138" s="6"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -17092,7 +17753,7 @@
       <c r="AM138" s="4"/>
       <c r="AN138" s="5"/>
     </row>
-    <row r="139" spans="2:40">
+    <row r="139" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B139" s="6"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -17135,7 +17796,7 @@
       <c r="AM139" s="4"/>
       <c r="AN139" s="5"/>
     </row>
-    <row r="140" spans="2:40">
+    <row r="140" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B140" s="6"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -17178,7 +17839,7 @@
       <c r="AM140" s="4"/>
       <c r="AN140" s="5"/>
     </row>
-    <row r="141" spans="2:40">
+    <row r="141" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B141" s="6"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -17221,7 +17882,7 @@
       <c r="AM141" s="4"/>
       <c r="AN141" s="5"/>
     </row>
-    <row r="142" spans="2:40">
+    <row r="142" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B142" s="6"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -17264,7 +17925,7 @@
       <c r="AM142" s="4"/>
       <c r="AN142" s="5"/>
     </row>
-    <row r="143" spans="2:40">
+    <row r="143" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B143" s="6"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -17307,7 +17968,7 @@
       <c r="AM143" s="4"/>
       <c r="AN143" s="5"/>
     </row>
-    <row r="144" spans="2:40">
+    <row r="144" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B144" s="6"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -17350,7 +18011,7 @@
       <c r="AM144" s="4"/>
       <c r="AN144" s="5"/>
     </row>
-    <row r="145" spans="1:40">
+    <row r="145" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B145" s="6"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -17393,7 +18054,7 @@
       <c r="AM145" s="4"/>
       <c r="AN145" s="5"/>
     </row>
-    <row r="146" spans="1:40">
+    <row r="146" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B146" s="6"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -17436,7 +18097,7 @@
       <c r="AM146" s="4"/>
       <c r="AN146" s="5"/>
     </row>
-    <row r="147" spans="1:40">
+    <row r="147" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B147" s="6"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -17479,7 +18140,7 @@
       <c r="AM147" s="4"/>
       <c r="AN147" s="5"/>
     </row>
-    <row r="148" spans="1:40">
+    <row r="148" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B148" s="6"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -17522,7 +18183,7 @@
       <c r="AM148" s="4"/>
       <c r="AN148" s="5"/>
     </row>
-    <row r="149" spans="1:40">
+    <row r="149" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B149" s="6"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -17563,7 +18224,7 @@
       <c r="AM149" s="4"/>
       <c r="AN149" s="5"/>
     </row>
-    <row r="150" spans="1:40">
+    <row r="150" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B150" s="6"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -17606,7 +18267,7 @@
       <c r="AM150" s="4"/>
       <c r="AN150" s="5"/>
     </row>
-    <row r="151" spans="1:40">
+    <row r="151" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B151" s="6"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -17649,7 +18310,7 @@
       <c r="AM151" s="4"/>
       <c r="AN151" s="5"/>
     </row>
-    <row r="152" spans="1:40">
+    <row r="152" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B152" s="6"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -17690,57 +18351,50 @@
       <c r="AM152" s="4"/>
       <c r="AN152" s="5"/>
     </row>
-    <row r="153" spans="1:40">
-      <c r="A153" s="1">
-        <v>4</v>
-      </c>
-      <c r="B153" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C153" s="21"/>
-      <c r="D153" s="21"/>
-      <c r="E153" s="21"/>
-      <c r="F153" s="21"/>
-      <c r="G153" s="28"/>
-      <c r="H153" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="I153" s="21"/>
-      <c r="J153" s="21"/>
-      <c r="K153" s="21"/>
-      <c r="L153" s="21"/>
-      <c r="M153" s="21"/>
-      <c r="N153" s="21"/>
-      <c r="O153" s="21"/>
-      <c r="P153" s="21"/>
-      <c r="Q153" s="21"/>
-      <c r="R153" s="21"/>
-      <c r="S153" s="21"/>
-      <c r="T153" s="21"/>
-      <c r="U153" s="21"/>
-      <c r="V153" s="21"/>
-      <c r="W153" s="21"/>
-      <c r="X153" s="21"/>
-      <c r="Y153" s="21"/>
-      <c r="Z153" s="28"/>
-      <c r="AA153" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB153" s="21"/>
-      <c r="AC153" s="21"/>
-      <c r="AD153" s="21"/>
-      <c r="AE153" s="21"/>
-      <c r="AF153" s="21"/>
-      <c r="AG153" s="21"/>
-      <c r="AH153" s="21"/>
-      <c r="AI153" s="21"/>
-      <c r="AJ153" s="21"/>
-      <c r="AK153" s="21"/>
-      <c r="AL153" s="21"/>
-      <c r="AM153" s="21"/>
-      <c r="AN153" s="28"/>
-    </row>
-    <row r="154" spans="1:40">
+    <row r="153" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="B153" s="6"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4"/>
+      <c r="O153" s="4"/>
+      <c r="P153" s="4"/>
+      <c r="Q153" s="4"/>
+      <c r="R153" s="4"/>
+      <c r="S153" s="4"/>
+      <c r="T153" s="4"/>
+      <c r="U153" s="4"/>
+      <c r="V153" s="4"/>
+      <c r="W153" s="4"/>
+      <c r="X153" s="4"/>
+      <c r="Y153" s="4"/>
+      <c r="Z153" s="5"/>
+      <c r="AA153" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB153" s="100"/>
+      <c r="AC153" s="100"/>
+      <c r="AD153" s="100"/>
+      <c r="AE153" s="100"/>
+      <c r="AF153" s="100"/>
+      <c r="AG153" s="100"/>
+      <c r="AH153" s="100"/>
+      <c r="AI153" s="100"/>
+      <c r="AJ153" s="100"/>
+      <c r="AK153" s="100"/>
+      <c r="AL153" s="100"/>
+      <c r="AM153" s="100"/>
+      <c r="AN153" s="5"/>
+    </row>
+    <row r="154" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B154" s="6"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -17766,24 +18420,24 @@
       <c r="X154" s="4"/>
       <c r="Y154" s="4"/>
       <c r="Z154" s="5"/>
-      <c r="AA154" s="91" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB154" s="4"/>
-      <c r="AC154" s="4"/>
-      <c r="AD154" s="4"/>
-      <c r="AE154" s="4"/>
-      <c r="AF154" s="4"/>
-      <c r="AG154" s="4"/>
-      <c r="AH154" s="4"/>
-      <c r="AI154" s="4"/>
-      <c r="AJ154" s="4"/>
-      <c r="AK154" s="4"/>
-      <c r="AL154" s="4"/>
-      <c r="AM154" s="4"/>
+      <c r="AA154" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB154" s="100"/>
+      <c r="AC154" s="100"/>
+      <c r="AD154" s="100"/>
+      <c r="AE154" s="100"/>
+      <c r="AF154" s="100"/>
+      <c r="AG154" s="100"/>
+      <c r="AH154" s="100"/>
+      <c r="AI154" s="100"/>
+      <c r="AJ154" s="100"/>
+      <c r="AK154" s="100"/>
+      <c r="AL154" s="100"/>
+      <c r="AM154" s="100"/>
       <c r="AN154" s="5"/>
     </row>
-    <row r="155" spans="1:40">
+    <row r="155" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B155" s="6"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -17809,24 +18463,24 @@
       <c r="X155" s="4"/>
       <c r="Y155" s="4"/>
       <c r="Z155" s="5"/>
-      <c r="AA155" s="85"/>
-      <c r="AB155" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC155" s="4"/>
-      <c r="AD155" s="4"/>
-      <c r="AE155" s="4"/>
-      <c r="AF155" s="4"/>
-      <c r="AG155" s="4"/>
-      <c r="AH155" s="4"/>
-      <c r="AI155" s="4"/>
-      <c r="AJ155" s="4"/>
-      <c r="AK155" s="4"/>
-      <c r="AL155" s="4"/>
-      <c r="AM155" s="4"/>
+      <c r="AA155" s="101" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB155" s="100"/>
+      <c r="AC155" s="100"/>
+      <c r="AD155" s="100"/>
+      <c r="AE155" s="100"/>
+      <c r="AF155" s="100"/>
+      <c r="AG155" s="100"/>
+      <c r="AH155" s="100"/>
+      <c r="AI155" s="100"/>
+      <c r="AJ155" s="100"/>
+      <c r="AK155" s="100"/>
+      <c r="AL155" s="100"/>
+      <c r="AM155" s="100"/>
       <c r="AN155" s="5"/>
     </row>
-    <row r="156" spans="1:40">
+    <row r="156" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B156" s="6"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -17852,24 +18506,24 @@
       <c r="X156" s="4"/>
       <c r="Y156" s="4"/>
       <c r="Z156" s="5"/>
-      <c r="AA156" s="81"/>
-      <c r="AB156" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC156" s="4"/>
-      <c r="AD156" s="4"/>
-      <c r="AE156" s="4"/>
-      <c r="AF156" s="4"/>
-      <c r="AG156" s="4"/>
-      <c r="AH156" s="4"/>
-      <c r="AI156" s="4"/>
-      <c r="AJ156" s="4"/>
-      <c r="AK156" s="4"/>
-      <c r="AL156" s="4"/>
-      <c r="AM156" s="4"/>
+      <c r="AA156" s="101" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB156" s="100"/>
+      <c r="AC156" s="100"/>
+      <c r="AD156" s="100"/>
+      <c r="AE156" s="100"/>
+      <c r="AF156" s="100"/>
+      <c r="AG156" s="100"/>
+      <c r="AH156" s="100"/>
+      <c r="AI156" s="100"/>
+      <c r="AJ156" s="100"/>
+      <c r="AK156" s="100"/>
+      <c r="AL156" s="100"/>
+      <c r="AM156" s="100"/>
       <c r="AN156" s="5"/>
     </row>
-    <row r="157" spans="1:40">
+    <row r="157" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B157" s="6"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -17895,24 +18549,24 @@
       <c r="X157" s="4"/>
       <c r="Y157" s="4"/>
       <c r="Z157" s="5"/>
-      <c r="AA157" s="81"/>
-      <c r="AB157" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC157" s="4"/>
-      <c r="AD157" s="4"/>
-      <c r="AE157" s="4"/>
-      <c r="AF157" s="4"/>
-      <c r="AG157" s="4"/>
-      <c r="AH157" s="4"/>
-      <c r="AI157" s="4"/>
-      <c r="AJ157" s="4"/>
-      <c r="AK157" s="4"/>
-      <c r="AL157" s="4"/>
-      <c r="AM157" s="4"/>
+      <c r="AA157" s="101" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB157" s="100"/>
+      <c r="AC157" s="100"/>
+      <c r="AD157" s="100"/>
+      <c r="AE157" s="100"/>
+      <c r="AF157" s="100"/>
+      <c r="AG157" s="100"/>
+      <c r="AH157" s="100"/>
+      <c r="AI157" s="100"/>
+      <c r="AJ157" s="100"/>
+      <c r="AK157" s="100"/>
+      <c r="AL157" s="100"/>
+      <c r="AM157" s="100"/>
       <c r="AN157" s="5"/>
     </row>
-    <row r="158" spans="1:40">
+    <row r="158" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B158" s="6"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -17938,7 +18592,7 @@
       <c r="X158" s="4"/>
       <c r="Y158" s="4"/>
       <c r="Z158" s="5"/>
-      <c r="AA158" s="81"/>
+      <c r="AA158" s="85"/>
       <c r="AB158" s="4"/>
       <c r="AC158" s="4"/>
       <c r="AD158" s="4"/>
@@ -17953,50 +18607,57 @@
       <c r="AM158" s="4"/>
       <c r="AN158" s="5"/>
     </row>
-    <row r="159" spans="1:40">
-      <c r="B159" s="6"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="6"/>
-      <c r="I159" s="4"/>
-      <c r="J159" s="4"/>
-      <c r="K159" s="4"/>
-      <c r="L159" s="4"/>
-      <c r="M159" s="4"/>
-      <c r="N159" s="4"/>
-      <c r="O159" s="4"/>
-      <c r="P159" s="4"/>
-      <c r="Q159" s="4"/>
-      <c r="R159" s="4"/>
-      <c r="S159" s="4"/>
-      <c r="T159" s="4"/>
-      <c r="U159" s="4"/>
-      <c r="V159" s="4"/>
-      <c r="W159" s="4"/>
-      <c r="X159" s="4"/>
-      <c r="Y159" s="4"/>
-      <c r="Z159" s="5"/>
-      <c r="AA159" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB159" s="4"/>
-      <c r="AC159" s="4"/>
-      <c r="AD159" s="4"/>
-      <c r="AE159" s="4"/>
-      <c r="AF159" s="4"/>
-      <c r="AG159" s="4"/>
-      <c r="AH159" s="4"/>
-      <c r="AI159" s="4"/>
-      <c r="AJ159" s="4"/>
-      <c r="AK159" s="4"/>
-      <c r="AL159" s="4"/>
-      <c r="AM159" s="4"/>
-      <c r="AN159" s="5"/>
-    </row>
-    <row r="160" spans="1:40">
+    <row r="159" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A159" s="1">
+        <v>4</v>
+      </c>
+      <c r="B159" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C159" s="21"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="28"/>
+      <c r="H159" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I159" s="21"/>
+      <c r="J159" s="21"/>
+      <c r="K159" s="21"/>
+      <c r="L159" s="21"/>
+      <c r="M159" s="21"/>
+      <c r="N159" s="21"/>
+      <c r="O159" s="21"/>
+      <c r="P159" s="21"/>
+      <c r="Q159" s="21"/>
+      <c r="R159" s="21"/>
+      <c r="S159" s="21"/>
+      <c r="T159" s="21"/>
+      <c r="U159" s="21"/>
+      <c r="V159" s="21"/>
+      <c r="W159" s="21"/>
+      <c r="X159" s="21"/>
+      <c r="Y159" s="21"/>
+      <c r="Z159" s="28"/>
+      <c r="AA159" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB159" s="21"/>
+      <c r="AC159" s="21"/>
+      <c r="AD159" s="21"/>
+      <c r="AE159" s="21"/>
+      <c r="AF159" s="21"/>
+      <c r="AG159" s="21"/>
+      <c r="AH159" s="21"/>
+      <c r="AI159" s="21"/>
+      <c r="AJ159" s="21"/>
+      <c r="AK159" s="21"/>
+      <c r="AL159" s="21"/>
+      <c r="AM159" s="21"/>
+      <c r="AN159" s="28"/>
+    </row>
+    <row r="160" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B160" s="6"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -18022,10 +18683,10 @@
       <c r="X160" s="4"/>
       <c r="Y160" s="4"/>
       <c r="Z160" s="5"/>
-      <c r="AA160" s="81"/>
-      <c r="AB160" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="AA160" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB160" s="4"/>
       <c r="AC160" s="4"/>
       <c r="AD160" s="4"/>
       <c r="AE160" s="4"/>
@@ -18039,7 +18700,7 @@
       <c r="AM160" s="4"/>
       <c r="AN160" s="5"/>
     </row>
-    <row r="161" spans="2:40">
+    <row r="161" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B161" s="6"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -18065,9 +18726,9 @@
       <c r="X161" s="4"/>
       <c r="Y161" s="4"/>
       <c r="Z161" s="5"/>
-      <c r="AA161" s="81"/>
+      <c r="AA161" s="85"/>
       <c r="AB161" s="4" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="AC161" s="4"/>
       <c r="AD161" s="4"/>
@@ -18082,7 +18743,7 @@
       <c r="AM161" s="4"/>
       <c r="AN161" s="5"/>
     </row>
-    <row r="162" spans="2:40">
+    <row r="162" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B162" s="6"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
@@ -18110,7 +18771,7 @@
       <c r="Z162" s="5"/>
       <c r="AA162" s="81"/>
       <c r="AB162" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AC162" s="4"/>
       <c r="AD162" s="4"/>
@@ -18125,7 +18786,7 @@
       <c r="AM162" s="4"/>
       <c r="AN162" s="5"/>
     </row>
-    <row r="163" spans="2:40">
+    <row r="163" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B163" s="6"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -18151,9 +18812,9 @@
       <c r="X163" s="4"/>
       <c r="Y163" s="4"/>
       <c r="Z163" s="5"/>
-      <c r="AA163" s="86"/>
+      <c r="AA163" s="81"/>
       <c r="AB163" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AC163" s="4"/>
       <c r="AD163" s="4"/>
@@ -18168,7 +18829,7 @@
       <c r="AM163" s="4"/>
       <c r="AN163" s="5"/>
     </row>
-    <row r="164" spans="2:40">
+    <row r="164" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B164" s="6"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
@@ -18195,9 +18856,7 @@
       <c r="Y164" s="4"/>
       <c r="Z164" s="5"/>
       <c r="AA164" s="81"/>
-      <c r="AB164" s="4" t="s">
-        <v>185</v>
-      </c>
+      <c r="AB164" s="4"/>
       <c r="AC164" s="4"/>
       <c r="AD164" s="4"/>
       <c r="AE164" s="4"/>
@@ -18211,7 +18870,7 @@
       <c r="AM164" s="4"/>
       <c r="AN164" s="5"/>
     </row>
-    <row r="165" spans="2:40">
+    <row r="165" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B165" s="6"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -18237,7 +18896,9 @@
       <c r="X165" s="4"/>
       <c r="Y165" s="4"/>
       <c r="Z165" s="5"/>
-      <c r="AA165" s="86"/>
+      <c r="AA165" s="86" t="s">
+        <v>139</v>
+      </c>
       <c r="AB165" s="4"/>
       <c r="AC165" s="4"/>
       <c r="AD165" s="4"/>
@@ -18252,7 +18913,7 @@
       <c r="AM165" s="4"/>
       <c r="AN165" s="5"/>
     </row>
-    <row r="166" spans="2:40">
+    <row r="166" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B166" s="6"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -18278,10 +18939,10 @@
       <c r="X166" s="4"/>
       <c r="Y166" s="4"/>
       <c r="Z166" s="5"/>
-      <c r="AA166" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB166" s="4"/>
+      <c r="AA166" s="81"/>
+      <c r="AB166" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="AC166" s="4"/>
       <c r="AD166" s="4"/>
       <c r="AE166" s="4"/>
@@ -18295,7 +18956,7 @@
       <c r="AM166" s="4"/>
       <c r="AN166" s="5"/>
     </row>
-    <row r="167" spans="2:40">
+    <row r="167" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B167" s="6"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -18323,7 +18984,7 @@
       <c r="Z167" s="5"/>
       <c r="AA167" s="81"/>
       <c r="AB167" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AC167" s="4"/>
       <c r="AD167" s="4"/>
@@ -18338,7 +18999,7 @@
       <c r="AM167" s="4"/>
       <c r="AN167" s="5"/>
     </row>
-    <row r="168" spans="2:40">
+    <row r="168" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B168" s="6"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -18365,7 +19026,9 @@
       <c r="Y168" s="4"/>
       <c r="Z168" s="5"/>
       <c r="AA168" s="81"/>
-      <c r="AB168" s="4"/>
+      <c r="AB168" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="AC168" s="4"/>
       <c r="AD168" s="4"/>
       <c r="AE168" s="4"/>
@@ -18379,7 +19042,7 @@
       <c r="AM168" s="4"/>
       <c r="AN168" s="5"/>
     </row>
-    <row r="169" spans="2:40">
+    <row r="169" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B169" s="6"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -18406,7 +19069,9 @@
       <c r="Y169" s="4"/>
       <c r="Z169" s="5"/>
       <c r="AA169" s="86"/>
-      <c r="AB169" s="4"/>
+      <c r="AB169" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="AC169" s="4"/>
       <c r="AD169" s="4"/>
       <c r="AE169" s="4"/>
@@ -18420,7 +19085,7 @@
       <c r="AM169" s="4"/>
       <c r="AN169" s="5"/>
     </row>
-    <row r="170" spans="2:40">
+    <row r="170" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B170" s="6"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
@@ -18447,7 +19112,9 @@
       <c r="Y170" s="4"/>
       <c r="Z170" s="5"/>
       <c r="AA170" s="81"/>
-      <c r="AB170" s="4"/>
+      <c r="AB170" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="AC170" s="4"/>
       <c r="AD170" s="4"/>
       <c r="AE170" s="4"/>
@@ -18461,7 +19128,7 @@
       <c r="AM170" s="4"/>
       <c r="AN170" s="5"/>
     </row>
-    <row r="171" spans="2:40">
+    <row r="171" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B171" s="6"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -18487,7 +19154,7 @@
       <c r="X171" s="4"/>
       <c r="Y171" s="4"/>
       <c r="Z171" s="5"/>
-      <c r="AA171" s="81"/>
+      <c r="AA171" s="86"/>
       <c r="AB171" s="4"/>
       <c r="AC171" s="4"/>
       <c r="AD171" s="4"/>
@@ -18502,7 +19169,7 @@
       <c r="AM171" s="4"/>
       <c r="AN171" s="5"/>
     </row>
-    <row r="172" spans="2:40">
+    <row r="172" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B172" s="6"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
@@ -18528,7 +19195,9 @@
       <c r="X172" s="4"/>
       <c r="Y172" s="4"/>
       <c r="Z172" s="5"/>
-      <c r="AA172" s="81"/>
+      <c r="AA172" s="86" t="s">
+        <v>142</v>
+      </c>
       <c r="AB172" s="4"/>
       <c r="AC172" s="4"/>
       <c r="AD172" s="4"/>
@@ -18543,7 +19212,7 @@
       <c r="AM172" s="4"/>
       <c r="AN172" s="5"/>
     </row>
-    <row r="173" spans="2:40">
+    <row r="173" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B173" s="6"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -18570,7 +19239,9 @@
       <c r="Y173" s="4"/>
       <c r="Z173" s="5"/>
       <c r="AA173" s="81"/>
-      <c r="AB173" s="4"/>
+      <c r="AB173" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="AC173" s="4"/>
       <c r="AD173" s="4"/>
       <c r="AE173" s="4"/>
@@ -18584,7 +19255,7 @@
       <c r="AM173" s="4"/>
       <c r="AN173" s="5"/>
     </row>
-    <row r="174" spans="2:40">
+    <row r="174" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B174" s="6"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
@@ -18625,7 +19296,7 @@
       <c r="AM174" s="4"/>
       <c r="AN174" s="5"/>
     </row>
-    <row r="175" spans="2:40">
+    <row r="175" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B175" s="6"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -18651,7 +19322,7 @@
       <c r="X175" s="4"/>
       <c r="Y175" s="4"/>
       <c r="Z175" s="5"/>
-      <c r="AA175" s="81"/>
+      <c r="AA175" s="86"/>
       <c r="AB175" s="4"/>
       <c r="AC175" s="4"/>
       <c r="AD175" s="4"/>
@@ -18666,7 +19337,7 @@
       <c r="AM175" s="4"/>
       <c r="AN175" s="5"/>
     </row>
-    <row r="176" spans="2:40">
+    <row r="176" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B176" s="6"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
@@ -18707,7 +19378,7 @@
       <c r="AM176" s="4"/>
       <c r="AN176" s="5"/>
     </row>
-    <row r="177" spans="2:40">
+    <row r="177" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B177" s="6"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
@@ -18748,7 +19419,7 @@
       <c r="AM177" s="4"/>
       <c r="AN177" s="5"/>
     </row>
-    <row r="178" spans="2:40">
+    <row r="178" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B178" s="6"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
@@ -18789,7 +19460,7 @@
       <c r="AM178" s="4"/>
       <c r="AN178" s="5"/>
     </row>
-    <row r="179" spans="2:40">
+    <row r="179" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B179" s="6"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
@@ -18830,7 +19501,7 @@
       <c r="AM179" s="4"/>
       <c r="AN179" s="5"/>
     </row>
-    <row r="180" spans="2:40">
+    <row r="180" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B180" s="6"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
@@ -18871,7 +19542,7 @@
       <c r="AM180" s="4"/>
       <c r="AN180" s="5"/>
     </row>
-    <row r="181" spans="2:40">
+    <row r="181" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B181" s="6"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
@@ -18912,7 +19583,7 @@
       <c r="AM181" s="4"/>
       <c r="AN181" s="5"/>
     </row>
-    <row r="182" spans="2:40">
+    <row r="182" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B182" s="6"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
@@ -18953,7 +19624,7 @@
       <c r="AM182" s="4"/>
       <c r="AN182" s="5"/>
     </row>
-    <row r="183" spans="2:40">
+    <row r="183" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B183" s="6"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -18994,7 +19665,7 @@
       <c r="AM183" s="4"/>
       <c r="AN183" s="5"/>
     </row>
-    <row r="184" spans="2:40">
+    <row r="184" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B184" s="6"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
@@ -19035,7 +19706,7 @@
       <c r="AM184" s="4"/>
       <c r="AN184" s="5"/>
     </row>
-    <row r="185" spans="2:40">
+    <row r="185" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B185" s="6"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
@@ -19076,49 +19747,295 @@
       <c r="AM185" s="4"/>
       <c r="AN185" s="5"/>
     </row>
-    <row r="186" spans="2:40">
-      <c r="B186" s="15"/>
-      <c r="C186" s="16"/>
-      <c r="D186" s="16"/>
-      <c r="E186" s="16"/>
-      <c r="F186" s="16"/>
-      <c r="G186" s="17"/>
-      <c r="H186" s="15"/>
-      <c r="I186" s="16"/>
-      <c r="J186" s="16"/>
-      <c r="K186" s="16"/>
-      <c r="L186" s="16"/>
-      <c r="M186" s="16"/>
-      <c r="N186" s="16"/>
-      <c r="O186" s="16"/>
-      <c r="P186" s="16"/>
-      <c r="Q186" s="16"/>
-      <c r="R186" s="16"/>
-      <c r="S186" s="16"/>
-      <c r="T186" s="16"/>
-      <c r="U186" s="16"/>
-      <c r="V186" s="16"/>
-      <c r="W186" s="16"/>
-      <c r="X186" s="16"/>
-      <c r="Y186" s="16"/>
-      <c r="Z186" s="17"/>
-      <c r="AA186" s="84"/>
-      <c r="AB186" s="16"/>
-      <c r="AC186" s="16"/>
-      <c r="AD186" s="16"/>
-      <c r="AE186" s="16"/>
-      <c r="AF186" s="16"/>
-      <c r="AG186" s="16"/>
-      <c r="AH186" s="16"/>
-      <c r="AI186" s="16"/>
-      <c r="AJ186" s="16"/>
-      <c r="AK186" s="16"/>
-      <c r="AL186" s="16"/>
-      <c r="AM186" s="16"/>
-      <c r="AN186" s="17"/>
+    <row r="186" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B186" s="6"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
+      <c r="K186" s="4"/>
+      <c r="L186" s="4"/>
+      <c r="M186" s="4"/>
+      <c r="N186" s="4"/>
+      <c r="O186" s="4"/>
+      <c r="P186" s="4"/>
+      <c r="Q186" s="4"/>
+      <c r="R186" s="4"/>
+      <c r="S186" s="4"/>
+      <c r="T186" s="4"/>
+      <c r="U186" s="4"/>
+      <c r="V186" s="4"/>
+      <c r="W186" s="4"/>
+      <c r="X186" s="4"/>
+      <c r="Y186" s="4"/>
+      <c r="Z186" s="5"/>
+      <c r="AA186" s="81"/>
+      <c r="AB186" s="4"/>
+      <c r="AC186" s="4"/>
+      <c r="AD186" s="4"/>
+      <c r="AE186" s="4"/>
+      <c r="AF186" s="4"/>
+      <c r="AG186" s="4"/>
+      <c r="AH186" s="4"/>
+      <c r="AI186" s="4"/>
+      <c r="AJ186" s="4"/>
+      <c r="AK186" s="4"/>
+      <c r="AL186" s="4"/>
+      <c r="AM186" s="4"/>
+      <c r="AN186" s="5"/>
+    </row>
+    <row r="187" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B187" s="6"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="6"/>
+      <c r="I187" s="4"/>
+      <c r="J187" s="4"/>
+      <c r="K187" s="4"/>
+      <c r="L187" s="4"/>
+      <c r="M187" s="4"/>
+      <c r="N187" s="4"/>
+      <c r="O187" s="4"/>
+      <c r="P187" s="4"/>
+      <c r="Q187" s="4"/>
+      <c r="R187" s="4"/>
+      <c r="S187" s="4"/>
+      <c r="T187" s="4"/>
+      <c r="U187" s="4"/>
+      <c r="V187" s="4"/>
+      <c r="W187" s="4"/>
+      <c r="X187" s="4"/>
+      <c r="Y187" s="4"/>
+      <c r="Z187" s="5"/>
+      <c r="AA187" s="81"/>
+      <c r="AB187" s="4"/>
+      <c r="AC187" s="4"/>
+      <c r="AD187" s="4"/>
+      <c r="AE187" s="4"/>
+      <c r="AF187" s="4"/>
+      <c r="AG187" s="4"/>
+      <c r="AH187" s="4"/>
+      <c r="AI187" s="4"/>
+      <c r="AJ187" s="4"/>
+      <c r="AK187" s="4"/>
+      <c r="AL187" s="4"/>
+      <c r="AM187" s="4"/>
+      <c r="AN187" s="5"/>
+    </row>
+    <row r="188" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B188" s="6"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="4"/>
+      <c r="J188" s="4"/>
+      <c r="K188" s="4"/>
+      <c r="L188" s="4"/>
+      <c r="M188" s="4"/>
+      <c r="N188" s="4"/>
+      <c r="O188" s="4"/>
+      <c r="P188" s="4"/>
+      <c r="Q188" s="4"/>
+      <c r="R188" s="4"/>
+      <c r="S188" s="4"/>
+      <c r="T188" s="4"/>
+      <c r="U188" s="4"/>
+      <c r="V188" s="4"/>
+      <c r="W188" s="4"/>
+      <c r="X188" s="4"/>
+      <c r="Y188" s="4"/>
+      <c r="Z188" s="5"/>
+      <c r="AA188" s="81"/>
+      <c r="AB188" s="4"/>
+      <c r="AC188" s="4"/>
+      <c r="AD188" s="4"/>
+      <c r="AE188" s="4"/>
+      <c r="AF188" s="4"/>
+      <c r="AG188" s="4"/>
+      <c r="AH188" s="4"/>
+      <c r="AI188" s="4"/>
+      <c r="AJ188" s="4"/>
+      <c r="AK188" s="4"/>
+      <c r="AL188" s="4"/>
+      <c r="AM188" s="4"/>
+      <c r="AN188" s="5"/>
+    </row>
+    <row r="189" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B189" s="6"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="6"/>
+      <c r="I189" s="4"/>
+      <c r="J189" s="4"/>
+      <c r="K189" s="4"/>
+      <c r="L189" s="4"/>
+      <c r="M189" s="4"/>
+      <c r="N189" s="4"/>
+      <c r="O189" s="4"/>
+      <c r="P189" s="4"/>
+      <c r="Q189" s="4"/>
+      <c r="R189" s="4"/>
+      <c r="S189" s="4"/>
+      <c r="T189" s="4"/>
+      <c r="U189" s="4"/>
+      <c r="V189" s="4"/>
+      <c r="W189" s="4"/>
+      <c r="X189" s="4"/>
+      <c r="Y189" s="4"/>
+      <c r="Z189" s="5"/>
+      <c r="AA189" s="81"/>
+      <c r="AB189" s="4"/>
+      <c r="AC189" s="4"/>
+      <c r="AD189" s="4"/>
+      <c r="AE189" s="4"/>
+      <c r="AF189" s="4"/>
+      <c r="AG189" s="4"/>
+      <c r="AH189" s="4"/>
+      <c r="AI189" s="4"/>
+      <c r="AJ189" s="4"/>
+      <c r="AK189" s="4"/>
+      <c r="AL189" s="4"/>
+      <c r="AM189" s="4"/>
+      <c r="AN189" s="5"/>
+    </row>
+    <row r="190" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B190" s="6"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="4"/>
+      <c r="J190" s="4"/>
+      <c r="K190" s="4"/>
+      <c r="L190" s="4"/>
+      <c r="M190" s="4"/>
+      <c r="N190" s="4"/>
+      <c r="O190" s="4"/>
+      <c r="P190" s="4"/>
+      <c r="Q190" s="4"/>
+      <c r="R190" s="4"/>
+      <c r="S190" s="4"/>
+      <c r="T190" s="4"/>
+      <c r="U190" s="4"/>
+      <c r="V190" s="4"/>
+      <c r="W190" s="4"/>
+      <c r="X190" s="4"/>
+      <c r="Y190" s="4"/>
+      <c r="Z190" s="5"/>
+      <c r="AA190" s="81"/>
+      <c r="AB190" s="4"/>
+      <c r="AC190" s="4"/>
+      <c r="AD190" s="4"/>
+      <c r="AE190" s="4"/>
+      <c r="AF190" s="4"/>
+      <c r="AG190" s="4"/>
+      <c r="AH190" s="4"/>
+      <c r="AI190" s="4"/>
+      <c r="AJ190" s="4"/>
+      <c r="AK190" s="4"/>
+      <c r="AL190" s="4"/>
+      <c r="AM190" s="4"/>
+      <c r="AN190" s="5"/>
+    </row>
+    <row r="191" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B191" s="6"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="6"/>
+      <c r="I191" s="4"/>
+      <c r="J191" s="4"/>
+      <c r="K191" s="4"/>
+      <c r="L191" s="4"/>
+      <c r="M191" s="4"/>
+      <c r="N191" s="4"/>
+      <c r="O191" s="4"/>
+      <c r="P191" s="4"/>
+      <c r="Q191" s="4"/>
+      <c r="R191" s="4"/>
+      <c r="S191" s="4"/>
+      <c r="T191" s="4"/>
+      <c r="U191" s="4"/>
+      <c r="V191" s="4"/>
+      <c r="W191" s="4"/>
+      <c r="X191" s="4"/>
+      <c r="Y191" s="4"/>
+      <c r="Z191" s="5"/>
+      <c r="AA191" s="81"/>
+      <c r="AB191" s="4"/>
+      <c r="AC191" s="4"/>
+      <c r="AD191" s="4"/>
+      <c r="AE191" s="4"/>
+      <c r="AF191" s="4"/>
+      <c r="AG191" s="4"/>
+      <c r="AH191" s="4"/>
+      <c r="AI191" s="4"/>
+      <c r="AJ191" s="4"/>
+      <c r="AK191" s="4"/>
+      <c r="AL191" s="4"/>
+      <c r="AM191" s="4"/>
+      <c r="AN191" s="5"/>
+    </row>
+    <row r="192" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B192" s="15"/>
+      <c r="C192" s="16"/>
+      <c r="D192" s="16"/>
+      <c r="E192" s="16"/>
+      <c r="F192" s="16"/>
+      <c r="G192" s="17"/>
+      <c r="H192" s="15"/>
+      <c r="I192" s="16"/>
+      <c r="J192" s="16"/>
+      <c r="K192" s="16"/>
+      <c r="L192" s="16"/>
+      <c r="M192" s="16"/>
+      <c r="N192" s="16"/>
+      <c r="O192" s="16"/>
+      <c r="P192" s="16"/>
+      <c r="Q192" s="16"/>
+      <c r="R192" s="16"/>
+      <c r="S192" s="16"/>
+      <c r="T192" s="16"/>
+      <c r="U192" s="16"/>
+      <c r="V192" s="16"/>
+      <c r="W192" s="16"/>
+      <c r="X192" s="16"/>
+      <c r="Y192" s="16"/>
+      <c r="Z192" s="17"/>
+      <c r="AA192" s="84"/>
+      <c r="AB192" s="16"/>
+      <c r="AC192" s="16"/>
+      <c r="AD192" s="16"/>
+      <c r="AE192" s="16"/>
+      <c r="AF192" s="16"/>
+      <c r="AG192" s="16"/>
+      <c r="AH192" s="16"/>
+      <c r="AI192" s="16"/>
+      <c r="AJ192" s="16"/>
+      <c r="AK192" s="16"/>
+      <c r="AL192" s="16"/>
+      <c r="AM192" s="16"/>
+      <c r="AN192" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="7"/>
   <hyperlinks>
     <hyperlink ref="AA34:AG34" location="SRS!B42" display="※Tham khảo [Listup sách đã tạo]"/>
     <hyperlink ref="AA61:AG61" location="SRS!B75" display="   ※Tham khảo 「Tạo sách mới」"/>
@@ -19134,12 +20051,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:ED102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:ED106"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="BX50" workbookViewId="0">
+      <selection activeCell="CW66" sqref="CW66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
@@ -19191,7 +20110,7 @@
     <col min="91" max="16384" width="3.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="18.75" customHeight="1">
+    <row r="2" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
@@ -19211,7 +20130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="18.75" customHeight="1">
+    <row r="3" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H3" s="8" t="s">
         <v>5</v>
       </c>
@@ -19234,7 +20153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="18.75" customHeight="1">
+    <row r="5" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J5" s="8" t="s">
         <v>4</v>
       </c>
@@ -19242,7 +20161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="18.75" customHeight="1">
+    <row r="6" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J6" s="8" t="s">
         <v>16</v>
       </c>
@@ -19250,7 +20169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:24" ht="18.75" customHeight="1">
+    <row r="7" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J7" s="8" t="s">
         <v>17</v>
       </c>
@@ -19258,7 +20177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="18.75" customHeight="1">
+    <row r="8" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J8" s="8" t="s">
         <v>8</v>
       </c>
@@ -19266,7 +20185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="18.75" customHeight="1">
+    <row r="9" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J9" s="8" t="s">
         <v>10</v>
       </c>
@@ -19274,7 +20193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="18.75" customHeight="1">
+    <row r="10" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J10" s="8" t="s">
         <v>12</v>
       </c>
@@ -19282,7 +20201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="18.75" customHeight="1">
+    <row r="11" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J11" s="10"/>
       <c r="K11" s="8" t="s">
         <v>12</v>
@@ -19297,7 +20216,7 @@
       <c r="W11" s="21"/>
       <c r="X11" s="28"/>
     </row>
-    <row r="12" spans="2:24">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
       <c r="R12" s="6"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -19306,7 +20225,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="2:24">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
       <c r="R13" s="6" t="s">
         <v>51</v>
       </c>
@@ -19317,7 +20236,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="2:24">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
       <c r="R14" s="6" t="s">
         <v>23</v>
       </c>
@@ -19328,7 +20247,7 @@
       <c r="W14" s="4"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="2:24">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
       <c r="R15" s="6"/>
       <c r="S15" s="24" t="s">
         <v>26</v>
@@ -19343,7 +20262,7 @@
       <c r="W15" s="27"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="2:24">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
       <c r="R16" s="6"/>
       <c r="S16" s="8">
         <v>1</v>
@@ -19362,7 +20281,7 @@
       </c>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="18:67">
+    <row r="17" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R17" s="6"/>
       <c r="S17" s="8">
         <v>2</v>
@@ -19381,7 +20300,7 @@
       </c>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="18:67">
+    <row r="18" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R18" s="6"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -19390,7 +20309,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="5"/>
     </row>
-    <row r="19" spans="18:67">
+    <row r="19" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R19" s="6" t="s">
         <v>28</v>
       </c>
@@ -19401,7 +20320,7 @@
       <c r="W19" s="4"/>
       <c r="X19" s="5"/>
     </row>
-    <row r="20" spans="18:67">
+    <row r="20" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R20" s="6"/>
       <c r="S20" s="23" t="s">
         <v>31</v>
@@ -19416,7 +20335,7 @@
       <c r="W20" s="27"/>
       <c r="X20" s="5"/>
     </row>
-    <row r="21" spans="18:67">
+    <row r="21" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R21" s="6"/>
       <c r="S21" s="8">
         <v>1</v>
@@ -19435,7 +20354,7 @@
       </c>
       <c r="X21" s="5"/>
     </row>
-    <row r="22" spans="18:67">
+    <row r="22" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R22" s="6"/>
       <c r="S22" s="8">
         <v>2</v>
@@ -19454,7 +20373,7 @@
       </c>
       <c r="X22" s="5"/>
     </row>
-    <row r="23" spans="18:67">
+    <row r="23" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R23" s="15"/>
       <c r="S23" s="16"/>
       <c r="T23" s="16"/>
@@ -19463,7 +20382,7 @@
       <c r="W23" s="16"/>
       <c r="X23" s="17"/>
     </row>
-    <row r="24" spans="18:67">
+    <row r="24" spans="18:67" x14ac:dyDescent="0.15">
       <c r="Z24" s="20"/>
       <c r="AA24" s="21"/>
       <c r="AB24" s="21"/>
@@ -19481,7 +20400,7 @@
       <c r="BN24" s="21"/>
       <c r="BO24" s="28"/>
     </row>
-    <row r="25" spans="18:67" ht="18" customHeight="1">
+    <row r="25" spans="18:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z25" s="6"/>
       <c r="AA25" s="22" t="s">
         <v>68</v>
@@ -19491,7 +20410,7 @@
       </c>
       <c r="AC25" s="3"/>
       <c r="AD25" s="4"/>
-      <c r="AE25" s="92" t="s">
+      <c r="AE25" s="96" t="s">
         <v>62</v>
       </c>
       <c r="AF25" s="33" t="s">
@@ -19507,7 +20426,7 @@
       </c>
       <c r="BK25" s="3"/>
       <c r="BL25" s="4"/>
-      <c r="BM25" s="92" t="s">
+      <c r="BM25" s="96" t="s">
         <v>62</v>
       </c>
       <c r="BN25" s="33" t="s">
@@ -19515,7 +20434,7 @@
       </c>
       <c r="BO25" s="5"/>
     </row>
-    <row r="26" spans="18:67" ht="18" customHeight="1">
+    <row r="26" spans="18:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z26" s="6"/>
       <c r="AA26" s="22" t="s">
         <v>67</v>
@@ -19525,7 +20444,7 @@
       </c>
       <c r="AC26" s="35"/>
       <c r="AD26" s="4"/>
-      <c r="AE26" s="93"/>
+      <c r="AE26" s="97"/>
       <c r="AF26" s="34" t="s">
         <v>72</v>
       </c>
@@ -19539,13 +20458,13 @@
       </c>
       <c r="BK26" s="35"/>
       <c r="BL26" s="4"/>
-      <c r="BM26" s="93"/>
+      <c r="BM26" s="97"/>
       <c r="BN26" s="34" t="s">
         <v>72</v>
       </c>
       <c r="BO26" s="5"/>
     </row>
-    <row r="27" spans="18:67" ht="18" customHeight="1">
+    <row r="27" spans="18:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z27" s="6"/>
       <c r="AA27" s="22" t="s">
         <v>66</v>
@@ -19555,7 +20474,7 @@
       </c>
       <c r="AC27" s="35"/>
       <c r="AD27" s="4"/>
-      <c r="AE27" s="93"/>
+      <c r="AE27" s="97"/>
       <c r="AF27" s="34"/>
       <c r="AG27" s="5"/>
       <c r="BH27" s="6"/>
@@ -19567,11 +20486,11 @@
       </c>
       <c r="BK27" s="35"/>
       <c r="BL27" s="4"/>
-      <c r="BM27" s="93"/>
+      <c r="BM27" s="97"/>
       <c r="BN27" s="34"/>
       <c r="BO27" s="5"/>
     </row>
-    <row r="28" spans="18:67" ht="18" customHeight="1">
+    <row r="28" spans="18:67" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z28" s="6"/>
       <c r="AA28" s="22" t="s">
         <v>65</v>
@@ -19581,7 +20500,7 @@
       </c>
       <c r="AC28" s="37"/>
       <c r="AD28" s="4"/>
-      <c r="AE28" s="94"/>
+      <c r="AE28" s="98"/>
       <c r="AF28" s="35"/>
       <c r="AG28" s="5"/>
       <c r="BH28" s="52"/>
@@ -19593,11 +20512,11 @@
       </c>
       <c r="BK28" s="37"/>
       <c r="BL28" s="4"/>
-      <c r="BM28" s="94"/>
+      <c r="BM28" s="98"/>
       <c r="BN28" s="35"/>
       <c r="BO28" s="52"/>
     </row>
-    <row r="29" spans="18:67">
+    <row r="29" spans="18:67" x14ac:dyDescent="0.15">
       <c r="Z29" s="6"/>
       <c r="AA29" s="21"/>
       <c r="AB29" s="21"/>
@@ -19615,7 +20534,7 @@
       <c r="BN29" s="21"/>
       <c r="BO29" s="5"/>
     </row>
-    <row r="30" spans="18:67" ht="18" customHeight="1">
+    <row r="30" spans="18:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z30" s="6"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
@@ -19633,7 +20552,7 @@
       <c r="BN30" s="4"/>
       <c r="BO30" s="5"/>
     </row>
-    <row r="31" spans="18:67">
+    <row r="31" spans="18:67" x14ac:dyDescent="0.15">
       <c r="Z31" s="15"/>
       <c r="AA31" s="16"/>
       <c r="AB31" s="16"/>
@@ -19651,7 +20570,7 @@
       <c r="BN31" s="16"/>
       <c r="BO31" s="17"/>
     </row>
-    <row r="33" spans="35:91">
+    <row r="33" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI33" s="20" t="s">
         <v>73</v>
       </c>
@@ -19703,7 +20622,7 @@
       <c r="CL33" s="21"/>
       <c r="CM33" s="28"/>
     </row>
-    <row r="34" spans="35:91" ht="19.5" customHeight="1">
+    <row r="34" spans="35:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI34" s="6"/>
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
@@ -19751,7 +20670,7 @@
       <c r="CL34" s="4"/>
       <c r="CM34" s="5"/>
     </row>
-    <row r="35" spans="35:91" ht="19.5" customHeight="1">
+    <row r="35" spans="35:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI35" s="6"/>
       <c r="AJ35" s="22" t="s">
         <v>22</v>
@@ -19770,7 +20689,7 @@
       <c r="AT35" s="40"/>
       <c r="AU35" s="37"/>
       <c r="AV35" s="4"/>
-      <c r="AW35" s="92" t="s">
+      <c r="AW35" s="103" t="s">
         <v>62</v>
       </c>
       <c r="AX35" s="42" t="s">
@@ -19801,7 +20720,7 @@
       <c r="CB35" s="40"/>
       <c r="CC35" s="37"/>
       <c r="CD35" s="4"/>
-      <c r="CE35" s="92" t="s">
+      <c r="CE35" s="103" t="s">
         <v>62</v>
       </c>
       <c r="CF35" s="42" t="s">
@@ -19815,7 +20734,7 @@
       <c r="CL35" s="44"/>
       <c r="CM35" s="5"/>
     </row>
-    <row r="36" spans="35:91" ht="19.5" customHeight="1">
+    <row r="36" spans="35:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI36" s="6"/>
       <c r="AJ36" s="22" t="s">
         <v>63</v>
@@ -19834,7 +20753,7 @@
       <c r="AT36" s="40"/>
       <c r="AU36" s="37"/>
       <c r="AV36" s="4"/>
-      <c r="AW36" s="93"/>
+      <c r="AW36" s="103"/>
       <c r="AX36" s="45"/>
       <c r="AY36" s="46"/>
       <c r="AZ36" s="46"/>
@@ -19861,7 +20780,7 @@
       <c r="CB36" s="40"/>
       <c r="CC36" s="37"/>
       <c r="CD36" s="4"/>
-      <c r="CE36" s="93"/>
+      <c r="CE36" s="103"/>
       <c r="CF36" s="45"/>
       <c r="CG36" s="46"/>
       <c r="CH36" s="46"/>
@@ -19871,7 +20790,7 @@
       <c r="CL36" s="41"/>
       <c r="CM36" s="5"/>
     </row>
-    <row r="37" spans="35:91" ht="19.5" customHeight="1">
+    <row r="37" spans="35:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI37" s="6"/>
       <c r="AJ37" s="22" t="s">
         <v>64</v>
@@ -19890,14 +20809,14 @@
       <c r="AT37" s="40"/>
       <c r="AU37" s="37"/>
       <c r="AV37" s="4"/>
-      <c r="AW37" s="93"/>
-      <c r="AX37" s="45"/>
-      <c r="AY37" s="46"/>
-      <c r="AZ37" s="46"/>
-      <c r="BA37" s="46"/>
-      <c r="BB37" s="46"/>
-      <c r="BC37" s="46"/>
-      <c r="BD37" s="41"/>
+      <c r="AW37" s="103"/>
+      <c r="AX37" s="104"/>
+      <c r="AY37" s="105"/>
+      <c r="AZ37" s="105"/>
+      <c r="BA37" s="105"/>
+      <c r="BB37" s="105"/>
+      <c r="BC37" s="105"/>
+      <c r="BD37" s="106"/>
       <c r="BE37" s="5"/>
       <c r="BQ37" s="6"/>
       <c r="BR37" s="22" t="s">
@@ -19917,17 +20836,17 @@
       <c r="CB37" s="40"/>
       <c r="CC37" s="37"/>
       <c r="CD37" s="4"/>
-      <c r="CE37" s="93"/>
-      <c r="CF37" s="45"/>
-      <c r="CG37" s="46"/>
-      <c r="CH37" s="46"/>
-      <c r="CI37" s="46"/>
-      <c r="CJ37" s="46"/>
-      <c r="CK37" s="46"/>
-      <c r="CL37" s="41"/>
+      <c r="CE37" s="103"/>
+      <c r="CF37" s="104"/>
+      <c r="CG37" s="105"/>
+      <c r="CH37" s="105"/>
+      <c r="CI37" s="105"/>
+      <c r="CJ37" s="105"/>
+      <c r="CK37" s="105"/>
+      <c r="CL37" s="106"/>
       <c r="CM37" s="5"/>
     </row>
-    <row r="38" spans="35:91" ht="19.5" customHeight="1">
+    <row r="38" spans="35:91" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI38" s="6"/>
       <c r="AJ38" s="22" t="s">
         <v>65</v>
@@ -19946,14 +20865,14 @@
       <c r="AT38" s="40"/>
       <c r="AU38" s="37"/>
       <c r="AV38" s="4"/>
-      <c r="AW38" s="94"/>
-      <c r="AX38" s="47"/>
-      <c r="AY38" s="48"/>
-      <c r="AZ38" s="48"/>
-      <c r="BA38" s="48"/>
-      <c r="BB38" s="48"/>
-      <c r="BC38" s="48"/>
-      <c r="BD38" s="49"/>
+      <c r="AW38" s="103"/>
+      <c r="AX38" s="38"/>
+      <c r="AY38" s="40"/>
+      <c r="AZ38" s="40"/>
+      <c r="BA38" s="40"/>
+      <c r="BB38" s="40"/>
+      <c r="BC38" s="40"/>
+      <c r="BD38" s="37"/>
       <c r="BE38" s="5"/>
       <c r="BQ38" s="6"/>
       <c r="BR38" s="22" t="s">
@@ -19973,17 +20892,17 @@
       <c r="CB38" s="40"/>
       <c r="CC38" s="37"/>
       <c r="CD38" s="4"/>
-      <c r="CE38" s="94"/>
-      <c r="CF38" s="47"/>
-      <c r="CG38" s="48"/>
-      <c r="CH38" s="48"/>
-      <c r="CI38" s="48"/>
-      <c r="CJ38" s="48"/>
-      <c r="CK38" s="48"/>
-      <c r="CL38" s="49"/>
+      <c r="CE38" s="103"/>
+      <c r="CF38" s="38"/>
+      <c r="CG38" s="40"/>
+      <c r="CH38" s="40"/>
+      <c r="CI38" s="40"/>
+      <c r="CJ38" s="40"/>
+      <c r="CK38" s="40"/>
+      <c r="CL38" s="37"/>
       <c r="CM38" s="5"/>
     </row>
-    <row r="39" spans="35:91">
+    <row r="39" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI39" s="6"/>
       <c r="AJ39" s="4"/>
       <c r="AK39" s="4"/>
@@ -19998,14 +20917,14 @@
       <c r="AT39" s="4"/>
       <c r="AU39" s="4"/>
       <c r="AV39" s="4"/>
-      <c r="AW39" s="4"/>
-      <c r="AX39" s="4"/>
-      <c r="AY39" s="4"/>
-      <c r="AZ39" s="4"/>
-      <c r="BA39" s="4"/>
-      <c r="BB39" s="4"/>
-      <c r="BC39" s="4"/>
-      <c r="BD39" s="4"/>
+      <c r="AW39" s="21"/>
+      <c r="AX39" s="21"/>
+      <c r="AY39" s="21"/>
+      <c r="AZ39" s="21"/>
+      <c r="BA39" s="21"/>
+      <c r="BB39" s="21"/>
+      <c r="BC39" s="21"/>
+      <c r="BD39" s="21"/>
       <c r="BE39" s="5"/>
       <c r="BQ39" s="6"/>
       <c r="BR39" s="4"/>
@@ -20021,17 +20940,17 @@
       <c r="CB39" s="4"/>
       <c r="CC39" s="4"/>
       <c r="CD39" s="4"/>
-      <c r="CE39" s="4"/>
-      <c r="CF39" s="4"/>
-      <c r="CG39" s="4"/>
-      <c r="CH39" s="4"/>
-      <c r="CI39" s="4"/>
-      <c r="CJ39" s="4"/>
-      <c r="CK39" s="4"/>
-      <c r="CL39" s="4"/>
+      <c r="CE39" s="21"/>
+      <c r="CF39" s="21"/>
+      <c r="CG39" s="21"/>
+      <c r="CH39" s="21"/>
+      <c r="CI39" s="21"/>
+      <c r="CJ39" s="21"/>
+      <c r="CK39" s="21"/>
+      <c r="CL39" s="21"/>
       <c r="CM39" s="5"/>
     </row>
-    <row r="40" spans="35:91">
+    <row r="40" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI40" s="6"/>
       <c r="AJ40" s="4"/>
       <c r="AK40" s="4"/>
@@ -20079,7 +20998,7 @@
       <c r="CL40" s="4"/>
       <c r="CM40" s="5"/>
     </row>
-    <row r="41" spans="35:91">
+    <row r="41" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI41" s="15"/>
       <c r="AJ41" s="16"/>
       <c r="AK41" s="16"/>
@@ -20127,7 +21046,7 @@
       <c r="CL41" s="16"/>
       <c r="CM41" s="17"/>
     </row>
-    <row r="42" spans="35:91">
+    <row r="42" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI42" s="20" t="s">
         <v>74</v>
       </c>
@@ -20179,7 +21098,7 @@
       <c r="CL42" s="21"/>
       <c r="CM42" s="28"/>
     </row>
-    <row r="43" spans="35:91">
+    <row r="43" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI43" s="6"/>
       <c r="AJ43" s="4"/>
       <c r="AK43" s="4"/>
@@ -20227,77 +21146,71 @@
       <c r="CL43" s="4"/>
       <c r="CM43" s="5"/>
     </row>
-    <row r="44" spans="35:91">
-      <c r="AI44" s="7"/>
-      <c r="AJ44" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK44" s="58"/>
-      <c r="AL44" s="58"/>
-      <c r="AM44" s="58"/>
-      <c r="AN44" s="58"/>
-      <c r="AO44" s="58"/>
-      <c r="AP44" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ44" s="59"/>
-      <c r="AR44" s="57"/>
-      <c r="AS44" s="58"/>
-      <c r="AT44" s="58"/>
-      <c r="AU44" s="58"/>
-      <c r="AV44" s="58"/>
-      <c r="AW44" s="58"/>
-      <c r="AX44" s="58"/>
-      <c r="AY44" s="58"/>
-      <c r="AZ44" s="58"/>
-      <c r="BA44" s="58"/>
-      <c r="BB44" s="58"/>
-      <c r="BC44" s="58"/>
-      <c r="BD44" s="58"/>
-      <c r="BE44" s="59"/>
-      <c r="BQ44" s="7"/>
-      <c r="BR44" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="BS44" s="58"/>
-      <c r="BT44" s="58"/>
-      <c r="BU44" s="58"/>
-      <c r="BV44" s="58"/>
-      <c r="BW44" s="58"/>
-      <c r="BX44" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY44" s="59"/>
-      <c r="BZ44" s="57"/>
-      <c r="CA44" s="58"/>
-      <c r="CB44" s="58"/>
-      <c r="CC44" s="58"/>
-      <c r="CD44" s="58"/>
-      <c r="CE44" s="58"/>
-      <c r="CF44" s="58"/>
-      <c r="CG44" s="58"/>
-      <c r="CH44" s="58"/>
-      <c r="CI44" s="58"/>
-      <c r="CJ44" s="58"/>
-      <c r="CK44" s="58"/>
-      <c r="CL44" s="58"/>
-      <c r="CM44" s="59"/>
-    </row>
-    <row r="45" spans="35:91">
-      <c r="AI45" s="52"/>
-      <c r="AJ45" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK45" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL45" s="21"/>
-      <c r="AM45" s="21"/>
-      <c r="AN45" s="67"/>
-      <c r="AO45" s="61"/>
-      <c r="AP45" s="68"/>
-      <c r="AQ45" s="71"/>
-      <c r="AR45" s="72"/>
+    <row r="44" spans="35:91" x14ac:dyDescent="0.15">
+      <c r="AI44" s="6"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4"/>
+      <c r="AO44" s="4"/>
+      <c r="AP44" s="4"/>
+      <c r="AQ44" s="4"/>
+      <c r="AR44" s="4"/>
+      <c r="AS44" s="4"/>
+      <c r="AT44" s="4"/>
+      <c r="AU44" s="4"/>
+      <c r="AV44" s="4"/>
+      <c r="AW44" s="4"/>
+      <c r="AX44" s="4"/>
+      <c r="AY44" s="4"/>
+      <c r="AZ44" s="4"/>
+      <c r="BA44" s="4"/>
+      <c r="BB44" s="4"/>
+      <c r="BC44" s="4"/>
+      <c r="BD44" s="4"/>
+      <c r="BE44" s="5"/>
+      <c r="BQ44" s="6"/>
+      <c r="BR44" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="BS44" s="100"/>
+      <c r="BT44" s="100" t="s">
+        <v>196</v>
+      </c>
+      <c r="BU44" s="100"/>
+      <c r="BV44" s="100"/>
+      <c r="BW44" s="100"/>
+      <c r="BX44" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="BY44" s="100"/>
+      <c r="BZ44" s="100"/>
+      <c r="CA44" s="100"/>
+      <c r="CB44" s="100"/>
+      <c r="CC44" s="4"/>
+      <c r="CD44" s="4"/>
+      <c r="CE44" s="4"/>
+      <c r="CF44" s="4"/>
+      <c r="CG44" s="4"/>
+      <c r="CH44" s="4"/>
+      <c r="CI44" s="4"/>
+      <c r="CJ44" s="4"/>
+      <c r="CK44" s="4"/>
+      <c r="CL44" s="4"/>
+      <c r="CM44" s="5"/>
+    </row>
+    <row r="45" spans="35:91" x14ac:dyDescent="0.15">
+      <c r="AI45" s="6"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="4"/>
+      <c r="AM45" s="4"/>
+      <c r="AN45" s="4"/>
+      <c r="AO45" s="4"/>
+      <c r="AP45" s="4"/>
+      <c r="AQ45" s="4"/>
+      <c r="AR45" s="4"/>
       <c r="AS45" s="4"/>
       <c r="AT45" s="4"/>
       <c r="AU45" s="4"/>
@@ -20311,20 +21224,16 @@
       <c r="BC45" s="4"/>
       <c r="BD45" s="4"/>
       <c r="BE45" s="5"/>
-      <c r="BQ45" s="52"/>
-      <c r="BR45" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS45" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="BT45" s="21"/>
-      <c r="BU45" s="21"/>
-      <c r="BV45" s="67"/>
-      <c r="BW45" s="61"/>
-      <c r="BX45" s="68"/>
-      <c r="BY45" s="71"/>
-      <c r="BZ45" s="72"/>
+      <c r="BQ45" s="6"/>
+      <c r="BR45" s="4"/>
+      <c r="BS45" s="4"/>
+      <c r="BT45" s="4"/>
+      <c r="BU45" s="4"/>
+      <c r="BV45" s="4"/>
+      <c r="BW45" s="4"/>
+      <c r="BX45" s="4"/>
+      <c r="BY45" s="4"/>
+      <c r="BZ45" s="4"/>
       <c r="CA45" s="4"/>
       <c r="CB45" s="4"/>
       <c r="CC45" s="4"/>
@@ -20339,179 +21248,181 @@
       <c r="CL45" s="4"/>
       <c r="CM45" s="5"/>
     </row>
-    <row r="46" spans="35:91" ht="18.75" customHeight="1">
-      <c r="AI46" s="52"/>
-      <c r="AJ46" s="50" t="s">
+    <row r="46" spans="35:91" x14ac:dyDescent="0.15">
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK46" s="58"/>
+      <c r="AL46" s="58"/>
+      <c r="AM46" s="58"/>
+      <c r="AN46" s="58"/>
+      <c r="AO46" s="58"/>
+      <c r="AP46" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ46" s="59"/>
+      <c r="AR46" s="57"/>
+      <c r="AS46" s="58"/>
+      <c r="AT46" s="58"/>
+      <c r="AU46" s="58"/>
+      <c r="AV46" s="58"/>
+      <c r="AW46" s="58"/>
+      <c r="AX46" s="58"/>
+      <c r="AY46" s="58"/>
+      <c r="AZ46" s="58"/>
+      <c r="BA46" s="58"/>
+      <c r="BB46" s="58"/>
+      <c r="BC46" s="58"/>
+      <c r="BD46" s="58"/>
+      <c r="BE46" s="59"/>
+      <c r="BQ46" s="7"/>
+      <c r="BR46" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS46" s="58"/>
+      <c r="BT46" s="58"/>
+      <c r="BU46" s="58"/>
+      <c r="BV46" s="58"/>
+      <c r="BW46" s="58"/>
+      <c r="BX46" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY46" s="59"/>
+      <c r="BZ46" s="57"/>
+      <c r="CA46" s="58"/>
+      <c r="CB46" s="58"/>
+      <c r="CC46" s="58"/>
+      <c r="CD46" s="58"/>
+      <c r="CE46" s="58"/>
+      <c r="CF46" s="58"/>
+      <c r="CG46" s="58"/>
+      <c r="CH46" s="58"/>
+      <c r="CI46" s="58"/>
+      <c r="CJ46" s="58"/>
+      <c r="CK46" s="58"/>
+      <c r="CL46" s="58"/>
+      <c r="CM46" s="59"/>
+    </row>
+    <row r="47" spans="35:91" x14ac:dyDescent="0.15">
+      <c r="AI47" s="52"/>
+      <c r="AJ47" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AK46" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL46" s="51"/>
-      <c r="AM46" s="51"/>
-      <c r="AN46" s="77"/>
-      <c r="AO46" s="65"/>
-      <c r="AP46" s="69"/>
-      <c r="AQ46" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR46" s="74"/>
-      <c r="AS46" s="4"/>
-      <c r="AT46" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU46" s="39"/>
-      <c r="AV46" s="39"/>
-      <c r="AW46" s="39"/>
-      <c r="AX46" s="39"/>
-      <c r="AY46" s="39"/>
-      <c r="AZ46" s="3"/>
-      <c r="BA46" s="4"/>
-      <c r="BB46" s="4"/>
-      <c r="BC46" s="4"/>
-      <c r="BD46" s="4"/>
-      <c r="BE46" s="5"/>
-      <c r="BQ46" s="52"/>
-      <c r="BR46" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS46" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT46" s="51"/>
-      <c r="BU46" s="51"/>
-      <c r="BV46" s="77"/>
-      <c r="BW46" s="65"/>
-      <c r="BX46" s="69"/>
-      <c r="BY46" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="BZ46" s="74"/>
-      <c r="CA46" s="4"/>
-      <c r="CB46" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="CC46" s="39"/>
-      <c r="CD46" s="39"/>
-      <c r="CE46" s="39"/>
-      <c r="CF46" s="39"/>
-      <c r="CG46" s="39"/>
-      <c r="CH46" s="3"/>
-      <c r="CI46" s="4"/>
-      <c r="CJ46" s="4"/>
-      <c r="CK46" s="4"/>
-      <c r="CL46" s="4"/>
-      <c r="CM46" s="5"/>
-    </row>
-    <row r="47" spans="35:91" ht="18.75" customHeight="1">
-      <c r="AI47" s="52"/>
-      <c r="AJ47" s="6"/>
-      <c r="AK47" s="63"/>
-      <c r="AL47" s="4"/>
-      <c r="AM47" s="4"/>
-      <c r="AN47" s="78"/>
-      <c r="AO47" s="53"/>
-      <c r="AP47" s="69"/>
-      <c r="AQ47" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR47" s="74"/>
+      <c r="AK47" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL47" s="21"/>
+      <c r="AM47" s="21"/>
+      <c r="AN47" s="67"/>
+      <c r="AO47" s="61"/>
+      <c r="AP47" s="68"/>
+      <c r="AQ47" s="71"/>
+      <c r="AR47" s="72"/>
       <c r="AS47" s="4"/>
-      <c r="AT47" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU47" s="39"/>
-      <c r="AV47" s="39"/>
-      <c r="AW47" s="39"/>
-      <c r="AX47" s="39"/>
-      <c r="AY47" s="39"/>
-      <c r="AZ47" s="3"/>
+      <c r="AT47" s="4"/>
+      <c r="AU47" s="4"/>
+      <c r="AV47" s="4"/>
+      <c r="AW47" s="4"/>
+      <c r="AX47" s="4"/>
+      <c r="AY47" s="4"/>
+      <c r="AZ47" s="4"/>
       <c r="BA47" s="4"/>
       <c r="BB47" s="4"/>
       <c r="BC47" s="4"/>
       <c r="BD47" s="4"/>
       <c r="BE47" s="5"/>
       <c r="BQ47" s="52"/>
-      <c r="BR47" s="6"/>
-      <c r="BS47" s="63"/>
-      <c r="BT47" s="4"/>
-      <c r="BU47" s="4"/>
-      <c r="BV47" s="78"/>
-      <c r="BW47" s="53"/>
-      <c r="BX47" s="69"/>
-      <c r="BY47" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="BZ47" s="74"/>
+      <c r="BR47" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS47" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT47" s="21"/>
+      <c r="BU47" s="21"/>
+      <c r="BV47" s="67"/>
+      <c r="BW47" s="61"/>
+      <c r="BX47" s="68"/>
+      <c r="BY47" s="71"/>
+      <c r="BZ47" s="72"/>
       <c r="CA47" s="4"/>
-      <c r="CB47" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="CC47" s="39"/>
-      <c r="CD47" s="39"/>
-      <c r="CE47" s="39"/>
-      <c r="CF47" s="39"/>
-      <c r="CG47" s="39"/>
-      <c r="CH47" s="3"/>
+      <c r="CB47" s="4"/>
+      <c r="CC47" s="4"/>
+      <c r="CD47" s="4"/>
+      <c r="CE47" s="4"/>
+      <c r="CF47" s="4"/>
+      <c r="CG47" s="4"/>
+      <c r="CH47" s="4"/>
       <c r="CI47" s="4"/>
       <c r="CJ47" s="4"/>
       <c r="CK47" s="4"/>
       <c r="CL47" s="4"/>
       <c r="CM47" s="5"/>
     </row>
-    <row r="48" spans="35:91" ht="18.75" customHeight="1">
+    <row r="48" spans="35:91" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI48" s="52"/>
-      <c r="AJ48" s="6"/>
-      <c r="AK48" s="63"/>
-      <c r="AL48" s="4"/>
-      <c r="AM48" s="4"/>
-      <c r="AN48" s="78"/>
-      <c r="AO48" s="53"/>
+      <c r="AJ48" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK48" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL48" s="51"/>
+      <c r="AM48" s="51"/>
+      <c r="AN48" s="77"/>
+      <c r="AO48" s="65"/>
       <c r="AP48" s="69"/>
       <c r="AQ48" s="74" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AR48" s="74"/>
       <c r="AS48" s="4"/>
-      <c r="AT48" s="2"/>
+      <c r="AT48" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="AU48" s="39"/>
       <c r="AV48" s="39"/>
       <c r="AW48" s="39"/>
       <c r="AX48" s="39"/>
       <c r="AY48" s="39"/>
       <c r="AZ48" s="3"/>
-      <c r="BA48" s="76"/>
-      <c r="BB48" s="76"/>
-      <c r="BC48" s="76"/>
+      <c r="BA48" s="4"/>
+      <c r="BB48" s="4"/>
+      <c r="BC48" s="4"/>
       <c r="BD48" s="4"/>
       <c r="BE48" s="5"/>
       <c r="BQ48" s="52"/>
-      <c r="BR48" s="6"/>
-      <c r="BS48" s="63"/>
-      <c r="BT48" s="4"/>
-      <c r="BU48" s="4"/>
-      <c r="BV48" s="78"/>
-      <c r="BW48" s="53"/>
+      <c r="BR48" s="50"/>
+      <c r="BS48" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT48" s="51"/>
+      <c r="BU48" s="51"/>
+      <c r="BV48" s="77"/>
+      <c r="BW48" s="65"/>
       <c r="BX48" s="69"/>
       <c r="BY48" s="74" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="BZ48" s="74"/>
       <c r="CA48" s="4"/>
-      <c r="CB48" s="2"/>
+      <c r="CB48" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="CC48" s="39"/>
       <c r="CD48" s="39"/>
       <c r="CE48" s="39"/>
       <c r="CF48" s="39"/>
       <c r="CG48" s="39"/>
       <c r="CH48" s="3"/>
-      <c r="CI48" s="76"/>
-      <c r="CJ48" s="76"/>
-      <c r="CK48" s="76"/>
+      <c r="CI48" s="4"/>
+      <c r="CJ48" s="4"/>
+      <c r="CK48" s="4"/>
       <c r="CL48" s="4"/>
       <c r="CM48" s="5"/>
     </row>
-    <row r="49" spans="35:115" ht="18.75" customHeight="1">
+    <row r="49" spans="35:115" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI49" s="52"/>
       <c r="AJ49" s="6"/>
       <c r="AK49" s="63"/>
@@ -20521,22 +21432,22 @@
       <c r="AO49" s="53"/>
       <c r="AP49" s="69"/>
       <c r="AQ49" s="74" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AR49" s="74"/>
       <c r="AS49" s="4"/>
-      <c r="AT49" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU49" s="21"/>
-      <c r="AV49" s="21"/>
-      <c r="AW49" s="21"/>
-      <c r="AX49" s="21"/>
-      <c r="AY49" s="21"/>
-      <c r="AZ49" s="21"/>
-      <c r="BA49" s="21"/>
-      <c r="BB49" s="21"/>
-      <c r="BC49" s="7"/>
+      <c r="AT49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU49" s="39"/>
+      <c r="AV49" s="39"/>
+      <c r="AW49" s="39"/>
+      <c r="AX49" s="39"/>
+      <c r="AY49" s="39"/>
+      <c r="AZ49" s="3"/>
+      <c r="BA49" s="4"/>
+      <c r="BB49" s="4"/>
+      <c r="BC49" s="4"/>
       <c r="BD49" s="4"/>
       <c r="BE49" s="5"/>
       <c r="BQ49" s="52"/>
@@ -20548,26 +21459,26 @@
       <c r="BW49" s="53"/>
       <c r="BX49" s="69"/>
       <c r="BY49" s="74" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="BZ49" s="74"/>
       <c r="CA49" s="4"/>
-      <c r="CB49" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="CC49" s="21"/>
-      <c r="CD49" s="21"/>
-      <c r="CE49" s="21"/>
-      <c r="CF49" s="21"/>
-      <c r="CG49" s="21"/>
-      <c r="CH49" s="21"/>
-      <c r="CI49" s="21"/>
-      <c r="CJ49" s="21"/>
-      <c r="CK49" s="7"/>
+      <c r="CB49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CC49" s="39"/>
+      <c r="CD49" s="39"/>
+      <c r="CE49" s="39"/>
+      <c r="CF49" s="39"/>
+      <c r="CG49" s="39"/>
+      <c r="CH49" s="3"/>
+      <c r="CI49" s="4"/>
+      <c r="CJ49" s="4"/>
+      <c r="CK49" s="4"/>
       <c r="CL49" s="4"/>
       <c r="CM49" s="5"/>
     </row>
-    <row r="50" spans="35:115" ht="18.75" customHeight="1">
+    <row r="50" spans="35:115" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI50" s="52"/>
       <c r="AJ50" s="6"/>
       <c r="AK50" s="63"/>
@@ -20576,21 +21487,21 @@
       <c r="AN50" s="78"/>
       <c r="AO50" s="53"/>
       <c r="AP50" s="69"/>
-      <c r="AQ50" s="73"/>
-      <c r="AR50" s="4"/>
+      <c r="AQ50" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR50" s="74"/>
       <c r="AS50" s="4"/>
-      <c r="AT50" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU50" s="4"/>
-      <c r="AV50" s="4"/>
-      <c r="AW50" s="4"/>
-      <c r="AX50" s="4"/>
-      <c r="AY50" s="4"/>
-      <c r="AZ50" s="4"/>
-      <c r="BA50" s="4"/>
-      <c r="BB50" s="4"/>
-      <c r="BC50" s="56"/>
+      <c r="AT50" s="2"/>
+      <c r="AU50" s="39"/>
+      <c r="AV50" s="39"/>
+      <c r="AW50" s="39"/>
+      <c r="AX50" s="39"/>
+      <c r="AY50" s="39"/>
+      <c r="AZ50" s="3"/>
+      <c r="BA50" s="76"/>
+      <c r="BB50" s="76"/>
+      <c r="BC50" s="76"/>
       <c r="BD50" s="4"/>
       <c r="BE50" s="5"/>
       <c r="BQ50" s="52"/>
@@ -20601,25 +21512,25 @@
       <c r="BV50" s="78"/>
       <c r="BW50" s="53"/>
       <c r="BX50" s="69"/>
-      <c r="BY50" s="73"/>
-      <c r="BZ50" s="4"/>
+      <c r="BY50" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ50" s="74"/>
       <c r="CA50" s="4"/>
-      <c r="CB50" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="CC50" s="4"/>
-      <c r="CD50" s="4"/>
-      <c r="CE50" s="4"/>
-      <c r="CF50" s="4"/>
-      <c r="CG50" s="4"/>
-      <c r="CH50" s="4"/>
-      <c r="CI50" s="4"/>
-      <c r="CJ50" s="4"/>
-      <c r="CK50" s="56"/>
+      <c r="CB50" s="38"/>
+      <c r="CC50" s="40"/>
+      <c r="CD50" s="40"/>
+      <c r="CE50" s="40"/>
+      <c r="CF50" s="40"/>
+      <c r="CG50" s="40"/>
+      <c r="CH50" s="37"/>
+      <c r="CI50" s="76"/>
+      <c r="CJ50" s="76"/>
+      <c r="CK50" s="76"/>
       <c r="CL50" s="4"/>
       <c r="CM50" s="5"/>
     </row>
-    <row r="51" spans="35:115" ht="18.75" customHeight="1">
+    <row r="51" spans="35:115" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI51" s="52"/>
       <c r="AJ51" s="6"/>
       <c r="AK51" s="63"/>
@@ -20628,21 +21539,23 @@
       <c r="AN51" s="78"/>
       <c r="AO51" s="53"/>
       <c r="AP51" s="69"/>
-      <c r="AQ51" s="73"/>
-      <c r="AR51" s="4"/>
+      <c r="AQ51" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR51" s="74"/>
       <c r="AS51" s="4"/>
-      <c r="AT51" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU51" s="4"/>
-      <c r="AV51" s="4"/>
-      <c r="AW51" s="4"/>
-      <c r="AX51" s="4"/>
-      <c r="AY51" s="4"/>
-      <c r="AZ51" s="4"/>
-      <c r="BA51" s="4"/>
-      <c r="BB51" s="4"/>
-      <c r="BC51" s="35"/>
+      <c r="AT51" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU51" s="21"/>
+      <c r="AV51" s="21"/>
+      <c r="AW51" s="21"/>
+      <c r="AX51" s="21"/>
+      <c r="AY51" s="21"/>
+      <c r="AZ51" s="21"/>
+      <c r="BA51" s="21"/>
+      <c r="BB51" s="21"/>
+      <c r="BC51" s="7"/>
       <c r="BD51" s="4"/>
       <c r="BE51" s="5"/>
       <c r="BQ51" s="52"/>
@@ -20653,25 +21566,27 @@
       <c r="BV51" s="78"/>
       <c r="BW51" s="53"/>
       <c r="BX51" s="69"/>
-      <c r="BY51" s="73"/>
-      <c r="BZ51" s="4"/>
+      <c r="BY51" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ51" s="74"/>
       <c r="CA51" s="4"/>
-      <c r="CB51" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC51" s="4"/>
-      <c r="CD51" s="4"/>
-      <c r="CE51" s="4"/>
-      <c r="CF51" s="4"/>
-      <c r="CG51" s="4"/>
-      <c r="CH51" s="4"/>
-      <c r="CI51" s="4"/>
-      <c r="CJ51" s="4"/>
-      <c r="CK51" s="35"/>
+      <c r="CB51" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="CC51" s="21"/>
+      <c r="CD51" s="21"/>
+      <c r="CE51" s="21"/>
+      <c r="CF51" s="21"/>
+      <c r="CG51" s="21"/>
+      <c r="CH51" s="21"/>
+      <c r="CI51" s="21"/>
+      <c r="CJ51" s="21"/>
+      <c r="CK51" s="7"/>
       <c r="CL51" s="4"/>
       <c r="CM51" s="5"/>
     </row>
-    <row r="52" spans="35:115" ht="18.75" customHeight="1">
+    <row r="52" spans="35:115" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI52" s="52"/>
       <c r="AJ52" s="6"/>
       <c r="AK52" s="63"/>
@@ -20683,18 +21598,18 @@
       <c r="AQ52" s="73"/>
       <c r="AR52" s="4"/>
       <c r="AS52" s="4"/>
-      <c r="AT52" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU52" s="16"/>
-      <c r="AV52" s="16"/>
-      <c r="AW52" s="16"/>
-      <c r="AX52" s="16"/>
-      <c r="AY52" s="16"/>
-      <c r="AZ52" s="16"/>
-      <c r="BA52" s="16"/>
-      <c r="BB52" s="16"/>
-      <c r="BC52" s="7"/>
+      <c r="AT52" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU52" s="4"/>
+      <c r="AV52" s="4"/>
+      <c r="AW52" s="4"/>
+      <c r="AX52" s="4"/>
+      <c r="AY52" s="4"/>
+      <c r="AZ52" s="4"/>
+      <c r="BA52" s="4"/>
+      <c r="BB52" s="4"/>
+      <c r="BC52" s="56"/>
       <c r="BD52" s="4"/>
       <c r="BE52" s="5"/>
       <c r="BQ52" s="52"/>
@@ -20708,22 +21623,22 @@
       <c r="BY52" s="73"/>
       <c r="BZ52" s="4"/>
       <c r="CA52" s="4"/>
-      <c r="CB52" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="CC52" s="16"/>
-      <c r="CD52" s="16"/>
-      <c r="CE52" s="16"/>
-      <c r="CF52" s="16"/>
-      <c r="CG52" s="16"/>
-      <c r="CH52" s="16"/>
-      <c r="CI52" s="16"/>
-      <c r="CJ52" s="16"/>
-      <c r="CK52" s="7"/>
+      <c r="CB52" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="CC52" s="4"/>
+      <c r="CD52" s="4"/>
+      <c r="CE52" s="4"/>
+      <c r="CF52" s="4"/>
+      <c r="CG52" s="4"/>
+      <c r="CH52" s="4"/>
+      <c r="CI52" s="4"/>
+      <c r="CJ52" s="4"/>
+      <c r="CK52" s="56"/>
       <c r="CL52" s="4"/>
       <c r="CM52" s="5"/>
     </row>
-    <row r="53" spans="35:115" ht="18.75" customHeight="1">
+    <row r="53" spans="35:115" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI53" s="52"/>
       <c r="AJ53" s="6"/>
       <c r="AK53" s="63"/>
@@ -20735,16 +21650,18 @@
       <c r="AQ53" s="73"/>
       <c r="AR53" s="4"/>
       <c r="AS53" s="4"/>
-      <c r="AT53" s="21"/>
-      <c r="AU53" s="21"/>
-      <c r="AV53" s="21"/>
-      <c r="AW53" s="21"/>
-      <c r="AX53" s="21"/>
-      <c r="AY53" s="21"/>
-      <c r="AZ53" s="21"/>
-      <c r="BA53" s="21"/>
-      <c r="BB53" s="21"/>
-      <c r="BC53" s="21"/>
+      <c r="AT53" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU53" s="4"/>
+      <c r="AV53" s="4"/>
+      <c r="AW53" s="4"/>
+      <c r="AX53" s="4"/>
+      <c r="AY53" s="4"/>
+      <c r="AZ53" s="4"/>
+      <c r="BA53" s="4"/>
+      <c r="BB53" s="4"/>
+      <c r="BC53" s="35"/>
       <c r="BD53" s="4"/>
       <c r="BE53" s="5"/>
       <c r="BQ53" s="52"/>
@@ -20758,32 +21675,36 @@
       <c r="BY53" s="73"/>
       <c r="BZ53" s="4"/>
       <c r="CA53" s="4"/>
-      <c r="CB53" s="21"/>
-      <c r="CC53" s="21"/>
-      <c r="CD53" s="21"/>
-      <c r="CE53" s="21"/>
-      <c r="CF53" s="21"/>
-      <c r="CG53" s="21"/>
-      <c r="CH53" s="21"/>
-      <c r="CI53" s="21"/>
-      <c r="CJ53" s="21"/>
-      <c r="CK53" s="21"/>
+      <c r="CB53" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="CC53" s="4"/>
+      <c r="CD53" s="4"/>
+      <c r="CE53" s="4"/>
+      <c r="CF53" s="4"/>
+      <c r="CG53" s="4"/>
+      <c r="CH53" s="4"/>
+      <c r="CI53" s="4"/>
+      <c r="CJ53" s="4"/>
+      <c r="CK53" s="35"/>
       <c r="CL53" s="4"/>
       <c r="CM53" s="5"/>
     </row>
-    <row r="54" spans="35:115">
-      <c r="AI54" s="7"/>
-      <c r="AJ54" s="15"/>
-      <c r="AK54" s="64"/>
-      <c r="AL54" s="16"/>
-      <c r="AM54" s="16"/>
-      <c r="AN54" s="66"/>
-      <c r="AO54" s="54"/>
-      <c r="AP54" s="70"/>
-      <c r="AQ54" s="75"/>
-      <c r="AR54" s="16"/>
-      <c r="AS54" s="16"/>
-      <c r="AT54" s="16"/>
+    <row r="54" spans="35:115" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI54" s="52"/>
+      <c r="AJ54" s="6"/>
+      <c r="AK54" s="63"/>
+      <c r="AL54" s="4"/>
+      <c r="AM54" s="4"/>
+      <c r="AN54" s="78"/>
+      <c r="AO54" s="53"/>
+      <c r="AP54" s="69"/>
+      <c r="AQ54" s="73"/>
+      <c r="AR54" s="4"/>
+      <c r="AS54" s="4"/>
+      <c r="AT54" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="AU54" s="16"/>
       <c r="AV54" s="16"/>
       <c r="AW54" s="16"/>
@@ -20792,21 +21713,23 @@
       <c r="AZ54" s="16"/>
       <c r="BA54" s="16"/>
       <c r="BB54" s="16"/>
-      <c r="BC54" s="16"/>
-      <c r="BD54" s="16"/>
-      <c r="BE54" s="17"/>
-      <c r="BQ54" s="7"/>
-      <c r="BR54" s="15"/>
-      <c r="BS54" s="64"/>
-      <c r="BT54" s="16"/>
-      <c r="BU54" s="16"/>
-      <c r="BV54" s="66"/>
-      <c r="BW54" s="54"/>
-      <c r="BX54" s="70"/>
-      <c r="BY54" s="75"/>
-      <c r="BZ54" s="16"/>
-      <c r="CA54" s="16"/>
-      <c r="CB54" s="16"/>
+      <c r="BC54" s="7"/>
+      <c r="BD54" s="4"/>
+      <c r="BE54" s="5"/>
+      <c r="BQ54" s="52"/>
+      <c r="BR54" s="6"/>
+      <c r="BS54" s="63"/>
+      <c r="BT54" s="4"/>
+      <c r="BU54" s="4"/>
+      <c r="BV54" s="78"/>
+      <c r="BW54" s="53"/>
+      <c r="BX54" s="69"/>
+      <c r="BY54" s="73"/>
+      <c r="BZ54" s="4"/>
+      <c r="CA54" s="4"/>
+      <c r="CB54" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="CC54" s="16"/>
       <c r="CD54" s="16"/>
       <c r="CE54" s="16"/>
@@ -20815,22 +21738,22 @@
       <c r="CH54" s="16"/>
       <c r="CI54" s="16"/>
       <c r="CJ54" s="16"/>
-      <c r="CK54" s="16"/>
-      <c r="CL54" s="16"/>
-      <c r="CM54" s="17"/>
-    </row>
-    <row r="55" spans="35:115">
-      <c r="AI55" s="20"/>
-      <c r="AJ55" s="21"/>
-      <c r="AK55" s="21"/>
-      <c r="AL55" s="21"/>
-      <c r="AM55" s="21"/>
-      <c r="AN55" s="21"/>
-      <c r="AO55" s="21"/>
-      <c r="AP55" s="67"/>
-      <c r="AQ55" s="67"/>
-      <c r="AR55" s="21"/>
-      <c r="AS55" s="21"/>
+      <c r="CK54" s="7"/>
+      <c r="CL54" s="4"/>
+      <c r="CM54" s="5"/>
+    </row>
+    <row r="55" spans="35:115" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI55" s="52"/>
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="63"/>
+      <c r="AL55" s="4"/>
+      <c r="AM55" s="4"/>
+      <c r="AN55" s="78"/>
+      <c r="AO55" s="53"/>
+      <c r="AP55" s="69"/>
+      <c r="AQ55" s="73"/>
+      <c r="AR55" s="4"/>
+      <c r="AS55" s="4"/>
       <c r="AT55" s="21"/>
       <c r="AU55" s="21"/>
       <c r="AV55" s="21"/>
@@ -20841,19 +21764,19 @@
       <c r="BA55" s="21"/>
       <c r="BB55" s="21"/>
       <c r="BC55" s="21"/>
-      <c r="BD55" s="21"/>
-      <c r="BE55" s="28"/>
-      <c r="BQ55" s="20"/>
-      <c r="BR55" s="21"/>
-      <c r="BS55" s="21"/>
-      <c r="BT55" s="21"/>
-      <c r="BU55" s="21"/>
-      <c r="BV55" s="21"/>
-      <c r="BW55" s="21"/>
-      <c r="BX55" s="67"/>
-      <c r="BY55" s="67"/>
-      <c r="BZ55" s="21"/>
-      <c r="CA55" s="21"/>
+      <c r="BD55" s="4"/>
+      <c r="BE55" s="5"/>
+      <c r="BQ55" s="52"/>
+      <c r="BR55" s="6"/>
+      <c r="BS55" s="63"/>
+      <c r="BT55" s="4"/>
+      <c r="BU55" s="4"/>
+      <c r="BV55" s="78"/>
+      <c r="BW55" s="53"/>
+      <c r="BX55" s="69"/>
+      <c r="BY55" s="73"/>
+      <c r="BZ55" s="4"/>
+      <c r="CA55" s="4"/>
       <c r="CB55" s="21"/>
       <c r="CC55" s="21"/>
       <c r="CD55" s="21"/>
@@ -20864,19 +21787,19 @@
       <c r="CI55" s="21"/>
       <c r="CJ55" s="21"/>
       <c r="CK55" s="21"/>
-      <c r="CL55" s="21"/>
-      <c r="CM55" s="28"/>
-    </row>
-    <row r="56" spans="35:115" ht="16.5" customHeight="1">
-      <c r="AI56" s="15"/>
-      <c r="AJ56" s="16"/>
-      <c r="AK56" s="16"/>
+      <c r="CL55" s="4"/>
+      <c r="CM55" s="5"/>
+    </row>
+    <row r="56" spans="35:115" x14ac:dyDescent="0.15">
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="15"/>
+      <c r="AK56" s="64"/>
       <c r="AL56" s="16"/>
       <c r="AM56" s="16"/>
-      <c r="AN56" s="16"/>
-      <c r="AO56" s="16"/>
-      <c r="AP56" s="16"/>
-      <c r="AQ56" s="16"/>
+      <c r="AN56" s="66"/>
+      <c r="AO56" s="54"/>
+      <c r="AP56" s="70"/>
+      <c r="AQ56" s="75"/>
       <c r="AR56" s="16"/>
       <c r="AS56" s="16"/>
       <c r="AT56" s="16"/>
@@ -20891,15 +21814,15 @@
       <c r="BC56" s="16"/>
       <c r="BD56" s="16"/>
       <c r="BE56" s="17"/>
-      <c r="BQ56" s="15"/>
-      <c r="BR56" s="16"/>
-      <c r="BS56" s="16"/>
+      <c r="BQ56" s="7"/>
+      <c r="BR56" s="15"/>
+      <c r="BS56" s="64"/>
       <c r="BT56" s="16"/>
       <c r="BU56" s="16"/>
-      <c r="BV56" s="16"/>
-      <c r="BW56" s="16"/>
-      <c r="BX56" s="16"/>
-      <c r="BY56" s="16"/>
+      <c r="BV56" s="66"/>
+      <c r="BW56" s="54"/>
+      <c r="BX56" s="70"/>
+      <c r="BY56" s="75"/>
       <c r="BZ56" s="16"/>
       <c r="CA56" s="16"/>
       <c r="CB56" s="16"/>
@@ -20915,87 +21838,136 @@
       <c r="CL56" s="16"/>
       <c r="CM56" s="17"/>
     </row>
-    <row r="57" spans="35:115">
-      <c r="CQ57" s="20"/>
-      <c r="CR57" s="21"/>
-      <c r="CS57" s="21"/>
-      <c r="CT57" s="21"/>
-      <c r="CU57" s="21"/>
-      <c r="CV57" s="21"/>
-      <c r="CW57" s="21"/>
-      <c r="CX57" s="21"/>
-      <c r="CY57" s="21"/>
-      <c r="CZ57" s="21"/>
-      <c r="DA57" s="21"/>
-      <c r="DB57" s="21"/>
-      <c r="DC57" s="21"/>
-      <c r="DD57" s="21"/>
-      <c r="DE57" s="21"/>
-      <c r="DF57" s="21"/>
-      <c r="DG57" s="21"/>
-      <c r="DH57" s="21"/>
-      <c r="DI57" s="21"/>
-      <c r="DJ57" s="21"/>
-      <c r="DK57" s="28"/>
-    </row>
-    <row r="58" spans="35:115">
-      <c r="CQ58" s="6"/>
-      <c r="CR58" s="4" t="s">
+    <row r="57" spans="35:115" x14ac:dyDescent="0.15">
+      <c r="AI57" s="20"/>
+      <c r="AJ57" s="21"/>
+      <c r="AK57" s="21"/>
+      <c r="AL57" s="21"/>
+      <c r="AM57" s="21"/>
+      <c r="AN57" s="21"/>
+      <c r="AO57" s="21"/>
+      <c r="AP57" s="67"/>
+      <c r="AQ57" s="67"/>
+      <c r="AR57" s="21"/>
+      <c r="AS57" s="21"/>
+      <c r="AT57" s="21"/>
+      <c r="AU57" s="21"/>
+      <c r="AV57" s="21"/>
+      <c r="AW57" s="21"/>
+      <c r="AX57" s="21"/>
+      <c r="AY57" s="21"/>
+      <c r="AZ57" s="21"/>
+      <c r="BA57" s="21"/>
+      <c r="BB57" s="21"/>
+      <c r="BC57" s="21"/>
+      <c r="BD57" s="21"/>
+      <c r="BE57" s="28"/>
+      <c r="BQ57" s="20"/>
+      <c r="BR57" s="21"/>
+      <c r="BS57" s="21"/>
+      <c r="BT57" s="21"/>
+      <c r="BU57" s="21"/>
+      <c r="BV57" s="21"/>
+      <c r="BW57" s="21"/>
+      <c r="BX57" s="67"/>
+      <c r="BY57" s="67"/>
+      <c r="BZ57" s="21"/>
+      <c r="CA57" s="21"/>
+      <c r="CB57" s="21"/>
+      <c r="CC57" s="21"/>
+      <c r="CD57" s="21"/>
+      <c r="CE57" s="21"/>
+      <c r="CF57" s="21"/>
+      <c r="CG57" s="21"/>
+      <c r="CH57" s="21"/>
+      <c r="CI57" s="21"/>
+      <c r="CJ57" s="21"/>
+      <c r="CK57" s="21"/>
+      <c r="CL57" s="21"/>
+      <c r="CM57" s="28"/>
+    </row>
+    <row r="58" spans="35:115" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI58" s="15"/>
+      <c r="AJ58" s="16"/>
+      <c r="AK58" s="16"/>
+      <c r="AL58" s="16"/>
+      <c r="AM58" s="16"/>
+      <c r="AN58" s="16"/>
+      <c r="AO58" s="16"/>
+      <c r="AP58" s="16"/>
+      <c r="AQ58" s="16"/>
+      <c r="AR58" s="16"/>
+      <c r="AS58" s="16"/>
+      <c r="AT58" s="16"/>
+      <c r="AU58" s="16"/>
+      <c r="AV58" s="16"/>
+      <c r="AW58" s="16"/>
+      <c r="AX58" s="16"/>
+      <c r="AY58" s="16"/>
+      <c r="AZ58" s="16"/>
+      <c r="BA58" s="16"/>
+      <c r="BB58" s="16"/>
+      <c r="BC58" s="16"/>
+      <c r="BD58" s="16"/>
+      <c r="BE58" s="17"/>
+      <c r="BQ58" s="15"/>
+      <c r="BR58" s="16"/>
+      <c r="BS58" s="16"/>
+      <c r="BT58" s="16"/>
+      <c r="BU58" s="16"/>
+      <c r="BV58" s="16"/>
+      <c r="BW58" s="16"/>
+      <c r="BX58" s="16"/>
+      <c r="BY58" s="16"/>
+      <c r="BZ58" s="16"/>
+      <c r="CA58" s="16"/>
+      <c r="CB58" s="16"/>
+      <c r="CC58" s="16"/>
+      <c r="CD58" s="16"/>
+      <c r="CE58" s="16"/>
+      <c r="CF58" s="16"/>
+      <c r="CG58" s="16"/>
+      <c r="CH58" s="16"/>
+      <c r="CI58" s="16"/>
+      <c r="CJ58" s="16"/>
+      <c r="CK58" s="16"/>
+      <c r="CL58" s="16"/>
+      <c r="CM58" s="17"/>
+    </row>
+    <row r="59" spans="35:115" x14ac:dyDescent="0.15">
+      <c r="CQ59" s="20"/>
+      <c r="CR59" s="21"/>
+      <c r="CS59" s="21"/>
+      <c r="CT59" s="21"/>
+      <c r="CU59" s="21"/>
+      <c r="CV59" s="21"/>
+      <c r="CW59" s="21"/>
+      <c r="CX59" s="21"/>
+      <c r="CY59" s="21"/>
+      <c r="CZ59" s="21"/>
+      <c r="DA59" s="21"/>
+      <c r="DB59" s="21"/>
+      <c r="DC59" s="21"/>
+      <c r="DD59" s="21"/>
+      <c r="DE59" s="21"/>
+      <c r="DF59" s="21"/>
+      <c r="DG59" s="21"/>
+      <c r="DH59" s="21"/>
+      <c r="DI59" s="21"/>
+      <c r="DJ59" s="21"/>
+      <c r="DK59" s="28"/>
+    </row>
+    <row r="60" spans="35:115" x14ac:dyDescent="0.15">
+      <c r="CQ60" s="6"/>
+      <c r="CR60" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="CT58" s="4"/>
-      <c r="CU58" s="4"/>
-      <c r="CV58" s="4"/>
-      <c r="CW58" s="4"/>
-      <c r="CX58" s="4"/>
-      <c r="CY58" s="4"/>
-      <c r="CZ58" s="4"/>
-      <c r="DA58" s="4"/>
-      <c r="DB58" s="4"/>
-      <c r="DC58" s="4"/>
-      <c r="DD58" s="4"/>
-      <c r="DE58" s="4"/>
-      <c r="DF58" s="4"/>
-      <c r="DG58" s="4"/>
-      <c r="DH58" s="4"/>
-      <c r="DI58" s="4"/>
-      <c r="DJ58" s="4"/>
-      <c r="DK58" s="5"/>
-    </row>
-    <row r="59" spans="35:115">
-      <c r="CQ59" s="6"/>
-      <c r="CR59" s="4"/>
-      <c r="CT59" s="4"/>
-      <c r="CU59" s="4"/>
-      <c r="CV59" s="4"/>
-      <c r="CW59" s="4"/>
-      <c r="CX59" s="4"/>
-      <c r="CY59" s="4"/>
-      <c r="CZ59" s="4"/>
-      <c r="DA59" s="4"/>
-      <c r="DB59" s="4"/>
-      <c r="DC59" s="4"/>
-      <c r="DD59" s="4"/>
-      <c r="DE59" s="4"/>
-      <c r="DF59" s="4"/>
-      <c r="DG59" s="4"/>
-      <c r="DH59" s="4"/>
-      <c r="DI59" s="4"/>
-      <c r="DJ59" s="4"/>
-      <c r="DK59" s="5"/>
-    </row>
-    <row r="60" spans="35:115">
-      <c r="CQ60" s="6"/>
-      <c r="CR60" s="96" t="s">
-        <v>189</v>
-      </c>
-      <c r="CS60" s="97"/>
-      <c r="CT60" s="98"/>
-      <c r="CU60" s="98"/>
-      <c r="CV60" s="98"/>
-      <c r="CW60" s="98"/>
-      <c r="CX60" s="98"/>
-      <c r="CY60" s="98"/>
+      <c r="CT60" s="4"/>
+      <c r="CU60" s="4"/>
+      <c r="CV60" s="4"/>
+      <c r="CW60" s="4"/>
+      <c r="CX60" s="4"/>
+      <c r="CY60" s="4"/>
       <c r="CZ60" s="4"/>
       <c r="DA60" s="4"/>
       <c r="DB60" s="4"/>
@@ -21009,16 +21981,15 @@
       <c r="DJ60" s="4"/>
       <c r="DK60" s="5"/>
     </row>
-    <row r="61" spans="35:115">
+    <row r="61" spans="35:115" x14ac:dyDescent="0.15">
       <c r="CQ61" s="6"/>
-      <c r="CR61" s="98"/>
-      <c r="CS61" s="97"/>
-      <c r="CT61" s="98"/>
-      <c r="CU61" s="98"/>
-      <c r="CV61" s="98"/>
-      <c r="CW61" s="98"/>
-      <c r="CX61" s="98"/>
-      <c r="CY61" s="98"/>
+      <c r="CR61" s="4"/>
+      <c r="CT61" s="4"/>
+      <c r="CU61" s="4"/>
+      <c r="CV61" s="4"/>
+      <c r="CW61" s="4"/>
+      <c r="CX61" s="4"/>
+      <c r="CY61" s="4"/>
       <c r="CZ61" s="4"/>
       <c r="DA61" s="4"/>
       <c r="DB61" s="4"/>
@@ -21032,18 +22003,18 @@
       <c r="DJ61" s="4"/>
       <c r="DK61" s="5"/>
     </row>
-    <row r="62" spans="35:115">
+    <row r="62" spans="35:115" x14ac:dyDescent="0.15">
       <c r="CQ62" s="6"/>
-      <c r="CR62" s="98" t="s">
-        <v>190</v>
-      </c>
-      <c r="CS62" s="97"/>
-      <c r="CT62" s="98"/>
-      <c r="CU62" s="98"/>
-      <c r="CV62" s="98"/>
-      <c r="CW62" s="98"/>
-      <c r="CX62" s="98"/>
-      <c r="CY62" s="98"/>
+      <c r="CR62" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="CS62" s="94"/>
+      <c r="CT62" s="95"/>
+      <c r="CU62" s="95"/>
+      <c r="CV62" s="95"/>
+      <c r="CW62" s="95"/>
+      <c r="CX62" s="95"/>
+      <c r="CY62" s="95"/>
       <c r="CZ62" s="4"/>
       <c r="DA62" s="4"/>
       <c r="DB62" s="4"/>
@@ -21057,15 +22028,16 @@
       <c r="DJ62" s="4"/>
       <c r="DK62" s="5"/>
     </row>
-    <row r="63" spans="35:115">
+    <row r="63" spans="35:115" x14ac:dyDescent="0.15">
       <c r="CQ63" s="6"/>
-      <c r="CR63" s="4"/>
-      <c r="CT63" s="4"/>
-      <c r="CU63" s="4"/>
-      <c r="CV63" s="4"/>
-      <c r="CW63" s="4"/>
-      <c r="CX63" s="4"/>
-      <c r="CY63" s="4"/>
+      <c r="CR63" s="93"/>
+      <c r="CS63" s="94"/>
+      <c r="CT63" s="95"/>
+      <c r="CU63" s="95"/>
+      <c r="CV63" s="95"/>
+      <c r="CW63" s="95"/>
+      <c r="CX63" s="95"/>
+      <c r="CY63" s="95"/>
       <c r="CZ63" s="4"/>
       <c r="DA63" s="4"/>
       <c r="DB63" s="4"/>
@@ -21079,17 +22051,18 @@
       <c r="DJ63" s="4"/>
       <c r="DK63" s="5"/>
     </row>
-    <row r="64" spans="35:115">
+    <row r="64" spans="35:115" x14ac:dyDescent="0.15">
       <c r="CQ64" s="6"/>
-      <c r="CR64" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="CT64" s="4"/>
-      <c r="CU64" s="4"/>
-      <c r="CV64" s="4"/>
-      <c r="CW64" s="4"/>
-      <c r="CX64" s="4"/>
-      <c r="CY64" s="4"/>
+      <c r="CR64" s="93"/>
+      <c r="CS64" s="107" t="s">
+        <v>199</v>
+      </c>
+      <c r="CT64" s="95"/>
+      <c r="CU64" s="95"/>
+      <c r="CV64" s="95"/>
+      <c r="CW64" s="95"/>
+      <c r="CX64" s="95"/>
+      <c r="CY64" s="95"/>
       <c r="CZ64" s="4"/>
       <c r="DA64" s="4"/>
       <c r="DB64" s="4"/>
@@ -21103,16 +22076,16 @@
       <c r="DJ64" s="4"/>
       <c r="DK64" s="5"/>
     </row>
-    <row r="65" spans="95:115">
+    <row r="65" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ65" s="6"/>
-      <c r="CR65" s="4"/>
-      <c r="CS65" s="4"/>
-      <c r="CT65" s="4"/>
-      <c r="CU65" s="4"/>
-      <c r="CV65" s="4"/>
-      <c r="CW65" s="4"/>
-      <c r="CX65" s="4"/>
-      <c r="CY65" s="4"/>
+      <c r="CR65" s="95"/>
+      <c r="CS65" s="94"/>
+      <c r="CT65" s="95"/>
+      <c r="CU65" s="95"/>
+      <c r="CV65" s="95"/>
+      <c r="CW65" s="95"/>
+      <c r="CX65" s="95"/>
+      <c r="CY65" s="95"/>
       <c r="CZ65" s="4"/>
       <c r="DA65" s="4"/>
       <c r="DB65" s="4"/>
@@ -21126,18 +22099,18 @@
       <c r="DJ65" s="4"/>
       <c r="DK65" s="5"/>
     </row>
-    <row r="66" spans="95:115">
+    <row r="66" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ66" s="6"/>
-      <c r="CR66" s="4"/>
-      <c r="CS66" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CT66" s="4"/>
-      <c r="CU66" s="4"/>
-      <c r="CV66" s="4"/>
-      <c r="CW66" s="4"/>
-      <c r="CX66" s="4"/>
-      <c r="CY66" s="4"/>
+      <c r="CR66" s="95" t="s">
+        <v>188</v>
+      </c>
+      <c r="CS66" s="94"/>
+      <c r="CT66" s="95"/>
+      <c r="CU66" s="95"/>
+      <c r="CV66" s="95"/>
+      <c r="CW66" s="95"/>
+      <c r="CX66" s="95"/>
+      <c r="CY66" s="95"/>
       <c r="CZ66" s="4"/>
       <c r="DA66" s="4"/>
       <c r="DB66" s="4"/>
@@ -21151,10 +22124,9 @@
       <c r="DJ66" s="4"/>
       <c r="DK66" s="5"/>
     </row>
-    <row r="67" spans="95:115">
+    <row r="67" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ67" s="6"/>
       <c r="CR67" s="4"/>
-      <c r="CS67" s="4"/>
       <c r="CT67" s="4"/>
       <c r="CU67" s="4"/>
       <c r="CV67" s="4"/>
@@ -21174,65 +22146,58 @@
       <c r="DJ67" s="4"/>
       <c r="DK67" s="5"/>
     </row>
-    <row r="68" spans="95:115">
+    <row r="68" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ68" s="6"/>
-      <c r="CR68" s="5"/>
-      <c r="CS68" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="CT68" s="58"/>
-      <c r="CU68" s="58"/>
-      <c r="CV68" s="58"/>
-      <c r="CW68" s="58"/>
-      <c r="CX68" s="58"/>
-      <c r="CY68" s="58"/>
-      <c r="CZ68" s="59"/>
+      <c r="CR68" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="CT68" s="4"/>
+      <c r="CU68" s="4"/>
+      <c r="CV68" s="4"/>
+      <c r="CW68" s="4"/>
+      <c r="CX68" s="4"/>
+      <c r="CY68" s="4"/>
+      <c r="CZ68" s="4"/>
       <c r="DA68" s="4"/>
       <c r="DB68" s="4"/>
-      <c r="DC68" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="DD68" s="58"/>
-      <c r="DE68" s="58"/>
-      <c r="DF68" s="58"/>
-      <c r="DG68" s="58"/>
-      <c r="DH68" s="58"/>
-      <c r="DI68" s="58"/>
-      <c r="DJ68" s="59"/>
+      <c r="DC68" s="4"/>
+      <c r="DD68" s="4"/>
+      <c r="DE68" s="4"/>
+      <c r="DF68" s="4"/>
+      <c r="DG68" s="4"/>
+      <c r="DH68" s="4"/>
+      <c r="DI68" s="4"/>
+      <c r="DJ68" s="4"/>
       <c r="DK68" s="5"/>
     </row>
-    <row r="69" spans="95:115">
+    <row r="69" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ69" s="6"/>
-      <c r="CR69" s="5"/>
-      <c r="CS69" s="82" t="s">
-        <v>132</v>
-      </c>
-      <c r="CT69" s="21"/>
-      <c r="CU69" s="21"/>
-      <c r="CV69" s="21"/>
-      <c r="CW69" s="21"/>
-      <c r="CX69" s="21"/>
-      <c r="CY69" s="21"/>
-      <c r="CZ69" s="28"/>
-      <c r="DA69" s="20"/>
-      <c r="DB69" s="28"/>
-      <c r="DC69" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="DD69" s="21"/>
-      <c r="DE69" s="21"/>
-      <c r="DF69" s="21"/>
-      <c r="DG69" s="21"/>
-      <c r="DH69" s="21"/>
-      <c r="DI69" s="21"/>
-      <c r="DJ69" s="28"/>
+      <c r="CR69" s="4"/>
+      <c r="CS69" s="4"/>
+      <c r="CT69" s="4"/>
+      <c r="CU69" s="4"/>
+      <c r="CV69" s="4"/>
+      <c r="CW69" s="4"/>
+      <c r="CX69" s="4"/>
+      <c r="CY69" s="4"/>
+      <c r="CZ69" s="4"/>
+      <c r="DA69" s="4"/>
+      <c r="DB69" s="4"/>
+      <c r="DC69" s="4"/>
+      <c r="DD69" s="4"/>
+      <c r="DE69" s="4"/>
+      <c r="DF69" s="4"/>
+      <c r="DG69" s="4"/>
+      <c r="DH69" s="4"/>
+      <c r="DI69" s="4"/>
+      <c r="DJ69" s="4"/>
       <c r="DK69" s="5"/>
     </row>
-    <row r="70" spans="95:115">
+    <row r="70" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ70" s="6"/>
-      <c r="CR70" s="5"/>
-      <c r="CS70" s="83" t="s">
-        <v>133</v>
+      <c r="CR70" s="4"/>
+      <c r="CS70" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="CT70" s="4"/>
       <c r="CU70" s="4"/>
@@ -21240,101 +22205,101 @@
       <c r="CW70" s="4"/>
       <c r="CX70" s="4"/>
       <c r="CY70" s="4"/>
-      <c r="CZ70" s="5"/>
-      <c r="DA70" s="6"/>
-      <c r="DB70" s="5"/>
-      <c r="DC70" s="83" t="s">
-        <v>130</v>
-      </c>
+      <c r="CZ70" s="4"/>
+      <c r="DA70" s="4"/>
+      <c r="DB70" s="4"/>
+      <c r="DC70" s="4"/>
       <c r="DD70" s="4"/>
       <c r="DE70" s="4"/>
       <c r="DF70" s="4"/>
       <c r="DG70" s="4"/>
       <c r="DH70" s="4"/>
       <c r="DI70" s="4"/>
-      <c r="DJ70" s="5"/>
+      <c r="DJ70" s="4"/>
       <c r="DK70" s="5"/>
     </row>
-    <row r="71" spans="95:115">
+    <row r="71" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ71" s="6"/>
-      <c r="CR71" s="5"/>
-      <c r="CS71" s="83" t="s">
-        <v>130</v>
-      </c>
+      <c r="CR71" s="4"/>
+      <c r="CS71" s="4"/>
       <c r="CT71" s="4"/>
       <c r="CU71" s="4"/>
       <c r="CV71" s="4"/>
       <c r="CW71" s="4"/>
       <c r="CX71" s="4"/>
       <c r="CY71" s="4"/>
-      <c r="CZ71" s="5"/>
-      <c r="DA71" s="6"/>
-      <c r="DB71" s="5"/>
-      <c r="DC71" s="6"/>
+      <c r="CZ71" s="4"/>
+      <c r="DA71" s="4"/>
+      <c r="DB71" s="4"/>
+      <c r="DC71" s="4"/>
       <c r="DD71" s="4"/>
       <c r="DE71" s="4"/>
       <c r="DF71" s="4"/>
       <c r="DG71" s="4"/>
       <c r="DH71" s="4"/>
       <c r="DI71" s="4"/>
-      <c r="DJ71" s="5"/>
+      <c r="DJ71" s="4"/>
       <c r="DK71" s="5"/>
     </row>
-    <row r="72" spans="95:115">
+    <row r="72" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ72" s="6"/>
       <c r="CR72" s="5"/>
-      <c r="CS72" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="CT72" s="4"/>
-      <c r="CU72" s="4"/>
-      <c r="CV72" s="4"/>
-      <c r="CW72" s="4"/>
-      <c r="CX72" s="4"/>
-      <c r="CY72" s="4"/>
-      <c r="CZ72" s="5"/>
-      <c r="DA72" s="6"/>
-      <c r="DB72" s="5"/>
-      <c r="DC72" s="6"/>
-      <c r="DD72" s="4"/>
-      <c r="DE72" s="4"/>
-      <c r="DF72" s="4"/>
-      <c r="DG72" s="4"/>
-      <c r="DH72" s="4"/>
-      <c r="DI72" s="4"/>
-      <c r="DJ72" s="5"/>
+      <c r="CS72" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="CT72" s="58"/>
+      <c r="CU72" s="58"/>
+      <c r="CV72" s="58"/>
+      <c r="CW72" s="58"/>
+      <c r="CX72" s="58"/>
+      <c r="CY72" s="58"/>
+      <c r="CZ72" s="59"/>
+      <c r="DA72" s="4"/>
+      <c r="DB72" s="4"/>
+      <c r="DC72" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="DD72" s="58"/>
+      <c r="DE72" s="58"/>
+      <c r="DF72" s="58"/>
+      <c r="DG72" s="58"/>
+      <c r="DH72" s="58"/>
+      <c r="DI72" s="58"/>
+      <c r="DJ72" s="59"/>
       <c r="DK72" s="5"/>
     </row>
-    <row r="73" spans="95:115">
+    <row r="73" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ73" s="6"/>
       <c r="CR73" s="5"/>
-      <c r="CS73" s="83" t="s">
-        <v>134</v>
-      </c>
-      <c r="CT73" s="4"/>
-      <c r="CU73" s="4"/>
-      <c r="CV73" s="4"/>
-      <c r="CW73" s="4"/>
-      <c r="CX73" s="4"/>
-      <c r="CY73" s="4"/>
-      <c r="CZ73" s="5"/>
-      <c r="DA73" s="6"/>
-      <c r="DB73" s="5"/>
-      <c r="DC73" s="6"/>
-      <c r="DD73" s="4"/>
-      <c r="DE73" s="4"/>
-      <c r="DF73" s="4"/>
-      <c r="DG73" s="4"/>
-      <c r="DH73" s="4"/>
-      <c r="DI73" s="4"/>
-      <c r="DJ73" s="5"/>
+      <c r="CS73" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="CT73" s="21"/>
+      <c r="CU73" s="21"/>
+      <c r="CV73" s="21"/>
+      <c r="CW73" s="21"/>
+      <c r="CX73" s="21"/>
+      <c r="CY73" s="21"/>
+      <c r="CZ73" s="28"/>
+      <c r="DA73" s="20"/>
+      <c r="DB73" s="28"/>
+      <c r="DC73" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="DD73" s="21"/>
+      <c r="DE73" s="21"/>
+      <c r="DF73" s="21"/>
+      <c r="DG73" s="21"/>
+      <c r="DH73" s="21"/>
+      <c r="DI73" s="21"/>
+      <c r="DJ73" s="28"/>
       <c r="DK73" s="5"/>
     </row>
-    <row r="74" spans="95:115">
+    <row r="74" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ74" s="6"/>
       <c r="CR74" s="5"/>
-      <c r="CS74" s="79" t="s">
-        <v>131</v>
+      <c r="CS74" s="83" t="s">
+        <v>133</v>
       </c>
       <c r="CT74" s="4"/>
       <c r="CU74" s="4"/>
@@ -21345,7 +22310,9 @@
       <c r="CZ74" s="5"/>
       <c r="DA74" s="6"/>
       <c r="DB74" s="5"/>
-      <c r="DC74" s="6"/>
+      <c r="DC74" s="83" t="s">
+        <v>130</v>
+      </c>
       <c r="DD74" s="4"/>
       <c r="DE74" s="4"/>
       <c r="DF74" s="4"/>
@@ -21355,10 +22322,12 @@
       <c r="DJ74" s="5"/>
       <c r="DK74" s="5"/>
     </row>
-    <row r="75" spans="95:115">
+    <row r="75" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ75" s="6"/>
       <c r="CR75" s="5"/>
-      <c r="CS75" s="6"/>
+      <c r="CS75" s="83" t="s">
+        <v>130</v>
+      </c>
       <c r="CT75" s="4"/>
       <c r="CU75" s="4"/>
       <c r="CV75" s="4"/>
@@ -21378,10 +22347,12 @@
       <c r="DJ75" s="5"/>
       <c r="DK75" s="5"/>
     </row>
-    <row r="76" spans="95:115">
+    <row r="76" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ76" s="6"/>
       <c r="CR76" s="5"/>
-      <c r="CS76" s="6"/>
+      <c r="CS76" s="83" t="s">
+        <v>135</v>
+      </c>
       <c r="CT76" s="4"/>
       <c r="CU76" s="4"/>
       <c r="CV76" s="4"/>
@@ -21401,190 +22372,214 @@
       <c r="DJ76" s="5"/>
       <c r="DK76" s="5"/>
     </row>
-    <row r="77" spans="95:115">
+    <row r="77" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ77" s="6"/>
       <c r="CR77" s="5"/>
-      <c r="CS77" s="15"/>
-      <c r="CT77" s="16"/>
-      <c r="CU77" s="16"/>
-      <c r="CV77" s="16"/>
-      <c r="CW77" s="16"/>
-      <c r="CX77" s="16"/>
-      <c r="CY77" s="16"/>
-      <c r="CZ77" s="17"/>
-      <c r="DA77" s="15"/>
-      <c r="DB77" s="17"/>
-      <c r="DC77" s="15"/>
-      <c r="DD77" s="16"/>
-      <c r="DE77" s="16"/>
-      <c r="DF77" s="16"/>
-      <c r="DG77" s="16"/>
-      <c r="DH77" s="16"/>
-      <c r="DI77" s="16"/>
-      <c r="DJ77" s="17"/>
+      <c r="CS77" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="CT77" s="4"/>
+      <c r="CU77" s="4"/>
+      <c r="CV77" s="4"/>
+      <c r="CW77" s="4"/>
+      <c r="CX77" s="4"/>
+      <c r="CY77" s="4"/>
+      <c r="CZ77" s="5"/>
+      <c r="DA77" s="6"/>
+      <c r="DB77" s="5"/>
+      <c r="DC77" s="6"/>
+      <c r="DD77" s="4"/>
+      <c r="DE77" s="4"/>
+      <c r="DF77" s="4"/>
+      <c r="DG77" s="4"/>
+      <c r="DH77" s="4"/>
+      <c r="DI77" s="4"/>
+      <c r="DJ77" s="5"/>
       <c r="DK77" s="5"/>
     </row>
-    <row r="78" spans="95:115">
+    <row r="78" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ78" s="6"/>
-      <c r="CR78" s="4"/>
-      <c r="CS78" s="4"/>
+      <c r="CR78" s="5"/>
+      <c r="CS78" s="79" t="s">
+        <v>131</v>
+      </c>
       <c r="CT78" s="4"/>
       <c r="CU78" s="4"/>
       <c r="CV78" s="4"/>
       <c r="CW78" s="4"/>
       <c r="CX78" s="4"/>
       <c r="CY78" s="4"/>
-      <c r="CZ78" s="4"/>
-      <c r="DA78" s="4"/>
-      <c r="DB78" s="4"/>
-      <c r="DC78" s="4"/>
+      <c r="CZ78" s="5"/>
+      <c r="DA78" s="6"/>
+      <c r="DB78" s="5"/>
+      <c r="DC78" s="6"/>
       <c r="DD78" s="4"/>
       <c r="DE78" s="4"/>
       <c r="DF78" s="4"/>
       <c r="DG78" s="4"/>
       <c r="DH78" s="4"/>
       <c r="DI78" s="4"/>
-      <c r="DJ78" s="4"/>
+      <c r="DJ78" s="5"/>
       <c r="DK78" s="5"/>
     </row>
-    <row r="79" spans="95:115">
+    <row r="79" spans="95:115" x14ac:dyDescent="0.15">
       <c r="CQ79" s="6"/>
-      <c r="CR79" s="4"/>
-      <c r="CS79" s="4"/>
+      <c r="CR79" s="5"/>
+      <c r="CS79" s="6"/>
       <c r="CT79" s="4"/>
       <c r="CU79" s="4"/>
       <c r="CV79" s="4"/>
       <c r="CW79" s="4"/>
       <c r="CX79" s="4"/>
       <c r="CY79" s="4"/>
-      <c r="CZ79" s="4"/>
-      <c r="DA79" s="4"/>
-      <c r="DB79" s="4"/>
-      <c r="DC79" s="4"/>
+      <c r="CZ79" s="5"/>
+      <c r="DA79" s="6"/>
+      <c r="DB79" s="5"/>
+      <c r="DC79" s="6"/>
       <c r="DD79" s="4"/>
       <c r="DE79" s="4"/>
       <c r="DF79" s="4"/>
       <c r="DG79" s="4"/>
       <c r="DH79" s="4"/>
       <c r="DI79" s="4"/>
-      <c r="DJ79" s="4"/>
+      <c r="DJ79" s="5"/>
       <c r="DK79" s="5"/>
     </row>
-    <row r="80" spans="95:115">
-      <c r="CQ80" s="15"/>
-      <c r="CR80" s="16"/>
-      <c r="CS80" s="16"/>
-      <c r="CT80" s="16"/>
-      <c r="CU80" s="16"/>
-      <c r="CV80" s="16"/>
-      <c r="CW80" s="16"/>
-      <c r="CX80" s="16"/>
-      <c r="CY80" s="16"/>
-      <c r="CZ80" s="16"/>
-      <c r="DA80" s="16"/>
-      <c r="DB80" s="16"/>
-      <c r="DC80" s="16"/>
-      <c r="DD80" s="16"/>
-      <c r="DE80" s="16"/>
-      <c r="DF80" s="16"/>
-      <c r="DG80" s="16"/>
-      <c r="DH80" s="16"/>
-      <c r="DI80" s="16"/>
-      <c r="DJ80" s="16"/>
-      <c r="DK80" s="17"/>
-    </row>
-    <row r="88" spans="120:134">
-      <c r="DP88" s="89"/>
-      <c r="DQ88" s="90" t="s">
+    <row r="80" spans="95:115" x14ac:dyDescent="0.15">
+      <c r="CQ80" s="6"/>
+      <c r="CR80" s="5"/>
+      <c r="CS80" s="6"/>
+      <c r="CT80" s="4"/>
+      <c r="CU80" s="4"/>
+      <c r="CV80" s="4"/>
+      <c r="CW80" s="4"/>
+      <c r="CX80" s="4"/>
+      <c r="CY80" s="4"/>
+      <c r="CZ80" s="5"/>
+      <c r="DA80" s="6"/>
+      <c r="DB80" s="5"/>
+      <c r="DC80" s="6"/>
+      <c r="DD80" s="4"/>
+      <c r="DE80" s="4"/>
+      <c r="DF80" s="4"/>
+      <c r="DG80" s="4"/>
+      <c r="DH80" s="4"/>
+      <c r="DI80" s="4"/>
+      <c r="DJ80" s="5"/>
+      <c r="DK80" s="5"/>
+    </row>
+    <row r="81" spans="95:134" x14ac:dyDescent="0.15">
+      <c r="CQ81" s="6"/>
+      <c r="CR81" s="5"/>
+      <c r="CS81" s="15"/>
+      <c r="CT81" s="16"/>
+      <c r="CU81" s="16"/>
+      <c r="CV81" s="16"/>
+      <c r="CW81" s="16"/>
+      <c r="CX81" s="16"/>
+      <c r="CY81" s="16"/>
+      <c r="CZ81" s="17"/>
+      <c r="DA81" s="15"/>
+      <c r="DB81" s="17"/>
+      <c r="DC81" s="15"/>
+      <c r="DD81" s="16"/>
+      <c r="DE81" s="16"/>
+      <c r="DF81" s="16"/>
+      <c r="DG81" s="16"/>
+      <c r="DH81" s="16"/>
+      <c r="DI81" s="16"/>
+      <c r="DJ81" s="17"/>
+      <c r="DK81" s="5"/>
+    </row>
+    <row r="82" spans="95:134" x14ac:dyDescent="0.15">
+      <c r="CQ82" s="6"/>
+      <c r="CR82" s="4"/>
+      <c r="CS82" s="4"/>
+      <c r="CT82" s="4"/>
+      <c r="CU82" s="4"/>
+      <c r="CV82" s="4"/>
+      <c r="CW82" s="4"/>
+      <c r="CX82" s="4"/>
+      <c r="CY82" s="4"/>
+      <c r="CZ82" s="4"/>
+      <c r="DA82" s="4"/>
+      <c r="DB82" s="4"/>
+      <c r="DC82" s="4"/>
+      <c r="DD82" s="4"/>
+      <c r="DE82" s="4"/>
+      <c r="DF82" s="4"/>
+      <c r="DG82" s="4"/>
+      <c r="DH82" s="4"/>
+      <c r="DI82" s="4"/>
+      <c r="DJ82" s="4"/>
+      <c r="DK82" s="5"/>
+    </row>
+    <row r="83" spans="95:134" x14ac:dyDescent="0.15">
+      <c r="CQ83" s="6"/>
+      <c r="CR83" s="4"/>
+      <c r="CS83" s="4"/>
+      <c r="CT83" s="4"/>
+      <c r="CU83" s="4"/>
+      <c r="CV83" s="4"/>
+      <c r="CW83" s="4"/>
+      <c r="CX83" s="4"/>
+      <c r="CY83" s="4"/>
+      <c r="CZ83" s="4"/>
+      <c r="DA83" s="4"/>
+      <c r="DB83" s="4"/>
+      <c r="DC83" s="4"/>
+      <c r="DD83" s="4"/>
+      <c r="DE83" s="4"/>
+      <c r="DF83" s="4"/>
+      <c r="DG83" s="4"/>
+      <c r="DH83" s="4"/>
+      <c r="DI83" s="4"/>
+      <c r="DJ83" s="4"/>
+      <c r="DK83" s="5"/>
+    </row>
+    <row r="84" spans="95:134" x14ac:dyDescent="0.15">
+      <c r="CQ84" s="15"/>
+      <c r="CR84" s="16"/>
+      <c r="CS84" s="16"/>
+      <c r="CT84" s="16"/>
+      <c r="CU84" s="16"/>
+      <c r="CV84" s="16"/>
+      <c r="CW84" s="16"/>
+      <c r="CX84" s="16"/>
+      <c r="CY84" s="16"/>
+      <c r="CZ84" s="16"/>
+      <c r="DA84" s="16"/>
+      <c r="DB84" s="16"/>
+      <c r="DC84" s="16"/>
+      <c r="DD84" s="16"/>
+      <c r="DE84" s="16"/>
+      <c r="DF84" s="16"/>
+      <c r="DG84" s="16"/>
+      <c r="DH84" s="16"/>
+      <c r="DI84" s="16"/>
+      <c r="DJ84" s="16"/>
+      <c r="DK84" s="17"/>
+    </row>
+    <row r="92" spans="95:134" x14ac:dyDescent="0.15">
+      <c r="DP92" s="89"/>
+      <c r="DQ92" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="DR88" s="21"/>
-      <c r="DS88" s="21"/>
-      <c r="DT88" s="21"/>
-      <c r="DU88" s="21"/>
-      <c r="DV88" s="21"/>
-      <c r="DW88" s="21"/>
-      <c r="DX88" s="21"/>
-      <c r="DY88" s="21"/>
-      <c r="DZ88" s="21"/>
-      <c r="EA88" s="21"/>
-      <c r="EB88" s="21"/>
-      <c r="EC88" s="21"/>
-      <c r="ED88" s="28"/>
-    </row>
-    <row r="89" spans="120:134">
-      <c r="DP89" s="6"/>
-      <c r="DQ89" s="4"/>
-      <c r="DR89" s="4"/>
-      <c r="DS89" s="4"/>
-      <c r="DT89" s="4"/>
-      <c r="DU89" s="4"/>
-      <c r="DV89" s="4"/>
-      <c r="DW89" s="4"/>
-      <c r="DX89" s="4"/>
-      <c r="DY89" s="4"/>
-      <c r="DZ89" s="4"/>
-      <c r="EA89" s="4"/>
-      <c r="EB89" s="4"/>
-      <c r="EC89" s="4"/>
-      <c r="ED89" s="5"/>
-    </row>
-    <row r="90" spans="120:134">
-      <c r="DP90" s="6"/>
-      <c r="DQ90" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="DR90" s="4"/>
-      <c r="DS90" s="4"/>
-      <c r="DT90" s="4"/>
-      <c r="DU90" s="4"/>
-      <c r="DV90" s="4"/>
-      <c r="DW90" s="4"/>
-      <c r="DX90" s="4"/>
-      <c r="DY90" s="4"/>
-      <c r="DZ90" s="4"/>
-      <c r="EA90" s="4"/>
-      <c r="EB90" s="4"/>
-      <c r="EC90" s="4"/>
-      <c r="ED90" s="5"/>
-    </row>
-    <row r="91" spans="120:134">
-      <c r="DP91" s="6"/>
-      <c r="DQ91" s="4"/>
-      <c r="DR91" s="4"/>
-      <c r="DS91" s="4"/>
-      <c r="DT91" s="4"/>
-      <c r="DU91" s="4"/>
-      <c r="DV91" s="4"/>
-      <c r="DW91" s="4"/>
-      <c r="DX91" s="4"/>
-      <c r="DY91" s="4"/>
-      <c r="DZ91" s="4"/>
-      <c r="EA91" s="4"/>
-      <c r="EB91" s="4"/>
-      <c r="EC91" s="4"/>
-      <c r="ED91" s="5"/>
-    </row>
-    <row r="92" spans="120:134">
-      <c r="DP92" s="6"/>
-      <c r="DQ92" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="DR92" s="4"/>
-      <c r="DS92" s="4"/>
-      <c r="DT92" s="4"/>
-      <c r="DU92" s="4"/>
-      <c r="DV92" s="4"/>
-      <c r="DW92" s="4"/>
-      <c r="DX92" s="4"/>
-      <c r="DY92" s="4"/>
-      <c r="DZ92" s="4"/>
-      <c r="EA92" s="4"/>
-      <c r="EB92" s="4"/>
-      <c r="EC92" s="4"/>
-      <c r="ED92" s="5"/>
-    </row>
-    <row r="93" spans="120:134">
+      <c r="DR92" s="21"/>
+      <c r="DS92" s="21"/>
+      <c r="DT92" s="21"/>
+      <c r="DU92" s="21"/>
+      <c r="DV92" s="21"/>
+      <c r="DW92" s="21"/>
+      <c r="DX92" s="21"/>
+      <c r="DY92" s="21"/>
+      <c r="DZ92" s="21"/>
+      <c r="EA92" s="21"/>
+      <c r="EB92" s="21"/>
+      <c r="EC92" s="21"/>
+      <c r="ED92" s="28"/>
+    </row>
+    <row r="93" spans="95:134" x14ac:dyDescent="0.15">
       <c r="DP93" s="6"/>
       <c r="DQ93" s="4"/>
       <c r="DR93" s="4"/>
@@ -21601,10 +22596,10 @@
       <c r="EC93" s="4"/>
       <c r="ED93" s="5"/>
     </row>
-    <row r="94" spans="120:134">
+    <row r="94" spans="95:134" x14ac:dyDescent="0.15">
       <c r="DP94" s="6"/>
-      <c r="DQ94" s="88" t="s">
-        <v>156</v>
+      <c r="DQ94" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="DR94" s="4"/>
       <c r="DS94" s="4"/>
@@ -21620,7 +22615,7 @@
       <c r="EC94" s="4"/>
       <c r="ED94" s="5"/>
     </row>
-    <row r="95" spans="120:134">
+    <row r="95" spans="95:134" x14ac:dyDescent="0.15">
       <c r="DP95" s="6"/>
       <c r="DQ95" s="4"/>
       <c r="DR95" s="4"/>
@@ -21637,10 +22632,10 @@
       <c r="EC95" s="4"/>
       <c r="ED95" s="5"/>
     </row>
-    <row r="96" spans="120:134">
+    <row r="96" spans="95:134" x14ac:dyDescent="0.15">
       <c r="DP96" s="6"/>
       <c r="DQ96" s="88" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DR96" s="4"/>
       <c r="DS96" s="4"/>
@@ -21656,7 +22651,7 @@
       <c r="EC96" s="4"/>
       <c r="ED96" s="5"/>
     </row>
-    <row r="97" spans="120:134">
+    <row r="97" spans="120:134" x14ac:dyDescent="0.15">
       <c r="DP97" s="6"/>
       <c r="DQ97" s="4"/>
       <c r="DR97" s="4"/>
@@ -21673,24 +22668,26 @@
       <c r="EC97" s="4"/>
       <c r="ED97" s="5"/>
     </row>
-    <row r="98" spans="120:134" ht="18.75" customHeight="1">
+    <row r="98" spans="120:134" x14ac:dyDescent="0.15">
       <c r="DP98" s="6"/>
-      <c r="DQ98" s="2"/>
-      <c r="DR98" s="39"/>
-      <c r="DS98" s="39"/>
-      <c r="DT98" s="39"/>
-      <c r="DU98" s="39"/>
-      <c r="DV98" s="39"/>
-      <c r="DW98" s="39"/>
-      <c r="DX98" s="39"/>
-      <c r="DY98" s="39"/>
-      <c r="DZ98" s="39"/>
-      <c r="EA98" s="3"/>
+      <c r="DQ98" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="DR98" s="4"/>
+      <c r="DS98" s="4"/>
+      <c r="DT98" s="4"/>
+      <c r="DU98" s="4"/>
+      <c r="DV98" s="4"/>
+      <c r="DW98" s="4"/>
+      <c r="DX98" s="4"/>
+      <c r="DY98" s="4"/>
+      <c r="DZ98" s="4"/>
+      <c r="EA98" s="4"/>
       <c r="EB98" s="4"/>
       <c r="EC98" s="4"/>
       <c r="ED98" s="5"/>
     </row>
-    <row r="99" spans="120:134">
+    <row r="99" spans="120:134" x14ac:dyDescent="0.15">
       <c r="DP99" s="6"/>
       <c r="DQ99" s="4"/>
       <c r="DR99" s="4"/>
@@ -21707,9 +22704,11 @@
       <c r="EC99" s="4"/>
       <c r="ED99" s="5"/>
     </row>
-    <row r="100" spans="120:134">
+    <row r="100" spans="120:134" x14ac:dyDescent="0.15">
       <c r="DP100" s="6"/>
-      <c r="DQ100" s="4"/>
+      <c r="DQ100" s="88" t="s">
+        <v>157</v>
+      </c>
       <c r="DR100" s="4"/>
       <c r="DS100" s="4"/>
       <c r="DT100" s="4"/>
@@ -21724,25 +22723,93 @@
       <c r="EC100" s="4"/>
       <c r="ED100" s="5"/>
     </row>
-    <row r="101" spans="120:134">
-      <c r="DP101" s="15"/>
-      <c r="DQ101" s="16"/>
-      <c r="DR101" s="16"/>
-      <c r="DS101" s="16"/>
-      <c r="DT101" s="16"/>
-      <c r="DU101" s="16"/>
-      <c r="DV101" s="16"/>
-      <c r="DW101" s="16"/>
-      <c r="DX101" s="16"/>
-      <c r="DY101" s="16"/>
-      <c r="DZ101" s="16"/>
-      <c r="EA101" s="16"/>
-      <c r="EB101" s="16"/>
-      <c r="EC101" s="16"/>
-      <c r="ED101" s="17"/>
-    </row>
-    <row r="102" spans="120:134">
-      <c r="DQ102" s="88"/>
+    <row r="101" spans="120:134" x14ac:dyDescent="0.15">
+      <c r="DP101" s="6"/>
+      <c r="DQ101" s="4"/>
+      <c r="DR101" s="4"/>
+      <c r="DS101" s="4"/>
+      <c r="DT101" s="4"/>
+      <c r="DU101" s="4"/>
+      <c r="DV101" s="4"/>
+      <c r="DW101" s="4"/>
+      <c r="DX101" s="4"/>
+      <c r="DY101" s="4"/>
+      <c r="DZ101" s="4"/>
+      <c r="EA101" s="4"/>
+      <c r="EB101" s="4"/>
+      <c r="EC101" s="4"/>
+      <c r="ED101" s="5"/>
+    </row>
+    <row r="102" spans="120:134" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="DP102" s="6"/>
+      <c r="DQ102" s="2"/>
+      <c r="DR102" s="39"/>
+      <c r="DS102" s="39"/>
+      <c r="DT102" s="39"/>
+      <c r="DU102" s="39"/>
+      <c r="DV102" s="39"/>
+      <c r="DW102" s="39"/>
+      <c r="DX102" s="39"/>
+      <c r="DY102" s="39"/>
+      <c r="DZ102" s="39"/>
+      <c r="EA102" s="3"/>
+      <c r="EB102" s="4"/>
+      <c r="EC102" s="4"/>
+      <c r="ED102" s="5"/>
+    </row>
+    <row r="103" spans="120:134" x14ac:dyDescent="0.15">
+      <c r="DP103" s="6"/>
+      <c r="DQ103" s="4"/>
+      <c r="DR103" s="4"/>
+      <c r="DS103" s="4"/>
+      <c r="DT103" s="4"/>
+      <c r="DU103" s="4"/>
+      <c r="DV103" s="4"/>
+      <c r="DW103" s="4"/>
+      <c r="DX103" s="4"/>
+      <c r="DY103" s="4"/>
+      <c r="DZ103" s="4"/>
+      <c r="EA103" s="4"/>
+      <c r="EB103" s="4"/>
+      <c r="EC103" s="4"/>
+      <c r="ED103" s="5"/>
+    </row>
+    <row r="104" spans="120:134" x14ac:dyDescent="0.15">
+      <c r="DP104" s="6"/>
+      <c r="DQ104" s="4"/>
+      <c r="DR104" s="4"/>
+      <c r="DS104" s="4"/>
+      <c r="DT104" s="4"/>
+      <c r="DU104" s="4"/>
+      <c r="DV104" s="4"/>
+      <c r="DW104" s="4"/>
+      <c r="DX104" s="4"/>
+      <c r="DY104" s="4"/>
+      <c r="DZ104" s="4"/>
+      <c r="EA104" s="4"/>
+      <c r="EB104" s="4"/>
+      <c r="EC104" s="4"/>
+      <c r="ED104" s="5"/>
+    </row>
+    <row r="105" spans="120:134" x14ac:dyDescent="0.15">
+      <c r="DP105" s="15"/>
+      <c r="DQ105" s="16"/>
+      <c r="DR105" s="16"/>
+      <c r="DS105" s="16"/>
+      <c r="DT105" s="16"/>
+      <c r="DU105" s="16"/>
+      <c r="DV105" s="16"/>
+      <c r="DW105" s="16"/>
+      <c r="DX105" s="16"/>
+      <c r="DY105" s="16"/>
+      <c r="DZ105" s="16"/>
+      <c r="EA105" s="16"/>
+      <c r="EB105" s="16"/>
+      <c r="EC105" s="16"/>
+      <c r="ED105" s="17"/>
+    </row>
+    <row r="106" spans="120:134" x14ac:dyDescent="0.15">
+      <c r="DQ106" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -21751,15 +22818,15 @@
     <mergeCell ref="BM25:BM28"/>
     <mergeCell ref="CE35:CE38"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="7"/>
   <hyperlinks>
-    <hyperlink ref="DC69" r:id="rId1" display="Nino49a@gmail.com"/>
-    <hyperlink ref="DC70" r:id="rId2" display="Tugigroup@gmail.com"/>
-    <hyperlink ref="CS69" r:id="rId3" display="Nino49a@gmail.com"/>
-    <hyperlink ref="CS70" r:id="rId4" display="Thanhnv@gmail.com"/>
-    <hyperlink ref="CS73" r:id="rId5" display="TuyenTuyen@gmail.com"/>
-    <hyperlink ref="CS71" r:id="rId6" display="Tugigroup@gmail.com"/>
-    <hyperlink ref="CS72" r:id="rId7" display="TuyenTuyen@gmail.com"/>
+    <hyperlink ref="DC73" r:id="rId1" display="Nino49a@gmail.com"/>
+    <hyperlink ref="DC74" r:id="rId2" display="Tugigroup@gmail.com"/>
+    <hyperlink ref="CS73" r:id="rId3" display="Nino49a@gmail.com"/>
+    <hyperlink ref="CS74" r:id="rId4" display="Thanhnv@gmail.com"/>
+    <hyperlink ref="CS77" r:id="rId5" display="TuyenTuyen@gmail.com"/>
+    <hyperlink ref="CS75" r:id="rId6" display="Tugigroup@gmail.com"/>
+    <hyperlink ref="CS76" r:id="rId7" display="TuyenTuyen@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId8"/>
@@ -21767,14 +22834,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:DJ73"/>
   <sheetViews>
     <sheetView topLeftCell="AB33" workbookViewId="0">
       <selection activeCell="AF39" sqref="AF39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" style="1"/>
     <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
@@ -21826,7 +22910,7 @@
     <col min="91" max="16384" width="3.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="18.75" customHeight="1">
+    <row r="2" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
@@ -21846,7 +22930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="18.75" customHeight="1">
+    <row r="3" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H3" s="8" t="s">
         <v>5</v>
       </c>
@@ -21869,7 +22953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="18.75" customHeight="1">
+    <row r="5" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J5" s="8" t="s">
         <v>4</v>
       </c>
@@ -21877,7 +22961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="18.75" customHeight="1">
+    <row r="6" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J6" s="8" t="s">
         <v>16</v>
       </c>
@@ -21885,7 +22969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:24" ht="18.75" customHeight="1">
+    <row r="7" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J7" s="8" t="s">
         <v>17</v>
       </c>
@@ -21893,7 +22977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="18.75" customHeight="1">
+    <row r="8" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J8" s="8" t="s">
         <v>8</v>
       </c>
@@ -21901,7 +22985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="18.75" customHeight="1">
+    <row r="9" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J9" s="8" t="s">
         <v>10</v>
       </c>
@@ -21909,7 +22993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="18.75" customHeight="1">
+    <row r="10" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J10" s="8" t="s">
         <v>12</v>
       </c>
@@ -21917,7 +23001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="18.75" customHeight="1">
+    <row r="11" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J11" s="10"/>
       <c r="K11" s="8" t="s">
         <v>12</v>
@@ -21932,7 +23016,7 @@
       <c r="W11" s="21"/>
       <c r="X11" s="28"/>
     </row>
-    <row r="12" spans="2:24">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
       <c r="R12" s="6"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -21941,7 +23025,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="2:24">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
       <c r="R13" s="6" t="s">
         <v>51</v>
       </c>
@@ -21952,7 +23036,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="2:24">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
       <c r="R14" s="6" t="s">
         <v>23</v>
       </c>
@@ -21963,7 +23047,7 @@
       <c r="W14" s="4"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="2:24">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
       <c r="R15" s="6"/>
       <c r="S15" s="24" t="s">
         <v>26</v>
@@ -21978,7 +23062,7 @@
       <c r="W15" s="27"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="2:24">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
       <c r="R16" s="6"/>
       <c r="S16" s="8">
         <v>1</v>
@@ -21997,7 +23081,7 @@
       </c>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="18:67">
+    <row r="17" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R17" s="6"/>
       <c r="S17" s="8">
         <v>2</v>
@@ -22016,7 +23100,7 @@
       </c>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="18:67">
+    <row r="18" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R18" s="6"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -22025,7 +23109,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="5"/>
     </row>
-    <row r="19" spans="18:67">
+    <row r="19" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R19" s="6" t="s">
         <v>28</v>
       </c>
@@ -22036,7 +23120,7 @@
       <c r="W19" s="4"/>
       <c r="X19" s="5"/>
     </row>
-    <row r="20" spans="18:67">
+    <row r="20" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R20" s="6"/>
       <c r="S20" s="23" t="s">
         <v>31</v>
@@ -22051,7 +23135,7 @@
       <c r="W20" s="27"/>
       <c r="X20" s="5"/>
     </row>
-    <row r="21" spans="18:67">
+    <row r="21" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R21" s="6"/>
       <c r="S21" s="8">
         <v>1</v>
@@ -22070,7 +23154,7 @@
       </c>
       <c r="X21" s="5"/>
     </row>
-    <row r="22" spans="18:67">
+    <row r="22" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R22" s="6"/>
       <c r="S22" s="8">
         <v>2</v>
@@ -22089,7 +23173,7 @@
       </c>
       <c r="X22" s="5"/>
     </row>
-    <row r="23" spans="18:67">
+    <row r="23" spans="18:67" x14ac:dyDescent="0.15">
       <c r="R23" s="15"/>
       <c r="S23" s="16"/>
       <c r="T23" s="16"/>
@@ -22098,7 +23182,7 @@
       <c r="W23" s="16"/>
       <c r="X23" s="17"/>
     </row>
-    <row r="24" spans="18:67">
+    <row r="24" spans="18:67" x14ac:dyDescent="0.15">
       <c r="Z24" s="20"/>
       <c r="AA24" s="21"/>
       <c r="AB24" s="21"/>
@@ -22116,7 +23200,7 @@
       <c r="BN24" s="21"/>
       <c r="BO24" s="28"/>
     </row>
-    <row r="25" spans="18:67" ht="18" customHeight="1">
+    <row r="25" spans="18:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z25" s="6"/>
       <c r="AA25" s="22" t="s">
         <v>68</v>
@@ -22126,7 +23210,7 @@
       </c>
       <c r="AC25" s="3"/>
       <c r="AD25" s="4"/>
-      <c r="AE25" s="92" t="s">
+      <c r="AE25" s="96" t="s">
         <v>62</v>
       </c>
       <c r="AF25" s="33" t="s">
@@ -22142,7 +23226,7 @@
       </c>
       <c r="BK25" s="3"/>
       <c r="BL25" s="4"/>
-      <c r="BM25" s="92" t="s">
+      <c r="BM25" s="96" t="s">
         <v>62</v>
       </c>
       <c r="BN25" s="33" t="s">
@@ -22150,7 +23234,7 @@
       </c>
       <c r="BO25" s="5"/>
     </row>
-    <row r="26" spans="18:67" ht="18" customHeight="1">
+    <row r="26" spans="18:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z26" s="6"/>
       <c r="AA26" s="22" t="s">
         <v>67</v>
@@ -22160,7 +23244,7 @@
       </c>
       <c r="AC26" s="35"/>
       <c r="AD26" s="4"/>
-      <c r="AE26" s="93"/>
+      <c r="AE26" s="97"/>
       <c r="AF26" s="34" t="s">
         <v>72</v>
       </c>
@@ -22174,13 +23258,13 @@
       </c>
       <c r="BK26" s="35"/>
       <c r="BL26" s="4"/>
-      <c r="BM26" s="93"/>
+      <c r="BM26" s="97"/>
       <c r="BN26" s="34" t="s">
         <v>72</v>
       </c>
       <c r="BO26" s="5"/>
     </row>
-    <row r="27" spans="18:67" ht="18" customHeight="1">
+    <row r="27" spans="18:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z27" s="6"/>
       <c r="AA27" s="22" t="s">
         <v>66</v>
@@ -22190,7 +23274,7 @@
       </c>
       <c r="AC27" s="35"/>
       <c r="AD27" s="4"/>
-      <c r="AE27" s="93"/>
+      <c r="AE27" s="97"/>
       <c r="AF27" s="34"/>
       <c r="AG27" s="5"/>
       <c r="BH27" s="6"/>
@@ -22202,11 +23286,11 @@
       </c>
       <c r="BK27" s="35"/>
       <c r="BL27" s="4"/>
-      <c r="BM27" s="93"/>
+      <c r="BM27" s="97"/>
       <c r="BN27" s="34"/>
       <c r="BO27" s="5"/>
     </row>
-    <row r="28" spans="18:67" ht="18" customHeight="1">
+    <row r="28" spans="18:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z28" s="6"/>
       <c r="AA28" s="22" t="s">
         <v>65</v>
@@ -22216,7 +23300,7 @@
       </c>
       <c r="AC28" s="37"/>
       <c r="AD28" s="4"/>
-      <c r="AE28" s="94"/>
+      <c r="AE28" s="98"/>
       <c r="AF28" s="35"/>
       <c r="AG28" s="5"/>
       <c r="BH28" s="52"/>
@@ -22228,11 +23312,11 @@
       </c>
       <c r="BK28" s="37"/>
       <c r="BL28" s="4"/>
-      <c r="BM28" s="94"/>
+      <c r="BM28" s="98"/>
       <c r="BN28" s="35"/>
       <c r="BO28" s="52"/>
     </row>
-    <row r="29" spans="18:67">
+    <row r="29" spans="18:67" x14ac:dyDescent="0.15">
       <c r="Z29" s="6"/>
       <c r="AA29" s="21"/>
       <c r="AB29" s="21"/>
@@ -22250,7 +23334,7 @@
       <c r="BN29" s="21"/>
       <c r="BO29" s="5"/>
     </row>
-    <row r="30" spans="18:67" ht="18" customHeight="1">
+    <row r="30" spans="18:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z30" s="6"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
@@ -22268,7 +23352,7 @@
       <c r="BN30" s="4"/>
       <c r="BO30" s="5"/>
     </row>
-    <row r="31" spans="18:67">
+    <row r="31" spans="18:67" x14ac:dyDescent="0.15">
       <c r="Z31" s="15"/>
       <c r="AA31" s="16"/>
       <c r="AB31" s="16"/>
@@ -22286,7 +23370,7 @@
       <c r="BN31" s="16"/>
       <c r="BO31" s="17"/>
     </row>
-    <row r="33" spans="35:91">
+    <row r="33" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI33" s="20" t="s">
         <v>73</v>
       </c>
@@ -22338,7 +23422,7 @@
       <c r="CL33" s="21"/>
       <c r="CM33" s="28"/>
     </row>
-    <row r="34" spans="35:91" ht="19.5" customHeight="1">
+    <row r="34" spans="35:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI34" s="6"/>
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
@@ -22386,7 +23470,7 @@
       <c r="CL34" s="4"/>
       <c r="CM34" s="5"/>
     </row>
-    <row r="35" spans="35:91" ht="19.5" customHeight="1">
+    <row r="35" spans="35:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI35" s="6"/>
       <c r="AJ35" s="22" t="s">
         <v>22</v>
@@ -22405,7 +23489,7 @@
       <c r="AT35" s="40"/>
       <c r="AU35" s="37"/>
       <c r="AV35" s="4"/>
-      <c r="AW35" s="92" t="s">
+      <c r="AW35" s="96" t="s">
         <v>62</v>
       </c>
       <c r="AX35" s="42" t="s">
@@ -22436,7 +23520,7 @@
       <c r="CB35" s="40"/>
       <c r="CC35" s="37"/>
       <c r="CD35" s="4"/>
-      <c r="CE35" s="92" t="s">
+      <c r="CE35" s="96" t="s">
         <v>62</v>
       </c>
       <c r="CF35" s="42" t="s">
@@ -22450,7 +23534,7 @@
       <c r="CL35" s="44"/>
       <c r="CM35" s="5"/>
     </row>
-    <row r="36" spans="35:91" ht="19.5" customHeight="1">
+    <row r="36" spans="35:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI36" s="6"/>
       <c r="AJ36" s="22" t="s">
         <v>63</v>
@@ -22469,7 +23553,7 @@
       <c r="AT36" s="40"/>
       <c r="AU36" s="37"/>
       <c r="AV36" s="4"/>
-      <c r="AW36" s="93"/>
+      <c r="AW36" s="97"/>
       <c r="AX36" s="45"/>
       <c r="AY36" s="46"/>
       <c r="AZ36" s="46"/>
@@ -22496,7 +23580,7 @@
       <c r="CB36" s="40"/>
       <c r="CC36" s="37"/>
       <c r="CD36" s="4"/>
-      <c r="CE36" s="93"/>
+      <c r="CE36" s="97"/>
       <c r="CF36" s="45"/>
       <c r="CG36" s="46"/>
       <c r="CH36" s="46"/>
@@ -22506,7 +23590,7 @@
       <c r="CL36" s="41"/>
       <c r="CM36" s="5"/>
     </row>
-    <row r="37" spans="35:91" ht="19.5" customHeight="1">
+    <row r="37" spans="35:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI37" s="6"/>
       <c r="AJ37" s="22" t="s">
         <v>64</v>
@@ -22525,7 +23609,7 @@
       <c r="AT37" s="40"/>
       <c r="AU37" s="37"/>
       <c r="AV37" s="4"/>
-      <c r="AW37" s="93"/>
+      <c r="AW37" s="97"/>
       <c r="AX37" s="45"/>
       <c r="AY37" s="46"/>
       <c r="AZ37" s="46"/>
@@ -22552,7 +23636,7 @@
       <c r="CB37" s="40"/>
       <c r="CC37" s="37"/>
       <c r="CD37" s="4"/>
-      <c r="CE37" s="93"/>
+      <c r="CE37" s="97"/>
       <c r="CF37" s="45"/>
       <c r="CG37" s="46"/>
       <c r="CH37" s="46"/>
@@ -22562,7 +23646,7 @@
       <c r="CL37" s="41"/>
       <c r="CM37" s="5"/>
     </row>
-    <row r="38" spans="35:91" ht="19.5" customHeight="1">
+    <row r="38" spans="35:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI38" s="6"/>
       <c r="AJ38" s="22" t="s">
         <v>65</v>
@@ -22581,7 +23665,7 @@
       <c r="AT38" s="40"/>
       <c r="AU38" s="37"/>
       <c r="AV38" s="4"/>
-      <c r="AW38" s="94"/>
+      <c r="AW38" s="98"/>
       <c r="AX38" s="47"/>
       <c r="AY38" s="48"/>
       <c r="AZ38" s="48"/>
@@ -22608,7 +23692,7 @@
       <c r="CB38" s="40"/>
       <c r="CC38" s="37"/>
       <c r="CD38" s="4"/>
-      <c r="CE38" s="94"/>
+      <c r="CE38" s="98"/>
       <c r="CF38" s="47"/>
       <c r="CG38" s="48"/>
       <c r="CH38" s="48"/>
@@ -22618,7 +23702,7 @@
       <c r="CL38" s="49"/>
       <c r="CM38" s="5"/>
     </row>
-    <row r="39" spans="35:91">
+    <row r="39" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI39" s="6"/>
       <c r="AJ39" s="4"/>
       <c r="AK39" s="4"/>
@@ -22666,7 +23750,7 @@
       <c r="CL39" s="4"/>
       <c r="CM39" s="5"/>
     </row>
-    <row r="40" spans="35:91">
+    <row r="40" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI40" s="6"/>
       <c r="AJ40" s="4"/>
       <c r="AK40" s="4"/>
@@ -22714,7 +23798,7 @@
       <c r="CL40" s="4"/>
       <c r="CM40" s="5"/>
     </row>
-    <row r="41" spans="35:91">
+    <row r="41" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI41" s="15"/>
       <c r="AJ41" s="16"/>
       <c r="AK41" s="16"/>
@@ -22762,7 +23846,7 @@
       <c r="CL41" s="16"/>
       <c r="CM41" s="17"/>
     </row>
-    <row r="42" spans="35:91">
+    <row r="42" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI42" s="20" t="s">
         <v>74</v>
       </c>
@@ -22814,7 +23898,7 @@
       <c r="CL42" s="21"/>
       <c r="CM42" s="28"/>
     </row>
-    <row r="43" spans="35:91">
+    <row r="43" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI43" s="6"/>
       <c r="AJ43" s="4"/>
       <c r="AK43" s="4"/>
@@ -22862,7 +23946,7 @@
       <c r="CL43" s="4"/>
       <c r="CM43" s="5"/>
     </row>
-    <row r="44" spans="35:91">
+    <row r="44" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI44" s="7"/>
       <c r="AJ44" s="57" t="s">
         <v>77</v>
@@ -22918,7 +24002,7 @@
       <c r="CL44" s="58"/>
       <c r="CM44" s="59"/>
     </row>
-    <row r="45" spans="35:91">
+    <row r="45" spans="35:91" x14ac:dyDescent="0.15">
       <c r="AI45" s="52"/>
       <c r="AJ45" s="20" t="s">
         <v>75</v>
@@ -22974,7 +24058,7 @@
       <c r="CL45" s="4"/>
       <c r="CM45" s="5"/>
     </row>
-    <row r="46" spans="35:91" ht="18.75" customHeight="1">
+    <row r="46" spans="35:91" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI46" s="52"/>
       <c r="AJ46" s="50" t="s">
         <v>75</v>
@@ -23038,7 +24122,7 @@
       <c r="CL46" s="4"/>
       <c r="CM46" s="5"/>
     </row>
-    <row r="47" spans="35:91" ht="18.75" customHeight="1">
+    <row r="47" spans="35:91" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI47" s="52"/>
       <c r="AJ47" s="6"/>
       <c r="AK47" s="63"/>
@@ -23094,7 +24178,7 @@
       <c r="CL47" s="4"/>
       <c r="CM47" s="5"/>
     </row>
-    <row r="48" spans="35:91" ht="18.75" customHeight="1">
+    <row r="48" spans="35:91" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI48" s="52"/>
       <c r="AJ48" s="6"/>
       <c r="AK48" s="63"/>
@@ -23146,7 +24230,7 @@
       <c r="CL48" s="4"/>
       <c r="CM48" s="5"/>
     </row>
-    <row r="49" spans="35:114" ht="18.75" customHeight="1">
+    <row r="49" spans="35:114" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI49" s="52"/>
       <c r="AJ49" s="6"/>
       <c r="AK49" s="63"/>
@@ -23202,7 +24286,7 @@
       <c r="CL49" s="4"/>
       <c r="CM49" s="5"/>
     </row>
-    <row r="50" spans="35:114" ht="18.75" customHeight="1">
+    <row r="50" spans="35:114" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI50" s="52"/>
       <c r="AJ50" s="6"/>
       <c r="AK50" s="63"/>
@@ -23254,7 +24338,7 @@
       <c r="CL50" s="4"/>
       <c r="CM50" s="5"/>
     </row>
-    <row r="51" spans="35:114" ht="18.75" customHeight="1">
+    <row r="51" spans="35:114" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI51" s="52"/>
       <c r="AJ51" s="6"/>
       <c r="AK51" s="63"/>
@@ -23306,7 +24390,7 @@
       <c r="CL51" s="4"/>
       <c r="CM51" s="5"/>
     </row>
-    <row r="52" spans="35:114" ht="18.75" customHeight="1">
+    <row r="52" spans="35:114" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI52" s="52"/>
       <c r="AJ52" s="6"/>
       <c r="AK52" s="63"/>
@@ -23358,7 +24442,7 @@
       <c r="CL52" s="4"/>
       <c r="CM52" s="5"/>
     </row>
-    <row r="53" spans="35:114" ht="18.75" customHeight="1">
+    <row r="53" spans="35:114" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI53" s="52"/>
       <c r="AJ53" s="6"/>
       <c r="AK53" s="63"/>
@@ -23406,7 +24490,7 @@
       <c r="CL53" s="4"/>
       <c r="CM53" s="5"/>
     </row>
-    <row r="54" spans="35:114">
+    <row r="54" spans="35:114" x14ac:dyDescent="0.15">
       <c r="AI54" s="7"/>
       <c r="AJ54" s="15"/>
       <c r="AK54" s="64"/>
@@ -23454,7 +24538,7 @@
       <c r="CL54" s="16"/>
       <c r="CM54" s="17"/>
     </row>
-    <row r="55" spans="35:114">
+    <row r="55" spans="35:114" x14ac:dyDescent="0.15">
       <c r="AI55" s="20"/>
       <c r="AJ55" s="21"/>
       <c r="AK55" s="21"/>
@@ -23502,7 +24586,7 @@
       <c r="CL55" s="21"/>
       <c r="CM55" s="28"/>
     </row>
-    <row r="56" spans="35:114" ht="16.5" customHeight="1">
+    <row r="56" spans="35:114" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI56" s="15"/>
       <c r="AJ56" s="16"/>
       <c r="AK56" s="16"/>
@@ -23550,7 +24634,7 @@
       <c r="CL56" s="16"/>
       <c r="CM56" s="17"/>
     </row>
-    <row r="57" spans="35:114">
+    <row r="57" spans="35:114" x14ac:dyDescent="0.15">
       <c r="CQ57" s="20"/>
       <c r="CR57" s="21"/>
       <c r="CS57" s="21"/>
@@ -23572,7 +24656,7 @@
       <c r="DI57" s="21"/>
       <c r="DJ57" s="28"/>
     </row>
-    <row r="58" spans="35:114">
+    <row r="58" spans="35:114" x14ac:dyDescent="0.15">
       <c r="CQ58" s="6"/>
       <c r="CR58" s="4" t="s">
         <v>128</v>
@@ -23596,7 +24680,7 @@
       <c r="DI58" s="4"/>
       <c r="DJ58" s="5"/>
     </row>
-    <row r="59" spans="35:114">
+    <row r="59" spans="35:114" x14ac:dyDescent="0.15">
       <c r="CQ59" s="6"/>
       <c r="CR59" s="4" t="s">
         <v>138</v>
@@ -23620,7 +24704,7 @@
       <c r="DI59" s="4"/>
       <c r="DJ59" s="5"/>
     </row>
-    <row r="60" spans="35:114">
+    <row r="60" spans="35:114" x14ac:dyDescent="0.15">
       <c r="CQ60" s="6"/>
       <c r="CR60" s="4"/>
       <c r="CS60" s="4"/>
@@ -23642,7 +24726,7 @@
       <c r="DI60" s="4"/>
       <c r="DJ60" s="5"/>
     </row>
-    <row r="61" spans="35:114">
+    <row r="61" spans="35:114" x14ac:dyDescent="0.15">
       <c r="CQ61" s="6"/>
       <c r="CR61" s="57" t="s">
         <v>136</v>
@@ -23668,7 +24752,7 @@
       <c r="DI61" s="59"/>
       <c r="DJ61" s="5"/>
     </row>
-    <row r="62" spans="35:114">
+    <row r="62" spans="35:114" x14ac:dyDescent="0.15">
       <c r="CQ62" s="6"/>
       <c r="CR62" s="82" t="s">
         <v>132</v>
@@ -23694,7 +24778,7 @@
       <c r="DI62" s="28"/>
       <c r="DJ62" s="5"/>
     </row>
-    <row r="63" spans="35:114">
+    <row r="63" spans="35:114" x14ac:dyDescent="0.15">
       <c r="CQ63" s="6"/>
       <c r="CR63" s="83" t="s">
         <v>133</v>
@@ -23720,7 +24804,7 @@
       <c r="DI63" s="5"/>
       <c r="DJ63" s="5"/>
     </row>
-    <row r="64" spans="35:114">
+    <row r="64" spans="35:114" x14ac:dyDescent="0.15">
       <c r="CQ64" s="6"/>
       <c r="CR64" s="83" t="s">
         <v>130</v>
@@ -23744,7 +24828,7 @@
       <c r="DI64" s="5"/>
       <c r="DJ64" s="5"/>
     </row>
-    <row r="65" spans="95:114">
+    <row r="65" spans="95:114" x14ac:dyDescent="0.15">
       <c r="CQ65" s="6"/>
       <c r="CR65" s="83" t="s">
         <v>135</v>
@@ -23768,7 +24852,7 @@
       <c r="DI65" s="5"/>
       <c r="DJ65" s="5"/>
     </row>
-    <row r="66" spans="95:114">
+    <row r="66" spans="95:114" x14ac:dyDescent="0.15">
       <c r="CQ66" s="6"/>
       <c r="CR66" s="83" t="s">
         <v>134</v>
@@ -23792,7 +24876,7 @@
       <c r="DI66" s="5"/>
       <c r="DJ66" s="5"/>
     </row>
-    <row r="67" spans="95:114">
+    <row r="67" spans="95:114" x14ac:dyDescent="0.15">
       <c r="CQ67" s="6"/>
       <c r="CR67" s="79" t="s">
         <v>131</v>
@@ -23816,7 +24900,7 @@
       <c r="DI67" s="5"/>
       <c r="DJ67" s="5"/>
     </row>
-    <row r="68" spans="95:114">
+    <row r="68" spans="95:114" x14ac:dyDescent="0.15">
       <c r="CQ68" s="6"/>
       <c r="CR68" s="6"/>
       <c r="CS68" s="4"/>
@@ -23838,7 +24922,7 @@
       <c r="DI68" s="5"/>
       <c r="DJ68" s="5"/>
     </row>
-    <row r="69" spans="95:114">
+    <row r="69" spans="95:114" x14ac:dyDescent="0.15">
       <c r="CQ69" s="6"/>
       <c r="CR69" s="6"/>
       <c r="CS69" s="4"/>
@@ -23860,7 +24944,7 @@
       <c r="DI69" s="5"/>
       <c r="DJ69" s="5"/>
     </row>
-    <row r="70" spans="95:114">
+    <row r="70" spans="95:114" x14ac:dyDescent="0.15">
       <c r="CQ70" s="6"/>
       <c r="CR70" s="15"/>
       <c r="CS70" s="16"/>
@@ -23882,7 +24966,7 @@
       <c r="DI70" s="17"/>
       <c r="DJ70" s="5"/>
     </row>
-    <row r="71" spans="95:114">
+    <row r="71" spans="95:114" x14ac:dyDescent="0.15">
       <c r="CQ71" s="6"/>
       <c r="CR71" s="4"/>
       <c r="CS71" s="4"/>
@@ -23904,7 +24988,7 @@
       <c r="DI71" s="4"/>
       <c r="DJ71" s="5"/>
     </row>
-    <row r="72" spans="95:114">
+    <row r="72" spans="95:114" x14ac:dyDescent="0.15">
       <c r="CQ72" s="6"/>
       <c r="CR72" s="4"/>
       <c r="CS72" s="4"/>
@@ -23926,7 +25010,7 @@
       <c r="DI72" s="4"/>
       <c r="DJ72" s="5"/>
     </row>
-    <row r="73" spans="95:114">
+    <row r="73" spans="95:114" x14ac:dyDescent="0.15">
       <c r="CQ73" s="15"/>
       <c r="CR73" s="16"/>
       <c r="CS73" s="16"/>
@@ -23955,7 +25039,7 @@
     <mergeCell ref="AW35:AW38"/>
     <mergeCell ref="CE35:CE38"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="7"/>
   <hyperlinks>
     <hyperlink ref="DB62" r:id="rId1" display="Nino49a@gmail.com"/>
     <hyperlink ref="DB63" r:id="rId2" display="Tugigroup@gmail.com"/>
